--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>m-2019-01</t>
+  </si>
+  <si>
+    <t>m-2019-02</t>
+  </si>
+  <si>
+    <t>m-2019-03</t>
+  </si>
+  <si>
+    <t>m-2019-04</t>
+  </si>
+  <si>
+    <t>m-2019-05</t>
+  </si>
+  <si>
+    <t>m-2019-06</t>
+  </si>
+  <si>
+    <t>m-2019-07</t>
+  </si>
+  <si>
+    <t>m-2019-08</t>
+  </si>
+  <si>
+    <t>m-2019-09</t>
+  </si>
+  <si>
+    <t>m-2019-10</t>
+  </si>
+  <si>
+    <t>m-2019-11</t>
+  </si>
+  <si>
+    <t>m-2019-12</t>
+  </si>
+  <si>
+    <t>m-2020-01</t>
+  </si>
+  <si>
+    <t>m-2020-02</t>
+  </si>
+  <si>
+    <t>m-2020-03</t>
+  </si>
+  <si>
+    <t>m-2020-04</t>
+  </si>
+  <si>
+    <t>m-2020-05</t>
+  </si>
+  <si>
+    <t>m-2020-06</t>
+  </si>
+  <si>
+    <t>m-2020-07</t>
+  </si>
+  <si>
+    <t>m-2020-08</t>
+  </si>
+  <si>
+    <t>m-2020-09</t>
+  </si>
+  <si>
+    <t>m-2020-10</t>
+  </si>
+  <si>
+    <t>m-2020-11</t>
+  </si>
+  <si>
+    <t>m-2020-12</t>
+  </si>
+  <si>
+    <t>m-2021-01</t>
+  </si>
+  <si>
+    <t>m-2021-02</t>
+  </si>
+  <si>
+    <t>m-2021-03</t>
+  </si>
+  <si>
+    <t>m-2021-04</t>
+  </si>
+  <si>
+    <t>m-2021-05</t>
+  </si>
+  <si>
+    <t>m-2021-06</t>
+  </si>
+  <si>
+    <t>m-2021-07</t>
+  </si>
+  <si>
+    <t>m-2021-08</t>
+  </si>
+  <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>m-2021-10</t>
+  </si>
+  <si>
+    <t>m-2021-11</t>
+  </si>
+  <si>
+    <t>m-2021-12</t>
+  </si>
   <si>
     <t>m-2022-01</t>
   </si>
@@ -386,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -402,26 +510,242 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B2">
+        <v>6454</v>
+      </c>
+      <c r="C2">
+        <v>6499</v>
+      </c>
+      <c r="D2">
+        <v>6531</v>
+      </c>
+      <c r="E2">
+        <v>6585</v>
+      </c>
+      <c r="F2">
+        <v>6636</v>
+      </c>
+      <c r="G2">
+        <v>6684</v>
+      </c>
+      <c r="H2">
+        <v>6730</v>
+      </c>
+      <c r="I2">
+        <v>6776</v>
+      </c>
+      <c r="J2">
+        <v>6818</v>
+      </c>
+      <c r="K2">
+        <v>6850</v>
+      </c>
+      <c r="L2">
+        <v>6879</v>
+      </c>
+      <c r="M2">
+        <v>6907</v>
+      </c>
+      <c r="N2">
+        <v>6936</v>
+      </c>
+      <c r="O2">
+        <v>6962</v>
+      </c>
+      <c r="P2">
+        <v>6983</v>
+      </c>
+      <c r="Q2">
+        <v>7001</v>
+      </c>
+      <c r="R2">
+        <v>7022</v>
+      </c>
+      <c r="S2">
+        <v>7032</v>
+      </c>
+      <c r="T2">
+        <v>7039</v>
+      </c>
+      <c r="U2">
+        <v>7042</v>
+      </c>
+      <c r="V2">
+        <v>7044</v>
+      </c>
+      <c r="W2">
+        <v>7045</v>
+      </c>
+      <c r="X2">
+        <v>7047</v>
+      </c>
+      <c r="Y2">
+        <v>7050</v>
+      </c>
+      <c r="Z2">
+        <v>7052</v>
+      </c>
+      <c r="AA2">
+        <v>7054</v>
+      </c>
+      <c r="AB2">
+        <v>7056</v>
+      </c>
+      <c r="AC2">
+        <v>7056</v>
+      </c>
+      <c r="AD2">
+        <v>7025</v>
+      </c>
+      <c r="AE2">
+        <v>6992</v>
+      </c>
+      <c r="AF2">
+        <v>6942</v>
+      </c>
+      <c r="AG2">
+        <v>6908</v>
+      </c>
+      <c r="AH2">
+        <v>6872</v>
+      </c>
+      <c r="AI2">
+        <v>6847</v>
+      </c>
+      <c r="AJ2">
+        <v>6822</v>
+      </c>
+      <c r="AK2">
+        <v>6798</v>
+      </c>
+      <c r="AL2">
         <v>17904</v>
       </c>
-      <c r="C2">
+      <c r="AM2">
         <v>17901</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
         <v>1128</v>
       </c>
-      <c r="C3">
+      <c r="AM3">
         <v>1128</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -742,6 +742,114 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B3">
+        <v>919</v>
+      </c>
+      <c r="C3">
+        <v>925</v>
+      </c>
+      <c r="D3">
+        <v>932</v>
+      </c>
+      <c r="E3">
+        <v>938</v>
+      </c>
+      <c r="F3">
+        <v>943</v>
+      </c>
+      <c r="G3">
+        <v>953</v>
+      </c>
+      <c r="H3">
+        <v>962</v>
+      </c>
+      <c r="I3">
+        <v>978</v>
+      </c>
+      <c r="J3">
+        <v>982</v>
+      </c>
+      <c r="K3">
+        <v>987</v>
+      </c>
+      <c r="L3">
+        <v>991</v>
+      </c>
+      <c r="M3">
+        <v>1004</v>
+      </c>
+      <c r="N3">
+        <v>1013</v>
+      </c>
+      <c r="O3">
+        <v>1022</v>
+      </c>
+      <c r="P3">
+        <v>1033</v>
+      </c>
+      <c r="Q3">
+        <v>1038</v>
+      </c>
+      <c r="R3">
+        <v>1044</v>
+      </c>
+      <c r="S3">
+        <v>1052</v>
+      </c>
+      <c r="T3">
+        <v>1054</v>
+      </c>
+      <c r="U3">
+        <v>1066</v>
+      </c>
+      <c r="V3">
+        <v>1072</v>
+      </c>
+      <c r="W3">
+        <v>1076</v>
+      </c>
+      <c r="X3">
+        <v>1080</v>
+      </c>
+      <c r="Y3">
+        <v>1088</v>
+      </c>
+      <c r="Z3">
+        <v>1095</v>
+      </c>
+      <c r="AA3">
+        <v>1103</v>
+      </c>
+      <c r="AB3">
+        <v>1113</v>
+      </c>
+      <c r="AC3">
+        <v>1118</v>
+      </c>
+      <c r="AD3">
+        <v>1123</v>
+      </c>
+      <c r="AE3">
+        <v>1124</v>
+      </c>
+      <c r="AF3">
+        <v>1125</v>
+      </c>
+      <c r="AG3">
+        <v>1127</v>
+      </c>
+      <c r="AH3">
+        <v>1128</v>
+      </c>
+      <c r="AI3">
+        <v>1128</v>
+      </c>
+      <c r="AJ3">
+        <v>1128</v>
+      </c>
+      <c r="AK3">
+        <v>1128</v>
+      </c>
       <c r="AL3">
         <v>1128</v>
       </c>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -857,6 +872,601 @@
         <v>1128</v>
       </c>
     </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>35686</v>
+      </c>
+      <c r="C4">
+        <v>35915</v>
+      </c>
+      <c r="D4">
+        <v>36110</v>
+      </c>
+      <c r="E4">
+        <v>36280</v>
+      </c>
+      <c r="F4">
+        <v>36490</v>
+      </c>
+      <c r="G4">
+        <v>36664</v>
+      </c>
+      <c r="H4">
+        <v>36864</v>
+      </c>
+      <c r="I4">
+        <v>37170</v>
+      </c>
+      <c r="J4">
+        <v>37388</v>
+      </c>
+      <c r="K4">
+        <v>37599</v>
+      </c>
+      <c r="L4">
+        <v>37827</v>
+      </c>
+      <c r="M4">
+        <v>38023</v>
+      </c>
+      <c r="N4">
+        <v>38199</v>
+      </c>
+      <c r="O4">
+        <v>38438</v>
+      </c>
+      <c r="P4">
+        <v>38636</v>
+      </c>
+      <c r="Q4">
+        <v>38820</v>
+      </c>
+      <c r="R4">
+        <v>38990</v>
+      </c>
+      <c r="S4">
+        <v>39139</v>
+      </c>
+      <c r="T4">
+        <v>39335</v>
+      </c>
+      <c r="U4">
+        <v>39612</v>
+      </c>
+      <c r="V4">
+        <v>39823</v>
+      </c>
+      <c r="W4">
+        <v>40011</v>
+      </c>
+      <c r="X4">
+        <v>40206</v>
+      </c>
+      <c r="Y4">
+        <v>40375</v>
+      </c>
+      <c r="Z4">
+        <v>40505</v>
+      </c>
+      <c r="AA4">
+        <v>40676</v>
+      </c>
+      <c r="AB4">
+        <v>40799</v>
+      </c>
+      <c r="AC4">
+        <v>40915</v>
+      </c>
+      <c r="AD4">
+        <v>41007</v>
+      </c>
+      <c r="AE4">
+        <v>41082</v>
+      </c>
+      <c r="AF4">
+        <v>41122</v>
+      </c>
+      <c r="AG4">
+        <v>41134</v>
+      </c>
+      <c r="AH4">
+        <v>41137</v>
+      </c>
+      <c r="AI4">
+        <v>41140</v>
+      </c>
+      <c r="AJ4">
+        <v>41146</v>
+      </c>
+      <c r="AK4">
+        <v>41150</v>
+      </c>
+      <c r="AL4">
+        <v>41153</v>
+      </c>
+      <c r="AM4">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>3011</v>
+      </c>
+      <c r="C5">
+        <v>3055</v>
+      </c>
+      <c r="D5">
+        <v>3071</v>
+      </c>
+      <c r="E5">
+        <v>3101</v>
+      </c>
+      <c r="F5">
+        <v>3130</v>
+      </c>
+      <c r="G5">
+        <v>3154</v>
+      </c>
+      <c r="H5">
+        <v>3181</v>
+      </c>
+      <c r="I5">
+        <v>3219</v>
+      </c>
+      <c r="J5">
+        <v>3251</v>
+      </c>
+      <c r="K5">
+        <v>3272</v>
+      </c>
+      <c r="L5">
+        <v>3297</v>
+      </c>
+      <c r="M5">
+        <v>3317</v>
+      </c>
+      <c r="N5">
+        <v>3343</v>
+      </c>
+      <c r="O5">
+        <v>3369</v>
+      </c>
+      <c r="P5">
+        <v>3382</v>
+      </c>
+      <c r="Q5">
+        <v>3424</v>
+      </c>
+      <c r="R5">
+        <v>3447</v>
+      </c>
+      <c r="S5">
+        <v>3472</v>
+      </c>
+      <c r="T5">
+        <v>3498</v>
+      </c>
+      <c r="U5">
+        <v>3534</v>
+      </c>
+      <c r="V5">
+        <v>3547</v>
+      </c>
+      <c r="W5">
+        <v>3571</v>
+      </c>
+      <c r="X5">
+        <v>3585</v>
+      </c>
+      <c r="Y5">
+        <v>3606</v>
+      </c>
+      <c r="Z5">
+        <v>3620</v>
+      </c>
+      <c r="AA5">
+        <v>3638</v>
+      </c>
+      <c r="AB5">
+        <v>3651</v>
+      </c>
+      <c r="AC5">
+        <v>3668</v>
+      </c>
+      <c r="AD5">
+        <v>3687</v>
+      </c>
+      <c r="AE5">
+        <v>3717</v>
+      </c>
+      <c r="AF5">
+        <v>3728</v>
+      </c>
+      <c r="AG5">
+        <v>3738</v>
+      </c>
+      <c r="AH5">
+        <v>3745</v>
+      </c>
+      <c r="AI5">
+        <v>3746</v>
+      </c>
+      <c r="AJ5">
+        <v>3746</v>
+      </c>
+      <c r="AK5">
+        <v>3747</v>
+      </c>
+      <c r="AL5">
+        <v>3747</v>
+      </c>
+      <c r="AM5">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>2833</v>
+      </c>
+      <c r="C6">
+        <v>2848</v>
+      </c>
+      <c r="D6">
+        <v>2862</v>
+      </c>
+      <c r="E6">
+        <v>2876</v>
+      </c>
+      <c r="F6">
+        <v>2889</v>
+      </c>
+      <c r="G6">
+        <v>2901</v>
+      </c>
+      <c r="H6">
+        <v>2927</v>
+      </c>
+      <c r="I6">
+        <v>2942</v>
+      </c>
+      <c r="J6">
+        <v>2957</v>
+      </c>
+      <c r="K6">
+        <v>2966</v>
+      </c>
+      <c r="L6">
+        <v>2979</v>
+      </c>
+      <c r="M6">
+        <v>3001</v>
+      </c>
+      <c r="N6">
+        <v>3020</v>
+      </c>
+      <c r="O6">
+        <v>3038</v>
+      </c>
+      <c r="P6">
+        <v>3045</v>
+      </c>
+      <c r="Q6">
+        <v>3058</v>
+      </c>
+      <c r="R6">
+        <v>3061</v>
+      </c>
+      <c r="S6">
+        <v>3067</v>
+      </c>
+      <c r="T6">
+        <v>3073</v>
+      </c>
+      <c r="U6">
+        <v>3073</v>
+      </c>
+      <c r="V6">
+        <v>3073</v>
+      </c>
+      <c r="W6">
+        <v>3074</v>
+      </c>
+      <c r="X6">
+        <v>3074</v>
+      </c>
+      <c r="Y6">
+        <v>3075</v>
+      </c>
+      <c r="Z6">
+        <v>3076</v>
+      </c>
+      <c r="AA6">
+        <v>3076</v>
+      </c>
+      <c r="AB6">
+        <v>3076</v>
+      </c>
+      <c r="AC6">
+        <v>3076</v>
+      </c>
+      <c r="AD6">
+        <v>3054</v>
+      </c>
+      <c r="AE6">
+        <v>3023</v>
+      </c>
+      <c r="AF6">
+        <v>3051</v>
+      </c>
+      <c r="AG6">
+        <v>3027</v>
+      </c>
+      <c r="AH6">
+        <v>2989</v>
+      </c>
+      <c r="AI6">
+        <v>4263</v>
+      </c>
+      <c r="AJ6">
+        <v>4233</v>
+      </c>
+      <c r="AK6">
+        <v>4218</v>
+      </c>
+      <c r="AL6">
+        <v>20963</v>
+      </c>
+      <c r="AM6">
+        <v>20963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>43476</v>
+      </c>
+      <c r="C7">
+        <v>43815</v>
+      </c>
+      <c r="D7">
+        <v>44054</v>
+      </c>
+      <c r="E7">
+        <v>44280</v>
+      </c>
+      <c r="F7">
+        <v>44493</v>
+      </c>
+      <c r="G7">
+        <v>44733</v>
+      </c>
+      <c r="H7">
+        <v>44971</v>
+      </c>
+      <c r="I7">
+        <v>45365</v>
+      </c>
+      <c r="J7">
+        <v>45600</v>
+      </c>
+      <c r="K7">
+        <v>45901</v>
+      </c>
+      <c r="L7">
+        <v>46175</v>
+      </c>
+      <c r="M7">
+        <v>46402</v>
+      </c>
+      <c r="N7">
+        <v>46641</v>
+      </c>
+      <c r="O7">
+        <v>46948</v>
+      </c>
+      <c r="P7">
+        <v>47192</v>
+      </c>
+      <c r="Q7">
+        <v>47434</v>
+      </c>
+      <c r="R7">
+        <v>47636</v>
+      </c>
+      <c r="S7">
+        <v>47852</v>
+      </c>
+      <c r="T7">
+        <v>48081</v>
+      </c>
+      <c r="U7">
+        <v>48378</v>
+      </c>
+      <c r="V7">
+        <v>48583</v>
+      </c>
+      <c r="W7">
+        <v>48816</v>
+      </c>
+      <c r="X7">
+        <v>48981</v>
+      </c>
+      <c r="Y7">
+        <v>49132</v>
+      </c>
+      <c r="Z7">
+        <v>49307</v>
+      </c>
+      <c r="AA7">
+        <v>49504</v>
+      </c>
+      <c r="AB7">
+        <v>49636</v>
+      </c>
+      <c r="AC7">
+        <v>49770</v>
+      </c>
+      <c r="AD7">
+        <v>49880</v>
+      </c>
+      <c r="AE7">
+        <v>49971</v>
+      </c>
+      <c r="AF7">
+        <v>50014</v>
+      </c>
+      <c r="AG7">
+        <v>50023</v>
+      </c>
+      <c r="AH7">
+        <v>50024</v>
+      </c>
+      <c r="AI7">
+        <v>50027</v>
+      </c>
+      <c r="AJ7">
+        <v>50032</v>
+      </c>
+      <c r="AK7">
+        <v>50035</v>
+      </c>
+      <c r="AL7">
+        <v>50038</v>
+      </c>
+      <c r="AM7">
+        <v>50042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1081</v>
+      </c>
+      <c r="C8">
+        <v>1090</v>
+      </c>
+      <c r="D8">
+        <v>1098</v>
+      </c>
+      <c r="E8">
+        <v>1101</v>
+      </c>
+      <c r="F8">
+        <v>1106</v>
+      </c>
+      <c r="G8">
+        <v>1114</v>
+      </c>
+      <c r="H8">
+        <v>1118</v>
+      </c>
+      <c r="I8">
+        <v>1127</v>
+      </c>
+      <c r="J8">
+        <v>1132</v>
+      </c>
+      <c r="K8">
+        <v>1139</v>
+      </c>
+      <c r="L8">
+        <v>1144</v>
+      </c>
+      <c r="M8">
+        <v>1153</v>
+      </c>
+      <c r="N8">
+        <v>1160</v>
+      </c>
+      <c r="O8">
+        <v>1170</v>
+      </c>
+      <c r="P8">
+        <v>1177</v>
+      </c>
+      <c r="Q8">
+        <v>1181</v>
+      </c>
+      <c r="R8">
+        <v>1187</v>
+      </c>
+      <c r="S8">
+        <v>1192</v>
+      </c>
+      <c r="T8">
+        <v>1196</v>
+      </c>
+      <c r="U8">
+        <v>1204</v>
+      </c>
+      <c r="V8">
+        <v>1210</v>
+      </c>
+      <c r="W8">
+        <v>1216</v>
+      </c>
+      <c r="X8">
+        <v>1221</v>
+      </c>
+      <c r="Y8">
+        <v>1226</v>
+      </c>
+      <c r="Z8">
+        <v>1234</v>
+      </c>
+      <c r="AA8">
+        <v>1241</v>
+      </c>
+      <c r="AB8">
+        <v>1247</v>
+      </c>
+      <c r="AC8">
+        <v>1249</v>
+      </c>
+      <c r="AD8">
+        <v>1252</v>
+      </c>
+      <c r="AE8">
+        <v>1254</v>
+      </c>
+      <c r="AF8">
+        <v>1256</v>
+      </c>
+      <c r="AG8">
+        <v>1256</v>
+      </c>
+      <c r="AH8">
+        <v>1256</v>
+      </c>
+      <c r="AI8">
+        <v>1256</v>
+      </c>
+      <c r="AJ8">
+        <v>1256</v>
+      </c>
+      <c r="AK8">
+        <v>1256</v>
+      </c>
+      <c r="AL8">
+        <v>1256</v>
+      </c>
+      <c r="AM8">
+        <v>1256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>org_id</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,117 +624,236 @@
         <v>39</v>
       </c>
       <c r="B2">
+        <v>919</v>
+      </c>
+      <c r="C2">
+        <v>925</v>
+      </c>
+      <c r="D2">
+        <v>932</v>
+      </c>
+      <c r="E2">
+        <v>938</v>
+      </c>
+      <c r="F2">
+        <v>943</v>
+      </c>
+      <c r="G2">
+        <v>953</v>
+      </c>
+      <c r="H2">
+        <v>962</v>
+      </c>
+      <c r="I2">
+        <v>978</v>
+      </c>
+      <c r="J2">
+        <v>982</v>
+      </c>
+      <c r="K2">
+        <v>987</v>
+      </c>
+      <c r="L2">
+        <v>991</v>
+      </c>
+      <c r="M2">
+        <v>1004</v>
+      </c>
+      <c r="N2">
+        <v>1013</v>
+      </c>
+      <c r="O2">
+        <v>1022</v>
+      </c>
+      <c r="P2">
+        <v>1033</v>
+      </c>
+      <c r="Q2">
+        <v>1038</v>
+      </c>
+      <c r="R2">
+        <v>1044</v>
+      </c>
+      <c r="S2">
+        <v>1052</v>
+      </c>
+      <c r="T2">
+        <v>1054</v>
+      </c>
+      <c r="U2">
+        <v>1066</v>
+      </c>
+      <c r="V2">
+        <v>1072</v>
+      </c>
+      <c r="W2">
+        <v>1076</v>
+      </c>
+      <c r="X2">
+        <v>1080</v>
+      </c>
+      <c r="Y2">
+        <v>1088</v>
+      </c>
+      <c r="Z2">
+        <v>1095</v>
+      </c>
+      <c r="AA2">
+        <v>1103</v>
+      </c>
+      <c r="AB2">
+        <v>1113</v>
+      </c>
+      <c r="AC2">
+        <v>1118</v>
+      </c>
+      <c r="AD2">
+        <v>1123</v>
+      </c>
+      <c r="AE2">
+        <v>1124</v>
+      </c>
+      <c r="AF2">
+        <v>1125</v>
+      </c>
+      <c r="AG2">
+        <v>1127</v>
+      </c>
+      <c r="AH2">
+        <v>1128</v>
+      </c>
+      <c r="AI2">
+        <v>1128</v>
+      </c>
+      <c r="AJ2">
+        <v>1128</v>
+      </c>
+      <c r="AK2">
+        <v>1128</v>
+      </c>
+      <c r="AL2">
+        <v>1128</v>
+      </c>
+      <c r="AM2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>2800</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2815</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2829</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2843</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2856</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2868</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2894</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>2909</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>2924</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>2933</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>2946</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2968</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>2987</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>3002</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>3009</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>3022</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>3025</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>3031</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>3037</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>3037</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>3037</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>3038</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>3038</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>3039</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>3040</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>3040</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>3040</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>3040</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>3018</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>2987</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>3012</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>2988</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>2950</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>4224</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>4194</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>4179</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>20963</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>20963</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>org_id</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,236 +621,117 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>919</v>
+        <v>2800</v>
       </c>
       <c r="C2">
-        <v>925</v>
+        <v>2815</v>
       </c>
       <c r="D2">
-        <v>932</v>
+        <v>2829</v>
       </c>
       <c r="E2">
-        <v>938</v>
+        <v>2843</v>
       </c>
       <c r="F2">
-        <v>943</v>
+        <v>2856</v>
       </c>
       <c r="G2">
-        <v>953</v>
+        <v>2868</v>
       </c>
       <c r="H2">
-        <v>962</v>
+        <v>2894</v>
       </c>
       <c r="I2">
-        <v>978</v>
+        <v>2909</v>
       </c>
       <c r="J2">
-        <v>982</v>
+        <v>2924</v>
       </c>
       <c r="K2">
-        <v>987</v>
+        <v>2933</v>
       </c>
       <c r="L2">
-        <v>991</v>
+        <v>2946</v>
       </c>
       <c r="M2">
-        <v>1004</v>
+        <v>2968</v>
       </c>
       <c r="N2">
-        <v>1013</v>
+        <v>2987</v>
       </c>
       <c r="O2">
-        <v>1022</v>
+        <v>3002</v>
       </c>
       <c r="P2">
-        <v>1033</v>
+        <v>3009</v>
       </c>
       <c r="Q2">
-        <v>1038</v>
+        <v>3022</v>
       </c>
       <c r="R2">
-        <v>1044</v>
+        <v>3025</v>
       </c>
       <c r="S2">
-        <v>1052</v>
+        <v>3031</v>
       </c>
       <c r="T2">
-        <v>1054</v>
+        <v>3037</v>
       </c>
       <c r="U2">
-        <v>1066</v>
+        <v>3037</v>
       </c>
       <c r="V2">
-        <v>1072</v>
+        <v>3037</v>
       </c>
       <c r="W2">
-        <v>1076</v>
+        <v>3038</v>
       </c>
       <c r="X2">
-        <v>1080</v>
+        <v>3038</v>
       </c>
       <c r="Y2">
-        <v>1088</v>
+        <v>3039</v>
       </c>
       <c r="Z2">
-        <v>1095</v>
+        <v>3040</v>
       </c>
       <c r="AA2">
-        <v>1103</v>
+        <v>3040</v>
       </c>
       <c r="AB2">
-        <v>1113</v>
+        <v>3040</v>
       </c>
       <c r="AC2">
-        <v>1118</v>
+        <v>3040</v>
       </c>
       <c r="AD2">
-        <v>1123</v>
+        <v>3018</v>
       </c>
       <c r="AE2">
-        <v>1124</v>
+        <v>2987</v>
       </c>
       <c r="AF2">
-        <v>1125</v>
+        <v>3012</v>
       </c>
       <c r="AG2">
-        <v>1127</v>
+        <v>2988</v>
       </c>
       <c r="AH2">
-        <v>1128</v>
+        <v>2950</v>
       </c>
       <c r="AI2">
-        <v>1128</v>
+        <v>4224</v>
       </c>
       <c r="AJ2">
-        <v>1128</v>
+        <v>4194</v>
       </c>
       <c r="AK2">
-        <v>1128</v>
+        <v>4179</v>
       </c>
       <c r="AL2">
-        <v>1128</v>
+        <v>20963</v>
       </c>
       <c r="AM2">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>2800</v>
-      </c>
-      <c r="C3">
-        <v>2815</v>
-      </c>
-      <c r="D3">
-        <v>2829</v>
-      </c>
-      <c r="E3">
-        <v>2843</v>
-      </c>
-      <c r="F3">
-        <v>2856</v>
-      </c>
-      <c r="G3">
-        <v>2868</v>
-      </c>
-      <c r="H3">
-        <v>2894</v>
-      </c>
-      <c r="I3">
-        <v>2909</v>
-      </c>
-      <c r="J3">
-        <v>2924</v>
-      </c>
-      <c r="K3">
-        <v>2933</v>
-      </c>
-      <c r="L3">
-        <v>2946</v>
-      </c>
-      <c r="M3">
-        <v>2968</v>
-      </c>
-      <c r="N3">
-        <v>2987</v>
-      </c>
-      <c r="O3">
-        <v>3002</v>
-      </c>
-      <c r="P3">
-        <v>3009</v>
-      </c>
-      <c r="Q3">
-        <v>3022</v>
-      </c>
-      <c r="R3">
-        <v>3025</v>
-      </c>
-      <c r="S3">
-        <v>3031</v>
-      </c>
-      <c r="T3">
-        <v>3037</v>
-      </c>
-      <c r="U3">
-        <v>3037</v>
-      </c>
-      <c r="V3">
-        <v>3037</v>
-      </c>
-      <c r="W3">
-        <v>3038</v>
-      </c>
-      <c r="X3">
-        <v>3038</v>
-      </c>
-      <c r="Y3">
-        <v>3039</v>
-      </c>
-      <c r="Z3">
-        <v>3040</v>
-      </c>
-      <c r="AA3">
-        <v>3040</v>
-      </c>
-      <c r="AB3">
-        <v>3040</v>
-      </c>
-      <c r="AC3">
-        <v>3040</v>
-      </c>
-      <c r="AD3">
-        <v>3018</v>
-      </c>
-      <c r="AE3">
-        <v>2987</v>
-      </c>
-      <c r="AF3">
-        <v>3012</v>
-      </c>
-      <c r="AG3">
-        <v>2988</v>
-      </c>
-      <c r="AH3">
-        <v>2950</v>
-      </c>
-      <c r="AI3">
-        <v>4224</v>
-      </c>
-      <c r="AJ3">
-        <v>4194</v>
-      </c>
-      <c r="AK3">
-        <v>4179</v>
-      </c>
-      <c r="AL3">
-        <v>20963</v>
-      </c>
-      <c r="AM3">
         <v>20963</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>org_id</t>
+  </si>
+  <si>
+    <t>ADAUGEOPI</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,117 +624,236 @@
         <v>39</v>
       </c>
       <c r="B2">
+        <v>6454</v>
+      </c>
+      <c r="C2">
+        <v>6499</v>
+      </c>
+      <c r="D2">
+        <v>6531</v>
+      </c>
+      <c r="E2">
+        <v>6585</v>
+      </c>
+      <c r="F2">
+        <v>6636</v>
+      </c>
+      <c r="G2">
+        <v>6684</v>
+      </c>
+      <c r="H2">
+        <v>6730</v>
+      </c>
+      <c r="I2">
+        <v>6776</v>
+      </c>
+      <c r="J2">
+        <v>6818</v>
+      </c>
+      <c r="K2">
+        <v>6850</v>
+      </c>
+      <c r="L2">
+        <v>6879</v>
+      </c>
+      <c r="M2">
+        <v>6907</v>
+      </c>
+      <c r="N2">
+        <v>6936</v>
+      </c>
+      <c r="O2">
+        <v>6962</v>
+      </c>
+      <c r="P2">
+        <v>6983</v>
+      </c>
+      <c r="Q2">
+        <v>7001</v>
+      </c>
+      <c r="R2">
+        <v>7022</v>
+      </c>
+      <c r="S2">
+        <v>7032</v>
+      </c>
+      <c r="T2">
+        <v>7039</v>
+      </c>
+      <c r="U2">
+        <v>7042</v>
+      </c>
+      <c r="V2">
+        <v>7044</v>
+      </c>
+      <c r="W2">
+        <v>7045</v>
+      </c>
+      <c r="X2">
+        <v>7047</v>
+      </c>
+      <c r="Y2">
+        <v>7050</v>
+      </c>
+      <c r="Z2">
+        <v>7052</v>
+      </c>
+      <c r="AA2">
+        <v>7054</v>
+      </c>
+      <c r="AB2">
+        <v>7056</v>
+      </c>
+      <c r="AC2">
+        <v>7056</v>
+      </c>
+      <c r="AD2">
+        <v>7025</v>
+      </c>
+      <c r="AE2">
+        <v>6992</v>
+      </c>
+      <c r="AF2">
+        <v>6942</v>
+      </c>
+      <c r="AG2">
+        <v>6908</v>
+      </c>
+      <c r="AH2">
+        <v>6872</v>
+      </c>
+      <c r="AI2">
+        <v>6847</v>
+      </c>
+      <c r="AJ2">
+        <v>6822</v>
+      </c>
+      <c r="AK2">
+        <v>6798</v>
+      </c>
+      <c r="AL2">
+        <v>17904</v>
+      </c>
+      <c r="AM2">
+        <v>17901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>2800</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2815</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2829</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2843</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2856</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2868</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2894</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>2909</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>2924</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>2933</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>2946</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2968</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>2987</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>3002</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>3009</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>3022</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>3025</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>3031</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>3037</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>3037</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>3037</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>3038</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>3038</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>3039</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>3040</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>3040</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>3040</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>3040</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>3018</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>2987</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>3012</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>2988</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>2950</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>4224</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>4194</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>4179</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>20963</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>20963</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,7 +136,22 @@
     <t>ADAUGEOPI</t>
   </si>
   <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
     <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,118 +758,713 @@
         <v>40</v>
       </c>
       <c r="B3">
+        <v>919</v>
+      </c>
+      <c r="C3">
+        <v>925</v>
+      </c>
+      <c r="D3">
+        <v>932</v>
+      </c>
+      <c r="E3">
+        <v>938</v>
+      </c>
+      <c r="F3">
+        <v>943</v>
+      </c>
+      <c r="G3">
+        <v>953</v>
+      </c>
+      <c r="H3">
+        <v>962</v>
+      </c>
+      <c r="I3">
+        <v>978</v>
+      </c>
+      <c r="J3">
+        <v>982</v>
+      </c>
+      <c r="K3">
+        <v>987</v>
+      </c>
+      <c r="L3">
+        <v>991</v>
+      </c>
+      <c r="M3">
+        <v>1004</v>
+      </c>
+      <c r="N3">
+        <v>1013</v>
+      </c>
+      <c r="O3">
+        <v>1022</v>
+      </c>
+      <c r="P3">
+        <v>1033</v>
+      </c>
+      <c r="Q3">
+        <v>1038</v>
+      </c>
+      <c r="R3">
+        <v>1044</v>
+      </c>
+      <c r="S3">
+        <v>1052</v>
+      </c>
+      <c r="T3">
+        <v>1054</v>
+      </c>
+      <c r="U3">
+        <v>1066</v>
+      </c>
+      <c r="V3">
+        <v>1072</v>
+      </c>
+      <c r="W3">
+        <v>1076</v>
+      </c>
+      <c r="X3">
+        <v>1080</v>
+      </c>
+      <c r="Y3">
+        <v>1088</v>
+      </c>
+      <c r="Z3">
+        <v>1095</v>
+      </c>
+      <c r="AA3">
+        <v>1103</v>
+      </c>
+      <c r="AB3">
+        <v>1113</v>
+      </c>
+      <c r="AC3">
+        <v>1118</v>
+      </c>
+      <c r="AD3">
+        <v>1123</v>
+      </c>
+      <c r="AE3">
+        <v>1124</v>
+      </c>
+      <c r="AF3">
+        <v>1125</v>
+      </c>
+      <c r="AG3">
+        <v>1127</v>
+      </c>
+      <c r="AH3">
+        <v>1128</v>
+      </c>
+      <c r="AI3">
+        <v>1128</v>
+      </c>
+      <c r="AJ3">
+        <v>1128</v>
+      </c>
+      <c r="AK3">
+        <v>1128</v>
+      </c>
+      <c r="AL3">
+        <v>1128</v>
+      </c>
+      <c r="AM3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>35686</v>
+      </c>
+      <c r="C4">
+        <v>35915</v>
+      </c>
+      <c r="D4">
+        <v>36110</v>
+      </c>
+      <c r="E4">
+        <v>36280</v>
+      </c>
+      <c r="F4">
+        <v>36490</v>
+      </c>
+      <c r="G4">
+        <v>36664</v>
+      </c>
+      <c r="H4">
+        <v>36864</v>
+      </c>
+      <c r="I4">
+        <v>37170</v>
+      </c>
+      <c r="J4">
+        <v>37388</v>
+      </c>
+      <c r="K4">
+        <v>37599</v>
+      </c>
+      <c r="L4">
+        <v>37827</v>
+      </c>
+      <c r="M4">
+        <v>38023</v>
+      </c>
+      <c r="N4">
+        <v>38199</v>
+      </c>
+      <c r="O4">
+        <v>38438</v>
+      </c>
+      <c r="P4">
+        <v>38636</v>
+      </c>
+      <c r="Q4">
+        <v>38820</v>
+      </c>
+      <c r="R4">
+        <v>38990</v>
+      </c>
+      <c r="S4">
+        <v>39139</v>
+      </c>
+      <c r="T4">
+        <v>39335</v>
+      </c>
+      <c r="U4">
+        <v>39612</v>
+      </c>
+      <c r="V4">
+        <v>39823</v>
+      </c>
+      <c r="W4">
+        <v>40011</v>
+      </c>
+      <c r="X4">
+        <v>40206</v>
+      </c>
+      <c r="Y4">
+        <v>40375</v>
+      </c>
+      <c r="Z4">
+        <v>40505</v>
+      </c>
+      <c r="AA4">
+        <v>40676</v>
+      </c>
+      <c r="AB4">
+        <v>40799</v>
+      </c>
+      <c r="AC4">
+        <v>40915</v>
+      </c>
+      <c r="AD4">
+        <v>41007</v>
+      </c>
+      <c r="AE4">
+        <v>41082</v>
+      </c>
+      <c r="AF4">
+        <v>41122</v>
+      </c>
+      <c r="AG4">
+        <v>41134</v>
+      </c>
+      <c r="AH4">
+        <v>41137</v>
+      </c>
+      <c r="AI4">
+        <v>41140</v>
+      </c>
+      <c r="AJ4">
+        <v>41146</v>
+      </c>
+      <c r="AK4">
+        <v>41150</v>
+      </c>
+      <c r="AL4">
+        <v>41153</v>
+      </c>
+      <c r="AM4">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>3011</v>
+      </c>
+      <c r="C5">
+        <v>3055</v>
+      </c>
+      <c r="D5">
+        <v>3071</v>
+      </c>
+      <c r="E5">
+        <v>3101</v>
+      </c>
+      <c r="F5">
+        <v>3130</v>
+      </c>
+      <c r="G5">
+        <v>3154</v>
+      </c>
+      <c r="H5">
+        <v>3181</v>
+      </c>
+      <c r="I5">
+        <v>3219</v>
+      </c>
+      <c r="J5">
+        <v>3251</v>
+      </c>
+      <c r="K5">
+        <v>3272</v>
+      </c>
+      <c r="L5">
+        <v>3297</v>
+      </c>
+      <c r="M5">
+        <v>3317</v>
+      </c>
+      <c r="N5">
+        <v>3343</v>
+      </c>
+      <c r="O5">
+        <v>3369</v>
+      </c>
+      <c r="P5">
+        <v>3382</v>
+      </c>
+      <c r="Q5">
+        <v>3424</v>
+      </c>
+      <c r="R5">
+        <v>3447</v>
+      </c>
+      <c r="S5">
+        <v>3472</v>
+      </c>
+      <c r="T5">
+        <v>3498</v>
+      </c>
+      <c r="U5">
+        <v>3534</v>
+      </c>
+      <c r="V5">
+        <v>3547</v>
+      </c>
+      <c r="W5">
+        <v>3571</v>
+      </c>
+      <c r="X5">
+        <v>3585</v>
+      </c>
+      <c r="Y5">
+        <v>3606</v>
+      </c>
+      <c r="Z5">
+        <v>3620</v>
+      </c>
+      <c r="AA5">
+        <v>3638</v>
+      </c>
+      <c r="AB5">
+        <v>3651</v>
+      </c>
+      <c r="AC5">
+        <v>3668</v>
+      </c>
+      <c r="AD5">
+        <v>3687</v>
+      </c>
+      <c r="AE5">
+        <v>3717</v>
+      </c>
+      <c r="AF5">
+        <v>3728</v>
+      </c>
+      <c r="AG5">
+        <v>3738</v>
+      </c>
+      <c r="AH5">
+        <v>3745</v>
+      </c>
+      <c r="AI5">
+        <v>3746</v>
+      </c>
+      <c r="AJ5">
+        <v>3746</v>
+      </c>
+      <c r="AK5">
+        <v>3747</v>
+      </c>
+      <c r="AL5">
+        <v>3747</v>
+      </c>
+      <c r="AM5">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
         <v>2800</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>2815</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>2829</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>2843</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>2856</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>2868</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>2894</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>2909</v>
       </c>
-      <c r="J3">
+      <c r="J6">
         <v>2924</v>
       </c>
-      <c r="K3">
+      <c r="K6">
         <v>2933</v>
       </c>
-      <c r="L3">
+      <c r="L6">
         <v>2946</v>
       </c>
-      <c r="M3">
+      <c r="M6">
         <v>2968</v>
       </c>
-      <c r="N3">
+      <c r="N6">
         <v>2987</v>
       </c>
-      <c r="O3">
+      <c r="O6">
         <v>3002</v>
       </c>
-      <c r="P3">
+      <c r="P6">
         <v>3009</v>
       </c>
-      <c r="Q3">
+      <c r="Q6">
         <v>3022</v>
       </c>
-      <c r="R3">
+      <c r="R6">
         <v>3025</v>
       </c>
-      <c r="S3">
+      <c r="S6">
         <v>3031</v>
       </c>
-      <c r="T3">
+      <c r="T6">
         <v>3037</v>
       </c>
-      <c r="U3">
+      <c r="U6">
         <v>3037</v>
       </c>
-      <c r="V3">
+      <c r="V6">
         <v>3037</v>
       </c>
-      <c r="W3">
+      <c r="W6">
         <v>3038</v>
       </c>
-      <c r="X3">
+      <c r="X6">
         <v>3038</v>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <v>3039</v>
       </c>
-      <c r="Z3">
+      <c r="Z6">
         <v>3040</v>
       </c>
-      <c r="AA3">
+      <c r="AA6">
         <v>3040</v>
       </c>
-      <c r="AB3">
+      <c r="AB6">
         <v>3040</v>
       </c>
-      <c r="AC3">
+      <c r="AC6">
         <v>3040</v>
       </c>
-      <c r="AD3">
+      <c r="AD6">
         <v>3018</v>
       </c>
-      <c r="AE3">
+      <c r="AE6">
         <v>2987</v>
       </c>
-      <c r="AF3">
+      <c r="AF6">
         <v>3012</v>
       </c>
-      <c r="AG3">
+      <c r="AG6">
         <v>2988</v>
       </c>
-      <c r="AH3">
+      <c r="AH6">
         <v>2950</v>
       </c>
-      <c r="AI3">
+      <c r="AI6">
         <v>4224</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ6">
         <v>4194</v>
       </c>
-      <c r="AK3">
+      <c r="AK6">
         <v>4179</v>
       </c>
-      <c r="AL3">
+      <c r="AL6">
         <v>20963</v>
       </c>
-      <c r="AM3">
+      <c r="AM6">
         <v>20963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>43476</v>
+      </c>
+      <c r="C7">
+        <v>43815</v>
+      </c>
+      <c r="D7">
+        <v>44054</v>
+      </c>
+      <c r="E7">
+        <v>44280</v>
+      </c>
+      <c r="F7">
+        <v>44493</v>
+      </c>
+      <c r="G7">
+        <v>44733</v>
+      </c>
+      <c r="H7">
+        <v>44971</v>
+      </c>
+      <c r="I7">
+        <v>45365</v>
+      </c>
+      <c r="J7">
+        <v>45600</v>
+      </c>
+      <c r="K7">
+        <v>45901</v>
+      </c>
+      <c r="L7">
+        <v>46175</v>
+      </c>
+      <c r="M7">
+        <v>46402</v>
+      </c>
+      <c r="N7">
+        <v>46641</v>
+      </c>
+      <c r="O7">
+        <v>46948</v>
+      </c>
+      <c r="P7">
+        <v>47192</v>
+      </c>
+      <c r="Q7">
+        <v>47434</v>
+      </c>
+      <c r="R7">
+        <v>47636</v>
+      </c>
+      <c r="S7">
+        <v>47852</v>
+      </c>
+      <c r="T7">
+        <v>48081</v>
+      </c>
+      <c r="U7">
+        <v>48378</v>
+      </c>
+      <c r="V7">
+        <v>48583</v>
+      </c>
+      <c r="W7">
+        <v>48816</v>
+      </c>
+      <c r="X7">
+        <v>48981</v>
+      </c>
+      <c r="Y7">
+        <v>49132</v>
+      </c>
+      <c r="Z7">
+        <v>49307</v>
+      </c>
+      <c r="AA7">
+        <v>49504</v>
+      </c>
+      <c r="AB7">
+        <v>49636</v>
+      </c>
+      <c r="AC7">
+        <v>49770</v>
+      </c>
+      <c r="AD7">
+        <v>49880</v>
+      </c>
+      <c r="AE7">
+        <v>49971</v>
+      </c>
+      <c r="AF7">
+        <v>50014</v>
+      </c>
+      <c r="AG7">
+        <v>50023</v>
+      </c>
+      <c r="AH7">
+        <v>50024</v>
+      </c>
+      <c r="AI7">
+        <v>50027</v>
+      </c>
+      <c r="AJ7">
+        <v>50032</v>
+      </c>
+      <c r="AK7">
+        <v>50035</v>
+      </c>
+      <c r="AL7">
+        <v>50038</v>
+      </c>
+      <c r="AM7">
+        <v>50042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1081</v>
+      </c>
+      <c r="C8">
+        <v>1090</v>
+      </c>
+      <c r="D8">
+        <v>1098</v>
+      </c>
+      <c r="E8">
+        <v>1101</v>
+      </c>
+      <c r="F8">
+        <v>1106</v>
+      </c>
+      <c r="G8">
+        <v>1114</v>
+      </c>
+      <c r="H8">
+        <v>1118</v>
+      </c>
+      <c r="I8">
+        <v>1127</v>
+      </c>
+      <c r="J8">
+        <v>1132</v>
+      </c>
+      <c r="K8">
+        <v>1139</v>
+      </c>
+      <c r="L8">
+        <v>1144</v>
+      </c>
+      <c r="M8">
+        <v>1153</v>
+      </c>
+      <c r="N8">
+        <v>1160</v>
+      </c>
+      <c r="O8">
+        <v>1170</v>
+      </c>
+      <c r="P8">
+        <v>1177</v>
+      </c>
+      <c r="Q8">
+        <v>1181</v>
+      </c>
+      <c r="R8">
+        <v>1187</v>
+      </c>
+      <c r="S8">
+        <v>1192</v>
+      </c>
+      <c r="T8">
+        <v>1196</v>
+      </c>
+      <c r="U8">
+        <v>1204</v>
+      </c>
+      <c r="V8">
+        <v>1210</v>
+      </c>
+      <c r="W8">
+        <v>1216</v>
+      </c>
+      <c r="X8">
+        <v>1221</v>
+      </c>
+      <c r="Y8">
+        <v>1226</v>
+      </c>
+      <c r="Z8">
+        <v>1234</v>
+      </c>
+      <c r="AA8">
+        <v>1241</v>
+      </c>
+      <c r="AB8">
+        <v>1247</v>
+      </c>
+      <c r="AC8">
+        <v>1249</v>
+      </c>
+      <c r="AD8">
+        <v>1252</v>
+      </c>
+      <c r="AE8">
+        <v>1254</v>
+      </c>
+      <c r="AF8">
+        <v>1256</v>
+      </c>
+      <c r="AG8">
+        <v>1256</v>
+      </c>
+      <c r="AH8">
+        <v>1256</v>
+      </c>
+      <c r="AI8">
+        <v>1256</v>
+      </c>
+      <c r="AJ8">
+        <v>1256</v>
+      </c>
+      <c r="AK8">
+        <v>1256</v>
+      </c>
+      <c r="AL8">
+        <v>1256</v>
+      </c>
+      <c r="AM8">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -130,28 +130,58 @@
     <t>m-2022-02</t>
   </si>
   <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -509,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,838 +663,1942 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6454</v>
+        <v>7408</v>
       </c>
       <c r="C2">
-        <v>6499</v>
+        <v>7408</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7408</v>
       </c>
       <c r="E2">
-        <v>6585</v>
+        <v>7408</v>
       </c>
       <c r="F2">
-        <v>6636</v>
+        <v>7408</v>
       </c>
       <c r="G2">
-        <v>6684</v>
+        <v>7408</v>
       </c>
       <c r="H2">
-        <v>6730</v>
+        <v>7806</v>
       </c>
       <c r="I2">
-        <v>6776</v>
+        <v>7806</v>
       </c>
       <c r="J2">
-        <v>6818</v>
+        <v>7806</v>
       </c>
       <c r="K2">
-        <v>6850</v>
+        <v>7302</v>
       </c>
       <c r="L2">
-        <v>6879</v>
+        <v>7302</v>
       </c>
       <c r="M2">
-        <v>6907</v>
+        <v>7302</v>
       </c>
       <c r="N2">
-        <v>6936</v>
+        <v>7418</v>
       </c>
       <c r="O2">
-        <v>6962</v>
+        <v>7418</v>
       </c>
       <c r="P2">
-        <v>6983</v>
+        <v>7418</v>
       </c>
       <c r="Q2">
-        <v>7001</v>
+        <v>6967</v>
       </c>
       <c r="R2">
-        <v>7022</v>
+        <v>6967</v>
       </c>
       <c r="S2">
-        <v>7032</v>
+        <v>6967</v>
       </c>
       <c r="T2">
-        <v>7039</v>
+        <v>6911</v>
       </c>
       <c r="U2">
-        <v>7042</v>
+        <v>6911</v>
       </c>
       <c r="V2">
-        <v>7044</v>
+        <v>6911</v>
       </c>
       <c r="W2">
-        <v>7045</v>
+        <v>6885</v>
       </c>
       <c r="X2">
-        <v>7047</v>
+        <v>6885</v>
       </c>
       <c r="Y2">
-        <v>7050</v>
+        <v>6885</v>
       </c>
       <c r="Z2">
-        <v>7052</v>
+        <v>7093</v>
       </c>
       <c r="AA2">
-        <v>7054</v>
+        <v>7093</v>
       </c>
       <c r="AB2">
-        <v>7056</v>
+        <v>7093</v>
       </c>
       <c r="AC2">
-        <v>7056</v>
+        <v>6977</v>
       </c>
       <c r="AD2">
-        <v>7025</v>
+        <v>6977</v>
       </c>
       <c r="AE2">
-        <v>6992</v>
+        <v>6977</v>
       </c>
       <c r="AF2">
-        <v>6942</v>
+        <v>6859</v>
       </c>
       <c r="AG2">
-        <v>6908</v>
+        <v>6859</v>
       </c>
       <c r="AH2">
-        <v>6872</v>
+        <v>6859</v>
       </c>
       <c r="AI2">
-        <v>6847</v>
+        <v>6810</v>
       </c>
       <c r="AJ2">
-        <v>6822</v>
+        <v>6810</v>
       </c>
       <c r="AK2">
-        <v>6798</v>
+        <v>6810</v>
       </c>
       <c r="AL2">
-        <v>17904</v>
+        <v>6810</v>
       </c>
       <c r="AM2">
-        <v>17901</v>
+        <v>6810</v>
+      </c>
+      <c r="AN2">
+        <v>6810</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>919</v>
+        <v>90218</v>
       </c>
       <c r="C3">
-        <v>925</v>
+        <v>90218</v>
       </c>
       <c r="D3">
-        <v>932</v>
+        <v>90116</v>
       </c>
       <c r="E3">
-        <v>938</v>
+        <v>91473</v>
       </c>
       <c r="F3">
-        <v>943</v>
+        <v>91473</v>
       </c>
       <c r="G3">
-        <v>953</v>
+        <v>91340</v>
       </c>
       <c r="H3">
-        <v>962</v>
+        <v>91864</v>
       </c>
       <c r="I3">
-        <v>978</v>
+        <v>91864</v>
       </c>
       <c r="J3">
-        <v>982</v>
+        <v>91768</v>
       </c>
       <c r="K3">
-        <v>987</v>
+        <v>92671</v>
       </c>
       <c r="L3">
-        <v>991</v>
+        <v>92671</v>
       </c>
       <c r="M3">
-        <v>1004</v>
+        <v>92416</v>
       </c>
       <c r="N3">
-        <v>1013</v>
+        <v>76180</v>
       </c>
       <c r="O3">
-        <v>1022</v>
+        <v>76180</v>
       </c>
       <c r="P3">
-        <v>1033</v>
+        <v>76114</v>
       </c>
       <c r="Q3">
-        <v>1038</v>
+        <v>74409</v>
       </c>
       <c r="R3">
-        <v>1044</v>
+        <v>74409</v>
       </c>
       <c r="S3">
-        <v>1052</v>
+        <v>74357</v>
       </c>
       <c r="T3">
-        <v>1054</v>
+        <v>74631</v>
       </c>
       <c r="U3">
-        <v>1066</v>
+        <v>74631</v>
       </c>
       <c r="V3">
-        <v>1072</v>
+        <v>74583</v>
       </c>
       <c r="W3">
-        <v>1076</v>
+        <v>75143</v>
       </c>
       <c r="X3">
-        <v>1080</v>
+        <v>75143</v>
       </c>
       <c r="Y3">
-        <v>1088</v>
+        <v>75043</v>
       </c>
       <c r="Z3">
-        <v>1095</v>
+        <v>71528</v>
       </c>
       <c r="AA3">
-        <v>1103</v>
+        <v>71528</v>
       </c>
       <c r="AB3">
-        <v>1113</v>
+        <v>71425</v>
       </c>
       <c r="AC3">
-        <v>1118</v>
+        <v>72518</v>
       </c>
       <c r="AD3">
-        <v>1123</v>
+        <v>72518</v>
       </c>
       <c r="AE3">
-        <v>1124</v>
+        <v>72455</v>
       </c>
       <c r="AF3">
-        <v>1125</v>
+        <v>71983</v>
       </c>
       <c r="AG3">
-        <v>1127</v>
+        <v>71983</v>
       </c>
       <c r="AH3">
-        <v>1128</v>
+        <v>71914</v>
       </c>
       <c r="AI3">
-        <v>1128</v>
+        <v>73519</v>
       </c>
       <c r="AJ3">
-        <v>1128</v>
+        <v>73519</v>
       </c>
       <c r="AK3">
-        <v>1128</v>
+        <v>72759</v>
       </c>
       <c r="AL3">
-        <v>1128</v>
+        <v>72651</v>
       </c>
       <c r="AM3">
-        <v>1128</v>
+        <v>72755</v>
+      </c>
+      <c r="AN3">
+        <v>72757</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>35686</v>
+        <v>41056</v>
       </c>
       <c r="C4">
-        <v>35915</v>
+        <v>41056</v>
       </c>
       <c r="D4">
-        <v>36110</v>
+        <v>40976</v>
       </c>
       <c r="E4">
-        <v>36280</v>
+        <v>41810</v>
       </c>
       <c r="F4">
-        <v>36490</v>
+        <v>41810</v>
       </c>
       <c r="G4">
-        <v>36664</v>
+        <v>41756</v>
       </c>
       <c r="H4">
-        <v>36864</v>
+        <v>41903</v>
       </c>
       <c r="I4">
-        <v>37170</v>
+        <v>41903</v>
       </c>
       <c r="J4">
-        <v>37388</v>
+        <v>41869</v>
       </c>
       <c r="K4">
-        <v>37599</v>
+        <v>41852</v>
       </c>
       <c r="L4">
-        <v>37827</v>
+        <v>41852</v>
       </c>
       <c r="M4">
-        <v>38023</v>
+        <v>41762</v>
       </c>
       <c r="N4">
-        <v>38199</v>
+        <v>52918</v>
       </c>
       <c r="O4">
-        <v>38438</v>
+        <v>52918</v>
       </c>
       <c r="P4">
-        <v>38636</v>
+        <v>52865</v>
       </c>
       <c r="Q4">
-        <v>38820</v>
+        <v>52421</v>
       </c>
       <c r="R4">
-        <v>38990</v>
+        <v>52421</v>
       </c>
       <c r="S4">
-        <v>39139</v>
+        <v>52367</v>
       </c>
       <c r="T4">
-        <v>39335</v>
+        <v>52120</v>
       </c>
       <c r="U4">
-        <v>39612</v>
+        <v>52120</v>
       </c>
       <c r="V4">
-        <v>39823</v>
+        <v>52076</v>
       </c>
       <c r="W4">
-        <v>40011</v>
+        <v>51739</v>
       </c>
       <c r="X4">
-        <v>40206</v>
+        <v>51739</v>
       </c>
       <c r="Y4">
-        <v>40375</v>
+        <v>51554</v>
       </c>
       <c r="Z4">
-        <v>40505</v>
+        <v>43542</v>
       </c>
       <c r="AA4">
-        <v>40676</v>
+        <v>43542</v>
       </c>
       <c r="AB4">
-        <v>40799</v>
+        <v>43461</v>
       </c>
       <c r="AC4">
-        <v>40915</v>
+        <v>44292</v>
       </c>
       <c r="AD4">
-        <v>41007</v>
+        <v>44292</v>
       </c>
       <c r="AE4">
-        <v>41082</v>
+        <v>44237</v>
       </c>
       <c r="AF4">
-        <v>41122</v>
+        <v>44711</v>
       </c>
       <c r="AG4">
-        <v>41134</v>
+        <v>44711</v>
       </c>
       <c r="AH4">
-        <v>41137</v>
+        <v>44647</v>
       </c>
       <c r="AI4">
-        <v>41140</v>
+        <v>44454</v>
       </c>
       <c r="AJ4">
-        <v>41146</v>
+        <v>44454</v>
       </c>
       <c r="AK4">
-        <v>41150</v>
+        <v>43953</v>
       </c>
       <c r="AL4">
-        <v>41153</v>
+        <v>43985</v>
       </c>
       <c r="AM4">
-        <v>41153</v>
+        <v>44057</v>
+      </c>
+      <c r="AN4">
+        <v>44057</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3011</v>
+        <v>60255</v>
       </c>
       <c r="C5">
-        <v>3055</v>
+        <v>60255</v>
       </c>
       <c r="D5">
-        <v>3071</v>
+        <v>60255</v>
       </c>
       <c r="E5">
-        <v>3101</v>
+        <v>59976</v>
       </c>
       <c r="F5">
-        <v>3130</v>
+        <v>59976</v>
       </c>
       <c r="G5">
-        <v>3154</v>
+        <v>59976</v>
       </c>
       <c r="H5">
-        <v>3181</v>
+        <v>59708</v>
       </c>
       <c r="I5">
-        <v>3219</v>
+        <v>59708</v>
       </c>
       <c r="J5">
-        <v>3251</v>
+        <v>59708</v>
       </c>
       <c r="K5">
-        <v>3272</v>
+        <v>59562</v>
       </c>
       <c r="L5">
-        <v>3297</v>
+        <v>59562</v>
       </c>
       <c r="M5">
-        <v>3317</v>
+        <v>59562</v>
       </c>
       <c r="N5">
-        <v>3343</v>
+        <v>63377</v>
       </c>
       <c r="O5">
-        <v>3369</v>
+        <v>63377</v>
       </c>
       <c r="P5">
-        <v>3382</v>
+        <v>63377</v>
       </c>
       <c r="Q5">
-        <v>3424</v>
+        <v>60093</v>
       </c>
       <c r="R5">
-        <v>3447</v>
+        <v>60093</v>
       </c>
       <c r="S5">
-        <v>3472</v>
+        <v>60093</v>
       </c>
       <c r="T5">
-        <v>3498</v>
+        <v>59822</v>
       </c>
       <c r="U5">
-        <v>3534</v>
+        <v>59822</v>
       </c>
       <c r="V5">
-        <v>3547</v>
+        <v>59822</v>
       </c>
       <c r="W5">
-        <v>3571</v>
+        <v>59676</v>
       </c>
       <c r="X5">
-        <v>3585</v>
+        <v>59676</v>
       </c>
       <c r="Y5">
-        <v>3606</v>
+        <v>59675</v>
       </c>
       <c r="Z5">
-        <v>3620</v>
+        <v>45677</v>
       </c>
       <c r="AA5">
-        <v>3638</v>
+        <v>45677</v>
       </c>
       <c r="AB5">
-        <v>3651</v>
+        <v>45677</v>
       </c>
       <c r="AC5">
-        <v>3668</v>
+        <v>45368</v>
       </c>
       <c r="AD5">
-        <v>3687</v>
+        <v>45368</v>
       </c>
       <c r="AE5">
-        <v>3717</v>
+        <v>45368</v>
       </c>
       <c r="AF5">
-        <v>3728</v>
+        <v>45143</v>
       </c>
       <c r="AG5">
-        <v>3738</v>
+        <v>45143</v>
       </c>
       <c r="AH5">
-        <v>3745</v>
+        <v>45143</v>
       </c>
       <c r="AI5">
-        <v>3746</v>
+        <v>45020</v>
       </c>
       <c r="AJ5">
-        <v>3746</v>
+        <v>45020</v>
       </c>
       <c r="AK5">
-        <v>3747</v>
+        <v>45020</v>
       </c>
       <c r="AL5">
-        <v>3747</v>
+        <v>45020</v>
       </c>
       <c r="AM5">
-        <v>3747</v>
+        <v>45020</v>
+      </c>
+      <c r="AN5">
+        <v>45020</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2800</v>
+        <v>17627</v>
       </c>
       <c r="C6">
-        <v>2815</v>
+        <v>17627</v>
       </c>
       <c r="D6">
-        <v>2829</v>
+        <v>17572</v>
       </c>
       <c r="E6">
-        <v>2843</v>
+        <v>17589</v>
       </c>
       <c r="F6">
-        <v>2856</v>
+        <v>17589</v>
       </c>
       <c r="G6">
-        <v>2868</v>
+        <v>17549</v>
       </c>
       <c r="H6">
-        <v>2894</v>
+        <v>14685</v>
       </c>
       <c r="I6">
-        <v>2909</v>
+        <v>14685</v>
       </c>
       <c r="J6">
-        <v>2924</v>
+        <v>14685</v>
       </c>
       <c r="K6">
-        <v>2933</v>
+        <v>14641</v>
       </c>
       <c r="L6">
-        <v>2946</v>
+        <v>14641</v>
       </c>
       <c r="M6">
-        <v>2968</v>
+        <v>14641</v>
       </c>
       <c r="N6">
-        <v>2987</v>
+        <v>17033</v>
       </c>
       <c r="O6">
-        <v>3002</v>
+        <v>17033</v>
       </c>
       <c r="P6">
-        <v>3009</v>
+        <v>17033</v>
       </c>
       <c r="Q6">
-        <v>3022</v>
+        <v>15854</v>
       </c>
       <c r="R6">
-        <v>3025</v>
+        <v>15854</v>
       </c>
       <c r="S6">
-        <v>3031</v>
+        <v>15854</v>
       </c>
       <c r="T6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="U6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="V6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="W6">
-        <v>3038</v>
+        <v>15663</v>
       </c>
       <c r="X6">
-        <v>3038</v>
+        <v>15663</v>
       </c>
       <c r="Y6">
-        <v>3039</v>
+        <v>15663</v>
       </c>
       <c r="Z6">
-        <v>3040</v>
+        <v>14149</v>
       </c>
       <c r="AA6">
-        <v>3040</v>
+        <v>14149</v>
       </c>
       <c r="AB6">
-        <v>3040</v>
+        <v>14149</v>
       </c>
       <c r="AC6">
-        <v>3040</v>
+        <v>15790</v>
       </c>
       <c r="AD6">
-        <v>3018</v>
+        <v>15790</v>
       </c>
       <c r="AE6">
-        <v>2987</v>
+        <v>15790</v>
       </c>
       <c r="AF6">
-        <v>3012</v>
+        <v>15701</v>
       </c>
       <c r="AG6">
-        <v>2988</v>
+        <v>15701</v>
       </c>
       <c r="AH6">
-        <v>2950</v>
-      </c>
-      <c r="AI6">
-        <v>4224</v>
-      </c>
-      <c r="AJ6">
-        <v>4194</v>
-      </c>
-      <c r="AK6">
-        <v>4179</v>
-      </c>
-      <c r="AL6">
-        <v>20963</v>
-      </c>
-      <c r="AM6">
-        <v>20963</v>
+        <v>15701</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>43476</v>
+        <v>58155</v>
       </c>
       <c r="C7">
-        <v>43815</v>
+        <v>58159</v>
       </c>
       <c r="D7">
-        <v>44054</v>
+        <v>58159</v>
       </c>
       <c r="E7">
-        <v>44280</v>
+        <v>54793</v>
       </c>
       <c r="F7">
-        <v>44493</v>
+        <v>54793</v>
       </c>
       <c r="G7">
-        <v>44733</v>
+        <v>54793</v>
       </c>
       <c r="H7">
-        <v>44971</v>
+        <v>54608</v>
       </c>
       <c r="I7">
-        <v>45365</v>
+        <v>54608</v>
       </c>
       <c r="J7">
-        <v>45600</v>
+        <v>54608</v>
       </c>
       <c r="K7">
-        <v>45901</v>
+        <v>59071</v>
       </c>
       <c r="L7">
-        <v>46175</v>
+        <v>59071</v>
       </c>
       <c r="M7">
-        <v>46402</v>
+        <v>59073</v>
       </c>
       <c r="N7">
-        <v>46641</v>
+        <v>61265</v>
       </c>
       <c r="O7">
-        <v>46948</v>
+        <v>61265</v>
       </c>
       <c r="P7">
-        <v>47192</v>
+        <v>61265</v>
       </c>
       <c r="Q7">
-        <v>47434</v>
+        <v>58421</v>
       </c>
       <c r="R7">
-        <v>47636</v>
+        <v>58421</v>
       </c>
       <c r="S7">
-        <v>47852</v>
+        <v>58421</v>
       </c>
       <c r="T7">
-        <v>48081</v>
+        <v>58240</v>
       </c>
       <c r="U7">
-        <v>48378</v>
+        <v>58240</v>
       </c>
       <c r="V7">
-        <v>48583</v>
+        <v>58240</v>
       </c>
       <c r="W7">
-        <v>48816</v>
+        <v>58155</v>
       </c>
       <c r="X7">
-        <v>48981</v>
+        <v>58155</v>
       </c>
       <c r="Y7">
-        <v>49132</v>
+        <v>58153</v>
       </c>
       <c r="Z7">
-        <v>49307</v>
+        <v>66829</v>
       </c>
       <c r="AA7">
-        <v>49504</v>
+        <v>66887</v>
       </c>
       <c r="AB7">
-        <v>49636</v>
+        <v>66951</v>
       </c>
       <c r="AC7">
-        <v>49770</v>
+        <v>68283</v>
       </c>
       <c r="AD7">
-        <v>49880</v>
+        <v>68283</v>
       </c>
       <c r="AE7">
-        <v>49971</v>
+        <v>68283</v>
       </c>
       <c r="AF7">
-        <v>50014</v>
+        <v>67699</v>
       </c>
       <c r="AG7">
-        <v>50023</v>
+        <v>67699</v>
       </c>
       <c r="AH7">
-        <v>50024</v>
+        <v>67699</v>
       </c>
       <c r="AI7">
-        <v>50027</v>
+        <v>67225</v>
       </c>
       <c r="AJ7">
-        <v>50032</v>
+        <v>67225</v>
       </c>
       <c r="AK7">
-        <v>50035</v>
+        <v>67225</v>
       </c>
       <c r="AL7">
-        <v>50038</v>
+        <v>67225</v>
       </c>
       <c r="AM7">
-        <v>50042</v>
+        <v>67225</v>
+      </c>
+      <c r="AN7">
+        <v>67225</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1081</v>
+        <v>15601</v>
       </c>
       <c r="C8">
-        <v>1090</v>
+        <v>15601</v>
       </c>
       <c r="D8">
-        <v>1098</v>
+        <v>15577</v>
       </c>
       <c r="E8">
-        <v>1101</v>
+        <v>15615</v>
       </c>
       <c r="F8">
-        <v>1106</v>
+        <v>15615</v>
       </c>
       <c r="G8">
-        <v>1114</v>
+        <v>15594</v>
       </c>
       <c r="H8">
-        <v>1118</v>
+        <v>15582</v>
       </c>
       <c r="I8">
-        <v>1127</v>
+        <v>15582</v>
       </c>
       <c r="J8">
-        <v>1132</v>
+        <v>15571</v>
       </c>
       <c r="K8">
-        <v>1139</v>
+        <v>15422</v>
       </c>
       <c r="L8">
-        <v>1144</v>
+        <v>15422</v>
       </c>
       <c r="M8">
-        <v>1153</v>
+        <v>15387</v>
       </c>
       <c r="N8">
-        <v>1160</v>
+        <v>16778</v>
       </c>
       <c r="O8">
-        <v>1170</v>
+        <v>16778</v>
       </c>
       <c r="P8">
-        <v>1177</v>
+        <v>16760</v>
       </c>
       <c r="Q8">
-        <v>1181</v>
+        <v>16186</v>
       </c>
       <c r="R8">
-        <v>1187</v>
+        <v>16186</v>
       </c>
       <c r="S8">
-        <v>1192</v>
+        <v>16177</v>
       </c>
       <c r="T8">
-        <v>1196</v>
+        <v>15678</v>
       </c>
       <c r="U8">
-        <v>1204</v>
+        <v>15678</v>
       </c>
       <c r="V8">
-        <v>1210</v>
+        <v>15670</v>
       </c>
       <c r="W8">
-        <v>1216</v>
+        <v>15139</v>
       </c>
       <c r="X8">
-        <v>1221</v>
+        <v>15139</v>
       </c>
       <c r="Y8">
-        <v>1226</v>
+        <v>15117</v>
       </c>
       <c r="Z8">
-        <v>1234</v>
+        <v>15496</v>
       </c>
       <c r="AA8">
-        <v>1241</v>
+        <v>15496</v>
       </c>
       <c r="AB8">
-        <v>1247</v>
+        <v>15478</v>
       </c>
       <c r="AC8">
-        <v>1249</v>
+        <v>15223</v>
       </c>
       <c r="AD8">
-        <v>1252</v>
+        <v>15223</v>
       </c>
       <c r="AE8">
-        <v>1254</v>
+        <v>15211</v>
       </c>
       <c r="AF8">
-        <v>1256</v>
+        <v>14500</v>
       </c>
       <c r="AG8">
-        <v>1256</v>
+        <v>14500</v>
       </c>
       <c r="AH8">
-        <v>1256</v>
+        <v>14485</v>
       </c>
       <c r="AI8">
-        <v>1256</v>
+        <v>13650</v>
       </c>
       <c r="AJ8">
-        <v>1256</v>
+        <v>13650</v>
       </c>
       <c r="AK8">
-        <v>1256</v>
+        <v>13487</v>
       </c>
       <c r="AL8">
-        <v>1256</v>
+        <v>13579</v>
       </c>
       <c r="AM8">
-        <v>1256</v>
+        <v>13596</v>
+      </c>
+      <c r="AN8">
+        <v>13597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>8018</v>
+      </c>
+      <c r="C9">
+        <v>8018</v>
+      </c>
+      <c r="D9">
+        <v>8003</v>
+      </c>
+      <c r="E9">
+        <v>6718</v>
+      </c>
+      <c r="F9">
+        <v>6718</v>
+      </c>
+      <c r="G9">
+        <v>6694</v>
+      </c>
+      <c r="H9">
+        <v>47572</v>
+      </c>
+      <c r="I9">
+        <v>47572</v>
+      </c>
+      <c r="J9">
+        <v>47572</v>
+      </c>
+      <c r="K9">
+        <v>47435</v>
+      </c>
+      <c r="L9">
+        <v>47435</v>
+      </c>
+      <c r="M9">
+        <v>47435</v>
+      </c>
+      <c r="N9">
+        <v>51380</v>
+      </c>
+      <c r="O9">
+        <v>51380</v>
+      </c>
+      <c r="P9">
+        <v>51380</v>
+      </c>
+      <c r="Q9">
+        <v>49666</v>
+      </c>
+      <c r="R9">
+        <v>49666</v>
+      </c>
+      <c r="S9">
+        <v>49665</v>
+      </c>
+      <c r="T9">
+        <v>49441</v>
+      </c>
+      <c r="U9">
+        <v>49441</v>
+      </c>
+      <c r="V9">
+        <v>49441</v>
+      </c>
+      <c r="W9">
+        <v>49290</v>
+      </c>
+      <c r="X9">
+        <v>49290</v>
+      </c>
+      <c r="Y9">
+        <v>49289</v>
+      </c>
+      <c r="Z9">
+        <v>47528</v>
+      </c>
+      <c r="AA9">
+        <v>47528</v>
+      </c>
+      <c r="AB9">
+        <v>47528</v>
+      </c>
+      <c r="AC9">
+        <v>47229</v>
+      </c>
+      <c r="AD9">
+        <v>47229</v>
+      </c>
+      <c r="AE9">
+        <v>47229</v>
+      </c>
+      <c r="AF9">
+        <v>46976</v>
+      </c>
+      <c r="AG9">
+        <v>46976</v>
+      </c>
+      <c r="AH9">
+        <v>46976</v>
+      </c>
+      <c r="AI9">
+        <v>46976</v>
+      </c>
+      <c r="AJ9">
+        <v>46976</v>
+      </c>
+      <c r="AK9">
+        <v>46976</v>
+      </c>
+      <c r="AL9">
+        <v>46976</v>
+      </c>
+      <c r="AM9">
+        <v>46976</v>
+      </c>
+      <c r="AN9">
+        <v>46976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>8089</v>
+      </c>
+      <c r="C10">
+        <v>8089</v>
+      </c>
+      <c r="D10">
+        <v>8077</v>
+      </c>
+      <c r="E10">
+        <v>7973</v>
+      </c>
+      <c r="F10">
+        <v>7973</v>
+      </c>
+      <c r="G10">
+        <v>7965</v>
+      </c>
+      <c r="H10">
+        <v>7708</v>
+      </c>
+      <c r="I10">
+        <v>7708</v>
+      </c>
+      <c r="J10">
+        <v>7701</v>
+      </c>
+      <c r="K10">
+        <v>7743</v>
+      </c>
+      <c r="L10">
+        <v>7743</v>
+      </c>
+      <c r="M10">
+        <v>7731</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="O10">
+        <v>7897</v>
+      </c>
+      <c r="P10">
+        <v>7887</v>
+      </c>
+      <c r="Q10">
+        <v>7719</v>
+      </c>
+      <c r="R10">
+        <v>7719</v>
+      </c>
+      <c r="S10">
+        <v>7716</v>
+      </c>
+      <c r="T10">
+        <v>7572</v>
+      </c>
+      <c r="U10">
+        <v>7572</v>
+      </c>
+      <c r="V10">
+        <v>7563</v>
+      </c>
+      <c r="W10">
+        <v>7388</v>
+      </c>
+      <c r="X10">
+        <v>7388</v>
+      </c>
+      <c r="Y10">
+        <v>7370</v>
+      </c>
+      <c r="Z10">
+        <v>7453</v>
+      </c>
+      <c r="AA10">
+        <v>7453</v>
+      </c>
+      <c r="AB10">
+        <v>7437</v>
+      </c>
+      <c r="AC10">
+        <v>7360</v>
+      </c>
+      <c r="AD10">
+        <v>7360</v>
+      </c>
+      <c r="AE10">
+        <v>7351</v>
+      </c>
+      <c r="AF10">
+        <v>7308</v>
+      </c>
+      <c r="AG10">
+        <v>7308</v>
+      </c>
+      <c r="AH10">
+        <v>7302</v>
+      </c>
+      <c r="AI10">
+        <v>7203</v>
+      </c>
+      <c r="AJ10">
+        <v>7203</v>
+      </c>
+      <c r="AK10">
+        <v>7138</v>
+      </c>
+      <c r="AL10">
+        <v>7177</v>
+      </c>
+      <c r="AM10">
+        <v>7182</v>
+      </c>
+      <c r="AN10">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>22191</v>
+      </c>
+      <c r="C11">
+        <v>22191</v>
+      </c>
+      <c r="D11">
+        <v>22191</v>
+      </c>
+      <c r="E11">
+        <v>22052</v>
+      </c>
+      <c r="F11">
+        <v>22052</v>
+      </c>
+      <c r="G11">
+        <v>22052</v>
+      </c>
+      <c r="H11">
+        <v>21920</v>
+      </c>
+      <c r="I11">
+        <v>21920</v>
+      </c>
+      <c r="J11">
+        <v>21920</v>
+      </c>
+      <c r="K11">
+        <v>21856</v>
+      </c>
+      <c r="L11">
+        <v>21856</v>
+      </c>
+      <c r="M11">
+        <v>21856</v>
+      </c>
+      <c r="N11">
+        <v>23146</v>
+      </c>
+      <c r="O11">
+        <v>23146</v>
+      </c>
+      <c r="P11">
+        <v>23146</v>
+      </c>
+      <c r="Q11">
+        <v>21867</v>
+      </c>
+      <c r="R11">
+        <v>21867</v>
+      </c>
+      <c r="S11">
+        <v>21867</v>
+      </c>
+      <c r="T11">
+        <v>21742</v>
+      </c>
+      <c r="U11">
+        <v>21742</v>
+      </c>
+      <c r="V11">
+        <v>21742</v>
+      </c>
+      <c r="W11">
+        <v>21672</v>
+      </c>
+      <c r="X11">
+        <v>21672</v>
+      </c>
+      <c r="Y11">
+        <v>21672</v>
+      </c>
+      <c r="Z11">
+        <v>18703</v>
+      </c>
+      <c r="AA11">
+        <v>18703</v>
+      </c>
+      <c r="AB11">
+        <v>18703</v>
+      </c>
+      <c r="AC11">
+        <v>18594</v>
+      </c>
+      <c r="AD11">
+        <v>18594</v>
+      </c>
+      <c r="AE11">
+        <v>18594</v>
+      </c>
+      <c r="AF11">
+        <v>18509</v>
+      </c>
+      <c r="AG11">
+        <v>18509</v>
+      </c>
+      <c r="AH11">
+        <v>18509</v>
+      </c>
+      <c r="AI11">
+        <v>18463</v>
+      </c>
+      <c r="AJ11">
+        <v>18463</v>
+      </c>
+      <c r="AK11">
+        <v>18463</v>
+      </c>
+      <c r="AL11">
+        <v>18463</v>
+      </c>
+      <c r="AM11">
+        <v>18463</v>
+      </c>
+      <c r="AN11">
+        <v>18463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>7836</v>
+      </c>
+      <c r="C12">
+        <v>7836</v>
+      </c>
+      <c r="D12">
+        <v>7813</v>
+      </c>
+      <c r="E12">
+        <v>7282</v>
+      </c>
+      <c r="F12">
+        <v>7282</v>
+      </c>
+      <c r="G12">
+        <v>7267</v>
+      </c>
+      <c r="H12">
+        <v>7282</v>
+      </c>
+      <c r="I12">
+        <v>7282</v>
+      </c>
+      <c r="J12">
+        <v>7261</v>
+      </c>
+      <c r="K12">
+        <v>7225</v>
+      </c>
+      <c r="L12">
+        <v>7225</v>
+      </c>
+      <c r="M12">
+        <v>7205</v>
+      </c>
+      <c r="N12">
+        <v>7162</v>
+      </c>
+      <c r="O12">
+        <v>7162</v>
+      </c>
+      <c r="P12">
+        <v>7147</v>
+      </c>
+      <c r="Q12">
+        <v>6987</v>
+      </c>
+      <c r="R12">
+        <v>6987</v>
+      </c>
+      <c r="S12">
+        <v>6977</v>
+      </c>
+      <c r="T12">
+        <v>6839</v>
+      </c>
+      <c r="U12">
+        <v>6839</v>
+      </c>
+      <c r="V12">
+        <v>6823</v>
+      </c>
+      <c r="W12">
+        <v>6611</v>
+      </c>
+      <c r="X12">
+        <v>6611</v>
+      </c>
+      <c r="Y12">
+        <v>6602</v>
+      </c>
+      <c r="Z12">
+        <v>7275</v>
+      </c>
+      <c r="AA12">
+        <v>7275</v>
+      </c>
+      <c r="AB12">
+        <v>7260</v>
+      </c>
+      <c r="AC12">
+        <v>7395</v>
+      </c>
+      <c r="AD12">
+        <v>7395</v>
+      </c>
+      <c r="AE12">
+        <v>7382</v>
+      </c>
+      <c r="AF12">
+        <v>7336</v>
+      </c>
+      <c r="AG12">
+        <v>7336</v>
+      </c>
+      <c r="AH12">
+        <v>7324</v>
+      </c>
+      <c r="AI12">
+        <v>7332</v>
+      </c>
+      <c r="AJ12">
+        <v>7332</v>
+      </c>
+      <c r="AK12">
+        <v>7241</v>
+      </c>
+      <c r="AL12">
+        <v>7194</v>
+      </c>
+      <c r="AM12">
+        <v>7204</v>
+      </c>
+      <c r="AN12">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>10320</v>
+      </c>
+      <c r="C13">
+        <v>10320</v>
+      </c>
+      <c r="D13">
+        <v>10308</v>
+      </c>
+      <c r="E13">
+        <v>10226</v>
+      </c>
+      <c r="F13">
+        <v>10226</v>
+      </c>
+      <c r="G13">
+        <v>10214</v>
+      </c>
+      <c r="H13">
+        <v>10254</v>
+      </c>
+      <c r="I13">
+        <v>10254</v>
+      </c>
+      <c r="J13">
+        <v>10248</v>
+      </c>
+      <c r="K13">
+        <v>10152</v>
+      </c>
+      <c r="L13">
+        <v>10152</v>
+      </c>
+      <c r="M13">
+        <v>10126</v>
+      </c>
+      <c r="N13">
+        <v>10318</v>
+      </c>
+      <c r="O13">
+        <v>10318</v>
+      </c>
+      <c r="P13">
+        <v>10311</v>
+      </c>
+      <c r="Q13">
+        <v>10100</v>
+      </c>
+      <c r="R13">
+        <v>10100</v>
+      </c>
+      <c r="S13">
+        <v>10094</v>
+      </c>
+      <c r="T13">
+        <v>9786</v>
+      </c>
+      <c r="U13">
+        <v>9786</v>
+      </c>
+      <c r="V13">
+        <v>9783</v>
+      </c>
+      <c r="W13">
+        <v>9372</v>
+      </c>
+      <c r="X13">
+        <v>9372</v>
+      </c>
+      <c r="Y13">
+        <v>9355</v>
+      </c>
+      <c r="Z13">
+        <v>8774</v>
+      </c>
+      <c r="AA13">
+        <v>8774</v>
+      </c>
+      <c r="AB13">
+        <v>8764</v>
+      </c>
+      <c r="AC13">
+        <v>8746</v>
+      </c>
+      <c r="AD13">
+        <v>8746</v>
+      </c>
+      <c r="AE13">
+        <v>8740</v>
+      </c>
+      <c r="AF13">
+        <v>8598</v>
+      </c>
+      <c r="AG13">
+        <v>8598</v>
+      </c>
+      <c r="AH13">
+        <v>8590</v>
+      </c>
+      <c r="AI13">
+        <v>8709</v>
+      </c>
+      <c r="AJ13">
+        <v>8709</v>
+      </c>
+      <c r="AK13">
+        <v>8643</v>
+      </c>
+      <c r="AL13">
+        <v>8676</v>
+      </c>
+      <c r="AM13">
+        <v>8681</v>
+      </c>
+      <c r="AN13">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>31321</v>
+      </c>
+      <c r="C14">
+        <v>31321</v>
+      </c>
+      <c r="D14">
+        <v>31274</v>
+      </c>
+      <c r="E14">
+        <v>31241</v>
+      </c>
+      <c r="F14">
+        <v>31241</v>
+      </c>
+      <c r="G14">
+        <v>31204</v>
+      </c>
+      <c r="H14">
+        <v>30695</v>
+      </c>
+      <c r="I14">
+        <v>30695</v>
+      </c>
+      <c r="J14">
+        <v>30661</v>
+      </c>
+      <c r="K14">
+        <v>30806</v>
+      </c>
+      <c r="L14">
+        <v>30806</v>
+      </c>
+      <c r="M14">
+        <v>30746</v>
+      </c>
+      <c r="N14">
+        <v>30792</v>
+      </c>
+      <c r="O14">
+        <v>30792</v>
+      </c>
+      <c r="P14">
+        <v>30766</v>
+      </c>
+      <c r="Q14">
+        <v>30056</v>
+      </c>
+      <c r="R14">
+        <v>30056</v>
+      </c>
+      <c r="S14">
+        <v>30009</v>
+      </c>
+      <c r="T14">
+        <v>29792</v>
+      </c>
+      <c r="U14">
+        <v>29792</v>
+      </c>
+      <c r="V14">
+        <v>29747</v>
+      </c>
+      <c r="W14">
+        <v>29808</v>
+      </c>
+      <c r="X14">
+        <v>29808</v>
+      </c>
+      <c r="Y14">
+        <v>29741</v>
+      </c>
+      <c r="Z14">
+        <v>30486</v>
+      </c>
+      <c r="AA14">
+        <v>30486</v>
+      </c>
+      <c r="AB14">
+        <v>30435</v>
+      </c>
+      <c r="AC14">
+        <v>30904</v>
+      </c>
+      <c r="AD14">
+        <v>30904</v>
+      </c>
+      <c r="AE14">
+        <v>30874</v>
+      </c>
+      <c r="AF14">
+        <v>30935</v>
+      </c>
+      <c r="AG14">
+        <v>30935</v>
+      </c>
+      <c r="AH14">
+        <v>30882</v>
+      </c>
+      <c r="AI14">
+        <v>31111</v>
+      </c>
+      <c r="AJ14">
+        <v>31111</v>
+      </c>
+      <c r="AK14">
+        <v>30773</v>
+      </c>
+      <c r="AL14">
+        <v>30814</v>
+      </c>
+      <c r="AM14">
+        <v>30814</v>
+      </c>
+      <c r="AN14">
+        <v>30814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>9052</v>
+      </c>
+      <c r="C15">
+        <v>9052</v>
+      </c>
+      <c r="D15">
+        <v>9052</v>
+      </c>
+      <c r="E15">
+        <v>9052</v>
+      </c>
+      <c r="F15">
+        <v>9052</v>
+      </c>
+      <c r="G15">
+        <v>8320</v>
+      </c>
+      <c r="H15">
+        <v>8934</v>
+      </c>
+      <c r="I15">
+        <v>8934</v>
+      </c>
+      <c r="J15">
+        <v>8930</v>
+      </c>
+      <c r="K15">
+        <v>8979</v>
+      </c>
+      <c r="L15">
+        <v>8979</v>
+      </c>
+      <c r="M15">
+        <v>8964</v>
+      </c>
+      <c r="N15">
+        <v>8764</v>
+      </c>
+      <c r="O15">
+        <v>8764</v>
+      </c>
+      <c r="P15">
+        <v>8751</v>
+      </c>
+      <c r="Q15">
+        <v>8705</v>
+      </c>
+      <c r="R15">
+        <v>8705</v>
+      </c>
+      <c r="S15">
+        <v>8704</v>
+      </c>
+      <c r="T15">
+        <v>8698</v>
+      </c>
+      <c r="U15">
+        <v>8698</v>
+      </c>
+      <c r="V15">
+        <v>8695</v>
+      </c>
+      <c r="W15">
+        <v>8585</v>
+      </c>
+      <c r="X15">
+        <v>8585</v>
+      </c>
+      <c r="Y15">
+        <v>8575</v>
+      </c>
+      <c r="Z15">
+        <v>8492</v>
+      </c>
+      <c r="AA15">
+        <v>8492</v>
+      </c>
+      <c r="AB15">
+        <v>8474</v>
+      </c>
+      <c r="AC15">
+        <v>8425</v>
+      </c>
+      <c r="AD15">
+        <v>8425</v>
+      </c>
+      <c r="AE15">
+        <v>8420</v>
+      </c>
+      <c r="AF15">
+        <v>8359</v>
+      </c>
+      <c r="AG15">
+        <v>8359</v>
+      </c>
+      <c r="AH15">
+        <v>8350</v>
+      </c>
+      <c r="AI15">
+        <v>8283</v>
+      </c>
+      <c r="AJ15">
+        <v>8283</v>
+      </c>
+      <c r="AK15">
+        <v>8218</v>
+      </c>
+      <c r="AL15">
+        <v>8256</v>
+      </c>
+      <c r="AM15">
+        <v>8265</v>
+      </c>
+      <c r="AN15">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>18285</v>
+      </c>
+      <c r="C16">
+        <v>18285</v>
+      </c>
+      <c r="D16">
+        <v>18285</v>
+      </c>
+      <c r="E16">
+        <v>18285</v>
+      </c>
+      <c r="F16">
+        <v>18285</v>
+      </c>
+      <c r="G16">
+        <v>16466</v>
+      </c>
+      <c r="H16">
+        <v>18241</v>
+      </c>
+      <c r="I16">
+        <v>18241</v>
+      </c>
+      <c r="J16">
+        <v>18217</v>
+      </c>
+      <c r="K16">
+        <v>18431</v>
+      </c>
+      <c r="L16">
+        <v>18431</v>
+      </c>
+      <c r="M16">
+        <v>18375</v>
+      </c>
+      <c r="N16">
+        <v>18630</v>
+      </c>
+      <c r="O16">
+        <v>18630</v>
+      </c>
+      <c r="P16">
+        <v>18597</v>
+      </c>
+      <c r="Q16">
+        <v>18454</v>
+      </c>
+      <c r="R16">
+        <v>18454</v>
+      </c>
+      <c r="S16">
+        <v>18433</v>
+      </c>
+      <c r="T16">
+        <v>18186</v>
+      </c>
+      <c r="U16">
+        <v>18186</v>
+      </c>
+      <c r="V16">
+        <v>18174</v>
+      </c>
+      <c r="W16">
+        <v>17772</v>
+      </c>
+      <c r="X16">
+        <v>17772</v>
+      </c>
+      <c r="Y16">
+        <v>17709</v>
+      </c>
+      <c r="Z16">
+        <v>16176</v>
+      </c>
+      <c r="AA16">
+        <v>16176</v>
+      </c>
+      <c r="AB16">
+        <v>16150</v>
+      </c>
+      <c r="AC16">
+        <v>16456</v>
+      </c>
+      <c r="AD16">
+        <v>16456</v>
+      </c>
+      <c r="AE16">
+        <v>16433</v>
+      </c>
+      <c r="AF16">
+        <v>16350</v>
+      </c>
+      <c r="AG16">
+        <v>16350</v>
+      </c>
+      <c r="AH16">
+        <v>16339</v>
+      </c>
+      <c r="AI16">
+        <v>16403</v>
+      </c>
+      <c r="AJ16">
+        <v>16403</v>
+      </c>
+      <c r="AK16">
+        <v>16159</v>
+      </c>
+      <c r="AL16">
+        <v>16064</v>
+      </c>
+      <c r="AM16">
+        <v>16101</v>
+      </c>
+      <c r="AN16">
+        <v>16106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>6554</v>
+      </c>
+      <c r="C17">
+        <v>6554</v>
+      </c>
+      <c r="D17">
+        <v>6554</v>
+      </c>
+      <c r="E17">
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>6554</v>
+      </c>
+      <c r="G17">
+        <v>6554</v>
+      </c>
+      <c r="H17">
+        <v>6554</v>
+      </c>
+      <c r="I17">
+        <v>6554</v>
+      </c>
+      <c r="J17">
+        <v>6554</v>
+      </c>
+      <c r="K17">
+        <v>6554</v>
+      </c>
+      <c r="L17">
+        <v>6554</v>
+      </c>
+      <c r="M17">
+        <v>6210</v>
+      </c>
+      <c r="N17">
+        <v>6554</v>
+      </c>
+      <c r="O17">
+        <v>6554</v>
+      </c>
+      <c r="P17">
+        <v>6554</v>
+      </c>
+      <c r="Q17">
+        <v>6199</v>
+      </c>
+      <c r="R17">
+        <v>6199</v>
+      </c>
+      <c r="S17">
+        <v>6199</v>
+      </c>
+      <c r="T17">
+        <v>6183</v>
+      </c>
+      <c r="U17">
+        <v>6183</v>
+      </c>
+      <c r="V17">
+        <v>6183</v>
+      </c>
+      <c r="W17">
+        <v>6166</v>
+      </c>
+      <c r="X17">
+        <v>6166</v>
+      </c>
+      <c r="Y17">
+        <v>6166</v>
+      </c>
+      <c r="Z17">
+        <v>5895</v>
+      </c>
+      <c r="AA17">
+        <v>5895</v>
+      </c>
+      <c r="AB17">
+        <v>5895</v>
+      </c>
+      <c r="AC17">
+        <v>6045</v>
+      </c>
+      <c r="AD17">
+        <v>6045</v>
+      </c>
+      <c r="AE17">
+        <v>6045</v>
+      </c>
+      <c r="AF17">
+        <v>6013</v>
+      </c>
+      <c r="AG17">
+        <v>6013</v>
+      </c>
+      <c r="AH17">
+        <v>6013</v>
+      </c>
+      <c r="AI17">
+        <v>6106</v>
+      </c>
+      <c r="AJ17">
+        <v>6106</v>
+      </c>
+      <c r="AK17">
+        <v>6106</v>
+      </c>
+      <c r="AL17">
+        <v>6106</v>
+      </c>
+      <c r="AM17">
+        <v>6106</v>
+      </c>
+      <c r="AN17">
+        <v>6106</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -130,28 +130,58 @@
     <t>m-2022-02</t>
   </si>
   <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -509,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,838 +663,1942 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6454</v>
+        <v>7408</v>
       </c>
       <c r="C2">
-        <v>6499</v>
+        <v>7408</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7408</v>
       </c>
       <c r="E2">
-        <v>6585</v>
+        <v>7408</v>
       </c>
       <c r="F2">
-        <v>6636</v>
+        <v>7408</v>
       </c>
       <c r="G2">
-        <v>6684</v>
+        <v>7408</v>
       </c>
       <c r="H2">
-        <v>6730</v>
+        <v>7806</v>
       </c>
       <c r="I2">
-        <v>6776</v>
+        <v>7806</v>
       </c>
       <c r="J2">
-        <v>6818</v>
+        <v>7806</v>
       </c>
       <c r="K2">
-        <v>6850</v>
+        <v>7302</v>
       </c>
       <c r="L2">
-        <v>6879</v>
+        <v>7302</v>
       </c>
       <c r="M2">
-        <v>6907</v>
+        <v>7302</v>
       </c>
       <c r="N2">
-        <v>6936</v>
+        <v>7418</v>
       </c>
       <c r="O2">
-        <v>6962</v>
+        <v>7418</v>
       </c>
       <c r="P2">
-        <v>6983</v>
+        <v>7418</v>
       </c>
       <c r="Q2">
-        <v>7001</v>
+        <v>6967</v>
       </c>
       <c r="R2">
-        <v>7022</v>
+        <v>6967</v>
       </c>
       <c r="S2">
-        <v>7032</v>
+        <v>6967</v>
       </c>
       <c r="T2">
-        <v>7039</v>
+        <v>6911</v>
       </c>
       <c r="U2">
-        <v>7042</v>
+        <v>6911</v>
       </c>
       <c r="V2">
-        <v>7044</v>
+        <v>6911</v>
       </c>
       <c r="W2">
-        <v>7045</v>
+        <v>6885</v>
       </c>
       <c r="X2">
-        <v>7047</v>
+        <v>6885</v>
       </c>
       <c r="Y2">
-        <v>7050</v>
+        <v>6885</v>
       </c>
       <c r="Z2">
-        <v>14103</v>
+        <v>7093</v>
       </c>
       <c r="AA2">
-        <v>14107</v>
+        <v>7093</v>
       </c>
       <c r="AB2">
-        <v>14111</v>
+        <v>7093</v>
       </c>
       <c r="AC2">
-        <v>21099</v>
+        <v>6977</v>
       </c>
       <c r="AD2">
-        <v>21050</v>
+        <v>6977</v>
       </c>
       <c r="AE2">
-        <v>20976</v>
+        <v>6977</v>
       </c>
       <c r="AF2">
-        <v>20727</v>
+        <v>6859</v>
       </c>
       <c r="AG2">
-        <v>20681</v>
+        <v>6859</v>
       </c>
       <c r="AH2">
-        <v>20600</v>
+        <v>6859</v>
       </c>
       <c r="AI2">
-        <v>6847</v>
+        <v>6810</v>
       </c>
       <c r="AJ2">
-        <v>6822</v>
+        <v>6810</v>
       </c>
       <c r="AK2">
-        <v>6798</v>
+        <v>6810</v>
       </c>
       <c r="AL2">
-        <v>25803</v>
+        <v>6810</v>
       </c>
       <c r="AM2">
-        <v>25748</v>
+        <v>6810</v>
+      </c>
+      <c r="AN2">
+        <v>6810</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>919</v>
+        <v>90218</v>
       </c>
       <c r="C3">
-        <v>925</v>
+        <v>90218</v>
       </c>
       <c r="D3">
-        <v>932</v>
+        <v>90116</v>
       </c>
       <c r="E3">
-        <v>938</v>
+        <v>91473</v>
       </c>
       <c r="F3">
-        <v>943</v>
+        <v>91473</v>
       </c>
       <c r="G3">
-        <v>953</v>
+        <v>91340</v>
       </c>
       <c r="H3">
-        <v>962</v>
+        <v>91864</v>
       </c>
       <c r="I3">
-        <v>978</v>
+        <v>91864</v>
       </c>
       <c r="J3">
-        <v>982</v>
+        <v>91768</v>
       </c>
       <c r="K3">
-        <v>987</v>
+        <v>92671</v>
       </c>
       <c r="L3">
-        <v>991</v>
+        <v>92671</v>
       </c>
       <c r="M3">
-        <v>1004</v>
+        <v>92416</v>
       </c>
       <c r="N3">
-        <v>1013</v>
+        <v>76180</v>
       </c>
       <c r="O3">
-        <v>1022</v>
+        <v>76180</v>
       </c>
       <c r="P3">
-        <v>1033</v>
+        <v>76114</v>
       </c>
       <c r="Q3">
-        <v>1038</v>
+        <v>74409</v>
       </c>
       <c r="R3">
-        <v>1044</v>
+        <v>74409</v>
       </c>
       <c r="S3">
-        <v>1052</v>
+        <v>74357</v>
       </c>
       <c r="T3">
-        <v>1054</v>
+        <v>74631</v>
       </c>
       <c r="U3">
-        <v>1066</v>
+        <v>74631</v>
       </c>
       <c r="V3">
-        <v>1072</v>
+        <v>74583</v>
       </c>
       <c r="W3">
-        <v>1076</v>
+        <v>75143</v>
       </c>
       <c r="X3">
-        <v>1080</v>
+        <v>75143</v>
       </c>
       <c r="Y3">
-        <v>1088</v>
+        <v>75043</v>
       </c>
       <c r="Z3">
-        <v>1095</v>
+        <v>71528</v>
       </c>
       <c r="AA3">
-        <v>1103</v>
+        <v>71528</v>
       </c>
       <c r="AB3">
-        <v>1113</v>
+        <v>71425</v>
       </c>
       <c r="AC3">
-        <v>1118</v>
+        <v>72518</v>
       </c>
       <c r="AD3">
-        <v>1123</v>
+        <v>72518</v>
       </c>
       <c r="AE3">
-        <v>1124</v>
+        <v>72455</v>
       </c>
       <c r="AF3">
-        <v>1125</v>
+        <v>71983</v>
       </c>
       <c r="AG3">
-        <v>1127</v>
+        <v>71983</v>
       </c>
       <c r="AH3">
-        <v>1128</v>
+        <v>71914</v>
       </c>
       <c r="AI3">
-        <v>1128</v>
+        <v>73519</v>
       </c>
       <c r="AJ3">
-        <v>1128</v>
+        <v>73519</v>
       </c>
       <c r="AK3">
-        <v>1128</v>
+        <v>72759</v>
       </c>
       <c r="AL3">
-        <v>1128</v>
+        <v>72651</v>
       </c>
       <c r="AM3">
-        <v>1128</v>
+        <v>72755</v>
+      </c>
+      <c r="AN3">
+        <v>72757</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>35686</v>
+        <v>41056</v>
       </c>
       <c r="C4">
-        <v>35915</v>
+        <v>41056</v>
       </c>
       <c r="D4">
-        <v>36110</v>
+        <v>40976</v>
       </c>
       <c r="E4">
-        <v>36280</v>
+        <v>41810</v>
       </c>
       <c r="F4">
-        <v>36490</v>
+        <v>41810</v>
       </c>
       <c r="G4">
-        <v>36664</v>
+        <v>41756</v>
       </c>
       <c r="H4">
-        <v>36864</v>
+        <v>41903</v>
       </c>
       <c r="I4">
-        <v>37170</v>
+        <v>41903</v>
       </c>
       <c r="J4">
-        <v>37388</v>
+        <v>41869</v>
       </c>
       <c r="K4">
-        <v>37599</v>
+        <v>41852</v>
       </c>
       <c r="L4">
-        <v>37827</v>
+        <v>41852</v>
       </c>
       <c r="M4">
-        <v>38023</v>
+        <v>41762</v>
       </c>
       <c r="N4">
-        <v>38199</v>
+        <v>52918</v>
       </c>
       <c r="O4">
-        <v>38438</v>
+        <v>52918</v>
       </c>
       <c r="P4">
-        <v>38636</v>
+        <v>52865</v>
       </c>
       <c r="Q4">
-        <v>38820</v>
+        <v>52421</v>
       </c>
       <c r="R4">
-        <v>38990</v>
+        <v>52421</v>
       </c>
       <c r="S4">
-        <v>39139</v>
+        <v>52367</v>
       </c>
       <c r="T4">
-        <v>39335</v>
+        <v>52120</v>
       </c>
       <c r="U4">
-        <v>39612</v>
+        <v>52120</v>
       </c>
       <c r="V4">
-        <v>39823</v>
+        <v>52076</v>
       </c>
       <c r="W4">
-        <v>40011</v>
+        <v>51739</v>
       </c>
       <c r="X4">
-        <v>40206</v>
+        <v>51739</v>
       </c>
       <c r="Y4">
-        <v>40375</v>
+        <v>51554</v>
       </c>
       <c r="Z4">
-        <v>40505</v>
+        <v>43542</v>
       </c>
       <c r="AA4">
-        <v>40676</v>
+        <v>43542</v>
       </c>
       <c r="AB4">
-        <v>40799</v>
+        <v>43461</v>
       </c>
       <c r="AC4">
-        <v>40915</v>
+        <v>44292</v>
       </c>
       <c r="AD4">
-        <v>41007</v>
+        <v>44292</v>
       </c>
       <c r="AE4">
-        <v>41082</v>
+        <v>44237</v>
       </c>
       <c r="AF4">
-        <v>41122</v>
+        <v>44711</v>
       </c>
       <c r="AG4">
-        <v>41134</v>
+        <v>44711</v>
       </c>
       <c r="AH4">
-        <v>41137</v>
+        <v>44647</v>
       </c>
       <c r="AI4">
-        <v>41140</v>
+        <v>44454</v>
       </c>
       <c r="AJ4">
-        <v>41146</v>
+        <v>44454</v>
       </c>
       <c r="AK4">
-        <v>41150</v>
+        <v>43953</v>
       </c>
       <c r="AL4">
-        <v>41153</v>
+        <v>43985</v>
       </c>
       <c r="AM4">
-        <v>41153</v>
+        <v>44057</v>
+      </c>
+      <c r="AN4">
+        <v>44057</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3011</v>
+        <v>60255</v>
       </c>
       <c r="C5">
-        <v>3055</v>
+        <v>60255</v>
       </c>
       <c r="D5">
-        <v>3071</v>
+        <v>60255</v>
       </c>
       <c r="E5">
-        <v>3101</v>
+        <v>59976</v>
       </c>
       <c r="F5">
-        <v>3130</v>
+        <v>59976</v>
       </c>
       <c r="G5">
-        <v>3154</v>
+        <v>59976</v>
       </c>
       <c r="H5">
-        <v>3181</v>
+        <v>59708</v>
       </c>
       <c r="I5">
-        <v>3219</v>
+        <v>59708</v>
       </c>
       <c r="J5">
-        <v>3251</v>
+        <v>59708</v>
       </c>
       <c r="K5">
-        <v>3272</v>
+        <v>59562</v>
       </c>
       <c r="L5">
-        <v>3297</v>
+        <v>59562</v>
       </c>
       <c r="M5">
-        <v>3317</v>
+        <v>59562</v>
       </c>
       <c r="N5">
-        <v>3343</v>
+        <v>63377</v>
       </c>
       <c r="O5">
-        <v>3369</v>
+        <v>63377</v>
       </c>
       <c r="P5">
-        <v>3382</v>
+        <v>63377</v>
       </c>
       <c r="Q5">
-        <v>3424</v>
+        <v>60093</v>
       </c>
       <c r="R5">
-        <v>3447</v>
+        <v>60093</v>
       </c>
       <c r="S5">
-        <v>3472</v>
+        <v>60093</v>
       </c>
       <c r="T5">
-        <v>3498</v>
+        <v>59822</v>
       </c>
       <c r="U5">
-        <v>3534</v>
+        <v>59822</v>
       </c>
       <c r="V5">
-        <v>3547</v>
+        <v>59822</v>
       </c>
       <c r="W5">
-        <v>3571</v>
+        <v>59676</v>
       </c>
       <c r="X5">
-        <v>3585</v>
+        <v>59676</v>
       </c>
       <c r="Y5">
-        <v>3606</v>
+        <v>59675</v>
       </c>
       <c r="Z5">
-        <v>3620</v>
+        <v>45677</v>
       </c>
       <c r="AA5">
-        <v>3638</v>
+        <v>45677</v>
       </c>
       <c r="AB5">
-        <v>3651</v>
+        <v>45677</v>
       </c>
       <c r="AC5">
-        <v>3668</v>
+        <v>45368</v>
       </c>
       <c r="AD5">
-        <v>3687</v>
+        <v>45368</v>
       </c>
       <c r="AE5">
-        <v>3717</v>
+        <v>45368</v>
       </c>
       <c r="AF5">
-        <v>3728</v>
+        <v>45143</v>
       </c>
       <c r="AG5">
-        <v>3738</v>
+        <v>45143</v>
       </c>
       <c r="AH5">
-        <v>3745</v>
+        <v>45143</v>
       </c>
       <c r="AI5">
-        <v>3746</v>
+        <v>45020</v>
       </c>
       <c r="AJ5">
-        <v>3746</v>
+        <v>45020</v>
       </c>
       <c r="AK5">
-        <v>3747</v>
+        <v>45020</v>
       </c>
       <c r="AL5">
-        <v>3747</v>
+        <v>45020</v>
       </c>
       <c r="AM5">
-        <v>3747</v>
+        <v>45020</v>
+      </c>
+      <c r="AN5">
+        <v>45020</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2800</v>
+        <v>17627</v>
       </c>
       <c r="C6">
-        <v>2815</v>
+        <v>17627</v>
       </c>
       <c r="D6">
-        <v>2829</v>
+        <v>17572</v>
       </c>
       <c r="E6">
-        <v>2843</v>
+        <v>17589</v>
       </c>
       <c r="F6">
-        <v>2856</v>
+        <v>17589</v>
       </c>
       <c r="G6">
-        <v>2868</v>
+        <v>17549</v>
       </c>
       <c r="H6">
-        <v>2894</v>
+        <v>14685</v>
       </c>
       <c r="I6">
-        <v>2909</v>
+        <v>14685</v>
       </c>
       <c r="J6">
-        <v>2924</v>
+        <v>14685</v>
       </c>
       <c r="K6">
-        <v>2933</v>
+        <v>14641</v>
       </c>
       <c r="L6">
-        <v>2946</v>
+        <v>14641</v>
       </c>
       <c r="M6">
-        <v>2968</v>
+        <v>14641</v>
       </c>
       <c r="N6">
-        <v>2987</v>
+        <v>17033</v>
       </c>
       <c r="O6">
-        <v>3002</v>
+        <v>17033</v>
       </c>
       <c r="P6">
-        <v>3009</v>
+        <v>17033</v>
       </c>
       <c r="Q6">
-        <v>3022</v>
+        <v>15854</v>
       </c>
       <c r="R6">
-        <v>3025</v>
+        <v>15854</v>
       </c>
       <c r="S6">
-        <v>3031</v>
+        <v>15854</v>
       </c>
       <c r="T6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="U6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="V6">
-        <v>3037</v>
+        <v>15729</v>
       </c>
       <c r="W6">
-        <v>3038</v>
+        <v>15663</v>
       </c>
       <c r="X6">
-        <v>3038</v>
+        <v>15663</v>
       </c>
       <c r="Y6">
-        <v>3039</v>
+        <v>15663</v>
       </c>
       <c r="Z6">
-        <v>6075</v>
+        <v>14149</v>
       </c>
       <c r="AA6">
-        <v>6075</v>
+        <v>14149</v>
       </c>
       <c r="AB6">
-        <v>6075</v>
+        <v>14149</v>
       </c>
       <c r="AC6">
-        <v>9047</v>
+        <v>15790</v>
       </c>
       <c r="AD6">
-        <v>9025</v>
+        <v>15790</v>
       </c>
       <c r="AE6">
-        <v>8961</v>
+        <v>15790</v>
       </c>
       <c r="AF6">
-        <v>8952</v>
+        <v>15701</v>
       </c>
       <c r="AG6">
-        <v>8924</v>
+        <v>15701</v>
       </c>
       <c r="AH6">
-        <v>8846</v>
-      </c>
-      <c r="AI6">
-        <v>4224</v>
-      </c>
-      <c r="AJ6">
-        <v>4194</v>
-      </c>
-      <c r="AK6">
-        <v>4179</v>
-      </c>
-      <c r="AL6">
-        <v>20963</v>
-      </c>
-      <c r="AM6">
-        <v>20963</v>
+        <v>15701</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>43476</v>
+        <v>58155</v>
       </c>
       <c r="C7">
-        <v>43815</v>
+        <v>58159</v>
       </c>
       <c r="D7">
-        <v>44054</v>
+        <v>58159</v>
       </c>
       <c r="E7">
-        <v>44280</v>
+        <v>54793</v>
       </c>
       <c r="F7">
-        <v>44493</v>
+        <v>54793</v>
       </c>
       <c r="G7">
-        <v>44733</v>
+        <v>54793</v>
       </c>
       <c r="H7">
-        <v>44971</v>
+        <v>54608</v>
       </c>
       <c r="I7">
-        <v>45365</v>
+        <v>54608</v>
       </c>
       <c r="J7">
-        <v>45600</v>
+        <v>54608</v>
       </c>
       <c r="K7">
-        <v>45901</v>
+        <v>59071</v>
       </c>
       <c r="L7">
-        <v>46175</v>
+        <v>59071</v>
       </c>
       <c r="M7">
-        <v>46402</v>
+        <v>59073</v>
       </c>
       <c r="N7">
-        <v>46641</v>
+        <v>61265</v>
       </c>
       <c r="O7">
-        <v>46948</v>
+        <v>61265</v>
       </c>
       <c r="P7">
-        <v>47192</v>
+        <v>61265</v>
       </c>
       <c r="Q7">
-        <v>47434</v>
+        <v>58421</v>
       </c>
       <c r="R7">
-        <v>47636</v>
+        <v>58421</v>
       </c>
       <c r="S7">
-        <v>47852</v>
+        <v>58421</v>
       </c>
       <c r="T7">
-        <v>48081</v>
+        <v>58240</v>
       </c>
       <c r="U7">
-        <v>48378</v>
+        <v>58240</v>
       </c>
       <c r="V7">
-        <v>48583</v>
+        <v>58240</v>
       </c>
       <c r="W7">
-        <v>48816</v>
+        <v>58155</v>
       </c>
       <c r="X7">
-        <v>48981</v>
+        <v>58155</v>
       </c>
       <c r="Y7">
-        <v>49132</v>
+        <v>58153</v>
       </c>
       <c r="Z7">
-        <v>49307</v>
+        <v>66829</v>
       </c>
       <c r="AA7">
-        <v>49504</v>
+        <v>66887</v>
       </c>
       <c r="AB7">
-        <v>49636</v>
+        <v>66951</v>
       </c>
       <c r="AC7">
-        <v>49770</v>
+        <v>68283</v>
       </c>
       <c r="AD7">
-        <v>49880</v>
+        <v>68283</v>
       </c>
       <c r="AE7">
-        <v>49971</v>
+        <v>68283</v>
       </c>
       <c r="AF7">
-        <v>50014</v>
+        <v>67699</v>
       </c>
       <c r="AG7">
-        <v>50023</v>
+        <v>67699</v>
       </c>
       <c r="AH7">
-        <v>50024</v>
+        <v>67699</v>
       </c>
       <c r="AI7">
-        <v>50027</v>
+        <v>67225</v>
       </c>
       <c r="AJ7">
-        <v>50032</v>
+        <v>67225</v>
       </c>
       <c r="AK7">
-        <v>50035</v>
+        <v>67225</v>
       </c>
       <c r="AL7">
-        <v>50038</v>
+        <v>67225</v>
       </c>
       <c r="AM7">
-        <v>50042</v>
+        <v>67225</v>
+      </c>
+      <c r="AN7">
+        <v>67225</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1081</v>
+        <v>15601</v>
       </c>
       <c r="C8">
-        <v>1090</v>
+        <v>15601</v>
       </c>
       <c r="D8">
-        <v>1098</v>
+        <v>15577</v>
       </c>
       <c r="E8">
-        <v>1101</v>
+        <v>15615</v>
       </c>
       <c r="F8">
-        <v>1106</v>
+        <v>15615</v>
       </c>
       <c r="G8">
-        <v>1114</v>
+        <v>15594</v>
       </c>
       <c r="H8">
-        <v>1118</v>
+        <v>15582</v>
       </c>
       <c r="I8">
-        <v>1127</v>
+        <v>15582</v>
       </c>
       <c r="J8">
-        <v>1132</v>
+        <v>15571</v>
       </c>
       <c r="K8">
-        <v>1139</v>
+        <v>15422</v>
       </c>
       <c r="L8">
-        <v>1144</v>
+        <v>15422</v>
       </c>
       <c r="M8">
-        <v>1153</v>
+        <v>15387</v>
       </c>
       <c r="N8">
-        <v>1160</v>
+        <v>16778</v>
       </c>
       <c r="O8">
-        <v>1170</v>
+        <v>16778</v>
       </c>
       <c r="P8">
-        <v>1177</v>
+        <v>16760</v>
       </c>
       <c r="Q8">
-        <v>1181</v>
+        <v>16186</v>
       </c>
       <c r="R8">
-        <v>1187</v>
+        <v>16186</v>
       </c>
       <c r="S8">
-        <v>1192</v>
+        <v>16177</v>
       </c>
       <c r="T8">
-        <v>1196</v>
+        <v>15678</v>
       </c>
       <c r="U8">
-        <v>1204</v>
+        <v>15678</v>
       </c>
       <c r="V8">
-        <v>1210</v>
+        <v>15670</v>
       </c>
       <c r="W8">
-        <v>1216</v>
+        <v>15139</v>
       </c>
       <c r="X8">
-        <v>1221</v>
+        <v>15139</v>
       </c>
       <c r="Y8">
-        <v>1226</v>
+        <v>15117</v>
       </c>
       <c r="Z8">
-        <v>1234</v>
+        <v>15496</v>
       </c>
       <c r="AA8">
-        <v>1241</v>
+        <v>15496</v>
       </c>
       <c r="AB8">
-        <v>1247</v>
+        <v>15478</v>
       </c>
       <c r="AC8">
-        <v>1249</v>
+        <v>15223</v>
       </c>
       <c r="AD8">
-        <v>1252</v>
+        <v>15223</v>
       </c>
       <c r="AE8">
-        <v>1254</v>
+        <v>15211</v>
       </c>
       <c r="AF8">
-        <v>1256</v>
+        <v>14500</v>
       </c>
       <c r="AG8">
-        <v>1256</v>
+        <v>14500</v>
       </c>
       <c r="AH8">
-        <v>1256</v>
+        <v>14485</v>
       </c>
       <c r="AI8">
-        <v>1256</v>
+        <v>13650</v>
       </c>
       <c r="AJ8">
-        <v>1256</v>
+        <v>13650</v>
       </c>
       <c r="AK8">
-        <v>1256</v>
+        <v>13487</v>
       </c>
       <c r="AL8">
-        <v>1256</v>
+        <v>13579</v>
       </c>
       <c r="AM8">
-        <v>1256</v>
+        <v>13596</v>
+      </c>
+      <c r="AN8">
+        <v>13597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>8018</v>
+      </c>
+      <c r="C9">
+        <v>8018</v>
+      </c>
+      <c r="D9">
+        <v>8003</v>
+      </c>
+      <c r="E9">
+        <v>6718</v>
+      </c>
+      <c r="F9">
+        <v>6718</v>
+      </c>
+      <c r="G9">
+        <v>6694</v>
+      </c>
+      <c r="H9">
+        <v>47572</v>
+      </c>
+      <c r="I9">
+        <v>47572</v>
+      </c>
+      <c r="J9">
+        <v>47572</v>
+      </c>
+      <c r="K9">
+        <v>47435</v>
+      </c>
+      <c r="L9">
+        <v>47435</v>
+      </c>
+      <c r="M9">
+        <v>47435</v>
+      </c>
+      <c r="N9">
+        <v>51380</v>
+      </c>
+      <c r="O9">
+        <v>51380</v>
+      </c>
+      <c r="P9">
+        <v>51380</v>
+      </c>
+      <c r="Q9">
+        <v>49666</v>
+      </c>
+      <c r="R9">
+        <v>49666</v>
+      </c>
+      <c r="S9">
+        <v>49665</v>
+      </c>
+      <c r="T9">
+        <v>49441</v>
+      </c>
+      <c r="U9">
+        <v>49441</v>
+      </c>
+      <c r="V9">
+        <v>49441</v>
+      </c>
+      <c r="W9">
+        <v>49290</v>
+      </c>
+      <c r="X9">
+        <v>49290</v>
+      </c>
+      <c r="Y9">
+        <v>49289</v>
+      </c>
+      <c r="Z9">
+        <v>47528</v>
+      </c>
+      <c r="AA9">
+        <v>47528</v>
+      </c>
+      <c r="AB9">
+        <v>47528</v>
+      </c>
+      <c r="AC9">
+        <v>47229</v>
+      </c>
+      <c r="AD9">
+        <v>47229</v>
+      </c>
+      <c r="AE9">
+        <v>47229</v>
+      </c>
+      <c r="AF9">
+        <v>46976</v>
+      </c>
+      <c r="AG9">
+        <v>46976</v>
+      </c>
+      <c r="AH9">
+        <v>46976</v>
+      </c>
+      <c r="AI9">
+        <v>46799</v>
+      </c>
+      <c r="AJ9">
+        <v>46799</v>
+      </c>
+      <c r="AK9">
+        <v>46799</v>
+      </c>
+      <c r="AL9">
+        <v>46799</v>
+      </c>
+      <c r="AM9">
+        <v>46799</v>
+      </c>
+      <c r="AN9">
+        <v>46799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>8089</v>
+      </c>
+      <c r="C10">
+        <v>8089</v>
+      </c>
+      <c r="D10">
+        <v>8077</v>
+      </c>
+      <c r="E10">
+        <v>7973</v>
+      </c>
+      <c r="F10">
+        <v>7973</v>
+      </c>
+      <c r="G10">
+        <v>7965</v>
+      </c>
+      <c r="H10">
+        <v>7708</v>
+      </c>
+      <c r="I10">
+        <v>7708</v>
+      </c>
+      <c r="J10">
+        <v>7701</v>
+      </c>
+      <c r="K10">
+        <v>7743</v>
+      </c>
+      <c r="L10">
+        <v>7743</v>
+      </c>
+      <c r="M10">
+        <v>7731</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="O10">
+        <v>7897</v>
+      </c>
+      <c r="P10">
+        <v>7887</v>
+      </c>
+      <c r="Q10">
+        <v>7719</v>
+      </c>
+      <c r="R10">
+        <v>7719</v>
+      </c>
+      <c r="S10">
+        <v>7716</v>
+      </c>
+      <c r="T10">
+        <v>7572</v>
+      </c>
+      <c r="U10">
+        <v>7572</v>
+      </c>
+      <c r="V10">
+        <v>7563</v>
+      </c>
+      <c r="W10">
+        <v>7388</v>
+      </c>
+      <c r="X10">
+        <v>7388</v>
+      </c>
+      <c r="Y10">
+        <v>7370</v>
+      </c>
+      <c r="Z10">
+        <v>7453</v>
+      </c>
+      <c r="AA10">
+        <v>7453</v>
+      </c>
+      <c r="AB10">
+        <v>7437</v>
+      </c>
+      <c r="AC10">
+        <v>7360</v>
+      </c>
+      <c r="AD10">
+        <v>7360</v>
+      </c>
+      <c r="AE10">
+        <v>7351</v>
+      </c>
+      <c r="AF10">
+        <v>7308</v>
+      </c>
+      <c r="AG10">
+        <v>7308</v>
+      </c>
+      <c r="AH10">
+        <v>7302</v>
+      </c>
+      <c r="AI10">
+        <v>7203</v>
+      </c>
+      <c r="AJ10">
+        <v>7203</v>
+      </c>
+      <c r="AK10">
+        <v>7138</v>
+      </c>
+      <c r="AL10">
+        <v>7177</v>
+      </c>
+      <c r="AM10">
+        <v>7182</v>
+      </c>
+      <c r="AN10">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>22191</v>
+      </c>
+      <c r="C11">
+        <v>22191</v>
+      </c>
+      <c r="D11">
+        <v>22191</v>
+      </c>
+      <c r="E11">
+        <v>22052</v>
+      </c>
+      <c r="F11">
+        <v>22052</v>
+      </c>
+      <c r="G11">
+        <v>22052</v>
+      </c>
+      <c r="H11">
+        <v>21920</v>
+      </c>
+      <c r="I11">
+        <v>21920</v>
+      </c>
+      <c r="J11">
+        <v>21920</v>
+      </c>
+      <c r="K11">
+        <v>21856</v>
+      </c>
+      <c r="L11">
+        <v>21856</v>
+      </c>
+      <c r="M11">
+        <v>21856</v>
+      </c>
+      <c r="N11">
+        <v>23146</v>
+      </c>
+      <c r="O11">
+        <v>23146</v>
+      </c>
+      <c r="P11">
+        <v>23146</v>
+      </c>
+      <c r="Q11">
+        <v>21867</v>
+      </c>
+      <c r="R11">
+        <v>21867</v>
+      </c>
+      <c r="S11">
+        <v>21867</v>
+      </c>
+      <c r="T11">
+        <v>21742</v>
+      </c>
+      <c r="U11">
+        <v>21742</v>
+      </c>
+      <c r="V11">
+        <v>21742</v>
+      </c>
+      <c r="W11">
+        <v>21672</v>
+      </c>
+      <c r="X11">
+        <v>21672</v>
+      </c>
+      <c r="Y11">
+        <v>21672</v>
+      </c>
+      <c r="Z11">
+        <v>18703</v>
+      </c>
+      <c r="AA11">
+        <v>18703</v>
+      </c>
+      <c r="AB11">
+        <v>18703</v>
+      </c>
+      <c r="AC11">
+        <v>18594</v>
+      </c>
+      <c r="AD11">
+        <v>18594</v>
+      </c>
+      <c r="AE11">
+        <v>18594</v>
+      </c>
+      <c r="AF11">
+        <v>18509</v>
+      </c>
+      <c r="AG11">
+        <v>18509</v>
+      </c>
+      <c r="AH11">
+        <v>18509</v>
+      </c>
+      <c r="AI11">
+        <v>18463</v>
+      </c>
+      <c r="AJ11">
+        <v>18463</v>
+      </c>
+      <c r="AK11">
+        <v>18463</v>
+      </c>
+      <c r="AL11">
+        <v>18463</v>
+      </c>
+      <c r="AM11">
+        <v>18463</v>
+      </c>
+      <c r="AN11">
+        <v>18463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>7836</v>
+      </c>
+      <c r="C12">
+        <v>7836</v>
+      </c>
+      <c r="D12">
+        <v>7813</v>
+      </c>
+      <c r="E12">
+        <v>7282</v>
+      </c>
+      <c r="F12">
+        <v>7282</v>
+      </c>
+      <c r="G12">
+        <v>7267</v>
+      </c>
+      <c r="H12">
+        <v>7282</v>
+      </c>
+      <c r="I12">
+        <v>7282</v>
+      </c>
+      <c r="J12">
+        <v>7261</v>
+      </c>
+      <c r="K12">
+        <v>7225</v>
+      </c>
+      <c r="L12">
+        <v>7225</v>
+      </c>
+      <c r="M12">
+        <v>7205</v>
+      </c>
+      <c r="N12">
+        <v>7162</v>
+      </c>
+      <c r="O12">
+        <v>7162</v>
+      </c>
+      <c r="P12">
+        <v>7147</v>
+      </c>
+      <c r="Q12">
+        <v>6987</v>
+      </c>
+      <c r="R12">
+        <v>6987</v>
+      </c>
+      <c r="S12">
+        <v>6977</v>
+      </c>
+      <c r="T12">
+        <v>6839</v>
+      </c>
+      <c r="U12">
+        <v>6839</v>
+      </c>
+      <c r="V12">
+        <v>6823</v>
+      </c>
+      <c r="W12">
+        <v>6611</v>
+      </c>
+      <c r="X12">
+        <v>6611</v>
+      </c>
+      <c r="Y12">
+        <v>6602</v>
+      </c>
+      <c r="Z12">
+        <v>7275</v>
+      </c>
+      <c r="AA12">
+        <v>7275</v>
+      </c>
+      <c r="AB12">
+        <v>7260</v>
+      </c>
+      <c r="AC12">
+        <v>7395</v>
+      </c>
+      <c r="AD12">
+        <v>7395</v>
+      </c>
+      <c r="AE12">
+        <v>7382</v>
+      </c>
+      <c r="AF12">
+        <v>7336</v>
+      </c>
+      <c r="AG12">
+        <v>7336</v>
+      </c>
+      <c r="AH12">
+        <v>7324</v>
+      </c>
+      <c r="AI12">
+        <v>7332</v>
+      </c>
+      <c r="AJ12">
+        <v>7332</v>
+      </c>
+      <c r="AK12">
+        <v>7241</v>
+      </c>
+      <c r="AL12">
+        <v>7194</v>
+      </c>
+      <c r="AM12">
+        <v>7204</v>
+      </c>
+      <c r="AN12">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>10320</v>
+      </c>
+      <c r="C13">
+        <v>10320</v>
+      </c>
+      <c r="D13">
+        <v>10308</v>
+      </c>
+      <c r="E13">
+        <v>10226</v>
+      </c>
+      <c r="F13">
+        <v>10226</v>
+      </c>
+      <c r="G13">
+        <v>10214</v>
+      </c>
+      <c r="H13">
+        <v>10254</v>
+      </c>
+      <c r="I13">
+        <v>10254</v>
+      </c>
+      <c r="J13">
+        <v>10248</v>
+      </c>
+      <c r="K13">
+        <v>10152</v>
+      </c>
+      <c r="L13">
+        <v>10152</v>
+      </c>
+      <c r="M13">
+        <v>10126</v>
+      </c>
+      <c r="N13">
+        <v>10318</v>
+      </c>
+      <c r="O13">
+        <v>10318</v>
+      </c>
+      <c r="P13">
+        <v>10311</v>
+      </c>
+      <c r="Q13">
+        <v>10100</v>
+      </c>
+      <c r="R13">
+        <v>10100</v>
+      </c>
+      <c r="S13">
+        <v>10094</v>
+      </c>
+      <c r="T13">
+        <v>9786</v>
+      </c>
+      <c r="U13">
+        <v>9786</v>
+      </c>
+      <c r="V13">
+        <v>9783</v>
+      </c>
+      <c r="W13">
+        <v>9372</v>
+      </c>
+      <c r="X13">
+        <v>9372</v>
+      </c>
+      <c r="Y13">
+        <v>9355</v>
+      </c>
+      <c r="Z13">
+        <v>8774</v>
+      </c>
+      <c r="AA13">
+        <v>8774</v>
+      </c>
+      <c r="AB13">
+        <v>8764</v>
+      </c>
+      <c r="AC13">
+        <v>8746</v>
+      </c>
+      <c r="AD13">
+        <v>8746</v>
+      </c>
+      <c r="AE13">
+        <v>8740</v>
+      </c>
+      <c r="AF13">
+        <v>8598</v>
+      </c>
+      <c r="AG13">
+        <v>8598</v>
+      </c>
+      <c r="AH13">
+        <v>8590</v>
+      </c>
+      <c r="AI13">
+        <v>8709</v>
+      </c>
+      <c r="AJ13">
+        <v>8709</v>
+      </c>
+      <c r="AK13">
+        <v>8643</v>
+      </c>
+      <c r="AL13">
+        <v>8676</v>
+      </c>
+      <c r="AM13">
+        <v>8681</v>
+      </c>
+      <c r="AN13">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>31321</v>
+      </c>
+      <c r="C14">
+        <v>31321</v>
+      </c>
+      <c r="D14">
+        <v>31274</v>
+      </c>
+      <c r="E14">
+        <v>31241</v>
+      </c>
+      <c r="F14">
+        <v>31241</v>
+      </c>
+      <c r="G14">
+        <v>31204</v>
+      </c>
+      <c r="H14">
+        <v>30695</v>
+      </c>
+      <c r="I14">
+        <v>30695</v>
+      </c>
+      <c r="J14">
+        <v>30661</v>
+      </c>
+      <c r="K14">
+        <v>30806</v>
+      </c>
+      <c r="L14">
+        <v>30806</v>
+      </c>
+      <c r="M14">
+        <v>30746</v>
+      </c>
+      <c r="N14">
+        <v>30792</v>
+      </c>
+      <c r="O14">
+        <v>30792</v>
+      </c>
+      <c r="P14">
+        <v>30766</v>
+      </c>
+      <c r="Q14">
+        <v>30056</v>
+      </c>
+      <c r="R14">
+        <v>30056</v>
+      </c>
+      <c r="S14">
+        <v>30009</v>
+      </c>
+      <c r="T14">
+        <v>29792</v>
+      </c>
+      <c r="U14">
+        <v>29792</v>
+      </c>
+      <c r="V14">
+        <v>29747</v>
+      </c>
+      <c r="W14">
+        <v>29808</v>
+      </c>
+      <c r="X14">
+        <v>29808</v>
+      </c>
+      <c r="Y14">
+        <v>29741</v>
+      </c>
+      <c r="Z14">
+        <v>30486</v>
+      </c>
+      <c r="AA14">
+        <v>30486</v>
+      </c>
+      <c r="AB14">
+        <v>30435</v>
+      </c>
+      <c r="AC14">
+        <v>30904</v>
+      </c>
+      <c r="AD14">
+        <v>30904</v>
+      </c>
+      <c r="AE14">
+        <v>30874</v>
+      </c>
+      <c r="AF14">
+        <v>30935</v>
+      </c>
+      <c r="AG14">
+        <v>30935</v>
+      </c>
+      <c r="AH14">
+        <v>30882</v>
+      </c>
+      <c r="AI14">
+        <v>31111</v>
+      </c>
+      <c r="AJ14">
+        <v>31111</v>
+      </c>
+      <c r="AK14">
+        <v>30773</v>
+      </c>
+      <c r="AL14">
+        <v>30814</v>
+      </c>
+      <c r="AM14">
+        <v>30814</v>
+      </c>
+      <c r="AN14">
+        <v>30814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>9052</v>
+      </c>
+      <c r="C15">
+        <v>9052</v>
+      </c>
+      <c r="D15">
+        <v>9052</v>
+      </c>
+      <c r="E15">
+        <v>9052</v>
+      </c>
+      <c r="F15">
+        <v>9052</v>
+      </c>
+      <c r="G15">
+        <v>8320</v>
+      </c>
+      <c r="H15">
+        <v>8934</v>
+      </c>
+      <c r="I15">
+        <v>8934</v>
+      </c>
+      <c r="J15">
+        <v>8930</v>
+      </c>
+      <c r="K15">
+        <v>8979</v>
+      </c>
+      <c r="L15">
+        <v>8979</v>
+      </c>
+      <c r="M15">
+        <v>8964</v>
+      </c>
+      <c r="N15">
+        <v>8764</v>
+      </c>
+      <c r="O15">
+        <v>8764</v>
+      </c>
+      <c r="P15">
+        <v>8751</v>
+      </c>
+      <c r="Q15">
+        <v>8705</v>
+      </c>
+      <c r="R15">
+        <v>8705</v>
+      </c>
+      <c r="S15">
+        <v>8704</v>
+      </c>
+      <c r="T15">
+        <v>8698</v>
+      </c>
+      <c r="U15">
+        <v>8698</v>
+      </c>
+      <c r="V15">
+        <v>8695</v>
+      </c>
+      <c r="W15">
+        <v>8585</v>
+      </c>
+      <c r="X15">
+        <v>8585</v>
+      </c>
+      <c r="Y15">
+        <v>8575</v>
+      </c>
+      <c r="Z15">
+        <v>8492</v>
+      </c>
+      <c r="AA15">
+        <v>8492</v>
+      </c>
+      <c r="AB15">
+        <v>8474</v>
+      </c>
+      <c r="AC15">
+        <v>8425</v>
+      </c>
+      <c r="AD15">
+        <v>8425</v>
+      </c>
+      <c r="AE15">
+        <v>8420</v>
+      </c>
+      <c r="AF15">
+        <v>8359</v>
+      </c>
+      <c r="AG15">
+        <v>8359</v>
+      </c>
+      <c r="AH15">
+        <v>8350</v>
+      </c>
+      <c r="AI15">
+        <v>8283</v>
+      </c>
+      <c r="AJ15">
+        <v>8283</v>
+      </c>
+      <c r="AK15">
+        <v>8218</v>
+      </c>
+      <c r="AL15">
+        <v>8256</v>
+      </c>
+      <c r="AM15">
+        <v>8265</v>
+      </c>
+      <c r="AN15">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>18285</v>
+      </c>
+      <c r="C16">
+        <v>18285</v>
+      </c>
+      <c r="D16">
+        <v>18285</v>
+      </c>
+      <c r="E16">
+        <v>18285</v>
+      </c>
+      <c r="F16">
+        <v>18285</v>
+      </c>
+      <c r="G16">
+        <v>16466</v>
+      </c>
+      <c r="H16">
+        <v>18241</v>
+      </c>
+      <c r="I16">
+        <v>18241</v>
+      </c>
+      <c r="J16">
+        <v>18217</v>
+      </c>
+      <c r="K16">
+        <v>18431</v>
+      </c>
+      <c r="L16">
+        <v>18431</v>
+      </c>
+      <c r="M16">
+        <v>18375</v>
+      </c>
+      <c r="N16">
+        <v>18630</v>
+      </c>
+      <c r="O16">
+        <v>18630</v>
+      </c>
+      <c r="P16">
+        <v>18597</v>
+      </c>
+      <c r="Q16">
+        <v>18454</v>
+      </c>
+      <c r="R16">
+        <v>18454</v>
+      </c>
+      <c r="S16">
+        <v>18433</v>
+      </c>
+      <c r="T16">
+        <v>18186</v>
+      </c>
+      <c r="U16">
+        <v>18186</v>
+      </c>
+      <c r="V16">
+        <v>18174</v>
+      </c>
+      <c r="W16">
+        <v>17772</v>
+      </c>
+      <c r="X16">
+        <v>17772</v>
+      </c>
+      <c r="Y16">
+        <v>17709</v>
+      </c>
+      <c r="Z16">
+        <v>16176</v>
+      </c>
+      <c r="AA16">
+        <v>16176</v>
+      </c>
+      <c r="AB16">
+        <v>16150</v>
+      </c>
+      <c r="AC16">
+        <v>16456</v>
+      </c>
+      <c r="AD16">
+        <v>16456</v>
+      </c>
+      <c r="AE16">
+        <v>16433</v>
+      </c>
+      <c r="AF16">
+        <v>16350</v>
+      </c>
+      <c r="AG16">
+        <v>16350</v>
+      </c>
+      <c r="AH16">
+        <v>16339</v>
+      </c>
+      <c r="AI16">
+        <v>16403</v>
+      </c>
+      <c r="AJ16">
+        <v>16403</v>
+      </c>
+      <c r="AK16">
+        <v>16159</v>
+      </c>
+      <c r="AL16">
+        <v>16064</v>
+      </c>
+      <c r="AM16">
+        <v>16101</v>
+      </c>
+      <c r="AN16">
+        <v>16106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>6554</v>
+      </c>
+      <c r="C17">
+        <v>6554</v>
+      </c>
+      <c r="D17">
+        <v>6554</v>
+      </c>
+      <c r="E17">
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>6554</v>
+      </c>
+      <c r="G17">
+        <v>6554</v>
+      </c>
+      <c r="H17">
+        <v>6554</v>
+      </c>
+      <c r="I17">
+        <v>6554</v>
+      </c>
+      <c r="J17">
+        <v>6554</v>
+      </c>
+      <c r="K17">
+        <v>6554</v>
+      </c>
+      <c r="L17">
+        <v>6554</v>
+      </c>
+      <c r="M17">
+        <v>6210</v>
+      </c>
+      <c r="N17">
+        <v>6554</v>
+      </c>
+      <c r="O17">
+        <v>6554</v>
+      </c>
+      <c r="P17">
+        <v>6554</v>
+      </c>
+      <c r="Q17">
+        <v>6199</v>
+      </c>
+      <c r="R17">
+        <v>6199</v>
+      </c>
+      <c r="S17">
+        <v>6199</v>
+      </c>
+      <c r="T17">
+        <v>6183</v>
+      </c>
+      <c r="U17">
+        <v>6183</v>
+      </c>
+      <c r="V17">
+        <v>6183</v>
+      </c>
+      <c r="W17">
+        <v>6166</v>
+      </c>
+      <c r="X17">
+        <v>6166</v>
+      </c>
+      <c r="Y17">
+        <v>6166</v>
+      </c>
+      <c r="Z17">
+        <v>5895</v>
+      </c>
+      <c r="AA17">
+        <v>5895</v>
+      </c>
+      <c r="AB17">
+        <v>5895</v>
+      </c>
+      <c r="AC17">
+        <v>6045</v>
+      </c>
+      <c r="AD17">
+        <v>6045</v>
+      </c>
+      <c r="AE17">
+        <v>6045</v>
+      </c>
+      <c r="AF17">
+        <v>6013</v>
+      </c>
+      <c r="AG17">
+        <v>6013</v>
+      </c>
+      <c r="AH17">
+        <v>6013</v>
+      </c>
+      <c r="AI17">
+        <v>6106</v>
+      </c>
+      <c r="AJ17">
+        <v>6106</v>
+      </c>
+      <c r="AK17">
+        <v>6106</v>
+      </c>
+      <c r="AL17">
+        <v>6106</v>
+      </c>
+      <c r="AM17">
+        <v>6106</v>
+      </c>
+      <c r="AN17">
+        <v>6106</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -1258,6 +1258,24 @@
       <c r="AH6">
         <v>15701</v>
       </c>
+      <c r="AI6">
+        <v>13785</v>
+      </c>
+      <c r="AJ6">
+        <v>13785</v>
+      </c>
+      <c r="AK6">
+        <v>13785</v>
+      </c>
+      <c r="AL6">
+        <v>13785</v>
+      </c>
+      <c r="AM6">
+        <v>13785</v>
+      </c>
+      <c r="AN6">
+        <v>13785</v>
+      </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
@@ -1351,7 +1369,7 @@
         <v>68283</v>
       </c>
       <c r="AE7">
-        <v>68283</v>
+        <v>68241</v>
       </c>
       <c r="AF7">
         <v>67699</v>
@@ -1360,7 +1378,7 @@
         <v>67699</v>
       </c>
       <c r="AH7">
-        <v>67699</v>
+        <v>67659</v>
       </c>
       <c r="AI7">
         <v>67225</v>
@@ -1369,16 +1387,16 @@
         <v>67225</v>
       </c>
       <c r="AK7">
-        <v>67225</v>
+        <v>66346</v>
       </c>
       <c r="AL7">
-        <v>67225</v>
+        <v>66044</v>
       </c>
       <c r="AM7">
-        <v>67225</v>
+        <v>66169</v>
       </c>
       <c r="AN7">
-        <v>67225</v>
+        <v>66171</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2517,7 +2535,7 @@
         <v>6554</v>
       </c>
       <c r="M17">
-        <v>6210</v>
+        <v>6554</v>
       </c>
       <c r="N17">
         <v>6554</v>
@@ -2562,7 +2580,7 @@
         <v>5895</v>
       </c>
       <c r="AB17">
-        <v>5895</v>
+        <v>5878</v>
       </c>
       <c r="AC17">
         <v>6045</v>
@@ -2571,7 +2589,7 @@
         <v>6045</v>
       </c>
       <c r="AE17">
-        <v>6045</v>
+        <v>6033</v>
       </c>
       <c r="AF17">
         <v>6013</v>
@@ -2580,7 +2598,7 @@
         <v>6013</v>
       </c>
       <c r="AH17">
-        <v>6013</v>
+        <v>6002</v>
       </c>
       <c r="AI17">
         <v>6106</v>
@@ -2589,16 +2607,16 @@
         <v>6106</v>
       </c>
       <c r="AK17">
-        <v>6106</v>
+        <v>6003</v>
       </c>
       <c r="AL17">
-        <v>6106</v>
+        <v>6067</v>
       </c>
       <c r="AM17">
-        <v>6106</v>
+        <v>6086</v>
       </c>
       <c r="AN17">
-        <v>6106</v>
+        <v>6086</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1133,121 +1136,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>2800</v>
+        <v>3661</v>
       </c>
       <c r="C6">
-        <v>2815</v>
+        <v>3694</v>
       </c>
       <c r="D6">
-        <v>2829</v>
+        <v>3714</v>
       </c>
       <c r="E6">
-        <v>2843</v>
+        <v>3736</v>
       </c>
       <c r="F6">
-        <v>2856</v>
+        <v>3757</v>
       </c>
       <c r="G6">
-        <v>2868</v>
+        <v>3773</v>
       </c>
       <c r="H6">
-        <v>2894</v>
+        <v>3801</v>
       </c>
       <c r="I6">
-        <v>2909</v>
+        <v>3832</v>
       </c>
       <c r="J6">
-        <v>2924</v>
+        <v>3845</v>
       </c>
       <c r="K6">
-        <v>2933</v>
+        <v>3873</v>
       </c>
       <c r="L6">
-        <v>2946</v>
+        <v>3895</v>
       </c>
       <c r="M6">
-        <v>2968</v>
+        <v>3911</v>
       </c>
       <c r="N6">
-        <v>2987</v>
+        <v>3943</v>
       </c>
       <c r="O6">
-        <v>3002</v>
+        <v>3969</v>
       </c>
       <c r="P6">
-        <v>3009</v>
+        <v>3980</v>
       </c>
       <c r="Q6">
-        <v>3022</v>
+        <v>4000</v>
       </c>
       <c r="R6">
-        <v>3025</v>
+        <v>4028</v>
       </c>
       <c r="S6">
-        <v>3031</v>
+        <v>4042</v>
       </c>
       <c r="T6">
-        <v>3037</v>
+        <v>4059</v>
       </c>
       <c r="U6">
-        <v>3037</v>
+        <v>4082</v>
       </c>
       <c r="V6">
-        <v>3037</v>
+        <v>4099</v>
       </c>
       <c r="W6">
-        <v>3038</v>
+        <v>4110</v>
       </c>
       <c r="X6">
-        <v>3038</v>
+        <v>4125</v>
       </c>
       <c r="Y6">
-        <v>3039</v>
+        <v>4142</v>
       </c>
       <c r="Z6">
-        <v>3040</v>
+        <v>4161</v>
       </c>
       <c r="AA6">
-        <v>3040</v>
+        <v>4179</v>
       </c>
       <c r="AB6">
-        <v>3040</v>
+        <v>4195</v>
       </c>
       <c r="AC6">
-        <v>3040</v>
+        <v>4202</v>
       </c>
       <c r="AD6">
-        <v>3018</v>
+        <v>4207</v>
       </c>
       <c r="AE6">
-        <v>2987</v>
+        <v>4212</v>
       </c>
       <c r="AF6">
-        <v>3012</v>
+        <v>4214</v>
       </c>
       <c r="AG6">
-        <v>2988</v>
+        <v>4215</v>
       </c>
       <c r="AH6">
-        <v>2950</v>
+        <v>4216</v>
       </c>
       <c r="AI6">
-        <v>4224</v>
+        <v>4216</v>
       </c>
       <c r="AJ6">
-        <v>4194</v>
+        <v>4217</v>
       </c>
       <c r="AK6">
-        <v>4179</v>
+        <v>4217</v>
       </c>
       <c r="AL6">
-        <v>20927</v>
+        <v>4217</v>
       </c>
       <c r="AM6">
-        <v>20801</v>
+        <v>4217</v>
       </c>
       <c r="AN6">
-        <v>20801</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1255,121 +1258,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>43349</v>
+        <v>2800</v>
       </c>
       <c r="C7">
-        <v>43687</v>
+        <v>2815</v>
       </c>
       <c r="D7">
-        <v>43924</v>
+        <v>2829</v>
       </c>
       <c r="E7">
-        <v>44149</v>
+        <v>2843</v>
       </c>
       <c r="F7">
-        <v>44362</v>
+        <v>2856</v>
       </c>
       <c r="G7">
-        <v>44601</v>
+        <v>2868</v>
       </c>
       <c r="H7">
-        <v>44839</v>
+        <v>2894</v>
       </c>
       <c r="I7">
-        <v>45231</v>
+        <v>2909</v>
       </c>
       <c r="J7">
-        <v>45466</v>
+        <v>2924</v>
       </c>
       <c r="K7">
-        <v>45764</v>
+        <v>2933</v>
       </c>
       <c r="L7">
-        <v>46036</v>
+        <v>2946</v>
       </c>
       <c r="M7">
-        <v>46261</v>
+        <v>2968</v>
       </c>
       <c r="N7">
-        <v>46499</v>
+        <v>2987</v>
       </c>
       <c r="O7">
-        <v>46806</v>
+        <v>3002</v>
       </c>
       <c r="P7">
-        <v>47050</v>
+        <v>3009</v>
       </c>
       <c r="Q7">
-        <v>47291</v>
+        <v>3022</v>
       </c>
       <c r="R7">
-        <v>47492</v>
+        <v>3025</v>
       </c>
       <c r="S7">
-        <v>47708</v>
+        <v>3031</v>
       </c>
       <c r="T7">
-        <v>47937</v>
+        <v>3037</v>
       </c>
       <c r="U7">
-        <v>48232</v>
+        <v>3037</v>
       </c>
       <c r="V7">
-        <v>48437</v>
+        <v>3037</v>
       </c>
       <c r="W7">
-        <v>48670</v>
+        <v>3038</v>
       </c>
       <c r="X7">
-        <v>48835</v>
+        <v>3038</v>
       </c>
       <c r="Y7">
-        <v>48984</v>
+        <v>3039</v>
       </c>
       <c r="Z7">
-        <v>49159</v>
+        <v>3040</v>
       </c>
       <c r="AA7">
-        <v>49354</v>
+        <v>3040</v>
       </c>
       <c r="AB7">
-        <v>49486</v>
+        <v>3040</v>
       </c>
       <c r="AC7">
-        <v>49620</v>
+        <v>3040</v>
       </c>
       <c r="AD7">
-        <v>49730</v>
+        <v>3018</v>
       </c>
       <c r="AE7">
-        <v>49821</v>
+        <v>2987</v>
       </c>
       <c r="AF7">
-        <v>49864</v>
+        <v>3012</v>
       </c>
       <c r="AG7">
-        <v>49873</v>
+        <v>2988</v>
       </c>
       <c r="AH7">
-        <v>49873</v>
+        <v>2950</v>
       </c>
       <c r="AI7">
-        <v>49876</v>
+        <v>4224</v>
       </c>
       <c r="AJ7">
-        <v>49881</v>
+        <v>4194</v>
       </c>
       <c r="AK7">
-        <v>49884</v>
+        <v>4179</v>
       </c>
       <c r="AL7">
-        <v>49887</v>
+        <v>20927</v>
       </c>
       <c r="AM7">
-        <v>49636</v>
+        <v>20801</v>
       </c>
       <c r="AN7">
-        <v>49636</v>
+        <v>20801</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1377,120 +1380,242 @@
         <v>46</v>
       </c>
       <c r="B8">
+        <v>43349</v>
+      </c>
+      <c r="C8">
+        <v>43687</v>
+      </c>
+      <c r="D8">
+        <v>43924</v>
+      </c>
+      <c r="E8">
+        <v>44149</v>
+      </c>
+      <c r="F8">
+        <v>44362</v>
+      </c>
+      <c r="G8">
+        <v>44601</v>
+      </c>
+      <c r="H8">
+        <v>44839</v>
+      </c>
+      <c r="I8">
+        <v>45231</v>
+      </c>
+      <c r="J8">
+        <v>45466</v>
+      </c>
+      <c r="K8">
+        <v>45764</v>
+      </c>
+      <c r="L8">
+        <v>46036</v>
+      </c>
+      <c r="M8">
+        <v>46261</v>
+      </c>
+      <c r="N8">
+        <v>46499</v>
+      </c>
+      <c r="O8">
+        <v>46806</v>
+      </c>
+      <c r="P8">
+        <v>47050</v>
+      </c>
+      <c r="Q8">
+        <v>47291</v>
+      </c>
+      <c r="R8">
+        <v>47492</v>
+      </c>
+      <c r="S8">
+        <v>47708</v>
+      </c>
+      <c r="T8">
+        <v>47937</v>
+      </c>
+      <c r="U8">
+        <v>48232</v>
+      </c>
+      <c r="V8">
+        <v>48437</v>
+      </c>
+      <c r="W8">
+        <v>48670</v>
+      </c>
+      <c r="X8">
+        <v>48835</v>
+      </c>
+      <c r="Y8">
+        <v>48984</v>
+      </c>
+      <c r="Z8">
+        <v>49159</v>
+      </c>
+      <c r="AA8">
+        <v>49354</v>
+      </c>
+      <c r="AB8">
+        <v>49486</v>
+      </c>
+      <c r="AC8">
+        <v>49620</v>
+      </c>
+      <c r="AD8">
+        <v>49730</v>
+      </c>
+      <c r="AE8">
+        <v>49821</v>
+      </c>
+      <c r="AF8">
+        <v>49864</v>
+      </c>
+      <c r="AG8">
+        <v>49873</v>
+      </c>
+      <c r="AH8">
+        <v>49873</v>
+      </c>
+      <c r="AI8">
+        <v>49876</v>
+      </c>
+      <c r="AJ8">
+        <v>49881</v>
+      </c>
+      <c r="AK8">
+        <v>49884</v>
+      </c>
+      <c r="AL8">
+        <v>49887</v>
+      </c>
+      <c r="AM8">
+        <v>49636</v>
+      </c>
+      <c r="AN8">
+        <v>49636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
         <v>1076</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1085</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1093</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>1096</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1101</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>1109</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>1113</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>1122</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1126</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>1133</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>1138</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>1147</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>1154</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>1164</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>1171</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>1175</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>1181</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>1186</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>1190</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>1198</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>1204</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>1210</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <v>1215</v>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <v>1220</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>1228</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>1235</v>
       </c>
-      <c r="AB8">
+      <c r="AB9">
         <v>1241</v>
       </c>
-      <c r="AC8">
+      <c r="AC9">
         <v>1243</v>
       </c>
-      <c r="AD8">
+      <c r="AD9">
         <v>1246</v>
       </c>
-      <c r="AE8">
+      <c r="AE9">
         <v>1248</v>
       </c>
-      <c r="AF8">
+      <c r="AF9">
         <v>1250</v>
       </c>
-      <c r="AG8">
+      <c r="AG9">
         <v>1250</v>
       </c>
-      <c r="AH8">
+      <c r="AH9">
         <v>1250</v>
       </c>
-      <c r="AI8">
+      <c r="AI9">
         <v>1250</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ9">
         <v>1250</v>
       </c>
-      <c r="AK8">
+      <c r="AK9">
         <v>1250</v>
       </c>
-      <c r="AL8">
+      <c r="AL9">
         <v>1250</v>
       </c>
-      <c r="AM8">
+      <c r="AM9">
         <v>1243</v>
       </c>
-      <c r="AN8">
+      <c r="AN9">
         <v>1243</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,10 +124,40 @@
     <t>m-2021-12</t>
   </si>
   <si>
+    <t>m-2022-01</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -485,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,118 +633,990 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>739</v>
+        <v>6454</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>6499</v>
       </c>
       <c r="D2">
-        <v>741</v>
+        <v>6531</v>
       </c>
       <c r="E2">
-        <v>741</v>
+        <v>6585</v>
       </c>
       <c r="F2">
-        <v>742</v>
+        <v>6636</v>
       </c>
       <c r="G2">
-        <v>743</v>
+        <v>6684</v>
       </c>
       <c r="H2">
-        <v>744</v>
+        <v>6730</v>
       </c>
       <c r="I2">
-        <v>745</v>
+        <v>6776</v>
       </c>
       <c r="J2">
-        <v>745</v>
+        <v>6818</v>
       </c>
       <c r="K2">
-        <v>746</v>
+        <v>6850</v>
       </c>
       <c r="L2">
-        <v>747</v>
+        <v>6879</v>
       </c>
       <c r="M2">
-        <v>748</v>
+        <v>6907</v>
       </c>
       <c r="N2">
-        <v>748</v>
+        <v>6936</v>
       </c>
       <c r="O2">
-        <v>749</v>
+        <v>6962</v>
       </c>
       <c r="P2">
-        <v>749</v>
+        <v>6983</v>
       </c>
       <c r="Q2">
-        <v>751</v>
+        <v>7001</v>
       </c>
       <c r="R2">
-        <v>751</v>
+        <v>7022</v>
       </c>
       <c r="S2">
-        <v>751</v>
+        <v>7032</v>
       </c>
       <c r="T2">
-        <v>751</v>
+        <v>7039</v>
       </c>
       <c r="U2">
-        <v>751</v>
+        <v>7042</v>
       </c>
       <c r="V2">
-        <v>751</v>
+        <v>7044</v>
       </c>
       <c r="W2">
-        <v>751</v>
+        <v>7045</v>
       </c>
       <c r="X2">
-        <v>751</v>
+        <v>7047</v>
       </c>
       <c r="Y2">
-        <v>751</v>
+        <v>7050</v>
       </c>
       <c r="Z2">
-        <v>751</v>
+        <v>7052</v>
       </c>
       <c r="AA2">
-        <v>751</v>
+        <v>7054</v>
       </c>
       <c r="AB2">
-        <v>751</v>
+        <v>7056</v>
       </c>
       <c r="AC2">
-        <v>720</v>
+        <v>7056</v>
       </c>
       <c r="AD2">
-        <v>720</v>
+        <v>7025</v>
       </c>
       <c r="AE2">
-        <v>720</v>
+        <v>6992</v>
       </c>
       <c r="AF2">
-        <v>805</v>
+        <v>6942</v>
       </c>
       <c r="AG2">
-        <v>805</v>
+        <v>6907</v>
       </c>
       <c r="AH2">
-        <v>805</v>
+        <v>6871</v>
       </c>
       <c r="AI2">
-        <v>865</v>
+        <v>6846</v>
       </c>
       <c r="AJ2">
-        <v>865</v>
+        <v>6821</v>
       </c>
       <c r="AK2">
-        <v>865</v>
+        <v>6797</v>
+      </c>
+      <c r="AL2">
+        <v>17875</v>
+      </c>
+      <c r="AM2">
+        <v>17768</v>
+      </c>
+      <c r="AN2">
+        <v>17723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>915</v>
+      </c>
+      <c r="C3">
+        <v>921</v>
+      </c>
+      <c r="D3">
+        <v>928</v>
+      </c>
+      <c r="E3">
+        <v>934</v>
+      </c>
+      <c r="F3">
+        <v>939</v>
+      </c>
+      <c r="G3">
+        <v>949</v>
+      </c>
+      <c r="H3">
+        <v>958</v>
+      </c>
+      <c r="I3">
+        <v>974</v>
+      </c>
+      <c r="J3">
+        <v>978</v>
+      </c>
+      <c r="K3">
+        <v>983</v>
+      </c>
+      <c r="L3">
+        <v>987</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1009</v>
+      </c>
+      <c r="O3">
+        <v>1018</v>
+      </c>
+      <c r="P3">
+        <v>1029</v>
+      </c>
+      <c r="Q3">
+        <v>1034</v>
+      </c>
+      <c r="R3">
+        <v>1040</v>
+      </c>
+      <c r="S3">
+        <v>1048</v>
+      </c>
+      <c r="T3">
+        <v>1050</v>
+      </c>
+      <c r="U3">
+        <v>1062</v>
+      </c>
+      <c r="V3">
+        <v>1068</v>
+      </c>
+      <c r="W3">
+        <v>1072</v>
+      </c>
+      <c r="X3">
+        <v>1076</v>
+      </c>
+      <c r="Y3">
+        <v>1084</v>
+      </c>
+      <c r="Z3">
+        <v>1091</v>
+      </c>
+      <c r="AA3">
+        <v>1099</v>
+      </c>
+      <c r="AB3">
+        <v>1109</v>
+      </c>
+      <c r="AC3">
+        <v>1114</v>
+      </c>
+      <c r="AD3">
+        <v>1119</v>
+      </c>
+      <c r="AE3">
+        <v>1120</v>
+      </c>
+      <c r="AF3">
+        <v>1121</v>
+      </c>
+      <c r="AG3">
+        <v>1123</v>
+      </c>
+      <c r="AH3">
+        <v>1124</v>
+      </c>
+      <c r="AI3">
+        <v>1124</v>
+      </c>
+      <c r="AJ3">
+        <v>1124</v>
+      </c>
+      <c r="AK3">
+        <v>1124</v>
+      </c>
+      <c r="AL3">
+        <v>1124</v>
+      </c>
+      <c r="AM3">
+        <v>1115</v>
+      </c>
+      <c r="AN3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>35626</v>
+      </c>
+      <c r="C4">
+        <v>35852</v>
+      </c>
+      <c r="D4">
+        <v>36042</v>
+      </c>
+      <c r="E4">
+        <v>36212</v>
+      </c>
+      <c r="F4">
+        <v>36423</v>
+      </c>
+      <c r="G4">
+        <v>36597</v>
+      </c>
+      <c r="H4">
+        <v>36795</v>
+      </c>
+      <c r="I4">
+        <v>37098</v>
+      </c>
+      <c r="J4">
+        <v>37315</v>
+      </c>
+      <c r="K4">
+        <v>37524</v>
+      </c>
+      <c r="L4">
+        <v>37752</v>
+      </c>
+      <c r="M4">
+        <v>37947</v>
+      </c>
+      <c r="N4">
+        <v>38123</v>
+      </c>
+      <c r="O4">
+        <v>38359</v>
+      </c>
+      <c r="P4">
+        <v>38556</v>
+      </c>
+      <c r="Q4">
+        <v>38739</v>
+      </c>
+      <c r="R4">
+        <v>38908</v>
+      </c>
+      <c r="S4">
+        <v>39056</v>
+      </c>
+      <c r="T4">
+        <v>39252</v>
+      </c>
+      <c r="U4">
+        <v>39529</v>
+      </c>
+      <c r="V4">
+        <v>39740</v>
+      </c>
+      <c r="W4">
+        <v>39928</v>
+      </c>
+      <c r="X4">
+        <v>40123</v>
+      </c>
+      <c r="Y4">
+        <v>40290</v>
+      </c>
+      <c r="Z4">
+        <v>40419</v>
+      </c>
+      <c r="AA4">
+        <v>40589</v>
+      </c>
+      <c r="AB4">
+        <v>40712</v>
+      </c>
+      <c r="AC4">
+        <v>40827</v>
+      </c>
+      <c r="AD4">
+        <v>40918</v>
+      </c>
+      <c r="AE4">
+        <v>40993</v>
+      </c>
+      <c r="AF4">
+        <v>41033</v>
+      </c>
+      <c r="AG4">
+        <v>41045</v>
+      </c>
+      <c r="AH4">
+        <v>41048</v>
+      </c>
+      <c r="AI4">
+        <v>41051</v>
+      </c>
+      <c r="AJ4">
+        <v>41057</v>
+      </c>
+      <c r="AK4">
+        <v>41061</v>
+      </c>
+      <c r="AL4">
+        <v>41064</v>
+      </c>
+      <c r="AM4">
+        <v>40741</v>
+      </c>
+      <c r="AN4">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>2969</v>
+      </c>
+      <c r="C5">
+        <v>3012</v>
+      </c>
+      <c r="D5">
+        <v>3027</v>
+      </c>
+      <c r="E5">
+        <v>3056</v>
+      </c>
+      <c r="F5">
+        <v>3085</v>
+      </c>
+      <c r="G5">
+        <v>3107</v>
+      </c>
+      <c r="H5">
+        <v>3134</v>
+      </c>
+      <c r="I5">
+        <v>3172</v>
+      </c>
+      <c r="J5">
+        <v>3204</v>
+      </c>
+      <c r="K5">
+        <v>3225</v>
+      </c>
+      <c r="L5">
+        <v>3250</v>
+      </c>
+      <c r="M5">
+        <v>3270</v>
+      </c>
+      <c r="N5">
+        <v>3296</v>
+      </c>
+      <c r="O5">
+        <v>3322</v>
+      </c>
+      <c r="P5">
+        <v>3335</v>
+      </c>
+      <c r="Q5">
+        <v>3377</v>
+      </c>
+      <c r="R5">
+        <v>3399</v>
+      </c>
+      <c r="S5">
+        <v>3424</v>
+      </c>
+      <c r="T5">
+        <v>3450</v>
+      </c>
+      <c r="U5">
+        <v>3486</v>
+      </c>
+      <c r="V5">
+        <v>3498</v>
+      </c>
+      <c r="W5">
+        <v>3522</v>
+      </c>
+      <c r="X5">
+        <v>3536</v>
+      </c>
+      <c r="Y5">
+        <v>3557</v>
+      </c>
+      <c r="Z5">
+        <v>3570</v>
+      </c>
+      <c r="AA5">
+        <v>3588</v>
+      </c>
+      <c r="AB5">
+        <v>3601</v>
+      </c>
+      <c r="AC5">
+        <v>3617</v>
+      </c>
+      <c r="AD5">
+        <v>3636</v>
+      </c>
+      <c r="AE5">
+        <v>3666</v>
+      </c>
+      <c r="AF5">
+        <v>3677</v>
+      </c>
+      <c r="AG5">
+        <v>3687</v>
+      </c>
+      <c r="AH5">
+        <v>3694</v>
+      </c>
+      <c r="AI5">
+        <v>3695</v>
+      </c>
+      <c r="AJ5">
+        <v>3695</v>
+      </c>
+      <c r="AK5">
+        <v>3696</v>
+      </c>
+      <c r="AL5">
+        <v>3696</v>
+      </c>
+      <c r="AM5">
+        <v>3639</v>
+      </c>
+      <c r="AN5">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>3661</v>
+      </c>
+      <c r="C6">
+        <v>3694</v>
+      </c>
+      <c r="D6">
+        <v>3714</v>
+      </c>
+      <c r="E6">
+        <v>3736</v>
+      </c>
+      <c r="F6">
+        <v>3757</v>
+      </c>
+      <c r="G6">
+        <v>3773</v>
+      </c>
+      <c r="H6">
+        <v>3801</v>
+      </c>
+      <c r="I6">
+        <v>3832</v>
+      </c>
+      <c r="J6">
+        <v>3845</v>
+      </c>
+      <c r="K6">
+        <v>3873</v>
+      </c>
+      <c r="L6">
+        <v>3895</v>
+      </c>
+      <c r="M6">
+        <v>3911</v>
+      </c>
+      <c r="N6">
+        <v>3943</v>
+      </c>
+      <c r="O6">
+        <v>3969</v>
+      </c>
+      <c r="P6">
+        <v>3980</v>
+      </c>
+      <c r="Q6">
+        <v>4000</v>
+      </c>
+      <c r="R6">
+        <v>4028</v>
+      </c>
+      <c r="S6">
+        <v>4042</v>
+      </c>
+      <c r="T6">
+        <v>4059</v>
+      </c>
+      <c r="U6">
+        <v>4082</v>
+      </c>
+      <c r="V6">
+        <v>4099</v>
+      </c>
+      <c r="W6">
+        <v>4110</v>
+      </c>
+      <c r="X6">
+        <v>4125</v>
+      </c>
+      <c r="Y6">
+        <v>4142</v>
+      </c>
+      <c r="Z6">
+        <v>4161</v>
+      </c>
+      <c r="AA6">
+        <v>4179</v>
+      </c>
+      <c r="AB6">
+        <v>4195</v>
+      </c>
+      <c r="AC6">
+        <v>4202</v>
+      </c>
+      <c r="AD6">
+        <v>4207</v>
+      </c>
+      <c r="AE6">
+        <v>4212</v>
+      </c>
+      <c r="AF6">
+        <v>4214</v>
+      </c>
+      <c r="AG6">
+        <v>4215</v>
+      </c>
+      <c r="AH6">
+        <v>4216</v>
+      </c>
+      <c r="AI6">
+        <v>4216</v>
+      </c>
+      <c r="AJ6">
+        <v>4217</v>
+      </c>
+      <c r="AK6">
+        <v>4217</v>
+      </c>
+      <c r="AL6">
+        <v>4217</v>
+      </c>
+      <c r="AM6">
+        <v>4217</v>
+      </c>
+      <c r="AN6">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>2815</v>
+      </c>
+      <c r="D7">
+        <v>2829</v>
+      </c>
+      <c r="E7">
+        <v>2843</v>
+      </c>
+      <c r="F7">
+        <v>2856</v>
+      </c>
+      <c r="G7">
+        <v>2868</v>
+      </c>
+      <c r="H7">
+        <v>2894</v>
+      </c>
+      <c r="I7">
+        <v>2909</v>
+      </c>
+      <c r="J7">
+        <v>2924</v>
+      </c>
+      <c r="K7">
+        <v>2933</v>
+      </c>
+      <c r="L7">
+        <v>2946</v>
+      </c>
+      <c r="M7">
+        <v>2968</v>
+      </c>
+      <c r="N7">
+        <v>2987</v>
+      </c>
+      <c r="O7">
+        <v>3002</v>
+      </c>
+      <c r="P7">
+        <v>3009</v>
+      </c>
+      <c r="Q7">
+        <v>3022</v>
+      </c>
+      <c r="R7">
+        <v>3025</v>
+      </c>
+      <c r="S7">
+        <v>3031</v>
+      </c>
+      <c r="T7">
+        <v>3037</v>
+      </c>
+      <c r="U7">
+        <v>3037</v>
+      </c>
+      <c r="V7">
+        <v>3037</v>
+      </c>
+      <c r="W7">
+        <v>3038</v>
+      </c>
+      <c r="X7">
+        <v>3038</v>
+      </c>
+      <c r="Y7">
+        <v>3039</v>
+      </c>
+      <c r="Z7">
+        <v>3040</v>
+      </c>
+      <c r="AA7">
+        <v>3040</v>
+      </c>
+      <c r="AB7">
+        <v>3040</v>
+      </c>
+      <c r="AC7">
+        <v>3040</v>
+      </c>
+      <c r="AD7">
+        <v>3018</v>
+      </c>
+      <c r="AE7">
+        <v>2987</v>
+      </c>
+      <c r="AF7">
+        <v>3012</v>
+      </c>
+      <c r="AG7">
+        <v>2988</v>
+      </c>
+      <c r="AH7">
+        <v>2950</v>
+      </c>
+      <c r="AI7">
+        <v>4224</v>
+      </c>
+      <c r="AJ7">
+        <v>4194</v>
+      </c>
+      <c r="AK7">
+        <v>4179</v>
+      </c>
+      <c r="AL7">
+        <v>20928</v>
+      </c>
+      <c r="AM7">
+        <v>20790</v>
+      </c>
+      <c r="AN7">
+        <v>20751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>43353</v>
+      </c>
+      <c r="C8">
+        <v>43691</v>
+      </c>
+      <c r="D8">
+        <v>43928</v>
+      </c>
+      <c r="E8">
+        <v>44153</v>
+      </c>
+      <c r="F8">
+        <v>44366</v>
+      </c>
+      <c r="G8">
+        <v>44605</v>
+      </c>
+      <c r="H8">
+        <v>44843</v>
+      </c>
+      <c r="I8">
+        <v>45235</v>
+      </c>
+      <c r="J8">
+        <v>45470</v>
+      </c>
+      <c r="K8">
+        <v>45768</v>
+      </c>
+      <c r="L8">
+        <v>46040</v>
+      </c>
+      <c r="M8">
+        <v>46265</v>
+      </c>
+      <c r="N8">
+        <v>46503</v>
+      </c>
+      <c r="O8">
+        <v>46810</v>
+      </c>
+      <c r="P8">
+        <v>47054</v>
+      </c>
+      <c r="Q8">
+        <v>47295</v>
+      </c>
+      <c r="R8">
+        <v>47496</v>
+      </c>
+      <c r="S8">
+        <v>47712</v>
+      </c>
+      <c r="T8">
+        <v>47941</v>
+      </c>
+      <c r="U8">
+        <v>48236</v>
+      </c>
+      <c r="V8">
+        <v>48441</v>
+      </c>
+      <c r="W8">
+        <v>48674</v>
+      </c>
+      <c r="X8">
+        <v>48839</v>
+      </c>
+      <c r="Y8">
+        <v>48988</v>
+      </c>
+      <c r="Z8">
+        <v>49163</v>
+      </c>
+      <c r="AA8">
+        <v>49358</v>
+      </c>
+      <c r="AB8">
+        <v>49490</v>
+      </c>
+      <c r="AC8">
+        <v>49624</v>
+      </c>
+      <c r="AD8">
+        <v>49734</v>
+      </c>
+      <c r="AE8">
+        <v>49825</v>
+      </c>
+      <c r="AF8">
+        <v>49868</v>
+      </c>
+      <c r="AG8">
+        <v>49877</v>
+      </c>
+      <c r="AH8">
+        <v>49877</v>
+      </c>
+      <c r="AI8">
+        <v>49880</v>
+      </c>
+      <c r="AJ8">
+        <v>49885</v>
+      </c>
+      <c r="AK8">
+        <v>49888</v>
+      </c>
+      <c r="AL8">
+        <v>49891</v>
+      </c>
+      <c r="AM8">
+        <v>49603</v>
+      </c>
+      <c r="AN8">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1076</v>
+      </c>
+      <c r="C9">
+        <v>1085</v>
+      </c>
+      <c r="D9">
+        <v>1093</v>
+      </c>
+      <c r="E9">
+        <v>1096</v>
+      </c>
+      <c r="F9">
+        <v>1101</v>
+      </c>
+      <c r="G9">
+        <v>1109</v>
+      </c>
+      <c r="H9">
+        <v>1113</v>
+      </c>
+      <c r="I9">
+        <v>1122</v>
+      </c>
+      <c r="J9">
+        <v>1126</v>
+      </c>
+      <c r="K9">
+        <v>1133</v>
+      </c>
+      <c r="L9">
+        <v>1138</v>
+      </c>
+      <c r="M9">
+        <v>1147</v>
+      </c>
+      <c r="N9">
+        <v>1154</v>
+      </c>
+      <c r="O9">
+        <v>1164</v>
+      </c>
+      <c r="P9">
+        <v>1171</v>
+      </c>
+      <c r="Q9">
+        <v>1175</v>
+      </c>
+      <c r="R9">
+        <v>1181</v>
+      </c>
+      <c r="S9">
+        <v>1186</v>
+      </c>
+      <c r="T9">
+        <v>1190</v>
+      </c>
+      <c r="U9">
+        <v>1198</v>
+      </c>
+      <c r="V9">
+        <v>1204</v>
+      </c>
+      <c r="W9">
+        <v>1210</v>
+      </c>
+      <c r="X9">
+        <v>1215</v>
+      </c>
+      <c r="Y9">
+        <v>1220</v>
+      </c>
+      <c r="Z9">
+        <v>1228</v>
+      </c>
+      <c r="AA9">
+        <v>1235</v>
+      </c>
+      <c r="AB9">
+        <v>1241</v>
+      </c>
+      <c r="AC9">
+        <v>1243</v>
+      </c>
+      <c r="AD9">
+        <v>1246</v>
+      </c>
+      <c r="AE9">
+        <v>1248</v>
+      </c>
+      <c r="AF9">
+        <v>1250</v>
+      </c>
+      <c r="AG9">
+        <v>1250</v>
+      </c>
+      <c r="AH9">
+        <v>1250</v>
+      </c>
+      <c r="AI9">
+        <v>1250</v>
+      </c>
+      <c r="AJ9">
+        <v>1250</v>
+      </c>
+      <c r="AK9">
+        <v>1250</v>
+      </c>
+      <c r="AL9">
+        <v>1250</v>
+      </c>
+      <c r="AM9">
+        <v>1242</v>
+      </c>
+      <c r="AN9">
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -133,31 +133,64 @@
     <t>m-2022-03</t>
   </si>
   <si>
+    <t>m-2022-04</t>
+  </si>
+  <si>
+    <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -515,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -642,981 +675,2110 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6454</v>
+        <v>7408</v>
       </c>
       <c r="C2">
-        <v>6499</v>
+        <v>7408</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7408</v>
       </c>
       <c r="E2">
-        <v>6585</v>
+        <v>7408</v>
       </c>
       <c r="F2">
-        <v>6636</v>
+        <v>7408</v>
       </c>
       <c r="G2">
-        <v>6684</v>
+        <v>7408</v>
       </c>
       <c r="H2">
-        <v>6730</v>
+        <v>7806</v>
       </c>
       <c r="I2">
-        <v>6776</v>
+        <v>7806</v>
       </c>
       <c r="J2">
-        <v>6818</v>
+        <v>7806</v>
       </c>
       <c r="K2">
-        <v>6850</v>
+        <v>7302</v>
       </c>
       <c r="L2">
-        <v>6879</v>
+        <v>7302</v>
       </c>
       <c r="M2">
-        <v>6907</v>
+        <v>7302</v>
       </c>
       <c r="N2">
-        <v>6936</v>
+        <v>7418</v>
       </c>
       <c r="O2">
-        <v>6962</v>
+        <v>7418</v>
       </c>
       <c r="P2">
-        <v>6983</v>
+        <v>7418</v>
       </c>
       <c r="Q2">
-        <v>7001</v>
+        <v>6967</v>
       </c>
       <c r="R2">
-        <v>7022</v>
+        <v>6967</v>
       </c>
       <c r="S2">
-        <v>7032</v>
+        <v>6967</v>
       </c>
       <c r="T2">
-        <v>7039</v>
+        <v>6911</v>
       </c>
       <c r="U2">
-        <v>7042</v>
+        <v>6911</v>
       </c>
       <c r="V2">
-        <v>7044</v>
+        <v>6911</v>
       </c>
       <c r="W2">
-        <v>7045</v>
+        <v>6885</v>
       </c>
       <c r="X2">
-        <v>7047</v>
+        <v>6885</v>
       </c>
       <c r="Y2">
-        <v>7050</v>
+        <v>6885</v>
       </c>
       <c r="Z2">
-        <v>7052</v>
+        <v>7093</v>
       </c>
       <c r="AA2">
-        <v>7054</v>
+        <v>7093</v>
       </c>
       <c r="AB2">
-        <v>7056</v>
+        <v>7093</v>
       </c>
       <c r="AC2">
-        <v>7056</v>
+        <v>6977</v>
       </c>
       <c r="AD2">
-        <v>7025</v>
+        <v>6977</v>
       </c>
       <c r="AE2">
-        <v>6992</v>
+        <v>6977</v>
       </c>
       <c r="AF2">
-        <v>6942</v>
+        <v>6859</v>
       </c>
       <c r="AG2">
-        <v>6907</v>
+        <v>6859</v>
       </c>
       <c r="AH2">
-        <v>6871</v>
+        <v>6859</v>
       </c>
       <c r="AI2">
-        <v>6846</v>
+        <v>6810</v>
       </c>
       <c r="AJ2">
-        <v>6821</v>
+        <v>6810</v>
       </c>
       <c r="AK2">
-        <v>6797</v>
+        <v>6810</v>
       </c>
       <c r="AL2">
-        <v>17875</v>
+        <v>6810</v>
       </c>
       <c r="AM2">
-        <v>17768</v>
+        <v>6810</v>
       </c>
       <c r="AN2">
-        <v>17723</v>
+        <v>6810</v>
+      </c>
+      <c r="AO2">
+        <v>6810</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>915</v>
+        <v>90218</v>
       </c>
       <c r="C3">
-        <v>921</v>
+        <v>90218</v>
       </c>
       <c r="D3">
-        <v>928</v>
+        <v>90116</v>
       </c>
       <c r="E3">
-        <v>934</v>
+        <v>91473</v>
       </c>
       <c r="F3">
-        <v>939</v>
+        <v>91473</v>
       </c>
       <c r="G3">
-        <v>949</v>
+        <v>91340</v>
       </c>
       <c r="H3">
-        <v>958</v>
+        <v>91864</v>
       </c>
       <c r="I3">
-        <v>974</v>
+        <v>91864</v>
       </c>
       <c r="J3">
-        <v>978</v>
+        <v>91768</v>
       </c>
       <c r="K3">
-        <v>983</v>
+        <v>92671</v>
       </c>
       <c r="L3">
-        <v>987</v>
+        <v>92671</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>92415</v>
       </c>
       <c r="N3">
-        <v>1009</v>
+        <v>76180</v>
       </c>
       <c r="O3">
-        <v>1018</v>
+        <v>76180</v>
       </c>
       <c r="P3">
-        <v>1029</v>
+        <v>76114</v>
       </c>
       <c r="Q3">
-        <v>1034</v>
+        <v>74409</v>
       </c>
       <c r="R3">
-        <v>1040</v>
+        <v>74409</v>
       </c>
       <c r="S3">
-        <v>1048</v>
+        <v>74357</v>
       </c>
       <c r="T3">
-        <v>1050</v>
+        <v>74631</v>
       </c>
       <c r="U3">
-        <v>1062</v>
+        <v>74631</v>
       </c>
       <c r="V3">
-        <v>1068</v>
+        <v>74583</v>
       </c>
       <c r="W3">
-        <v>1072</v>
+        <v>75143</v>
       </c>
       <c r="X3">
-        <v>1076</v>
+        <v>75143</v>
       </c>
       <c r="Y3">
-        <v>1084</v>
+        <v>75043</v>
       </c>
       <c r="Z3">
-        <v>1091</v>
+        <v>71528</v>
       </c>
       <c r="AA3">
-        <v>1099</v>
+        <v>71528</v>
       </c>
       <c r="AB3">
-        <v>1109</v>
+        <v>71425</v>
       </c>
       <c r="AC3">
-        <v>1114</v>
+        <v>72518</v>
       </c>
       <c r="AD3">
-        <v>1119</v>
+        <v>72518</v>
       </c>
       <c r="AE3">
-        <v>1120</v>
+        <v>72455</v>
       </c>
       <c r="AF3">
-        <v>1121</v>
+        <v>71983</v>
       </c>
       <c r="AG3">
-        <v>1123</v>
+        <v>71983</v>
       </c>
       <c r="AH3">
-        <v>1124</v>
+        <v>71913</v>
       </c>
       <c r="AI3">
-        <v>1124</v>
+        <v>73519</v>
       </c>
       <c r="AJ3">
-        <v>1124</v>
+        <v>73519</v>
       </c>
       <c r="AK3">
-        <v>1124</v>
+        <v>72755</v>
       </c>
       <c r="AL3">
-        <v>1124</v>
+        <v>72651</v>
       </c>
       <c r="AM3">
-        <v>1115</v>
+        <v>72755</v>
       </c>
       <c r="AN3">
-        <v>1110</v>
+        <v>72757</v>
+      </c>
+      <c r="AO3">
+        <v>72761</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>35626</v>
+        <v>41056</v>
       </c>
       <c r="C4">
-        <v>35852</v>
+        <v>41056</v>
       </c>
       <c r="D4">
-        <v>36042</v>
+        <v>40976</v>
       </c>
       <c r="E4">
-        <v>36212</v>
+        <v>41810</v>
       </c>
       <c r="F4">
-        <v>36423</v>
+        <v>41810</v>
       </c>
       <c r="G4">
-        <v>36597</v>
+        <v>41756</v>
       </c>
       <c r="H4">
-        <v>36795</v>
+        <v>41903</v>
       </c>
       <c r="I4">
-        <v>37098</v>
+        <v>41903</v>
       </c>
       <c r="J4">
-        <v>37315</v>
+        <v>41869</v>
       </c>
       <c r="K4">
-        <v>37524</v>
+        <v>41852</v>
       </c>
       <c r="L4">
-        <v>37752</v>
+        <v>41852</v>
       </c>
       <c r="M4">
-        <v>37947</v>
+        <v>41762</v>
       </c>
       <c r="N4">
-        <v>38123</v>
+        <v>52918</v>
       </c>
       <c r="O4">
-        <v>38359</v>
+        <v>52918</v>
       </c>
       <c r="P4">
-        <v>38556</v>
+        <v>52865</v>
       </c>
       <c r="Q4">
-        <v>38739</v>
+        <v>52421</v>
       </c>
       <c r="R4">
-        <v>38908</v>
+        <v>52421</v>
       </c>
       <c r="S4">
-        <v>39056</v>
+        <v>52366</v>
       </c>
       <c r="T4">
-        <v>39252</v>
+        <v>52120</v>
       </c>
       <c r="U4">
-        <v>39529</v>
+        <v>52120</v>
       </c>
       <c r="V4">
-        <v>39740</v>
+        <v>52076</v>
       </c>
       <c r="W4">
-        <v>39928</v>
+        <v>51739</v>
       </c>
       <c r="X4">
-        <v>40123</v>
+        <v>51739</v>
       </c>
       <c r="Y4">
-        <v>40290</v>
+        <v>51554</v>
       </c>
       <c r="Z4">
-        <v>40419</v>
+        <v>43542</v>
       </c>
       <c r="AA4">
-        <v>40589</v>
+        <v>43542</v>
       </c>
       <c r="AB4">
-        <v>40712</v>
+        <v>43461</v>
       </c>
       <c r="AC4">
-        <v>40827</v>
+        <v>44292</v>
       </c>
       <c r="AD4">
-        <v>40918</v>
+        <v>44292</v>
       </c>
       <c r="AE4">
-        <v>40993</v>
+        <v>44237</v>
       </c>
       <c r="AF4">
-        <v>41033</v>
+        <v>44711</v>
       </c>
       <c r="AG4">
-        <v>41045</v>
+        <v>44711</v>
       </c>
       <c r="AH4">
-        <v>41048</v>
+        <v>44647</v>
       </c>
       <c r="AI4">
-        <v>41051</v>
+        <v>44454</v>
       </c>
       <c r="AJ4">
-        <v>41057</v>
+        <v>44454</v>
       </c>
       <c r="AK4">
-        <v>41061</v>
+        <v>43952</v>
       </c>
       <c r="AL4">
-        <v>41064</v>
+        <v>43985</v>
       </c>
       <c r="AM4">
-        <v>40741</v>
+        <v>44057</v>
       </c>
       <c r="AN4">
-        <v>40602</v>
+        <v>44057</v>
+      </c>
+      <c r="AO4">
+        <v>44058</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>2969</v>
+        <v>60255</v>
       </c>
       <c r="C5">
-        <v>3012</v>
+        <v>60255</v>
       </c>
       <c r="D5">
-        <v>3027</v>
+        <v>60255</v>
       </c>
       <c r="E5">
-        <v>3056</v>
+        <v>59976</v>
       </c>
       <c r="F5">
-        <v>3085</v>
+        <v>59976</v>
       </c>
       <c r="G5">
-        <v>3107</v>
+        <v>59976</v>
       </c>
       <c r="H5">
-        <v>3134</v>
+        <v>59708</v>
       </c>
       <c r="I5">
-        <v>3172</v>
+        <v>59708</v>
       </c>
       <c r="J5">
-        <v>3204</v>
+        <v>59708</v>
       </c>
       <c r="K5">
-        <v>3225</v>
+        <v>59562</v>
       </c>
       <c r="L5">
-        <v>3250</v>
+        <v>59562</v>
       </c>
       <c r="M5">
-        <v>3270</v>
+        <v>59562</v>
       </c>
       <c r="N5">
-        <v>3296</v>
+        <v>63377</v>
       </c>
       <c r="O5">
-        <v>3322</v>
+        <v>63377</v>
       </c>
       <c r="P5">
-        <v>3335</v>
+        <v>63377</v>
       </c>
       <c r="Q5">
-        <v>3377</v>
+        <v>60093</v>
       </c>
       <c r="R5">
-        <v>3399</v>
+        <v>60093</v>
       </c>
       <c r="S5">
-        <v>3424</v>
+        <v>60093</v>
       </c>
       <c r="T5">
-        <v>3450</v>
+        <v>59822</v>
       </c>
       <c r="U5">
-        <v>3486</v>
+        <v>59822</v>
       </c>
       <c r="V5">
-        <v>3498</v>
+        <v>59822</v>
       </c>
       <c r="W5">
-        <v>3522</v>
+        <v>59676</v>
       </c>
       <c r="X5">
-        <v>3536</v>
+        <v>59676</v>
       </c>
       <c r="Y5">
-        <v>3557</v>
+        <v>59675</v>
       </c>
       <c r="Z5">
-        <v>3570</v>
+        <v>45677</v>
       </c>
       <c r="AA5">
-        <v>3588</v>
+        <v>45677</v>
       </c>
       <c r="AB5">
-        <v>3601</v>
+        <v>45677</v>
       </c>
       <c r="AC5">
-        <v>3617</v>
+        <v>45368</v>
       </c>
       <c r="AD5">
-        <v>3636</v>
+        <v>45368</v>
       </c>
       <c r="AE5">
-        <v>3666</v>
+        <v>45368</v>
       </c>
       <c r="AF5">
-        <v>3677</v>
+        <v>45143</v>
       </c>
       <c r="AG5">
-        <v>3687</v>
+        <v>45143</v>
       </c>
       <c r="AH5">
-        <v>3694</v>
+        <v>45143</v>
       </c>
       <c r="AI5">
-        <v>3695</v>
+        <v>45020</v>
       </c>
       <c r="AJ5">
-        <v>3695</v>
+        <v>45020</v>
       </c>
       <c r="AK5">
-        <v>3696</v>
+        <v>45020</v>
       </c>
       <c r="AL5">
-        <v>3696</v>
+        <v>45020</v>
       </c>
       <c r="AM5">
-        <v>3639</v>
+        <v>45020</v>
       </c>
       <c r="AN5">
-        <v>3598</v>
+        <v>45020</v>
+      </c>
+      <c r="AO5">
+        <v>45020</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>3661</v>
+        <v>17627</v>
       </c>
       <c r="C6">
-        <v>3694</v>
+        <v>17627</v>
       </c>
       <c r="D6">
-        <v>3714</v>
+        <v>17572</v>
       </c>
       <c r="E6">
-        <v>3736</v>
+        <v>17589</v>
       </c>
       <c r="F6">
-        <v>3757</v>
+        <v>17589</v>
       </c>
       <c r="G6">
-        <v>3773</v>
+        <v>17549</v>
       </c>
       <c r="H6">
-        <v>3801</v>
+        <v>14685</v>
       </c>
       <c r="I6">
-        <v>3832</v>
+        <v>14685</v>
       </c>
       <c r="J6">
-        <v>3845</v>
+        <v>14685</v>
       </c>
       <c r="K6">
-        <v>3873</v>
+        <v>14641</v>
       </c>
       <c r="L6">
-        <v>3895</v>
+        <v>14641</v>
       </c>
       <c r="M6">
-        <v>3911</v>
+        <v>14641</v>
       </c>
       <c r="N6">
-        <v>3943</v>
+        <v>17033</v>
       </c>
       <c r="O6">
-        <v>3969</v>
+        <v>17033</v>
       </c>
       <c r="P6">
-        <v>3980</v>
+        <v>17033</v>
       </c>
       <c r="Q6">
-        <v>4000</v>
+        <v>15854</v>
       </c>
       <c r="R6">
-        <v>4028</v>
+        <v>15854</v>
       </c>
       <c r="S6">
-        <v>4042</v>
+        <v>15854</v>
       </c>
       <c r="T6">
-        <v>4059</v>
+        <v>15729</v>
       </c>
       <c r="U6">
-        <v>4082</v>
+        <v>15729</v>
       </c>
       <c r="V6">
-        <v>4099</v>
+        <v>15729</v>
       </c>
       <c r="W6">
-        <v>4110</v>
+        <v>15663</v>
       </c>
       <c r="X6">
-        <v>4125</v>
+        <v>15663</v>
       </c>
       <c r="Y6">
-        <v>4142</v>
+        <v>15663</v>
       </c>
       <c r="Z6">
-        <v>4161</v>
+        <v>14149</v>
       </c>
       <c r="AA6">
-        <v>4179</v>
+        <v>14149</v>
       </c>
       <c r="AB6">
-        <v>4195</v>
+        <v>14149</v>
       </c>
       <c r="AC6">
-        <v>4202</v>
+        <v>15790</v>
       </c>
       <c r="AD6">
-        <v>4207</v>
+        <v>15790</v>
       </c>
       <c r="AE6">
-        <v>4212</v>
+        <v>15790</v>
       </c>
       <c r="AF6">
-        <v>4214</v>
+        <v>15701</v>
       </c>
       <c r="AG6">
-        <v>4215</v>
+        <v>15701</v>
       </c>
       <c r="AH6">
-        <v>4216</v>
+        <v>15701</v>
       </c>
       <c r="AI6">
-        <v>4216</v>
+        <v>13785</v>
       </c>
       <c r="AJ6">
-        <v>4217</v>
+        <v>13785</v>
       </c>
       <c r="AK6">
-        <v>4217</v>
+        <v>13785</v>
       </c>
       <c r="AL6">
-        <v>4217</v>
+        <v>13785</v>
       </c>
       <c r="AM6">
-        <v>4217</v>
+        <v>13785</v>
       </c>
       <c r="AN6">
-        <v>4217</v>
+        <v>13785</v>
+      </c>
+      <c r="AO6">
+        <v>13785</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>2800</v>
+        <v>58155</v>
       </c>
       <c r="C7">
-        <v>2815</v>
+        <v>58159</v>
       </c>
       <c r="D7">
-        <v>2829</v>
+        <v>58159</v>
       </c>
       <c r="E7">
-        <v>2843</v>
+        <v>54793</v>
       </c>
       <c r="F7">
-        <v>2856</v>
+        <v>54793</v>
       </c>
       <c r="G7">
-        <v>2868</v>
+        <v>54793</v>
       </c>
       <c r="H7">
-        <v>2894</v>
+        <v>54608</v>
       </c>
       <c r="I7">
-        <v>2909</v>
+        <v>54608</v>
       </c>
       <c r="J7">
-        <v>2924</v>
+        <v>54608</v>
       </c>
       <c r="K7">
-        <v>2933</v>
+        <v>59071</v>
       </c>
       <c r="L7">
-        <v>2946</v>
+        <v>59071</v>
       </c>
       <c r="M7">
-        <v>2968</v>
+        <v>59073</v>
       </c>
       <c r="N7">
-        <v>2987</v>
+        <v>61265</v>
       </c>
       <c r="O7">
-        <v>3002</v>
+        <v>61265</v>
       </c>
       <c r="P7">
-        <v>3009</v>
+        <v>61265</v>
       </c>
       <c r="Q7">
-        <v>3022</v>
+        <v>58421</v>
       </c>
       <c r="R7">
-        <v>3025</v>
+        <v>58421</v>
       </c>
       <c r="S7">
-        <v>3031</v>
+        <v>58421</v>
       </c>
       <c r="T7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="U7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="V7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="W7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="X7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="Y7">
-        <v>3039</v>
+        <v>58153</v>
       </c>
       <c r="Z7">
-        <v>3040</v>
+        <v>66829</v>
       </c>
       <c r="AA7">
-        <v>3040</v>
+        <v>66887</v>
       </c>
       <c r="AB7">
-        <v>3040</v>
+        <v>66951</v>
       </c>
       <c r="AC7">
-        <v>3040</v>
+        <v>68283</v>
       </c>
       <c r="AD7">
-        <v>3018</v>
+        <v>68283</v>
       </c>
       <c r="AE7">
-        <v>2987</v>
+        <v>68241</v>
       </c>
       <c r="AF7">
-        <v>3012</v>
+        <v>67699</v>
       </c>
       <c r="AG7">
-        <v>2988</v>
+        <v>67699</v>
       </c>
       <c r="AH7">
-        <v>2950</v>
+        <v>67658</v>
       </c>
       <c r="AI7">
-        <v>4224</v>
+        <v>67225</v>
       </c>
       <c r="AJ7">
-        <v>4194</v>
+        <v>67225</v>
       </c>
       <c r="AK7">
-        <v>4179</v>
+        <v>66346</v>
       </c>
       <c r="AL7">
-        <v>20928</v>
+        <v>66044</v>
       </c>
       <c r="AM7">
-        <v>20790</v>
+        <v>66169</v>
       </c>
       <c r="AN7">
-        <v>20751</v>
+        <v>66171</v>
+      </c>
+      <c r="AO7">
+        <v>66171</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>43353</v>
+        <v>15601</v>
       </c>
       <c r="C8">
-        <v>43691</v>
+        <v>15601</v>
       </c>
       <c r="D8">
-        <v>43928</v>
+        <v>15577</v>
       </c>
       <c r="E8">
-        <v>44153</v>
+        <v>15615</v>
       </c>
       <c r="F8">
-        <v>44366</v>
+        <v>15615</v>
       </c>
       <c r="G8">
-        <v>44605</v>
+        <v>15594</v>
       </c>
       <c r="H8">
-        <v>44843</v>
+        <v>15582</v>
       </c>
       <c r="I8">
-        <v>45235</v>
+        <v>15582</v>
       </c>
       <c r="J8">
-        <v>45470</v>
+        <v>15571</v>
       </c>
       <c r="K8">
-        <v>45768</v>
+        <v>15422</v>
       </c>
       <c r="L8">
-        <v>46040</v>
+        <v>15422</v>
       </c>
       <c r="M8">
-        <v>46265</v>
+        <v>15387</v>
       </c>
       <c r="N8">
-        <v>46503</v>
+        <v>16778</v>
       </c>
       <c r="O8">
-        <v>46810</v>
+        <v>16778</v>
       </c>
       <c r="P8">
-        <v>47054</v>
+        <v>16760</v>
       </c>
       <c r="Q8">
-        <v>47295</v>
+        <v>16186</v>
       </c>
       <c r="R8">
-        <v>47496</v>
+        <v>16186</v>
       </c>
       <c r="S8">
-        <v>47712</v>
+        <v>16177</v>
       </c>
       <c r="T8">
-        <v>47941</v>
+        <v>15678</v>
       </c>
       <c r="U8">
-        <v>48236</v>
+        <v>15678</v>
       </c>
       <c r="V8">
-        <v>48441</v>
+        <v>15670</v>
       </c>
       <c r="W8">
-        <v>48674</v>
+        <v>15139</v>
       </c>
       <c r="X8">
-        <v>48839</v>
+        <v>15139</v>
       </c>
       <c r="Y8">
-        <v>48988</v>
+        <v>15117</v>
       </c>
       <c r="Z8">
-        <v>49163</v>
+        <v>15496</v>
       </c>
       <c r="AA8">
-        <v>49358</v>
+        <v>15496</v>
       </c>
       <c r="AB8">
-        <v>49490</v>
+        <v>15478</v>
       </c>
       <c r="AC8">
-        <v>49624</v>
+        <v>15223</v>
       </c>
       <c r="AD8">
-        <v>49734</v>
+        <v>15223</v>
       </c>
       <c r="AE8">
-        <v>49825</v>
+        <v>15211</v>
       </c>
       <c r="AF8">
-        <v>49868</v>
+        <v>14500</v>
       </c>
       <c r="AG8">
-        <v>49877</v>
+        <v>14500</v>
       </c>
       <c r="AH8">
-        <v>49877</v>
+        <v>14485</v>
       </c>
       <c r="AI8">
-        <v>49880</v>
+        <v>13650</v>
       </c>
       <c r="AJ8">
-        <v>49885</v>
+        <v>13650</v>
       </c>
       <c r="AK8">
-        <v>49888</v>
+        <v>13487</v>
       </c>
       <c r="AL8">
-        <v>49891</v>
+        <v>13579</v>
       </c>
       <c r="AM8">
-        <v>49603</v>
+        <v>13596</v>
       </c>
       <c r="AN8">
-        <v>49491</v>
+        <v>13597</v>
+      </c>
+      <c r="AO8">
+        <v>13597</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1076</v>
+        <v>8018</v>
       </c>
       <c r="C9">
-        <v>1085</v>
+        <v>8018</v>
       </c>
       <c r="D9">
-        <v>1093</v>
+        <v>8003</v>
       </c>
       <c r="E9">
-        <v>1096</v>
+        <v>6718</v>
       </c>
       <c r="F9">
-        <v>1101</v>
+        <v>6718</v>
       </c>
       <c r="G9">
-        <v>1109</v>
+        <v>6694</v>
       </c>
       <c r="H9">
-        <v>1113</v>
+        <v>47572</v>
       </c>
       <c r="I9">
-        <v>1122</v>
+        <v>47572</v>
       </c>
       <c r="J9">
-        <v>1126</v>
+        <v>47572</v>
       </c>
       <c r="K9">
-        <v>1133</v>
+        <v>47435</v>
       </c>
       <c r="L9">
-        <v>1138</v>
+        <v>47435</v>
       </c>
       <c r="M9">
-        <v>1147</v>
+        <v>47435</v>
       </c>
       <c r="N9">
-        <v>1154</v>
+        <v>51380</v>
       </c>
       <c r="O9">
-        <v>1164</v>
+        <v>51380</v>
       </c>
       <c r="P9">
-        <v>1171</v>
+        <v>51380</v>
       </c>
       <c r="Q9">
-        <v>1175</v>
+        <v>49666</v>
       </c>
       <c r="R9">
-        <v>1181</v>
+        <v>49666</v>
       </c>
       <c r="S9">
-        <v>1186</v>
+        <v>49665</v>
       </c>
       <c r="T9">
-        <v>1190</v>
+        <v>49441</v>
       </c>
       <c r="U9">
-        <v>1198</v>
+        <v>49441</v>
       </c>
       <c r="V9">
-        <v>1204</v>
+        <v>49441</v>
       </c>
       <c r="W9">
-        <v>1210</v>
+        <v>49290</v>
       </c>
       <c r="X9">
-        <v>1215</v>
+        <v>49290</v>
       </c>
       <c r="Y9">
-        <v>1220</v>
+        <v>49289</v>
       </c>
       <c r="Z9">
-        <v>1228</v>
+        <v>47528</v>
       </c>
       <c r="AA9">
-        <v>1235</v>
+        <v>47528</v>
       </c>
       <c r="AB9">
-        <v>1241</v>
+        <v>47528</v>
       </c>
       <c r="AC9">
-        <v>1243</v>
+        <v>47229</v>
       </c>
       <c r="AD9">
-        <v>1246</v>
+        <v>47229</v>
       </c>
       <c r="AE9">
-        <v>1248</v>
+        <v>47229</v>
       </c>
       <c r="AF9">
-        <v>1250</v>
+        <v>46976</v>
       </c>
       <c r="AG9">
-        <v>1250</v>
+        <v>46976</v>
       </c>
       <c r="AH9">
-        <v>1250</v>
+        <v>46976</v>
       </c>
       <c r="AI9">
-        <v>1250</v>
+        <v>46799</v>
       </c>
       <c r="AJ9">
-        <v>1250</v>
+        <v>46799</v>
       </c>
       <c r="AK9">
-        <v>1250</v>
+        <v>46799</v>
       </c>
       <c r="AL9">
-        <v>1250</v>
+        <v>46799</v>
       </c>
       <c r="AM9">
-        <v>1242</v>
+        <v>46799</v>
       </c>
       <c r="AN9">
-        <v>1237</v>
+        <v>46799</v>
+      </c>
+      <c r="AO9">
+        <v>46799</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>8089</v>
+      </c>
+      <c r="C10">
+        <v>8089</v>
+      </c>
+      <c r="D10">
+        <v>8077</v>
+      </c>
+      <c r="E10">
+        <v>7973</v>
+      </c>
+      <c r="F10">
+        <v>7973</v>
+      </c>
+      <c r="G10">
+        <v>7965</v>
+      </c>
+      <c r="H10">
+        <v>7708</v>
+      </c>
+      <c r="I10">
+        <v>7708</v>
+      </c>
+      <c r="J10">
+        <v>7701</v>
+      </c>
+      <c r="K10">
+        <v>7743</v>
+      </c>
+      <c r="L10">
+        <v>7743</v>
+      </c>
+      <c r="M10">
+        <v>7731</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="O10">
+        <v>7897</v>
+      </c>
+      <c r="P10">
+        <v>7887</v>
+      </c>
+      <c r="Q10">
+        <v>7719</v>
+      </c>
+      <c r="R10">
+        <v>7719</v>
+      </c>
+      <c r="S10">
+        <v>7716</v>
+      </c>
+      <c r="T10">
+        <v>7572</v>
+      </c>
+      <c r="U10">
+        <v>7572</v>
+      </c>
+      <c r="V10">
+        <v>7563</v>
+      </c>
+      <c r="W10">
+        <v>7388</v>
+      </c>
+      <c r="X10">
+        <v>7388</v>
+      </c>
+      <c r="Y10">
+        <v>7370</v>
+      </c>
+      <c r="Z10">
+        <v>7453</v>
+      </c>
+      <c r="AA10">
+        <v>7453</v>
+      </c>
+      <c r="AB10">
+        <v>7437</v>
+      </c>
+      <c r="AC10">
+        <v>7360</v>
+      </c>
+      <c r="AD10">
+        <v>7360</v>
+      </c>
+      <c r="AE10">
+        <v>7351</v>
+      </c>
+      <c r="AF10">
+        <v>7308</v>
+      </c>
+      <c r="AG10">
+        <v>7308</v>
+      </c>
+      <c r="AH10">
+        <v>7302</v>
+      </c>
+      <c r="AI10">
+        <v>7203</v>
+      </c>
+      <c r="AJ10">
+        <v>7203</v>
+      </c>
+      <c r="AK10">
+        <v>7138</v>
+      </c>
+      <c r="AL10">
+        <v>7177</v>
+      </c>
+      <c r="AM10">
+        <v>7182</v>
+      </c>
+      <c r="AN10">
+        <v>7182</v>
+      </c>
+      <c r="AO10">
+        <v>7182</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>22191</v>
+      </c>
+      <c r="C11">
+        <v>22191</v>
+      </c>
+      <c r="D11">
+        <v>22191</v>
+      </c>
+      <c r="E11">
+        <v>22052</v>
+      </c>
+      <c r="F11">
+        <v>22052</v>
+      </c>
+      <c r="G11">
+        <v>22052</v>
+      </c>
+      <c r="H11">
+        <v>21920</v>
+      </c>
+      <c r="I11">
+        <v>21920</v>
+      </c>
+      <c r="J11">
+        <v>21920</v>
+      </c>
+      <c r="K11">
+        <v>21856</v>
+      </c>
+      <c r="L11">
+        <v>21856</v>
+      </c>
+      <c r="M11">
+        <v>21856</v>
+      </c>
+      <c r="N11">
+        <v>23146</v>
+      </c>
+      <c r="O11">
+        <v>23146</v>
+      </c>
+      <c r="P11">
+        <v>23146</v>
+      </c>
+      <c r="Q11">
+        <v>21867</v>
+      </c>
+      <c r="R11">
+        <v>21867</v>
+      </c>
+      <c r="S11">
+        <v>21867</v>
+      </c>
+      <c r="T11">
+        <v>21742</v>
+      </c>
+      <c r="U11">
+        <v>21742</v>
+      </c>
+      <c r="V11">
+        <v>21742</v>
+      </c>
+      <c r="W11">
+        <v>21672</v>
+      </c>
+      <c r="X11">
+        <v>21672</v>
+      </c>
+      <c r="Y11">
+        <v>21672</v>
+      </c>
+      <c r="Z11">
+        <v>18703</v>
+      </c>
+      <c r="AA11">
+        <v>18703</v>
+      </c>
+      <c r="AB11">
+        <v>18703</v>
+      </c>
+      <c r="AC11">
+        <v>18594</v>
+      </c>
+      <c r="AD11">
+        <v>18594</v>
+      </c>
+      <c r="AE11">
+        <v>18594</v>
+      </c>
+      <c r="AF11">
+        <v>18509</v>
+      </c>
+      <c r="AG11">
+        <v>18509</v>
+      </c>
+      <c r="AH11">
+        <v>18509</v>
+      </c>
+      <c r="AI11">
+        <v>18463</v>
+      </c>
+      <c r="AJ11">
+        <v>18463</v>
+      </c>
+      <c r="AK11">
+        <v>18463</v>
+      </c>
+      <c r="AL11">
+        <v>18463</v>
+      </c>
+      <c r="AM11">
+        <v>18463</v>
+      </c>
+      <c r="AN11">
+        <v>18463</v>
+      </c>
+      <c r="AO11">
+        <v>18463</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>7836</v>
+      </c>
+      <c r="C12">
+        <v>7836</v>
+      </c>
+      <c r="D12">
+        <v>7813</v>
+      </c>
+      <c r="E12">
+        <v>7282</v>
+      </c>
+      <c r="F12">
+        <v>7282</v>
+      </c>
+      <c r="G12">
+        <v>7267</v>
+      </c>
+      <c r="H12">
+        <v>7282</v>
+      </c>
+      <c r="I12">
+        <v>7282</v>
+      </c>
+      <c r="J12">
+        <v>7261</v>
+      </c>
+      <c r="K12">
+        <v>7225</v>
+      </c>
+      <c r="L12">
+        <v>7225</v>
+      </c>
+      <c r="M12">
+        <v>7205</v>
+      </c>
+      <c r="N12">
+        <v>7162</v>
+      </c>
+      <c r="O12">
+        <v>7162</v>
+      </c>
+      <c r="P12">
+        <v>7147</v>
+      </c>
+      <c r="Q12">
+        <v>6987</v>
+      </c>
+      <c r="R12">
+        <v>6987</v>
+      </c>
+      <c r="S12">
+        <v>6977</v>
+      </c>
+      <c r="T12">
+        <v>6839</v>
+      </c>
+      <c r="U12">
+        <v>6839</v>
+      </c>
+      <c r="V12">
+        <v>6823</v>
+      </c>
+      <c r="W12">
+        <v>6611</v>
+      </c>
+      <c r="X12">
+        <v>6611</v>
+      </c>
+      <c r="Y12">
+        <v>6601</v>
+      </c>
+      <c r="Z12">
+        <v>7275</v>
+      </c>
+      <c r="AA12">
+        <v>7275</v>
+      </c>
+      <c r="AB12">
+        <v>7260</v>
+      </c>
+      <c r="AC12">
+        <v>7395</v>
+      </c>
+      <c r="AD12">
+        <v>7395</v>
+      </c>
+      <c r="AE12">
+        <v>7382</v>
+      </c>
+      <c r="AF12">
+        <v>7336</v>
+      </c>
+      <c r="AG12">
+        <v>7336</v>
+      </c>
+      <c r="AH12">
+        <v>7324</v>
+      </c>
+      <c r="AI12">
+        <v>7332</v>
+      </c>
+      <c r="AJ12">
+        <v>7332</v>
+      </c>
+      <c r="AK12">
+        <v>7241</v>
+      </c>
+      <c r="AL12">
+        <v>7194</v>
+      </c>
+      <c r="AM12">
+        <v>7204</v>
+      </c>
+      <c r="AN12">
+        <v>7205</v>
+      </c>
+      <c r="AO12">
+        <v>7205</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10320</v>
+      </c>
+      <c r="C13">
+        <v>10320</v>
+      </c>
+      <c r="D13">
+        <v>10308</v>
+      </c>
+      <c r="E13">
+        <v>10226</v>
+      </c>
+      <c r="F13">
+        <v>10226</v>
+      </c>
+      <c r="G13">
+        <v>10214</v>
+      </c>
+      <c r="H13">
+        <v>10254</v>
+      </c>
+      <c r="I13">
+        <v>10254</v>
+      </c>
+      <c r="J13">
+        <v>10248</v>
+      </c>
+      <c r="K13">
+        <v>10152</v>
+      </c>
+      <c r="L13">
+        <v>10152</v>
+      </c>
+      <c r="M13">
+        <v>10126</v>
+      </c>
+      <c r="N13">
+        <v>10318</v>
+      </c>
+      <c r="O13">
+        <v>10318</v>
+      </c>
+      <c r="P13">
+        <v>10311</v>
+      </c>
+      <c r="Q13">
+        <v>10100</v>
+      </c>
+      <c r="R13">
+        <v>10100</v>
+      </c>
+      <c r="S13">
+        <v>10094</v>
+      </c>
+      <c r="T13">
+        <v>9786</v>
+      </c>
+      <c r="U13">
+        <v>9786</v>
+      </c>
+      <c r="V13">
+        <v>9783</v>
+      </c>
+      <c r="W13">
+        <v>9372</v>
+      </c>
+      <c r="X13">
+        <v>9372</v>
+      </c>
+      <c r="Y13">
+        <v>9355</v>
+      </c>
+      <c r="Z13">
+        <v>8774</v>
+      </c>
+      <c r="AA13">
+        <v>8774</v>
+      </c>
+      <c r="AB13">
+        <v>8764</v>
+      </c>
+      <c r="AC13">
+        <v>8746</v>
+      </c>
+      <c r="AD13">
+        <v>8746</v>
+      </c>
+      <c r="AE13">
+        <v>8740</v>
+      </c>
+      <c r="AF13">
+        <v>8598</v>
+      </c>
+      <c r="AG13">
+        <v>8598</v>
+      </c>
+      <c r="AH13">
+        <v>8590</v>
+      </c>
+      <c r="AI13">
+        <v>8709</v>
+      </c>
+      <c r="AJ13">
+        <v>8709</v>
+      </c>
+      <c r="AK13">
+        <v>8643</v>
+      </c>
+      <c r="AL13">
+        <v>8676</v>
+      </c>
+      <c r="AM13">
+        <v>8681</v>
+      </c>
+      <c r="AN13">
+        <v>8681</v>
+      </c>
+      <c r="AO13">
+        <v>8681</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>31321</v>
+      </c>
+      <c r="C14">
+        <v>31321</v>
+      </c>
+      <c r="D14">
+        <v>31274</v>
+      </c>
+      <c r="E14">
+        <v>31241</v>
+      </c>
+      <c r="F14">
+        <v>31241</v>
+      </c>
+      <c r="G14">
+        <v>31204</v>
+      </c>
+      <c r="H14">
+        <v>30695</v>
+      </c>
+      <c r="I14">
+        <v>30695</v>
+      </c>
+      <c r="J14">
+        <v>30661</v>
+      </c>
+      <c r="K14">
+        <v>30806</v>
+      </c>
+      <c r="L14">
+        <v>30806</v>
+      </c>
+      <c r="M14">
+        <v>30746</v>
+      </c>
+      <c r="N14">
+        <v>30792</v>
+      </c>
+      <c r="O14">
+        <v>30792</v>
+      </c>
+      <c r="P14">
+        <v>30766</v>
+      </c>
+      <c r="Q14">
+        <v>30056</v>
+      </c>
+      <c r="R14">
+        <v>30056</v>
+      </c>
+      <c r="S14">
+        <v>30009</v>
+      </c>
+      <c r="T14">
+        <v>29792</v>
+      </c>
+      <c r="U14">
+        <v>29792</v>
+      </c>
+      <c r="V14">
+        <v>29747</v>
+      </c>
+      <c r="W14">
+        <v>29808</v>
+      </c>
+      <c r="X14">
+        <v>29808</v>
+      </c>
+      <c r="Y14">
+        <v>29741</v>
+      </c>
+      <c r="Z14">
+        <v>30486</v>
+      </c>
+      <c r="AA14">
+        <v>30486</v>
+      </c>
+      <c r="AB14">
+        <v>30435</v>
+      </c>
+      <c r="AC14">
+        <v>30904</v>
+      </c>
+      <c r="AD14">
+        <v>30904</v>
+      </c>
+      <c r="AE14">
+        <v>30874</v>
+      </c>
+      <c r="AF14">
+        <v>30935</v>
+      </c>
+      <c r="AG14">
+        <v>30935</v>
+      </c>
+      <c r="AH14">
+        <v>30882</v>
+      </c>
+      <c r="AI14">
+        <v>31111</v>
+      </c>
+      <c r="AJ14">
+        <v>31111</v>
+      </c>
+      <c r="AK14">
+        <v>30773</v>
+      </c>
+      <c r="AL14">
+        <v>30814</v>
+      </c>
+      <c r="AM14">
+        <v>30814</v>
+      </c>
+      <c r="AN14">
+        <v>30814</v>
+      </c>
+      <c r="AO14">
+        <v>30814</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>9052</v>
+      </c>
+      <c r="C15">
+        <v>9052</v>
+      </c>
+      <c r="D15">
+        <v>9052</v>
+      </c>
+      <c r="E15">
+        <v>9052</v>
+      </c>
+      <c r="F15">
+        <v>9052</v>
+      </c>
+      <c r="G15">
+        <v>8318</v>
+      </c>
+      <c r="H15">
+        <v>8934</v>
+      </c>
+      <c r="I15">
+        <v>8934</v>
+      </c>
+      <c r="J15">
+        <v>8930</v>
+      </c>
+      <c r="K15">
+        <v>8979</v>
+      </c>
+      <c r="L15">
+        <v>8979</v>
+      </c>
+      <c r="M15">
+        <v>8964</v>
+      </c>
+      <c r="N15">
+        <v>8764</v>
+      </c>
+      <c r="O15">
+        <v>8764</v>
+      </c>
+      <c r="P15">
+        <v>8751</v>
+      </c>
+      <c r="Q15">
+        <v>8705</v>
+      </c>
+      <c r="R15">
+        <v>8705</v>
+      </c>
+      <c r="S15">
+        <v>8704</v>
+      </c>
+      <c r="T15">
+        <v>8698</v>
+      </c>
+      <c r="U15">
+        <v>8698</v>
+      </c>
+      <c r="V15">
+        <v>8695</v>
+      </c>
+      <c r="W15">
+        <v>8585</v>
+      </c>
+      <c r="X15">
+        <v>8585</v>
+      </c>
+      <c r="Y15">
+        <v>8575</v>
+      </c>
+      <c r="Z15">
+        <v>8492</v>
+      </c>
+      <c r="AA15">
+        <v>8492</v>
+      </c>
+      <c r="AB15">
+        <v>8474</v>
+      </c>
+      <c r="AC15">
+        <v>8425</v>
+      </c>
+      <c r="AD15">
+        <v>8425</v>
+      </c>
+      <c r="AE15">
+        <v>8420</v>
+      </c>
+      <c r="AF15">
+        <v>8359</v>
+      </c>
+      <c r="AG15">
+        <v>8359</v>
+      </c>
+      <c r="AH15">
+        <v>8350</v>
+      </c>
+      <c r="AI15">
+        <v>8283</v>
+      </c>
+      <c r="AJ15">
+        <v>8283</v>
+      </c>
+      <c r="AK15">
+        <v>8218</v>
+      </c>
+      <c r="AL15">
+        <v>8256</v>
+      </c>
+      <c r="AM15">
+        <v>8265</v>
+      </c>
+      <c r="AN15">
+        <v>8265</v>
+      </c>
+      <c r="AO15">
+        <v>8265</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>18285</v>
+      </c>
+      <c r="C16">
+        <v>18285</v>
+      </c>
+      <c r="D16">
+        <v>18285</v>
+      </c>
+      <c r="E16">
+        <v>18285</v>
+      </c>
+      <c r="F16">
+        <v>18285</v>
+      </c>
+      <c r="G16">
+        <v>16464</v>
+      </c>
+      <c r="H16">
+        <v>18241</v>
+      </c>
+      <c r="I16">
+        <v>18241</v>
+      </c>
+      <c r="J16">
+        <v>18217</v>
+      </c>
+      <c r="K16">
+        <v>18431</v>
+      </c>
+      <c r="L16">
+        <v>18431</v>
+      </c>
+      <c r="M16">
+        <v>18375</v>
+      </c>
+      <c r="N16">
+        <v>18630</v>
+      </c>
+      <c r="O16">
+        <v>18630</v>
+      </c>
+      <c r="P16">
+        <v>18597</v>
+      </c>
+      <c r="Q16">
+        <v>18454</v>
+      </c>
+      <c r="R16">
+        <v>18454</v>
+      </c>
+      <c r="S16">
+        <v>18433</v>
+      </c>
+      <c r="T16">
+        <v>18186</v>
+      </c>
+      <c r="U16">
+        <v>18186</v>
+      </c>
+      <c r="V16">
+        <v>18174</v>
+      </c>
+      <c r="W16">
+        <v>17772</v>
+      </c>
+      <c r="X16">
+        <v>17772</v>
+      </c>
+      <c r="Y16">
+        <v>17709</v>
+      </c>
+      <c r="Z16">
+        <v>16176</v>
+      </c>
+      <c r="AA16">
+        <v>16176</v>
+      </c>
+      <c r="AB16">
+        <v>16150</v>
+      </c>
+      <c r="AC16">
+        <v>16456</v>
+      </c>
+      <c r="AD16">
+        <v>16456</v>
+      </c>
+      <c r="AE16">
+        <v>16433</v>
+      </c>
+      <c r="AF16">
+        <v>16350</v>
+      </c>
+      <c r="AG16">
+        <v>16350</v>
+      </c>
+      <c r="AH16">
+        <v>16339</v>
+      </c>
+      <c r="AI16">
+        <v>16403</v>
+      </c>
+      <c r="AJ16">
+        <v>16403</v>
+      </c>
+      <c r="AK16">
+        <v>16154</v>
+      </c>
+      <c r="AL16">
+        <v>16064</v>
+      </c>
+      <c r="AM16">
+        <v>16101</v>
+      </c>
+      <c r="AN16">
+        <v>16106</v>
+      </c>
+      <c r="AO16">
+        <v>16111</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>6554</v>
+      </c>
+      <c r="C17">
+        <v>6554</v>
+      </c>
+      <c r="D17">
+        <v>6554</v>
+      </c>
+      <c r="E17">
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>6554</v>
+      </c>
+      <c r="G17">
+        <v>6554</v>
+      </c>
+      <c r="H17">
+        <v>6554</v>
+      </c>
+      <c r="I17">
+        <v>6554</v>
+      </c>
+      <c r="J17">
+        <v>6554</v>
+      </c>
+      <c r="K17">
+        <v>6554</v>
+      </c>
+      <c r="L17">
+        <v>6554</v>
+      </c>
+      <c r="M17">
+        <v>6554</v>
+      </c>
+      <c r="N17">
+        <v>6554</v>
+      </c>
+      <c r="O17">
+        <v>6554</v>
+      </c>
+      <c r="P17">
+        <v>6554</v>
+      </c>
+      <c r="Q17">
+        <v>6199</v>
+      </c>
+      <c r="R17">
+        <v>6199</v>
+      </c>
+      <c r="S17">
+        <v>6199</v>
+      </c>
+      <c r="T17">
+        <v>6183</v>
+      </c>
+      <c r="U17">
+        <v>6183</v>
+      </c>
+      <c r="V17">
+        <v>6183</v>
+      </c>
+      <c r="W17">
+        <v>6166</v>
+      </c>
+      <c r="X17">
+        <v>6166</v>
+      </c>
+      <c r="Y17">
+        <v>6166</v>
+      </c>
+      <c r="Z17">
+        <v>5895</v>
+      </c>
+      <c r="AA17">
+        <v>5895</v>
+      </c>
+      <c r="AB17">
+        <v>5878</v>
+      </c>
+      <c r="AC17">
+        <v>6045</v>
+      </c>
+      <c r="AD17">
+        <v>6045</v>
+      </c>
+      <c r="AE17">
+        <v>6033</v>
+      </c>
+      <c r="AF17">
+        <v>6013</v>
+      </c>
+      <c r="AG17">
+        <v>6013</v>
+      </c>
+      <c r="AH17">
+        <v>6002</v>
+      </c>
+      <c r="AI17">
+        <v>6106</v>
+      </c>
+      <c r="AJ17">
+        <v>6106</v>
+      </c>
+      <c r="AK17">
+        <v>6003</v>
+      </c>
+      <c r="AL17">
+        <v>6067</v>
+      </c>
+      <c r="AM17">
+        <v>6086</v>
+      </c>
+      <c r="AN17">
+        <v>6086</v>
+      </c>
+      <c r="AO17">
+        <v>6086</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,10 +124,43 @@
     <t>m-2021-12</t>
   </si>
   <si>
+    <t>m-2022-01</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
+    <t>m-2022-04</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -485,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,118 +636,1014 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>739</v>
+        <v>6454</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>6499</v>
       </c>
       <c r="D2">
-        <v>741</v>
+        <v>6531</v>
       </c>
       <c r="E2">
-        <v>741</v>
+        <v>6585</v>
       </c>
       <c r="F2">
-        <v>742</v>
+        <v>6636</v>
       </c>
       <c r="G2">
-        <v>743</v>
+        <v>6684</v>
       </c>
       <c r="H2">
-        <v>744</v>
+        <v>6730</v>
       </c>
       <c r="I2">
-        <v>745</v>
+        <v>6776</v>
       </c>
       <c r="J2">
-        <v>745</v>
+        <v>6818</v>
       </c>
       <c r="K2">
-        <v>746</v>
+        <v>6850</v>
       </c>
       <c r="L2">
-        <v>747</v>
+        <v>6879</v>
       </c>
       <c r="M2">
-        <v>748</v>
+        <v>6907</v>
       </c>
       <c r="N2">
-        <v>748</v>
+        <v>6936</v>
       </c>
       <c r="O2">
-        <v>749</v>
+        <v>6962</v>
       </c>
       <c r="P2">
-        <v>749</v>
+        <v>6983</v>
       </c>
       <c r="Q2">
-        <v>751</v>
+        <v>7001</v>
       </c>
       <c r="R2">
-        <v>751</v>
+        <v>7022</v>
       </c>
       <c r="S2">
-        <v>751</v>
+        <v>7032</v>
       </c>
       <c r="T2">
-        <v>751</v>
+        <v>7039</v>
       </c>
       <c r="U2">
-        <v>751</v>
+        <v>7042</v>
       </c>
       <c r="V2">
-        <v>751</v>
+        <v>7044</v>
       </c>
       <c r="W2">
-        <v>751</v>
+        <v>7045</v>
       </c>
       <c r="X2">
-        <v>751</v>
+        <v>7047</v>
       </c>
       <c r="Y2">
-        <v>751</v>
+        <v>7050</v>
       </c>
       <c r="Z2">
-        <v>751</v>
+        <v>7052</v>
       </c>
       <c r="AA2">
-        <v>751</v>
+        <v>7054</v>
       </c>
       <c r="AB2">
-        <v>751</v>
+        <v>7056</v>
       </c>
       <c r="AC2">
-        <v>720</v>
+        <v>7056</v>
       </c>
       <c r="AD2">
-        <v>720</v>
+        <v>7025</v>
       </c>
       <c r="AE2">
-        <v>720</v>
+        <v>6992</v>
       </c>
       <c r="AF2">
-        <v>805</v>
+        <v>6941</v>
       </c>
       <c r="AG2">
-        <v>805</v>
+        <v>6906</v>
       </c>
       <c r="AH2">
-        <v>805</v>
+        <v>6870</v>
       </c>
       <c r="AI2">
-        <v>865</v>
+        <v>6845</v>
       </c>
       <c r="AJ2">
-        <v>865</v>
+        <v>6820</v>
       </c>
       <c r="AK2">
-        <v>865</v>
+        <v>6796</v>
+      </c>
+      <c r="AL2">
+        <v>17539</v>
+      </c>
+      <c r="AM2">
+        <v>17420</v>
+      </c>
+      <c r="AN2">
+        <v>17311</v>
+      </c>
+      <c r="AO2">
+        <v>17209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>907</v>
+      </c>
+      <c r="C3">
+        <v>912</v>
+      </c>
+      <c r="D3">
+        <v>919</v>
+      </c>
+      <c r="E3">
+        <v>925</v>
+      </c>
+      <c r="F3">
+        <v>930</v>
+      </c>
+      <c r="G3">
+        <v>940</v>
+      </c>
+      <c r="H3">
+        <v>949</v>
+      </c>
+      <c r="I3">
+        <v>965</v>
+      </c>
+      <c r="J3">
+        <v>969</v>
+      </c>
+      <c r="K3">
+        <v>974</v>
+      </c>
+      <c r="L3">
+        <v>978</v>
+      </c>
+      <c r="M3">
+        <v>991</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>1009</v>
+      </c>
+      <c r="P3">
+        <v>1020</v>
+      </c>
+      <c r="Q3">
+        <v>1025</v>
+      </c>
+      <c r="R3">
+        <v>1031</v>
+      </c>
+      <c r="S3">
+        <v>1039</v>
+      </c>
+      <c r="T3">
+        <v>1041</v>
+      </c>
+      <c r="U3">
+        <v>1053</v>
+      </c>
+      <c r="V3">
+        <v>1059</v>
+      </c>
+      <c r="W3">
+        <v>1063</v>
+      </c>
+      <c r="X3">
+        <v>1067</v>
+      </c>
+      <c r="Y3">
+        <v>1075</v>
+      </c>
+      <c r="Z3">
+        <v>1082</v>
+      </c>
+      <c r="AA3">
+        <v>1090</v>
+      </c>
+      <c r="AB3">
+        <v>1100</v>
+      </c>
+      <c r="AC3">
+        <v>1105</v>
+      </c>
+      <c r="AD3">
+        <v>1110</v>
+      </c>
+      <c r="AE3">
+        <v>1111</v>
+      </c>
+      <c r="AF3">
+        <v>1112</v>
+      </c>
+      <c r="AG3">
+        <v>1114</v>
+      </c>
+      <c r="AH3">
+        <v>1115</v>
+      </c>
+      <c r="AI3">
+        <v>1115</v>
+      </c>
+      <c r="AJ3">
+        <v>1115</v>
+      </c>
+      <c r="AK3">
+        <v>1115</v>
+      </c>
+      <c r="AL3">
+        <v>1115</v>
+      </c>
+      <c r="AM3">
+        <v>1102</v>
+      </c>
+      <c r="AN3">
+        <v>1090</v>
+      </c>
+      <c r="AO3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>35300</v>
+      </c>
+      <c r="C4">
+        <v>35520</v>
+      </c>
+      <c r="D4">
+        <v>35707</v>
+      </c>
+      <c r="E4">
+        <v>35873</v>
+      </c>
+      <c r="F4">
+        <v>36080</v>
+      </c>
+      <c r="G4">
+        <v>36252</v>
+      </c>
+      <c r="H4">
+        <v>36447</v>
+      </c>
+      <c r="I4">
+        <v>36745</v>
+      </c>
+      <c r="J4">
+        <v>36959</v>
+      </c>
+      <c r="K4">
+        <v>37164</v>
+      </c>
+      <c r="L4">
+        <v>37390</v>
+      </c>
+      <c r="M4">
+        <v>37581</v>
+      </c>
+      <c r="N4">
+        <v>37752</v>
+      </c>
+      <c r="O4">
+        <v>37982</v>
+      </c>
+      <c r="P4">
+        <v>38177</v>
+      </c>
+      <c r="Q4">
+        <v>38355</v>
+      </c>
+      <c r="R4">
+        <v>38522</v>
+      </c>
+      <c r="S4">
+        <v>38667</v>
+      </c>
+      <c r="T4">
+        <v>38862</v>
+      </c>
+      <c r="U4">
+        <v>39133</v>
+      </c>
+      <c r="V4">
+        <v>39339</v>
+      </c>
+      <c r="W4">
+        <v>39522</v>
+      </c>
+      <c r="X4">
+        <v>39710</v>
+      </c>
+      <c r="Y4">
+        <v>39875</v>
+      </c>
+      <c r="Z4">
+        <v>39998</v>
+      </c>
+      <c r="AA4">
+        <v>40166</v>
+      </c>
+      <c r="AB4">
+        <v>40286</v>
+      </c>
+      <c r="AC4">
+        <v>40399</v>
+      </c>
+      <c r="AD4">
+        <v>40488</v>
+      </c>
+      <c r="AE4">
+        <v>40562</v>
+      </c>
+      <c r="AF4">
+        <v>40601</v>
+      </c>
+      <c r="AG4">
+        <v>40613</v>
+      </c>
+      <c r="AH4">
+        <v>40616</v>
+      </c>
+      <c r="AI4">
+        <v>40619</v>
+      </c>
+      <c r="AJ4">
+        <v>40625</v>
+      </c>
+      <c r="AK4">
+        <v>40629</v>
+      </c>
+      <c r="AL4">
+        <v>40632</v>
+      </c>
+      <c r="AM4">
+        <v>40271</v>
+      </c>
+      <c r="AN4">
+        <v>39918</v>
+      </c>
+      <c r="AO4">
+        <v>39616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2943</v>
+      </c>
+      <c r="C5">
+        <v>2986</v>
+      </c>
+      <c r="D5">
+        <v>3001</v>
+      </c>
+      <c r="E5">
+        <v>3029</v>
+      </c>
+      <c r="F5">
+        <v>3058</v>
+      </c>
+      <c r="G5">
+        <v>3080</v>
+      </c>
+      <c r="H5">
+        <v>3107</v>
+      </c>
+      <c r="I5">
+        <v>3145</v>
+      </c>
+      <c r="J5">
+        <v>3176</v>
+      </c>
+      <c r="K5">
+        <v>3197</v>
+      </c>
+      <c r="L5">
+        <v>3222</v>
+      </c>
+      <c r="M5">
+        <v>3240</v>
+      </c>
+      <c r="N5">
+        <v>3266</v>
+      </c>
+      <c r="O5">
+        <v>3292</v>
+      </c>
+      <c r="P5">
+        <v>3305</v>
+      </c>
+      <c r="Q5">
+        <v>3347</v>
+      </c>
+      <c r="R5">
+        <v>3369</v>
+      </c>
+      <c r="S5">
+        <v>3394</v>
+      </c>
+      <c r="T5">
+        <v>3419</v>
+      </c>
+      <c r="U5">
+        <v>3455</v>
+      </c>
+      <c r="V5">
+        <v>3467</v>
+      </c>
+      <c r="W5">
+        <v>3491</v>
+      </c>
+      <c r="X5">
+        <v>3505</v>
+      </c>
+      <c r="Y5">
+        <v>3525</v>
+      </c>
+      <c r="Z5">
+        <v>3538</v>
+      </c>
+      <c r="AA5">
+        <v>3556</v>
+      </c>
+      <c r="AB5">
+        <v>3568</v>
+      </c>
+      <c r="AC5">
+        <v>3584</v>
+      </c>
+      <c r="AD5">
+        <v>3603</v>
+      </c>
+      <c r="AE5">
+        <v>3632</v>
+      </c>
+      <c r="AF5">
+        <v>3643</v>
+      </c>
+      <c r="AG5">
+        <v>3653</v>
+      </c>
+      <c r="AH5">
+        <v>3660</v>
+      </c>
+      <c r="AI5">
+        <v>3661</v>
+      </c>
+      <c r="AJ5">
+        <v>3661</v>
+      </c>
+      <c r="AK5">
+        <v>3662</v>
+      </c>
+      <c r="AL5">
+        <v>3662</v>
+      </c>
+      <c r="AM5">
+        <v>3594</v>
+      </c>
+      <c r="AN5">
+        <v>3531</v>
+      </c>
+      <c r="AO5">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>3661</v>
+      </c>
+      <c r="C6">
+        <v>3694</v>
+      </c>
+      <c r="D6">
+        <v>3714</v>
+      </c>
+      <c r="E6">
+        <v>3736</v>
+      </c>
+      <c r="F6">
+        <v>3757</v>
+      </c>
+      <c r="G6">
+        <v>3773</v>
+      </c>
+      <c r="H6">
+        <v>3801</v>
+      </c>
+      <c r="I6">
+        <v>3832</v>
+      </c>
+      <c r="J6">
+        <v>3845</v>
+      </c>
+      <c r="K6">
+        <v>3873</v>
+      </c>
+      <c r="L6">
+        <v>3895</v>
+      </c>
+      <c r="M6">
+        <v>3911</v>
+      </c>
+      <c r="N6">
+        <v>3943</v>
+      </c>
+      <c r="O6">
+        <v>3969</v>
+      </c>
+      <c r="P6">
+        <v>3980</v>
+      </c>
+      <c r="Q6">
+        <v>4000</v>
+      </c>
+      <c r="R6">
+        <v>4028</v>
+      </c>
+      <c r="S6">
+        <v>4042</v>
+      </c>
+      <c r="T6">
+        <v>4059</v>
+      </c>
+      <c r="U6">
+        <v>4082</v>
+      </c>
+      <c r="V6">
+        <v>4099</v>
+      </c>
+      <c r="W6">
+        <v>4110</v>
+      </c>
+      <c r="X6">
+        <v>4125</v>
+      </c>
+      <c r="Y6">
+        <v>4142</v>
+      </c>
+      <c r="Z6">
+        <v>4161</v>
+      </c>
+      <c r="AA6">
+        <v>4179</v>
+      </c>
+      <c r="AB6">
+        <v>4195</v>
+      </c>
+      <c r="AC6">
+        <v>4202</v>
+      </c>
+      <c r="AD6">
+        <v>4207</v>
+      </c>
+      <c r="AE6">
+        <v>4212</v>
+      </c>
+      <c r="AF6">
+        <v>4214</v>
+      </c>
+      <c r="AG6">
+        <v>4215</v>
+      </c>
+      <c r="AH6">
+        <v>4216</v>
+      </c>
+      <c r="AI6">
+        <v>4216</v>
+      </c>
+      <c r="AJ6">
+        <v>4217</v>
+      </c>
+      <c r="AK6">
+        <v>4217</v>
+      </c>
+      <c r="AL6">
+        <v>4217</v>
+      </c>
+      <c r="AM6">
+        <v>4217</v>
+      </c>
+      <c r="AN6">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>2815</v>
+      </c>
+      <c r="D7">
+        <v>2829</v>
+      </c>
+      <c r="E7">
+        <v>2843</v>
+      </c>
+      <c r="F7">
+        <v>2856</v>
+      </c>
+      <c r="G7">
+        <v>2868</v>
+      </c>
+      <c r="H7">
+        <v>2894</v>
+      </c>
+      <c r="I7">
+        <v>2909</v>
+      </c>
+      <c r="J7">
+        <v>2924</v>
+      </c>
+      <c r="K7">
+        <v>2933</v>
+      </c>
+      <c r="L7">
+        <v>2946</v>
+      </c>
+      <c r="M7">
+        <v>2968</v>
+      </c>
+      <c r="N7">
+        <v>2987</v>
+      </c>
+      <c r="O7">
+        <v>3002</v>
+      </c>
+      <c r="P7">
+        <v>3009</v>
+      </c>
+      <c r="Q7">
+        <v>3022</v>
+      </c>
+      <c r="R7">
+        <v>3025</v>
+      </c>
+      <c r="S7">
+        <v>3031</v>
+      </c>
+      <c r="T7">
+        <v>3037</v>
+      </c>
+      <c r="U7">
+        <v>3037</v>
+      </c>
+      <c r="V7">
+        <v>3037</v>
+      </c>
+      <c r="W7">
+        <v>3038</v>
+      </c>
+      <c r="X7">
+        <v>3038</v>
+      </c>
+      <c r="Y7">
+        <v>3039</v>
+      </c>
+      <c r="Z7">
+        <v>3040</v>
+      </c>
+      <c r="AA7">
+        <v>3040</v>
+      </c>
+      <c r="AB7">
+        <v>3040</v>
+      </c>
+      <c r="AC7">
+        <v>3040</v>
+      </c>
+      <c r="AD7">
+        <v>3018</v>
+      </c>
+      <c r="AE7">
+        <v>2987</v>
+      </c>
+      <c r="AF7">
+        <v>3012</v>
+      </c>
+      <c r="AG7">
+        <v>2988</v>
+      </c>
+      <c r="AH7">
+        <v>2950</v>
+      </c>
+      <c r="AI7">
+        <v>4224</v>
+      </c>
+      <c r="AJ7">
+        <v>4194</v>
+      </c>
+      <c r="AK7">
+        <v>4179</v>
+      </c>
+      <c r="AL7">
+        <v>20654</v>
+      </c>
+      <c r="AM7">
+        <v>20494</v>
+      </c>
+      <c r="AN7">
+        <v>20397</v>
+      </c>
+      <c r="AO7">
+        <v>20256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>42615</v>
+      </c>
+      <c r="C8">
+        <v>42936</v>
+      </c>
+      <c r="D8">
+        <v>43160</v>
+      </c>
+      <c r="E8">
+        <v>43378</v>
+      </c>
+      <c r="F8">
+        <v>43585</v>
+      </c>
+      <c r="G8">
+        <v>43817</v>
+      </c>
+      <c r="H8">
+        <v>44049</v>
+      </c>
+      <c r="I8">
+        <v>44422</v>
+      </c>
+      <c r="J8">
+        <v>44648</v>
+      </c>
+      <c r="K8">
+        <v>44940</v>
+      </c>
+      <c r="L8">
+        <v>45203</v>
+      </c>
+      <c r="M8">
+        <v>45418</v>
+      </c>
+      <c r="N8">
+        <v>45650</v>
+      </c>
+      <c r="O8">
+        <v>45947</v>
+      </c>
+      <c r="P8">
+        <v>46183</v>
+      </c>
+      <c r="Q8">
+        <v>46414</v>
+      </c>
+      <c r="R8">
+        <v>46605</v>
+      </c>
+      <c r="S8">
+        <v>46819</v>
+      </c>
+      <c r="T8">
+        <v>47039</v>
+      </c>
+      <c r="U8">
+        <v>47317</v>
+      </c>
+      <c r="V8">
+        <v>47513</v>
+      </c>
+      <c r="W8">
+        <v>47739</v>
+      </c>
+      <c r="X8">
+        <v>47900</v>
+      </c>
+      <c r="Y8">
+        <v>48042</v>
+      </c>
+      <c r="Z8">
+        <v>48207</v>
+      </c>
+      <c r="AA8">
+        <v>48396</v>
+      </c>
+      <c r="AB8">
+        <v>48525</v>
+      </c>
+      <c r="AC8">
+        <v>48654</v>
+      </c>
+      <c r="AD8">
+        <v>48762</v>
+      </c>
+      <c r="AE8">
+        <v>48851</v>
+      </c>
+      <c r="AF8">
+        <v>48893</v>
+      </c>
+      <c r="AG8">
+        <v>48901</v>
+      </c>
+      <c r="AH8">
+        <v>48901</v>
+      </c>
+      <c r="AI8">
+        <v>48904</v>
+      </c>
+      <c r="AJ8">
+        <v>48909</v>
+      </c>
+      <c r="AK8">
+        <v>48912</v>
+      </c>
+      <c r="AL8">
+        <v>48914</v>
+      </c>
+      <c r="AM8">
+        <v>48572</v>
+      </c>
+      <c r="AN8">
+        <v>48246</v>
+      </c>
+      <c r="AO8">
+        <v>47899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1060</v>
+      </c>
+      <c r="C9">
+        <v>1068</v>
+      </c>
+      <c r="D9">
+        <v>1076</v>
+      </c>
+      <c r="E9">
+        <v>1079</v>
+      </c>
+      <c r="F9">
+        <v>1084</v>
+      </c>
+      <c r="G9">
+        <v>1092</v>
+      </c>
+      <c r="H9">
+        <v>1096</v>
+      </c>
+      <c r="I9">
+        <v>1105</v>
+      </c>
+      <c r="J9">
+        <v>1108</v>
+      </c>
+      <c r="K9">
+        <v>1115</v>
+      </c>
+      <c r="L9">
+        <v>1120</v>
+      </c>
+      <c r="M9">
+        <v>1129</v>
+      </c>
+      <c r="N9">
+        <v>1136</v>
+      </c>
+      <c r="O9">
+        <v>1146</v>
+      </c>
+      <c r="P9">
+        <v>1153</v>
+      </c>
+      <c r="Q9">
+        <v>1157</v>
+      </c>
+      <c r="R9">
+        <v>1163</v>
+      </c>
+      <c r="S9">
+        <v>1168</v>
+      </c>
+      <c r="T9">
+        <v>1172</v>
+      </c>
+      <c r="U9">
+        <v>1179</v>
+      </c>
+      <c r="V9">
+        <v>1185</v>
+      </c>
+      <c r="W9">
+        <v>1191</v>
+      </c>
+      <c r="X9">
+        <v>1196</v>
+      </c>
+      <c r="Y9">
+        <v>1201</v>
+      </c>
+      <c r="Z9">
+        <v>1209</v>
+      </c>
+      <c r="AA9">
+        <v>1215</v>
+      </c>
+      <c r="AB9">
+        <v>1221</v>
+      </c>
+      <c r="AC9">
+        <v>1223</v>
+      </c>
+      <c r="AD9">
+        <v>1226</v>
+      </c>
+      <c r="AE9">
+        <v>1227</v>
+      </c>
+      <c r="AF9">
+        <v>1229</v>
+      </c>
+      <c r="AG9">
+        <v>1229</v>
+      </c>
+      <c r="AH9">
+        <v>1229</v>
+      </c>
+      <c r="AI9">
+        <v>1229</v>
+      </c>
+      <c r="AJ9">
+        <v>1229</v>
+      </c>
+      <c r="AK9">
+        <v>1229</v>
+      </c>
+      <c r="AL9">
+        <v>1229</v>
+      </c>
+      <c r="AM9">
+        <v>1221</v>
+      </c>
+      <c r="AN9">
+        <v>1210</v>
+      </c>
+      <c r="AO9">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>m-2022-03</t>
-  </si>
-  <si>
-    <t>m-2022-04</t>
   </si>
   <si>
     <t>org_id</t>
@@ -518,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -645,13 +642,10 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>6454</v>
@@ -744,414 +738,402 @@
         <v>6992</v>
       </c>
       <c r="AF2">
-        <v>6941</v>
+        <v>6942</v>
       </c>
       <c r="AG2">
-        <v>6906</v>
+        <v>6907</v>
       </c>
       <c r="AH2">
-        <v>6870</v>
+        <v>6871</v>
       </c>
       <c r="AI2">
-        <v>6845</v>
+        <v>6846</v>
       </c>
       <c r="AJ2">
-        <v>6820</v>
+        <v>6821</v>
       </c>
       <c r="AK2">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="AL2">
-        <v>17539</v>
+        <v>17875</v>
       </c>
       <c r="AM2">
-        <v>17420</v>
+        <v>17768</v>
       </c>
       <c r="AN2">
-        <v>17311</v>
-      </c>
-      <c r="AO2">
-        <v>17209</v>
+        <v>17723</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>915</v>
+      </c>
+      <c r="C3">
+        <v>921</v>
+      </c>
+      <c r="D3">
+        <v>928</v>
+      </c>
+      <c r="E3">
+        <v>934</v>
+      </c>
+      <c r="F3">
+        <v>939</v>
+      </c>
+      <c r="G3">
+        <v>949</v>
+      </c>
+      <c r="H3">
+        <v>958</v>
+      </c>
+      <c r="I3">
+        <v>974</v>
+      </c>
+      <c r="J3">
+        <v>978</v>
+      </c>
+      <c r="K3">
+        <v>983</v>
+      </c>
+      <c r="L3">
+        <v>987</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1009</v>
+      </c>
+      <c r="O3">
+        <v>1018</v>
+      </c>
+      <c r="P3">
+        <v>1029</v>
+      </c>
+      <c r="Q3">
+        <v>1034</v>
+      </c>
+      <c r="R3">
+        <v>1040</v>
+      </c>
+      <c r="S3">
+        <v>1048</v>
+      </c>
+      <c r="T3">
+        <v>1050</v>
+      </c>
+      <c r="U3">
+        <v>1062</v>
+      </c>
+      <c r="V3">
+        <v>1068</v>
+      </c>
+      <c r="W3">
+        <v>1072</v>
+      </c>
+      <c r="X3">
+        <v>1076</v>
+      </c>
+      <c r="Y3">
+        <v>1084</v>
+      </c>
+      <c r="Z3">
+        <v>1091</v>
+      </c>
+      <c r="AA3">
+        <v>1099</v>
+      </c>
+      <c r="AB3">
+        <v>1109</v>
+      </c>
+      <c r="AC3">
+        <v>1114</v>
+      </c>
+      <c r="AD3">
+        <v>1119</v>
+      </c>
+      <c r="AE3">
+        <v>1120</v>
+      </c>
+      <c r="AF3">
+        <v>1121</v>
+      </c>
+      <c r="AG3">
+        <v>1123</v>
+      </c>
+      <c r="AH3">
+        <v>1124</v>
+      </c>
+      <c r="AI3">
+        <v>1124</v>
+      </c>
+      <c r="AJ3">
+        <v>1124</v>
+      </c>
+      <c r="AK3">
+        <v>1124</v>
+      </c>
+      <c r="AL3">
+        <v>1124</v>
+      </c>
+      <c r="AM3">
+        <v>1115</v>
+      </c>
+      <c r="AN3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
-        <v>907</v>
-      </c>
-      <c r="C3">
-        <v>912</v>
-      </c>
-      <c r="D3">
-        <v>919</v>
-      </c>
-      <c r="E3">
-        <v>925</v>
-      </c>
-      <c r="F3">
-        <v>930</v>
-      </c>
-      <c r="G3">
-        <v>940</v>
-      </c>
-      <c r="H3">
-        <v>949</v>
-      </c>
-      <c r="I3">
-        <v>965</v>
-      </c>
-      <c r="J3">
-        <v>969</v>
-      </c>
-      <c r="K3">
-        <v>974</v>
-      </c>
-      <c r="L3">
-        <v>978</v>
-      </c>
-      <c r="M3">
-        <v>991</v>
-      </c>
-      <c r="N3">
-        <v>1000</v>
-      </c>
-      <c r="O3">
-        <v>1009</v>
-      </c>
-      <c r="P3">
-        <v>1020</v>
-      </c>
-      <c r="Q3">
-        <v>1025</v>
-      </c>
-      <c r="R3">
-        <v>1031</v>
-      </c>
-      <c r="S3">
-        <v>1039</v>
-      </c>
-      <c r="T3">
-        <v>1041</v>
-      </c>
-      <c r="U3">
-        <v>1053</v>
-      </c>
-      <c r="V3">
-        <v>1059</v>
-      </c>
-      <c r="W3">
-        <v>1063</v>
-      </c>
-      <c r="X3">
-        <v>1067</v>
-      </c>
-      <c r="Y3">
-        <v>1075</v>
-      </c>
-      <c r="Z3">
-        <v>1082</v>
-      </c>
-      <c r="AA3">
-        <v>1090</v>
-      </c>
-      <c r="AB3">
-        <v>1100</v>
-      </c>
-      <c r="AC3">
-        <v>1105</v>
-      </c>
-      <c r="AD3">
-        <v>1110</v>
-      </c>
-      <c r="AE3">
-        <v>1111</v>
-      </c>
-      <c r="AF3">
-        <v>1112</v>
-      </c>
-      <c r="AG3">
-        <v>1114</v>
-      </c>
-      <c r="AH3">
-        <v>1115</v>
-      </c>
-      <c r="AI3">
-        <v>1115</v>
-      </c>
-      <c r="AJ3">
-        <v>1115</v>
-      </c>
-      <c r="AK3">
-        <v>1115</v>
-      </c>
-      <c r="AL3">
-        <v>1115</v>
-      </c>
-      <c r="AM3">
-        <v>1102</v>
-      </c>
-      <c r="AN3">
-        <v>1090</v>
-      </c>
-      <c r="AO3">
-        <v>1079</v>
+      <c r="B4">
+        <v>35626</v>
+      </c>
+      <c r="C4">
+        <v>35852</v>
+      </c>
+      <c r="D4">
+        <v>36042</v>
+      </c>
+      <c r="E4">
+        <v>36212</v>
+      </c>
+      <c r="F4">
+        <v>36423</v>
+      </c>
+      <c r="G4">
+        <v>36597</v>
+      </c>
+      <c r="H4">
+        <v>36795</v>
+      </c>
+      <c r="I4">
+        <v>37098</v>
+      </c>
+      <c r="J4">
+        <v>37315</v>
+      </c>
+      <c r="K4">
+        <v>37524</v>
+      </c>
+      <c r="L4">
+        <v>37752</v>
+      </c>
+      <c r="M4">
+        <v>37947</v>
+      </c>
+      <c r="N4">
+        <v>38123</v>
+      </c>
+      <c r="O4">
+        <v>38359</v>
+      </c>
+      <c r="P4">
+        <v>38556</v>
+      </c>
+      <c r="Q4">
+        <v>38739</v>
+      </c>
+      <c r="R4">
+        <v>38908</v>
+      </c>
+      <c r="S4">
+        <v>39056</v>
+      </c>
+      <c r="T4">
+        <v>39252</v>
+      </c>
+      <c r="U4">
+        <v>39529</v>
+      </c>
+      <c r="V4">
+        <v>39740</v>
+      </c>
+      <c r="W4">
+        <v>39928</v>
+      </c>
+      <c r="X4">
+        <v>40123</v>
+      </c>
+      <c r="Y4">
+        <v>40290</v>
+      </c>
+      <c r="Z4">
+        <v>40419</v>
+      </c>
+      <c r="AA4">
+        <v>40589</v>
+      </c>
+      <c r="AB4">
+        <v>40712</v>
+      </c>
+      <c r="AC4">
+        <v>40827</v>
+      </c>
+      <c r="AD4">
+        <v>40918</v>
+      </c>
+      <c r="AE4">
+        <v>40993</v>
+      </c>
+      <c r="AF4">
+        <v>41033</v>
+      </c>
+      <c r="AG4">
+        <v>41045</v>
+      </c>
+      <c r="AH4">
+        <v>41048</v>
+      </c>
+      <c r="AI4">
+        <v>41051</v>
+      </c>
+      <c r="AJ4">
+        <v>41057</v>
+      </c>
+      <c r="AK4">
+        <v>41061</v>
+      </c>
+      <c r="AL4">
+        <v>41064</v>
+      </c>
+      <c r="AM4">
+        <v>40741</v>
+      </c>
+      <c r="AN4">
+        <v>40602</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
-        <v>35300</v>
-      </c>
-      <c r="C4">
-        <v>35520</v>
-      </c>
-      <c r="D4">
-        <v>35707</v>
-      </c>
-      <c r="E4">
-        <v>35873</v>
-      </c>
-      <c r="F4">
-        <v>36080</v>
-      </c>
-      <c r="G4">
-        <v>36252</v>
-      </c>
-      <c r="H4">
-        <v>36447</v>
-      </c>
-      <c r="I4">
-        <v>36745</v>
-      </c>
-      <c r="J4">
-        <v>36959</v>
-      </c>
-      <c r="K4">
-        <v>37164</v>
-      </c>
-      <c r="L4">
-        <v>37390</v>
-      </c>
-      <c r="M4">
-        <v>37581</v>
-      </c>
-      <c r="N4">
-        <v>37752</v>
-      </c>
-      <c r="O4">
-        <v>37982</v>
-      </c>
-      <c r="P4">
-        <v>38177</v>
-      </c>
-      <c r="Q4">
-        <v>38355</v>
-      </c>
-      <c r="R4">
-        <v>38522</v>
-      </c>
-      <c r="S4">
-        <v>38667</v>
-      </c>
-      <c r="T4">
-        <v>38862</v>
-      </c>
-      <c r="U4">
-        <v>39133</v>
-      </c>
-      <c r="V4">
-        <v>39339</v>
-      </c>
-      <c r="W4">
-        <v>39522</v>
-      </c>
-      <c r="X4">
-        <v>39710</v>
-      </c>
-      <c r="Y4">
-        <v>39875</v>
-      </c>
-      <c r="Z4">
-        <v>39998</v>
-      </c>
-      <c r="AA4">
-        <v>40166</v>
-      </c>
-      <c r="AB4">
-        <v>40286</v>
-      </c>
-      <c r="AC4">
-        <v>40399</v>
-      </c>
-      <c r="AD4">
-        <v>40488</v>
-      </c>
-      <c r="AE4">
-        <v>40562</v>
-      </c>
-      <c r="AF4">
-        <v>40601</v>
-      </c>
-      <c r="AG4">
-        <v>40613</v>
-      </c>
-      <c r="AH4">
-        <v>40616</v>
-      </c>
-      <c r="AI4">
-        <v>40619</v>
-      </c>
-      <c r="AJ4">
-        <v>40625</v>
-      </c>
-      <c r="AK4">
-        <v>40629</v>
-      </c>
-      <c r="AL4">
-        <v>40632</v>
-      </c>
-      <c r="AM4">
-        <v>40271</v>
-      </c>
-      <c r="AN4">
-        <v>39918</v>
-      </c>
-      <c r="AO4">
-        <v>39616</v>
+      <c r="B5">
+        <v>2969</v>
+      </c>
+      <c r="C5">
+        <v>3012</v>
+      </c>
+      <c r="D5">
+        <v>3027</v>
+      </c>
+      <c r="E5">
+        <v>3056</v>
+      </c>
+      <c r="F5">
+        <v>3085</v>
+      </c>
+      <c r="G5">
+        <v>3107</v>
+      </c>
+      <c r="H5">
+        <v>3134</v>
+      </c>
+      <c r="I5">
+        <v>3172</v>
+      </c>
+      <c r="J5">
+        <v>3204</v>
+      </c>
+      <c r="K5">
+        <v>3225</v>
+      </c>
+      <c r="L5">
+        <v>3250</v>
+      </c>
+      <c r="M5">
+        <v>3270</v>
+      </c>
+      <c r="N5">
+        <v>3296</v>
+      </c>
+      <c r="O5">
+        <v>3322</v>
+      </c>
+      <c r="P5">
+        <v>3335</v>
+      </c>
+      <c r="Q5">
+        <v>3377</v>
+      </c>
+      <c r="R5">
+        <v>3399</v>
+      </c>
+      <c r="S5">
+        <v>3424</v>
+      </c>
+      <c r="T5">
+        <v>3450</v>
+      </c>
+      <c r="U5">
+        <v>3486</v>
+      </c>
+      <c r="V5">
+        <v>3498</v>
+      </c>
+      <c r="W5">
+        <v>3522</v>
+      </c>
+      <c r="X5">
+        <v>3536</v>
+      </c>
+      <c r="Y5">
+        <v>3557</v>
+      </c>
+      <c r="Z5">
+        <v>3570</v>
+      </c>
+      <c r="AA5">
+        <v>3588</v>
+      </c>
+      <c r="AB5">
+        <v>3601</v>
+      </c>
+      <c r="AC5">
+        <v>3617</v>
+      </c>
+      <c r="AD5">
+        <v>3636</v>
+      </c>
+      <c r="AE5">
+        <v>3666</v>
+      </c>
+      <c r="AF5">
+        <v>3677</v>
+      </c>
+      <c r="AG5">
+        <v>3687</v>
+      </c>
+      <c r="AH5">
+        <v>3694</v>
+      </c>
+      <c r="AI5">
+        <v>3695</v>
+      </c>
+      <c r="AJ5">
+        <v>3695</v>
+      </c>
+      <c r="AK5">
+        <v>3696</v>
+      </c>
+      <c r="AL5">
+        <v>3696</v>
+      </c>
+      <c r="AM5">
+        <v>3639</v>
+      </c>
+      <c r="AN5">
+        <v>3598</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5">
-        <v>2943</v>
-      </c>
-      <c r="C5">
-        <v>2986</v>
-      </c>
-      <c r="D5">
-        <v>3001</v>
-      </c>
-      <c r="E5">
-        <v>3029</v>
-      </c>
-      <c r="F5">
-        <v>3058</v>
-      </c>
-      <c r="G5">
-        <v>3080</v>
-      </c>
-      <c r="H5">
-        <v>3107</v>
-      </c>
-      <c r="I5">
-        <v>3145</v>
-      </c>
-      <c r="J5">
-        <v>3176</v>
-      </c>
-      <c r="K5">
-        <v>3197</v>
-      </c>
-      <c r="L5">
-        <v>3222</v>
-      </c>
-      <c r="M5">
-        <v>3240</v>
-      </c>
-      <c r="N5">
-        <v>3266</v>
-      </c>
-      <c r="O5">
-        <v>3292</v>
-      </c>
-      <c r="P5">
-        <v>3305</v>
-      </c>
-      <c r="Q5">
-        <v>3347</v>
-      </c>
-      <c r="R5">
-        <v>3369</v>
-      </c>
-      <c r="S5">
-        <v>3394</v>
-      </c>
-      <c r="T5">
-        <v>3419</v>
-      </c>
-      <c r="U5">
-        <v>3455</v>
-      </c>
-      <c r="V5">
-        <v>3467</v>
-      </c>
-      <c r="W5">
-        <v>3491</v>
-      </c>
-      <c r="X5">
-        <v>3505</v>
-      </c>
-      <c r="Y5">
-        <v>3525</v>
-      </c>
-      <c r="Z5">
-        <v>3538</v>
-      </c>
-      <c r="AA5">
-        <v>3556</v>
-      </c>
-      <c r="AB5">
-        <v>3568</v>
-      </c>
-      <c r="AC5">
-        <v>3584</v>
-      </c>
-      <c r="AD5">
-        <v>3603</v>
-      </c>
-      <c r="AE5">
-        <v>3632</v>
-      </c>
-      <c r="AF5">
-        <v>3643</v>
-      </c>
-      <c r="AG5">
-        <v>3653</v>
-      </c>
-      <c r="AH5">
-        <v>3660</v>
-      </c>
-      <c r="AI5">
-        <v>3661</v>
-      </c>
-      <c r="AJ5">
-        <v>3661</v>
-      </c>
-      <c r="AK5">
-        <v>3662</v>
-      </c>
-      <c r="AL5">
-        <v>3662</v>
-      </c>
-      <c r="AM5">
-        <v>3594</v>
-      </c>
-      <c r="AN5">
-        <v>3531</v>
-      </c>
-      <c r="AO5">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B6">
         <v>3661</v>
@@ -1271,9 +1253,9 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2800</v>
@@ -1384,266 +1366,257 @@
         <v>4179</v>
       </c>
       <c r="AL7">
-        <v>20654</v>
+        <v>20928</v>
       </c>
       <c r="AM7">
-        <v>20494</v>
+        <v>20790</v>
       </c>
       <c r="AN7">
-        <v>20397</v>
-      </c>
-      <c r="AO7">
-        <v>20256</v>
+        <v>20751</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>43353</v>
+      </c>
+      <c r="C8">
+        <v>43691</v>
+      </c>
+      <c r="D8">
+        <v>43928</v>
+      </c>
+      <c r="E8">
+        <v>44153</v>
+      </c>
+      <c r="F8">
+        <v>44366</v>
+      </c>
+      <c r="G8">
+        <v>44605</v>
+      </c>
+      <c r="H8">
+        <v>44843</v>
+      </c>
+      <c r="I8">
+        <v>45235</v>
+      </c>
+      <c r="J8">
+        <v>45470</v>
+      </c>
+      <c r="K8">
+        <v>45768</v>
+      </c>
+      <c r="L8">
+        <v>46040</v>
+      </c>
+      <c r="M8">
+        <v>46265</v>
+      </c>
+      <c r="N8">
+        <v>46503</v>
+      </c>
+      <c r="O8">
+        <v>46810</v>
+      </c>
+      <c r="P8">
+        <v>47054</v>
+      </c>
+      <c r="Q8">
+        <v>47295</v>
+      </c>
+      <c r="R8">
+        <v>47496</v>
+      </c>
+      <c r="S8">
+        <v>47712</v>
+      </c>
+      <c r="T8">
+        <v>47941</v>
+      </c>
+      <c r="U8">
+        <v>48236</v>
+      </c>
+      <c r="V8">
+        <v>48441</v>
+      </c>
+      <c r="W8">
+        <v>48674</v>
+      </c>
+      <c r="X8">
+        <v>48839</v>
+      </c>
+      <c r="Y8">
+        <v>48988</v>
+      </c>
+      <c r="Z8">
+        <v>49163</v>
+      </c>
+      <c r="AA8">
+        <v>49358</v>
+      </c>
+      <c r="AB8">
+        <v>49490</v>
+      </c>
+      <c r="AC8">
+        <v>49624</v>
+      </c>
+      <c r="AD8">
+        <v>49734</v>
+      </c>
+      <c r="AE8">
+        <v>49825</v>
+      </c>
+      <c r="AF8">
+        <v>49868</v>
+      </c>
+      <c r="AG8">
+        <v>49877</v>
+      </c>
+      <c r="AH8">
+        <v>49877</v>
+      </c>
+      <c r="AI8">
+        <v>49880</v>
+      </c>
+      <c r="AJ8">
+        <v>49885</v>
+      </c>
+      <c r="AK8">
+        <v>49888</v>
+      </c>
+      <c r="AL8">
+        <v>49891</v>
+      </c>
+      <c r="AM8">
+        <v>49603</v>
+      </c>
+      <c r="AN8">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8">
-        <v>42615</v>
-      </c>
-      <c r="C8">
-        <v>42936</v>
-      </c>
-      <c r="D8">
-        <v>43160</v>
-      </c>
-      <c r="E8">
-        <v>43378</v>
-      </c>
-      <c r="F8">
-        <v>43585</v>
-      </c>
-      <c r="G8">
-        <v>43817</v>
-      </c>
-      <c r="H8">
-        <v>44049</v>
-      </c>
-      <c r="I8">
-        <v>44422</v>
-      </c>
-      <c r="J8">
-        <v>44648</v>
-      </c>
-      <c r="K8">
-        <v>44940</v>
-      </c>
-      <c r="L8">
-        <v>45203</v>
-      </c>
-      <c r="M8">
-        <v>45418</v>
-      </c>
-      <c r="N8">
-        <v>45650</v>
-      </c>
-      <c r="O8">
-        <v>45947</v>
-      </c>
-      <c r="P8">
-        <v>46183</v>
-      </c>
-      <c r="Q8">
-        <v>46414</v>
-      </c>
-      <c r="R8">
-        <v>46605</v>
-      </c>
-      <c r="S8">
-        <v>46819</v>
-      </c>
-      <c r="T8">
-        <v>47039</v>
-      </c>
-      <c r="U8">
-        <v>47317</v>
-      </c>
-      <c r="V8">
-        <v>47513</v>
-      </c>
-      <c r="W8">
-        <v>47739</v>
-      </c>
-      <c r="X8">
-        <v>47900</v>
-      </c>
-      <c r="Y8">
-        <v>48042</v>
-      </c>
-      <c r="Z8">
-        <v>48207</v>
-      </c>
-      <c r="AA8">
-        <v>48396</v>
-      </c>
-      <c r="AB8">
-        <v>48525</v>
-      </c>
-      <c r="AC8">
-        <v>48654</v>
-      </c>
-      <c r="AD8">
-        <v>48762</v>
-      </c>
-      <c r="AE8">
-        <v>48851</v>
-      </c>
-      <c r="AF8">
-        <v>48893</v>
-      </c>
-      <c r="AG8">
-        <v>48901</v>
-      </c>
-      <c r="AH8">
-        <v>48901</v>
-      </c>
-      <c r="AI8">
-        <v>48904</v>
-      </c>
-      <c r="AJ8">
-        <v>48909</v>
-      </c>
-      <c r="AK8">
-        <v>48912</v>
-      </c>
-      <c r="AL8">
-        <v>48914</v>
-      </c>
-      <c r="AM8">
-        <v>48572</v>
-      </c>
-      <c r="AN8">
-        <v>48246</v>
-      </c>
-      <c r="AO8">
-        <v>47899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B9">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="C9">
-        <v>1068</v>
+        <v>1085</v>
       </c>
       <c r="D9">
-        <v>1076</v>
+        <v>1093</v>
       </c>
       <c r="E9">
-        <v>1079</v>
+        <v>1096</v>
       </c>
       <c r="F9">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="G9">
-        <v>1092</v>
+        <v>1109</v>
       </c>
       <c r="H9">
-        <v>1096</v>
+        <v>1113</v>
       </c>
       <c r="I9">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="J9">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="K9">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="L9">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="M9">
-        <v>1129</v>
+        <v>1147</v>
       </c>
       <c r="N9">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="O9">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="P9">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="Q9">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="R9">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="S9">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="T9">
-        <v>1172</v>
+        <v>1190</v>
       </c>
       <c r="U9">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="V9">
-        <v>1185</v>
+        <v>1204</v>
       </c>
       <c r="W9">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="X9">
-        <v>1196</v>
+        <v>1215</v>
       </c>
       <c r="Y9">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="Z9">
-        <v>1209</v>
+        <v>1228</v>
       </c>
       <c r="AA9">
-        <v>1215</v>
+        <v>1235</v>
       </c>
       <c r="AB9">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="AC9">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="AD9">
-        <v>1226</v>
+        <v>1246</v>
       </c>
       <c r="AE9">
-        <v>1227</v>
+        <v>1248</v>
       </c>
       <c r="AF9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AG9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AH9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AI9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AJ9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AK9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AL9">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="AM9">
-        <v>1221</v>
+        <v>1242</v>
       </c>
       <c r="AN9">
-        <v>1210</v>
-      </c>
-      <c r="AO9">
-        <v>1191</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,13 +136,31 @@
     <t>m-2022-04</t>
   </si>
   <si>
-    <t>m-2022-05</t>
-  </si>
-  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -500,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -630,136 +648,1005 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>6454</v>
+      </c>
+      <c r="C2">
+        <v>6499</v>
+      </c>
+      <c r="D2">
+        <v>6531</v>
+      </c>
+      <c r="E2">
+        <v>6585</v>
+      </c>
+      <c r="F2">
+        <v>6636</v>
+      </c>
+      <c r="G2">
+        <v>6684</v>
+      </c>
+      <c r="H2">
+        <v>6730</v>
+      </c>
+      <c r="I2">
+        <v>6776</v>
+      </c>
+      <c r="J2">
+        <v>6818</v>
+      </c>
+      <c r="K2">
+        <v>6850</v>
+      </c>
+      <c r="L2">
+        <v>6879</v>
+      </c>
+      <c r="M2">
+        <v>6907</v>
+      </c>
+      <c r="N2">
+        <v>6936</v>
+      </c>
+      <c r="O2">
+        <v>6962</v>
+      </c>
+      <c r="P2">
+        <v>6983</v>
+      </c>
+      <c r="Q2">
+        <v>7001</v>
+      </c>
+      <c r="R2">
+        <v>7022</v>
+      </c>
+      <c r="S2">
+        <v>7032</v>
+      </c>
+      <c r="T2">
+        <v>7039</v>
+      </c>
+      <c r="U2">
+        <v>7042</v>
+      </c>
+      <c r="V2">
+        <v>7044</v>
+      </c>
+      <c r="W2">
+        <v>7045</v>
+      </c>
+      <c r="X2">
+        <v>7047</v>
+      </c>
+      <c r="Y2">
+        <v>7050</v>
+      </c>
+      <c r="Z2">
+        <v>7052</v>
+      </c>
+      <c r="AA2">
+        <v>7054</v>
+      </c>
+      <c r="AB2">
+        <v>7056</v>
+      </c>
+      <c r="AC2">
+        <v>7056</v>
+      </c>
+      <c r="AD2">
+        <v>7025</v>
+      </c>
+      <c r="AE2">
+        <v>6992</v>
+      </c>
+      <c r="AF2">
+        <v>6941</v>
+      </c>
+      <c r="AG2">
+        <v>6906</v>
+      </c>
+      <c r="AH2">
+        <v>6870</v>
+      </c>
+      <c r="AI2">
+        <v>6845</v>
+      </c>
+      <c r="AJ2">
+        <v>6820</v>
+      </c>
+      <c r="AK2">
+        <v>6796</v>
+      </c>
+      <c r="AL2">
+        <v>17539</v>
+      </c>
+      <c r="AM2">
+        <v>17420</v>
+      </c>
+      <c r="AN2">
+        <v>17311</v>
+      </c>
+      <c r="AO2">
+        <v>17209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2">
-        <v>739</v>
-      </c>
-      <c r="C2">
-        <v>740</v>
-      </c>
-      <c r="D2">
-        <v>741</v>
-      </c>
-      <c r="E2">
-        <v>741</v>
-      </c>
-      <c r="F2">
-        <v>742</v>
-      </c>
-      <c r="G2">
-        <v>743</v>
-      </c>
-      <c r="H2">
-        <v>744</v>
-      </c>
-      <c r="I2">
-        <v>745</v>
-      </c>
-      <c r="J2">
-        <v>745</v>
-      </c>
-      <c r="K2">
-        <v>746</v>
-      </c>
-      <c r="L2">
-        <v>747</v>
-      </c>
-      <c r="M2">
-        <v>748</v>
-      </c>
-      <c r="N2">
-        <v>748</v>
-      </c>
-      <c r="O2">
-        <v>749</v>
-      </c>
-      <c r="P2">
-        <v>749</v>
-      </c>
-      <c r="Q2">
-        <v>751</v>
-      </c>
-      <c r="R2">
-        <v>751</v>
-      </c>
-      <c r="S2">
-        <v>751</v>
-      </c>
-      <c r="T2">
-        <v>751</v>
-      </c>
-      <c r="U2">
-        <v>751</v>
-      </c>
-      <c r="V2">
-        <v>751</v>
-      </c>
-      <c r="W2">
-        <v>751</v>
-      </c>
-      <c r="X2">
-        <v>751</v>
-      </c>
-      <c r="Y2">
-        <v>751</v>
-      </c>
-      <c r="Z2">
-        <v>751</v>
-      </c>
-      <c r="AA2">
-        <v>751</v>
-      </c>
-      <c r="AB2">
-        <v>751</v>
-      </c>
-      <c r="AC2">
-        <v>720</v>
-      </c>
-      <c r="AD2">
-        <v>720</v>
-      </c>
-      <c r="AE2">
-        <v>720</v>
-      </c>
-      <c r="AF2">
-        <v>805</v>
-      </c>
-      <c r="AG2">
-        <v>805</v>
-      </c>
-      <c r="AH2">
-        <v>805</v>
-      </c>
-      <c r="AI2">
-        <v>865</v>
-      </c>
-      <c r="AJ2">
-        <v>865</v>
-      </c>
-      <c r="AK2">
-        <v>865</v>
-      </c>
-      <c r="AL2">
-        <v>886</v>
-      </c>
-      <c r="AM2">
-        <v>886</v>
-      </c>
-      <c r="AN2">
-        <v>886</v>
-      </c>
-      <c r="AO2">
-        <v>818</v>
-      </c>
-      <c r="AP2">
-        <v>818</v>
+      <c r="B3">
+        <v>907</v>
+      </c>
+      <c r="C3">
+        <v>912</v>
+      </c>
+      <c r="D3">
+        <v>919</v>
+      </c>
+      <c r="E3">
+        <v>925</v>
+      </c>
+      <c r="F3">
+        <v>930</v>
+      </c>
+      <c r="G3">
+        <v>940</v>
+      </c>
+      <c r="H3">
+        <v>949</v>
+      </c>
+      <c r="I3">
+        <v>965</v>
+      </c>
+      <c r="J3">
+        <v>969</v>
+      </c>
+      <c r="K3">
+        <v>974</v>
+      </c>
+      <c r="L3">
+        <v>978</v>
+      </c>
+      <c r="M3">
+        <v>991</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>1009</v>
+      </c>
+      <c r="P3">
+        <v>1020</v>
+      </c>
+      <c r="Q3">
+        <v>1025</v>
+      </c>
+      <c r="R3">
+        <v>1031</v>
+      </c>
+      <c r="S3">
+        <v>1039</v>
+      </c>
+      <c r="T3">
+        <v>1041</v>
+      </c>
+      <c r="U3">
+        <v>1053</v>
+      </c>
+      <c r="V3">
+        <v>1059</v>
+      </c>
+      <c r="W3">
+        <v>1063</v>
+      </c>
+      <c r="X3">
+        <v>1067</v>
+      </c>
+      <c r="Y3">
+        <v>1075</v>
+      </c>
+      <c r="Z3">
+        <v>1082</v>
+      </c>
+      <c r="AA3">
+        <v>1090</v>
+      </c>
+      <c r="AB3">
+        <v>1100</v>
+      </c>
+      <c r="AC3">
+        <v>1105</v>
+      </c>
+      <c r="AD3">
+        <v>1110</v>
+      </c>
+      <c r="AE3">
+        <v>1111</v>
+      </c>
+      <c r="AF3">
+        <v>1112</v>
+      </c>
+      <c r="AG3">
+        <v>1114</v>
+      </c>
+      <c r="AH3">
+        <v>1115</v>
+      </c>
+      <c r="AI3">
+        <v>1115</v>
+      </c>
+      <c r="AJ3">
+        <v>1115</v>
+      </c>
+      <c r="AK3">
+        <v>1115</v>
+      </c>
+      <c r="AL3">
+        <v>1115</v>
+      </c>
+      <c r="AM3">
+        <v>1102</v>
+      </c>
+      <c r="AN3">
+        <v>1090</v>
+      </c>
+      <c r="AO3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>35300</v>
+      </c>
+      <c r="C4">
+        <v>35520</v>
+      </c>
+      <c r="D4">
+        <v>35707</v>
+      </c>
+      <c r="E4">
+        <v>35873</v>
+      </c>
+      <c r="F4">
+        <v>36080</v>
+      </c>
+      <c r="G4">
+        <v>36252</v>
+      </c>
+      <c r="H4">
+        <v>36447</v>
+      </c>
+      <c r="I4">
+        <v>36745</v>
+      </c>
+      <c r="J4">
+        <v>36959</v>
+      </c>
+      <c r="K4">
+        <v>37164</v>
+      </c>
+      <c r="L4">
+        <v>37390</v>
+      </c>
+      <c r="M4">
+        <v>37581</v>
+      </c>
+      <c r="N4">
+        <v>37752</v>
+      </c>
+      <c r="O4">
+        <v>37982</v>
+      </c>
+      <c r="P4">
+        <v>38177</v>
+      </c>
+      <c r="Q4">
+        <v>38355</v>
+      </c>
+      <c r="R4">
+        <v>38522</v>
+      </c>
+      <c r="S4">
+        <v>38667</v>
+      </c>
+      <c r="T4">
+        <v>38862</v>
+      </c>
+      <c r="U4">
+        <v>39133</v>
+      </c>
+      <c r="V4">
+        <v>39339</v>
+      </c>
+      <c r="W4">
+        <v>39522</v>
+      </c>
+      <c r="X4">
+        <v>39710</v>
+      </c>
+      <c r="Y4">
+        <v>39875</v>
+      </c>
+      <c r="Z4">
+        <v>39998</v>
+      </c>
+      <c r="AA4">
+        <v>40166</v>
+      </c>
+      <c r="AB4">
+        <v>40286</v>
+      </c>
+      <c r="AC4">
+        <v>40399</v>
+      </c>
+      <c r="AD4">
+        <v>40488</v>
+      </c>
+      <c r="AE4">
+        <v>40562</v>
+      </c>
+      <c r="AF4">
+        <v>40601</v>
+      </c>
+      <c r="AG4">
+        <v>40613</v>
+      </c>
+      <c r="AH4">
+        <v>40616</v>
+      </c>
+      <c r="AI4">
+        <v>40619</v>
+      </c>
+      <c r="AJ4">
+        <v>40625</v>
+      </c>
+      <c r="AK4">
+        <v>40629</v>
+      </c>
+      <c r="AL4">
+        <v>40632</v>
+      </c>
+      <c r="AM4">
+        <v>40271</v>
+      </c>
+      <c r="AN4">
+        <v>39918</v>
+      </c>
+      <c r="AO4">
+        <v>39616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2943</v>
+      </c>
+      <c r="C5">
+        <v>2986</v>
+      </c>
+      <c r="D5">
+        <v>3001</v>
+      </c>
+      <c r="E5">
+        <v>3029</v>
+      </c>
+      <c r="F5">
+        <v>3058</v>
+      </c>
+      <c r="G5">
+        <v>3080</v>
+      </c>
+      <c r="H5">
+        <v>3107</v>
+      </c>
+      <c r="I5">
+        <v>3145</v>
+      </c>
+      <c r="J5">
+        <v>3176</v>
+      </c>
+      <c r="K5">
+        <v>3197</v>
+      </c>
+      <c r="L5">
+        <v>3222</v>
+      </c>
+      <c r="M5">
+        <v>3240</v>
+      </c>
+      <c r="N5">
+        <v>3266</v>
+      </c>
+      <c r="O5">
+        <v>3292</v>
+      </c>
+      <c r="P5">
+        <v>3305</v>
+      </c>
+      <c r="Q5">
+        <v>3347</v>
+      </c>
+      <c r="R5">
+        <v>3369</v>
+      </c>
+      <c r="S5">
+        <v>3394</v>
+      </c>
+      <c r="T5">
+        <v>3419</v>
+      </c>
+      <c r="U5">
+        <v>3455</v>
+      </c>
+      <c r="V5">
+        <v>3467</v>
+      </c>
+      <c r="W5">
+        <v>3491</v>
+      </c>
+      <c r="X5">
+        <v>3505</v>
+      </c>
+      <c r="Y5">
+        <v>3525</v>
+      </c>
+      <c r="Z5">
+        <v>3538</v>
+      </c>
+      <c r="AA5">
+        <v>3556</v>
+      </c>
+      <c r="AB5">
+        <v>3568</v>
+      </c>
+      <c r="AC5">
+        <v>3584</v>
+      </c>
+      <c r="AD5">
+        <v>3603</v>
+      </c>
+      <c r="AE5">
+        <v>3632</v>
+      </c>
+      <c r="AF5">
+        <v>3643</v>
+      </c>
+      <c r="AG5">
+        <v>3653</v>
+      </c>
+      <c r="AH5">
+        <v>3660</v>
+      </c>
+      <c r="AI5">
+        <v>3661</v>
+      </c>
+      <c r="AJ5">
+        <v>3661</v>
+      </c>
+      <c r="AK5">
+        <v>3662</v>
+      </c>
+      <c r="AL5">
+        <v>3662</v>
+      </c>
+      <c r="AM5">
+        <v>3594</v>
+      </c>
+      <c r="AN5">
+        <v>3531</v>
+      </c>
+      <c r="AO5">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>3510</v>
+      </c>
+      <c r="C6">
+        <v>3543</v>
+      </c>
+      <c r="D6">
+        <v>3562</v>
+      </c>
+      <c r="E6">
+        <v>3583</v>
+      </c>
+      <c r="F6">
+        <v>3604</v>
+      </c>
+      <c r="G6">
+        <v>3620</v>
+      </c>
+      <c r="H6">
+        <v>3645</v>
+      </c>
+      <c r="I6">
+        <v>3675</v>
+      </c>
+      <c r="J6">
+        <v>3687</v>
+      </c>
+      <c r="K6">
+        <v>3711</v>
+      </c>
+      <c r="L6">
+        <v>3731</v>
+      </c>
+      <c r="M6">
+        <v>3747</v>
+      </c>
+      <c r="N6">
+        <v>3775</v>
+      </c>
+      <c r="O6">
+        <v>3799</v>
+      </c>
+      <c r="P6">
+        <v>3810</v>
+      </c>
+      <c r="Q6">
+        <v>3829</v>
+      </c>
+      <c r="R6">
+        <v>3853</v>
+      </c>
+      <c r="S6">
+        <v>3867</v>
+      </c>
+      <c r="T6">
+        <v>3883</v>
+      </c>
+      <c r="U6">
+        <v>3903</v>
+      </c>
+      <c r="V6">
+        <v>3920</v>
+      </c>
+      <c r="W6">
+        <v>3931</v>
+      </c>
+      <c r="X6">
+        <v>3945</v>
+      </c>
+      <c r="Y6">
+        <v>3961</v>
+      </c>
+      <c r="Z6">
+        <v>3978</v>
+      </c>
+      <c r="AA6">
+        <v>3994</v>
+      </c>
+      <c r="AB6">
+        <v>4008</v>
+      </c>
+      <c r="AC6">
+        <v>4014</v>
+      </c>
+      <c r="AD6">
+        <v>4019</v>
+      </c>
+      <c r="AE6">
+        <v>4023</v>
+      </c>
+      <c r="AF6">
+        <v>4025</v>
+      </c>
+      <c r="AG6">
+        <v>4026</v>
+      </c>
+      <c r="AH6">
+        <v>4027</v>
+      </c>
+      <c r="AI6">
+        <v>4027</v>
+      </c>
+      <c r="AJ6">
+        <v>4027</v>
+      </c>
+      <c r="AK6">
+        <v>4027</v>
+      </c>
+      <c r="AL6">
+        <v>4027</v>
+      </c>
+      <c r="AM6">
+        <v>3979</v>
+      </c>
+      <c r="AN6">
+        <v>3957</v>
+      </c>
+      <c r="AO6">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>2815</v>
+      </c>
+      <c r="D7">
+        <v>2829</v>
+      </c>
+      <c r="E7">
+        <v>2843</v>
+      </c>
+      <c r="F7">
+        <v>2856</v>
+      </c>
+      <c r="G7">
+        <v>2868</v>
+      </c>
+      <c r="H7">
+        <v>2894</v>
+      </c>
+      <c r="I7">
+        <v>2909</v>
+      </c>
+      <c r="J7">
+        <v>2924</v>
+      </c>
+      <c r="K7">
+        <v>2933</v>
+      </c>
+      <c r="L7">
+        <v>2946</v>
+      </c>
+      <c r="M7">
+        <v>2968</v>
+      </c>
+      <c r="N7">
+        <v>2987</v>
+      </c>
+      <c r="O7">
+        <v>3002</v>
+      </c>
+      <c r="P7">
+        <v>3009</v>
+      </c>
+      <c r="Q7">
+        <v>3022</v>
+      </c>
+      <c r="R7">
+        <v>3025</v>
+      </c>
+      <c r="S7">
+        <v>3031</v>
+      </c>
+      <c r="T7">
+        <v>3037</v>
+      </c>
+      <c r="U7">
+        <v>3037</v>
+      </c>
+      <c r="V7">
+        <v>3037</v>
+      </c>
+      <c r="W7">
+        <v>3038</v>
+      </c>
+      <c r="X7">
+        <v>3038</v>
+      </c>
+      <c r="Y7">
+        <v>3039</v>
+      </c>
+      <c r="Z7">
+        <v>3040</v>
+      </c>
+      <c r="AA7">
+        <v>3040</v>
+      </c>
+      <c r="AB7">
+        <v>3040</v>
+      </c>
+      <c r="AC7">
+        <v>3040</v>
+      </c>
+      <c r="AD7">
+        <v>3018</v>
+      </c>
+      <c r="AE7">
+        <v>2987</v>
+      </c>
+      <c r="AF7">
+        <v>3012</v>
+      </c>
+      <c r="AG7">
+        <v>2988</v>
+      </c>
+      <c r="AH7">
+        <v>2950</v>
+      </c>
+      <c r="AI7">
+        <v>4224</v>
+      </c>
+      <c r="AJ7">
+        <v>4194</v>
+      </c>
+      <c r="AK7">
+        <v>4179</v>
+      </c>
+      <c r="AL7">
+        <v>20654</v>
+      </c>
+      <c r="AM7">
+        <v>20494</v>
+      </c>
+      <c r="AN7">
+        <v>20397</v>
+      </c>
+      <c r="AO7">
+        <v>20256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>42615</v>
+      </c>
+      <c r="C8">
+        <v>42936</v>
+      </c>
+      <c r="D8">
+        <v>43160</v>
+      </c>
+      <c r="E8">
+        <v>43378</v>
+      </c>
+      <c r="F8">
+        <v>43585</v>
+      </c>
+      <c r="G8">
+        <v>43817</v>
+      </c>
+      <c r="H8">
+        <v>44049</v>
+      </c>
+      <c r="I8">
+        <v>44422</v>
+      </c>
+      <c r="J8">
+        <v>44648</v>
+      </c>
+      <c r="K8">
+        <v>44940</v>
+      </c>
+      <c r="L8">
+        <v>45203</v>
+      </c>
+      <c r="M8">
+        <v>45418</v>
+      </c>
+      <c r="N8">
+        <v>45650</v>
+      </c>
+      <c r="O8">
+        <v>45947</v>
+      </c>
+      <c r="P8">
+        <v>46183</v>
+      </c>
+      <c r="Q8">
+        <v>46414</v>
+      </c>
+      <c r="R8">
+        <v>46605</v>
+      </c>
+      <c r="S8">
+        <v>46819</v>
+      </c>
+      <c r="T8">
+        <v>47039</v>
+      </c>
+      <c r="U8">
+        <v>47317</v>
+      </c>
+      <c r="V8">
+        <v>47513</v>
+      </c>
+      <c r="W8">
+        <v>47739</v>
+      </c>
+      <c r="X8">
+        <v>47900</v>
+      </c>
+      <c r="Y8">
+        <v>48042</v>
+      </c>
+      <c r="Z8">
+        <v>48207</v>
+      </c>
+      <c r="AA8">
+        <v>48396</v>
+      </c>
+      <c r="AB8">
+        <v>48525</v>
+      </c>
+      <c r="AC8">
+        <v>48654</v>
+      </c>
+      <c r="AD8">
+        <v>48762</v>
+      </c>
+      <c r="AE8">
+        <v>48851</v>
+      </c>
+      <c r="AF8">
+        <v>48893</v>
+      </c>
+      <c r="AG8">
+        <v>48901</v>
+      </c>
+      <c r="AH8">
+        <v>48901</v>
+      </c>
+      <c r="AI8">
+        <v>48904</v>
+      </c>
+      <c r="AJ8">
+        <v>48909</v>
+      </c>
+      <c r="AK8">
+        <v>48912</v>
+      </c>
+      <c r="AL8">
+        <v>48914</v>
+      </c>
+      <c r="AM8">
+        <v>48572</v>
+      </c>
+      <c r="AN8">
+        <v>48246</v>
+      </c>
+      <c r="AO8">
+        <v>47899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1060</v>
+      </c>
+      <c r="C9">
+        <v>1068</v>
+      </c>
+      <c r="D9">
+        <v>1076</v>
+      </c>
+      <c r="E9">
+        <v>1079</v>
+      </c>
+      <c r="F9">
+        <v>1084</v>
+      </c>
+      <c r="G9">
+        <v>1092</v>
+      </c>
+      <c r="H9">
+        <v>1096</v>
+      </c>
+      <c r="I9">
+        <v>1105</v>
+      </c>
+      <c r="J9">
+        <v>1108</v>
+      </c>
+      <c r="K9">
+        <v>1115</v>
+      </c>
+      <c r="L9">
+        <v>1120</v>
+      </c>
+      <c r="M9">
+        <v>1129</v>
+      </c>
+      <c r="N9">
+        <v>1136</v>
+      </c>
+      <c r="O9">
+        <v>1146</v>
+      </c>
+      <c r="P9">
+        <v>1153</v>
+      </c>
+      <c r="Q9">
+        <v>1157</v>
+      </c>
+      <c r="R9">
+        <v>1163</v>
+      </c>
+      <c r="S9">
+        <v>1168</v>
+      </c>
+      <c r="T9">
+        <v>1172</v>
+      </c>
+      <c r="U9">
+        <v>1179</v>
+      </c>
+      <c r="V9">
+        <v>1185</v>
+      </c>
+      <c r="W9">
+        <v>1191</v>
+      </c>
+      <c r="X9">
+        <v>1196</v>
+      </c>
+      <c r="Y9">
+        <v>1201</v>
+      </c>
+      <c r="Z9">
+        <v>1209</v>
+      </c>
+      <c r="AA9">
+        <v>1215</v>
+      </c>
+      <c r="AB9">
+        <v>1221</v>
+      </c>
+      <c r="AC9">
+        <v>1223</v>
+      </c>
+      <c r="AD9">
+        <v>1226</v>
+      </c>
+      <c r="AE9">
+        <v>1227</v>
+      </c>
+      <c r="AF9">
+        <v>1229</v>
+      </c>
+      <c r="AG9">
+        <v>1229</v>
+      </c>
+      <c r="AH9">
+        <v>1229</v>
+      </c>
+      <c r="AI9">
+        <v>1229</v>
+      </c>
+      <c r="AJ9">
+        <v>1229</v>
+      </c>
+      <c r="AK9">
+        <v>1229</v>
+      </c>
+      <c r="AL9">
+        <v>1229</v>
+      </c>
+      <c r="AM9">
+        <v>1221</v>
+      </c>
+      <c r="AN9">
+        <v>1210</v>
+      </c>
+      <c r="AO9">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,31 +136,61 @@
     <t>m-2022-04</t>
   </si>
   <si>
+    <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -518,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -648,1005 +678,2107 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6454</v>
+        <v>7408</v>
       </c>
       <c r="C2">
-        <v>6499</v>
+        <v>7408</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7408</v>
       </c>
       <c r="E2">
-        <v>6585</v>
+        <v>7408</v>
       </c>
       <c r="F2">
-        <v>6636</v>
+        <v>7408</v>
       </c>
       <c r="G2">
-        <v>6684</v>
+        <v>7408</v>
       </c>
       <c r="H2">
-        <v>6730</v>
+        <v>7806</v>
       </c>
       <c r="I2">
-        <v>6776</v>
+        <v>7806</v>
       </c>
       <c r="J2">
-        <v>6818</v>
+        <v>7806</v>
       </c>
       <c r="K2">
-        <v>6850</v>
+        <v>7302</v>
       </c>
       <c r="L2">
-        <v>6879</v>
+        <v>7302</v>
       </c>
       <c r="M2">
-        <v>6907</v>
+        <v>7302</v>
       </c>
       <c r="N2">
-        <v>6936</v>
+        <v>7418</v>
       </c>
       <c r="O2">
-        <v>6962</v>
+        <v>7418</v>
       </c>
       <c r="P2">
-        <v>6983</v>
+        <v>7418</v>
       </c>
       <c r="Q2">
-        <v>7001</v>
+        <v>6967</v>
       </c>
       <c r="R2">
-        <v>7022</v>
+        <v>6967</v>
       </c>
       <c r="S2">
-        <v>7032</v>
+        <v>6967</v>
       </c>
       <c r="T2">
-        <v>7039</v>
+        <v>6911</v>
       </c>
       <c r="U2">
-        <v>7042</v>
+        <v>6911</v>
       </c>
       <c r="V2">
-        <v>7044</v>
+        <v>6911</v>
       </c>
       <c r="W2">
-        <v>7045</v>
+        <v>6885</v>
       </c>
       <c r="X2">
-        <v>7047</v>
+        <v>6885</v>
       </c>
       <c r="Y2">
-        <v>7050</v>
+        <v>6885</v>
       </c>
       <c r="Z2">
-        <v>7052</v>
+        <v>7093</v>
       </c>
       <c r="AA2">
-        <v>7054</v>
+        <v>7093</v>
       </c>
       <c r="AB2">
-        <v>7056</v>
+        <v>7093</v>
       </c>
       <c r="AC2">
-        <v>7056</v>
+        <v>6977</v>
       </c>
       <c r="AD2">
-        <v>7025</v>
+        <v>6977</v>
       </c>
       <c r="AE2">
-        <v>6992</v>
+        <v>6977</v>
       </c>
       <c r="AF2">
-        <v>6941</v>
+        <v>6859</v>
       </c>
       <c r="AG2">
-        <v>6906</v>
+        <v>6859</v>
       </c>
       <c r="AH2">
-        <v>6870</v>
+        <v>6859</v>
       </c>
       <c r="AI2">
-        <v>6845</v>
+        <v>6810</v>
       </c>
       <c r="AJ2">
-        <v>6820</v>
+        <v>6810</v>
       </c>
       <c r="AK2">
-        <v>6796</v>
+        <v>6810</v>
       </c>
       <c r="AL2">
-        <v>17539</v>
+        <v>6411</v>
       </c>
       <c r="AM2">
-        <v>17420</v>
+        <v>6411</v>
       </c>
       <c r="AN2">
-        <v>17311</v>
+        <v>6411</v>
       </c>
       <c r="AO2">
-        <v>17209</v>
+        <v>6411</v>
+      </c>
+      <c r="AP2">
+        <v>6411</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>907</v>
+        <v>90218</v>
       </c>
       <c r="C3">
-        <v>912</v>
+        <v>90218</v>
       </c>
       <c r="D3">
-        <v>919</v>
+        <v>90116</v>
       </c>
       <c r="E3">
-        <v>925</v>
+        <v>91473</v>
       </c>
       <c r="F3">
-        <v>930</v>
+        <v>91473</v>
       </c>
       <c r="G3">
-        <v>940</v>
+        <v>91345</v>
       </c>
       <c r="H3">
-        <v>949</v>
+        <v>91864</v>
       </c>
       <c r="I3">
-        <v>965</v>
+        <v>91864</v>
       </c>
       <c r="J3">
-        <v>969</v>
+        <v>91768</v>
       </c>
       <c r="K3">
-        <v>974</v>
+        <v>92671</v>
       </c>
       <c r="L3">
-        <v>978</v>
+        <v>92671</v>
       </c>
       <c r="M3">
-        <v>991</v>
+        <v>92464</v>
       </c>
       <c r="N3">
-        <v>1000</v>
+        <v>76180</v>
       </c>
       <c r="O3">
-        <v>1009</v>
+        <v>76180</v>
       </c>
       <c r="P3">
-        <v>1020</v>
+        <v>76116</v>
       </c>
       <c r="Q3">
-        <v>1025</v>
+        <v>74409</v>
       </c>
       <c r="R3">
-        <v>1031</v>
+        <v>74409</v>
       </c>
       <c r="S3">
-        <v>1039</v>
+        <v>74361</v>
       </c>
       <c r="T3">
-        <v>1041</v>
+        <v>74631</v>
       </c>
       <c r="U3">
-        <v>1053</v>
+        <v>74631</v>
       </c>
       <c r="V3">
-        <v>1059</v>
+        <v>74584</v>
       </c>
       <c r="W3">
-        <v>1063</v>
+        <v>75143</v>
       </c>
       <c r="X3">
-        <v>1067</v>
+        <v>75143</v>
       </c>
       <c r="Y3">
-        <v>1075</v>
+        <v>75048</v>
       </c>
       <c r="Z3">
-        <v>1082</v>
+        <v>71528</v>
       </c>
       <c r="AA3">
-        <v>1090</v>
+        <v>71528</v>
       </c>
       <c r="AB3">
-        <v>1100</v>
+        <v>71433</v>
       </c>
       <c r="AC3">
-        <v>1105</v>
+        <v>72518</v>
       </c>
       <c r="AD3">
-        <v>1110</v>
+        <v>72518</v>
       </c>
       <c r="AE3">
-        <v>1111</v>
+        <v>72459</v>
       </c>
       <c r="AF3">
-        <v>1112</v>
+        <v>71983</v>
       </c>
       <c r="AG3">
-        <v>1114</v>
+        <v>71983</v>
       </c>
       <c r="AH3">
-        <v>1115</v>
+        <v>71920</v>
       </c>
       <c r="AI3">
-        <v>1115</v>
+        <v>73519</v>
       </c>
       <c r="AJ3">
-        <v>1115</v>
+        <v>73519</v>
       </c>
       <c r="AK3">
-        <v>1115</v>
+        <v>73382</v>
       </c>
       <c r="AL3">
-        <v>1115</v>
+        <v>77784</v>
       </c>
       <c r="AM3">
-        <v>1102</v>
+        <v>77784</v>
       </c>
       <c r="AN3">
-        <v>1090</v>
+        <v>76973</v>
       </c>
       <c r="AO3">
-        <v>1079</v>
+        <v>76864</v>
+      </c>
+      <c r="AP3">
+        <v>77013</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>35300</v>
+        <v>41056</v>
       </c>
       <c r="C4">
-        <v>35520</v>
+        <v>41056</v>
       </c>
       <c r="D4">
-        <v>35707</v>
+        <v>40977</v>
       </c>
       <c r="E4">
-        <v>35873</v>
+        <v>41810</v>
       </c>
       <c r="F4">
-        <v>36080</v>
+        <v>41810</v>
       </c>
       <c r="G4">
-        <v>36252</v>
+        <v>41757</v>
       </c>
       <c r="H4">
-        <v>36447</v>
+        <v>41903</v>
       </c>
       <c r="I4">
-        <v>36745</v>
+        <v>41903</v>
       </c>
       <c r="J4">
-        <v>36959</v>
+        <v>41869</v>
       </c>
       <c r="K4">
-        <v>37164</v>
+        <v>41852</v>
       </c>
       <c r="L4">
-        <v>37390</v>
+        <v>41852</v>
       </c>
       <c r="M4">
-        <v>37581</v>
+        <v>41764</v>
       </c>
       <c r="N4">
-        <v>37752</v>
+        <v>52918</v>
       </c>
       <c r="O4">
-        <v>37982</v>
+        <v>52918</v>
       </c>
       <c r="P4">
-        <v>38177</v>
+        <v>52866</v>
       </c>
       <c r="Q4">
-        <v>38355</v>
+        <v>52421</v>
       </c>
       <c r="R4">
-        <v>38522</v>
+        <v>52421</v>
       </c>
       <c r="S4">
-        <v>38667</v>
+        <v>52368</v>
       </c>
       <c r="T4">
-        <v>38862</v>
+        <v>52120</v>
       </c>
       <c r="U4">
-        <v>39133</v>
+        <v>52120</v>
       </c>
       <c r="V4">
-        <v>39339</v>
+        <v>52077</v>
       </c>
       <c r="W4">
-        <v>39522</v>
+        <v>51739</v>
       </c>
       <c r="X4">
-        <v>39710</v>
+        <v>51739</v>
       </c>
       <c r="Y4">
-        <v>39875</v>
+        <v>51559</v>
       </c>
       <c r="Z4">
-        <v>39998</v>
+        <v>43542</v>
       </c>
       <c r="AA4">
-        <v>40166</v>
+        <v>43542</v>
       </c>
       <c r="AB4">
-        <v>40286</v>
+        <v>43463</v>
       </c>
       <c r="AC4">
-        <v>40399</v>
+        <v>44292</v>
       </c>
       <c r="AD4">
-        <v>40488</v>
+        <v>44292</v>
       </c>
       <c r="AE4">
-        <v>40562</v>
+        <v>44242</v>
       </c>
       <c r="AF4">
-        <v>40601</v>
+        <v>44711</v>
       </c>
       <c r="AG4">
-        <v>40613</v>
+        <v>44711</v>
       </c>
       <c r="AH4">
-        <v>40616</v>
+        <v>44650</v>
       </c>
       <c r="AI4">
-        <v>40619</v>
+        <v>44454</v>
       </c>
       <c r="AJ4">
-        <v>40625</v>
+        <v>44454</v>
       </c>
       <c r="AK4">
-        <v>40629</v>
+        <v>44337</v>
       </c>
       <c r="AL4">
-        <v>40632</v>
+        <v>39845</v>
       </c>
       <c r="AM4">
-        <v>40271</v>
+        <v>39845</v>
       </c>
       <c r="AN4">
-        <v>39918</v>
+        <v>39403</v>
       </c>
       <c r="AO4">
-        <v>39616</v>
+        <v>39452</v>
+      </c>
+      <c r="AP4">
+        <v>39525</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>2943</v>
+        <v>60255</v>
       </c>
       <c r="C5">
-        <v>2986</v>
+        <v>60255</v>
       </c>
       <c r="D5">
-        <v>3001</v>
+        <v>60255</v>
       </c>
       <c r="E5">
-        <v>3029</v>
+        <v>59976</v>
       </c>
       <c r="F5">
-        <v>3058</v>
+        <v>59976</v>
       </c>
       <c r="G5">
-        <v>3080</v>
+        <v>59976</v>
       </c>
       <c r="H5">
-        <v>3107</v>
+        <v>59708</v>
       </c>
       <c r="I5">
-        <v>3145</v>
+        <v>59708</v>
       </c>
       <c r="J5">
-        <v>3176</v>
+        <v>59708</v>
       </c>
       <c r="K5">
-        <v>3197</v>
+        <v>59562</v>
       </c>
       <c r="L5">
-        <v>3222</v>
+        <v>59562</v>
       </c>
       <c r="M5">
-        <v>3240</v>
+        <v>59562</v>
       </c>
       <c r="N5">
-        <v>3266</v>
+        <v>63377</v>
       </c>
       <c r="O5">
-        <v>3292</v>
+        <v>63377</v>
       </c>
       <c r="P5">
-        <v>3305</v>
+        <v>63377</v>
       </c>
       <c r="Q5">
-        <v>3347</v>
+        <v>60093</v>
       </c>
       <c r="R5">
-        <v>3369</v>
+        <v>60093</v>
       </c>
       <c r="S5">
-        <v>3394</v>
+        <v>60093</v>
       </c>
       <c r="T5">
-        <v>3419</v>
+        <v>59822</v>
       </c>
       <c r="U5">
-        <v>3455</v>
+        <v>59822</v>
       </c>
       <c r="V5">
-        <v>3467</v>
+        <v>59822</v>
       </c>
       <c r="W5">
-        <v>3491</v>
+        <v>59676</v>
       </c>
       <c r="X5">
-        <v>3505</v>
+        <v>59676</v>
       </c>
       <c r="Y5">
-        <v>3525</v>
+        <v>59675</v>
       </c>
       <c r="Z5">
-        <v>3538</v>
+        <v>45677</v>
       </c>
       <c r="AA5">
-        <v>3556</v>
+        <v>45677</v>
       </c>
       <c r="AB5">
-        <v>3568</v>
+        <v>45677</v>
       </c>
       <c r="AC5">
-        <v>3584</v>
+        <v>45368</v>
       </c>
       <c r="AD5">
-        <v>3603</v>
+        <v>45368</v>
       </c>
       <c r="AE5">
-        <v>3632</v>
+        <v>45368</v>
       </c>
       <c r="AF5">
-        <v>3643</v>
+        <v>45143</v>
       </c>
       <c r="AG5">
-        <v>3653</v>
+        <v>45143</v>
       </c>
       <c r="AH5">
-        <v>3660</v>
+        <v>45143</v>
       </c>
       <c r="AI5">
-        <v>3661</v>
+        <v>45020</v>
       </c>
       <c r="AJ5">
-        <v>3661</v>
+        <v>45020</v>
       </c>
       <c r="AK5">
-        <v>3662</v>
+        <v>45020</v>
       </c>
       <c r="AL5">
-        <v>3662</v>
+        <v>43806</v>
       </c>
       <c r="AM5">
-        <v>3594</v>
+        <v>43809</v>
       </c>
       <c r="AN5">
-        <v>3531</v>
+        <v>43810</v>
       </c>
       <c r="AO5">
-        <v>3490</v>
+        <v>43813</v>
+      </c>
+      <c r="AP5">
+        <v>43813</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>3510</v>
+        <v>17627</v>
       </c>
       <c r="C6">
-        <v>3543</v>
+        <v>17627</v>
       </c>
       <c r="D6">
-        <v>3562</v>
+        <v>17575</v>
       </c>
       <c r="E6">
-        <v>3583</v>
+        <v>17589</v>
       </c>
       <c r="F6">
-        <v>3604</v>
+        <v>17589</v>
       </c>
       <c r="G6">
-        <v>3620</v>
+        <v>17551</v>
       </c>
       <c r="H6">
-        <v>3645</v>
+        <v>14685</v>
       </c>
       <c r="I6">
-        <v>3675</v>
+        <v>14685</v>
       </c>
       <c r="J6">
-        <v>3687</v>
+        <v>14685</v>
       </c>
       <c r="K6">
-        <v>3711</v>
+        <v>14641</v>
       </c>
       <c r="L6">
-        <v>3731</v>
+        <v>14641</v>
       </c>
       <c r="M6">
-        <v>3747</v>
+        <v>14641</v>
       </c>
       <c r="N6">
-        <v>3775</v>
+        <v>17033</v>
       </c>
       <c r="O6">
-        <v>3799</v>
+        <v>17033</v>
       </c>
       <c r="P6">
-        <v>3810</v>
+        <v>17033</v>
       </c>
       <c r="Q6">
-        <v>3829</v>
+        <v>15854</v>
       </c>
       <c r="R6">
-        <v>3853</v>
+        <v>15854</v>
       </c>
       <c r="S6">
-        <v>3867</v>
+        <v>15854</v>
       </c>
       <c r="T6">
-        <v>3883</v>
+        <v>15729</v>
       </c>
       <c r="U6">
-        <v>3903</v>
+        <v>15729</v>
       </c>
       <c r="V6">
-        <v>3920</v>
+        <v>15729</v>
       </c>
       <c r="W6">
-        <v>3931</v>
+        <v>15663</v>
       </c>
       <c r="X6">
-        <v>3945</v>
+        <v>15663</v>
       </c>
       <c r="Y6">
-        <v>3961</v>
+        <v>15663</v>
       </c>
       <c r="Z6">
-        <v>3978</v>
+        <v>14149</v>
       </c>
       <c r="AA6">
-        <v>3994</v>
+        <v>14149</v>
       </c>
       <c r="AB6">
-        <v>4008</v>
+        <v>14149</v>
       </c>
       <c r="AC6">
-        <v>4014</v>
+        <v>15790</v>
       </c>
       <c r="AD6">
-        <v>4019</v>
+        <v>15790</v>
       </c>
       <c r="AE6">
-        <v>4023</v>
+        <v>15790</v>
       </c>
       <c r="AF6">
-        <v>4025</v>
+        <v>15701</v>
       </c>
       <c r="AG6">
-        <v>4026</v>
+        <v>15701</v>
       </c>
       <c r="AH6">
-        <v>4027</v>
+        <v>15701</v>
       </c>
       <c r="AI6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AJ6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AK6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AL6">
-        <v>4027</v>
+        <v>14915</v>
       </c>
       <c r="AM6">
-        <v>3979</v>
+        <v>14915</v>
       </c>
       <c r="AN6">
-        <v>3957</v>
+        <v>14915</v>
       </c>
       <c r="AO6">
-        <v>3931</v>
+        <v>14917</v>
+      </c>
+      <c r="AP6">
+        <v>14917</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>2800</v>
+        <v>58155</v>
       </c>
       <c r="C7">
-        <v>2815</v>
+        <v>58159</v>
       </c>
       <c r="D7">
-        <v>2829</v>
+        <v>58159</v>
       </c>
       <c r="E7">
-        <v>2843</v>
+        <v>54793</v>
       </c>
       <c r="F7">
-        <v>2856</v>
+        <v>54793</v>
       </c>
       <c r="G7">
-        <v>2868</v>
+        <v>54793</v>
       </c>
       <c r="H7">
-        <v>2894</v>
+        <v>54608</v>
       </c>
       <c r="I7">
-        <v>2909</v>
+        <v>54608</v>
       </c>
       <c r="J7">
-        <v>2924</v>
+        <v>54608</v>
       </c>
       <c r="K7">
-        <v>2933</v>
+        <v>59071</v>
       </c>
       <c r="L7">
-        <v>2946</v>
+        <v>59071</v>
       </c>
       <c r="M7">
-        <v>2968</v>
+        <v>59073</v>
       </c>
       <c r="N7">
-        <v>2987</v>
+        <v>61265</v>
       </c>
       <c r="O7">
-        <v>3002</v>
+        <v>61265</v>
       </c>
       <c r="P7">
-        <v>3009</v>
+        <v>61265</v>
       </c>
       <c r="Q7">
-        <v>3022</v>
+        <v>58421</v>
       </c>
       <c r="R7">
-        <v>3025</v>
+        <v>58421</v>
       </c>
       <c r="S7">
-        <v>3031</v>
+        <v>58421</v>
       </c>
       <c r="T7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="U7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="V7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="W7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="X7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="Y7">
-        <v>3039</v>
+        <v>58154</v>
       </c>
       <c r="Z7">
-        <v>3040</v>
+        <v>66829</v>
       </c>
       <c r="AA7">
-        <v>3040</v>
+        <v>66887</v>
       </c>
       <c r="AB7">
-        <v>3040</v>
+        <v>66951</v>
       </c>
       <c r="AC7">
-        <v>3040</v>
+        <v>68283</v>
       </c>
       <c r="AD7">
-        <v>3018</v>
+        <v>68283</v>
       </c>
       <c r="AE7">
-        <v>2987</v>
+        <v>68244</v>
       </c>
       <c r="AF7">
-        <v>3012</v>
+        <v>67699</v>
       </c>
       <c r="AG7">
-        <v>2988</v>
+        <v>67699</v>
       </c>
       <c r="AH7">
-        <v>2950</v>
+        <v>67666</v>
       </c>
       <c r="AI7">
-        <v>4224</v>
+        <v>67225</v>
       </c>
       <c r="AJ7">
-        <v>4194</v>
+        <v>67225</v>
       </c>
       <c r="AK7">
-        <v>4179</v>
+        <v>67015</v>
       </c>
       <c r="AL7">
-        <v>20654</v>
+        <v>59808</v>
       </c>
       <c r="AM7">
-        <v>20494</v>
+        <v>59808</v>
       </c>
       <c r="AN7">
-        <v>20397</v>
+        <v>59021</v>
       </c>
       <c r="AO7">
-        <v>20256</v>
+        <v>58727</v>
+      </c>
+      <c r="AP7">
+        <v>58872</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>42615</v>
+        <v>15601</v>
       </c>
       <c r="C8">
-        <v>42936</v>
+        <v>15601</v>
       </c>
       <c r="D8">
-        <v>43160</v>
+        <v>15578</v>
       </c>
       <c r="E8">
-        <v>43378</v>
+        <v>15615</v>
       </c>
       <c r="F8">
-        <v>43585</v>
+        <v>15615</v>
       </c>
       <c r="G8">
-        <v>43817</v>
+        <v>15594</v>
       </c>
       <c r="H8">
-        <v>44049</v>
+        <v>15582</v>
       </c>
       <c r="I8">
-        <v>44422</v>
+        <v>15582</v>
       </c>
       <c r="J8">
-        <v>44648</v>
+        <v>15572</v>
       </c>
       <c r="K8">
-        <v>44940</v>
+        <v>15422</v>
       </c>
       <c r="L8">
-        <v>45203</v>
+        <v>15422</v>
       </c>
       <c r="M8">
-        <v>45418</v>
+        <v>15388</v>
       </c>
       <c r="N8">
-        <v>45650</v>
+        <v>16778</v>
       </c>
       <c r="O8">
-        <v>45947</v>
+        <v>16778</v>
       </c>
       <c r="P8">
-        <v>46183</v>
+        <v>16760</v>
       </c>
       <c r="Q8">
-        <v>46414</v>
+        <v>16186</v>
       </c>
       <c r="R8">
-        <v>46605</v>
+        <v>16186</v>
       </c>
       <c r="S8">
-        <v>46819</v>
+        <v>16177</v>
       </c>
       <c r="T8">
-        <v>47039</v>
+        <v>15678</v>
       </c>
       <c r="U8">
-        <v>47317</v>
+        <v>15678</v>
       </c>
       <c r="V8">
-        <v>47513</v>
+        <v>15670</v>
       </c>
       <c r="W8">
-        <v>47739</v>
+        <v>15139</v>
       </c>
       <c r="X8">
-        <v>47900</v>
+        <v>15139</v>
       </c>
       <c r="Y8">
-        <v>48042</v>
+        <v>15121</v>
       </c>
       <c r="Z8">
-        <v>48207</v>
+        <v>15496</v>
       </c>
       <c r="AA8">
-        <v>48396</v>
+        <v>15496</v>
       </c>
       <c r="AB8">
-        <v>48525</v>
+        <v>15480</v>
       </c>
       <c r="AC8">
-        <v>48654</v>
+        <v>15223</v>
       </c>
       <c r="AD8">
-        <v>48762</v>
+        <v>15223</v>
       </c>
       <c r="AE8">
-        <v>48851</v>
+        <v>15212</v>
       </c>
       <c r="AF8">
-        <v>48893</v>
+        <v>14500</v>
       </c>
       <c r="AG8">
-        <v>48901</v>
+        <v>14500</v>
       </c>
       <c r="AH8">
-        <v>48901</v>
+        <v>14486</v>
       </c>
       <c r="AI8">
-        <v>48904</v>
+        <v>13650</v>
       </c>
       <c r="AJ8">
-        <v>48909</v>
+        <v>13650</v>
       </c>
       <c r="AK8">
-        <v>48912</v>
+        <v>13581</v>
       </c>
       <c r="AL8">
-        <v>48914</v>
+        <v>20570</v>
       </c>
       <c r="AM8">
-        <v>48572</v>
+        <v>20570</v>
       </c>
       <c r="AN8">
-        <v>48246</v>
+        <v>20190</v>
       </c>
       <c r="AO8">
-        <v>47899</v>
+        <v>20420</v>
+      </c>
+      <c r="AP8">
+        <v>20502</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1060</v>
+        <v>8018</v>
       </c>
       <c r="C9">
-        <v>1068</v>
+        <v>8018</v>
       </c>
       <c r="D9">
-        <v>1076</v>
+        <v>8004</v>
       </c>
       <c r="E9">
-        <v>1079</v>
+        <v>6718</v>
       </c>
       <c r="F9">
-        <v>1084</v>
+        <v>6718</v>
       </c>
       <c r="G9">
-        <v>1092</v>
+        <v>6694</v>
       </c>
       <c r="H9">
-        <v>1096</v>
+        <v>47572</v>
       </c>
       <c r="I9">
-        <v>1105</v>
+        <v>47572</v>
       </c>
       <c r="J9">
-        <v>1108</v>
+        <v>47572</v>
       </c>
       <c r="K9">
-        <v>1115</v>
+        <v>47435</v>
       </c>
       <c r="L9">
-        <v>1120</v>
+        <v>47435</v>
       </c>
       <c r="M9">
-        <v>1129</v>
+        <v>47435</v>
       </c>
       <c r="N9">
-        <v>1136</v>
+        <v>51380</v>
       </c>
       <c r="O9">
-        <v>1146</v>
+        <v>51380</v>
       </c>
       <c r="P9">
-        <v>1153</v>
+        <v>51380</v>
       </c>
       <c r="Q9">
-        <v>1157</v>
+        <v>49666</v>
       </c>
       <c r="R9">
-        <v>1163</v>
+        <v>49666</v>
       </c>
       <c r="S9">
-        <v>1168</v>
+        <v>49665</v>
       </c>
       <c r="T9">
-        <v>1172</v>
+        <v>49441</v>
       </c>
       <c r="U9">
-        <v>1179</v>
+        <v>49441</v>
       </c>
       <c r="V9">
-        <v>1185</v>
+        <v>49441</v>
       </c>
       <c r="W9">
-        <v>1191</v>
+        <v>49290</v>
       </c>
       <c r="X9">
-        <v>1196</v>
+        <v>49290</v>
       </c>
       <c r="Y9">
-        <v>1201</v>
+        <v>49289</v>
       </c>
       <c r="Z9">
-        <v>1209</v>
+        <v>47528</v>
       </c>
       <c r="AA9">
-        <v>1215</v>
+        <v>47528</v>
       </c>
       <c r="AB9">
-        <v>1221</v>
+        <v>47528</v>
       </c>
       <c r="AC9">
-        <v>1223</v>
+        <v>47229</v>
       </c>
       <c r="AD9">
-        <v>1226</v>
+        <v>47229</v>
       </c>
       <c r="AE9">
-        <v>1227</v>
+        <v>47229</v>
       </c>
       <c r="AF9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AG9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AH9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AI9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AJ9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AK9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AL9">
-        <v>1229</v>
+        <v>43610</v>
       </c>
       <c r="AM9">
-        <v>1221</v>
+        <v>43614</v>
       </c>
       <c r="AN9">
-        <v>1210</v>
+        <v>43616</v>
       </c>
       <c r="AO9">
-        <v>1191</v>
+        <v>43621</v>
+      </c>
+      <c r="AP9">
+        <v>43621</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>8089</v>
+      </c>
+      <c r="C10">
+        <v>8089</v>
+      </c>
+      <c r="D10">
+        <v>8077</v>
+      </c>
+      <c r="E10">
+        <v>7973</v>
+      </c>
+      <c r="F10">
+        <v>7973</v>
+      </c>
+      <c r="G10">
+        <v>7965</v>
+      </c>
+      <c r="H10">
+        <v>7708</v>
+      </c>
+      <c r="I10">
+        <v>7708</v>
+      </c>
+      <c r="J10">
+        <v>7701</v>
+      </c>
+      <c r="K10">
+        <v>7743</v>
+      </c>
+      <c r="L10">
+        <v>7743</v>
+      </c>
+      <c r="M10">
+        <v>7731</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="O10">
+        <v>7897</v>
+      </c>
+      <c r="P10">
+        <v>7887</v>
+      </c>
+      <c r="Q10">
+        <v>7719</v>
+      </c>
+      <c r="R10">
+        <v>7719</v>
+      </c>
+      <c r="S10">
+        <v>7717</v>
+      </c>
+      <c r="T10">
+        <v>7572</v>
+      </c>
+      <c r="U10">
+        <v>7572</v>
+      </c>
+      <c r="V10">
+        <v>7564</v>
+      </c>
+      <c r="W10">
+        <v>7388</v>
+      </c>
+      <c r="X10">
+        <v>7388</v>
+      </c>
+      <c r="Y10">
+        <v>7371</v>
+      </c>
+      <c r="Z10">
+        <v>7453</v>
+      </c>
+      <c r="AA10">
+        <v>7453</v>
+      </c>
+      <c r="AB10">
+        <v>7437</v>
+      </c>
+      <c r="AC10">
+        <v>7360</v>
+      </c>
+      <c r="AD10">
+        <v>7360</v>
+      </c>
+      <c r="AE10">
+        <v>7353</v>
+      </c>
+      <c r="AF10">
+        <v>7308</v>
+      </c>
+      <c r="AG10">
+        <v>7308</v>
+      </c>
+      <c r="AH10">
+        <v>7302</v>
+      </c>
+      <c r="AI10">
+        <v>7203</v>
+      </c>
+      <c r="AJ10">
+        <v>7203</v>
+      </c>
+      <c r="AK10">
+        <v>7189</v>
+      </c>
+      <c r="AL10">
+        <v>10287</v>
+      </c>
+      <c r="AM10">
+        <v>10287</v>
+      </c>
+      <c r="AN10">
+        <v>10127</v>
+      </c>
+      <c r="AO10">
+        <v>10210</v>
+      </c>
+      <c r="AP10">
+        <v>10235</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>22191</v>
+      </c>
+      <c r="C11">
+        <v>22191</v>
+      </c>
+      <c r="D11">
+        <v>22191</v>
+      </c>
+      <c r="E11">
+        <v>22052</v>
+      </c>
+      <c r="F11">
+        <v>22052</v>
+      </c>
+      <c r="G11">
+        <v>22052</v>
+      </c>
+      <c r="H11">
+        <v>21920</v>
+      </c>
+      <c r="I11">
+        <v>21920</v>
+      </c>
+      <c r="J11">
+        <v>21920</v>
+      </c>
+      <c r="K11">
+        <v>21856</v>
+      </c>
+      <c r="L11">
+        <v>21856</v>
+      </c>
+      <c r="M11">
+        <v>21856</v>
+      </c>
+      <c r="N11">
+        <v>23146</v>
+      </c>
+      <c r="O11">
+        <v>23146</v>
+      </c>
+      <c r="P11">
+        <v>23146</v>
+      </c>
+      <c r="Q11">
+        <v>21867</v>
+      </c>
+      <c r="R11">
+        <v>21867</v>
+      </c>
+      <c r="S11">
+        <v>21867</v>
+      </c>
+      <c r="T11">
+        <v>21742</v>
+      </c>
+      <c r="U11">
+        <v>21742</v>
+      </c>
+      <c r="V11">
+        <v>21742</v>
+      </c>
+      <c r="W11">
+        <v>21672</v>
+      </c>
+      <c r="X11">
+        <v>21672</v>
+      </c>
+      <c r="Y11">
+        <v>21672</v>
+      </c>
+      <c r="Z11">
+        <v>18703</v>
+      </c>
+      <c r="AA11">
+        <v>18703</v>
+      </c>
+      <c r="AB11">
+        <v>18703</v>
+      </c>
+      <c r="AC11">
+        <v>18594</v>
+      </c>
+      <c r="AD11">
+        <v>18594</v>
+      </c>
+      <c r="AE11">
+        <v>18594</v>
+      </c>
+      <c r="AF11">
+        <v>18509</v>
+      </c>
+      <c r="AG11">
+        <v>18509</v>
+      </c>
+      <c r="AH11">
+        <v>18509</v>
+      </c>
+      <c r="AI11">
+        <v>18463</v>
+      </c>
+      <c r="AJ11">
+        <v>18463</v>
+      </c>
+      <c r="AK11">
+        <v>18463</v>
+      </c>
+      <c r="AL11">
+        <v>19466</v>
+      </c>
+      <c r="AM11">
+        <v>19466</v>
+      </c>
+      <c r="AN11">
+        <v>19466</v>
+      </c>
+      <c r="AO11">
+        <v>19466</v>
+      </c>
+      <c r="AP11">
+        <v>19466</v>
+      </c>
+      <c r="AQ11">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>7836</v>
+      </c>
+      <c r="C12">
+        <v>7836</v>
+      </c>
+      <c r="D12">
+        <v>7813</v>
+      </c>
+      <c r="E12">
+        <v>7282</v>
+      </c>
+      <c r="F12">
+        <v>7282</v>
+      </c>
+      <c r="G12">
+        <v>7267</v>
+      </c>
+      <c r="H12">
+        <v>7282</v>
+      </c>
+      <c r="I12">
+        <v>7282</v>
+      </c>
+      <c r="J12">
+        <v>7261</v>
+      </c>
+      <c r="K12">
+        <v>7225</v>
+      </c>
+      <c r="L12">
+        <v>7225</v>
+      </c>
+      <c r="M12">
+        <v>7205</v>
+      </c>
+      <c r="N12">
+        <v>7162</v>
+      </c>
+      <c r="O12">
+        <v>7162</v>
+      </c>
+      <c r="P12">
+        <v>7147</v>
+      </c>
+      <c r="Q12">
+        <v>6987</v>
+      </c>
+      <c r="R12">
+        <v>6987</v>
+      </c>
+      <c r="S12">
+        <v>6977</v>
+      </c>
+      <c r="T12">
+        <v>6839</v>
+      </c>
+      <c r="U12">
+        <v>6839</v>
+      </c>
+      <c r="V12">
+        <v>6823</v>
+      </c>
+      <c r="W12">
+        <v>6611</v>
+      </c>
+      <c r="X12">
+        <v>6611</v>
+      </c>
+      <c r="Y12">
+        <v>6601</v>
+      </c>
+      <c r="Z12">
+        <v>7275</v>
+      </c>
+      <c r="AA12">
+        <v>7275</v>
+      </c>
+      <c r="AB12">
+        <v>7260</v>
+      </c>
+      <c r="AC12">
+        <v>7395</v>
+      </c>
+      <c r="AD12">
+        <v>7395</v>
+      </c>
+      <c r="AE12">
+        <v>7383</v>
+      </c>
+      <c r="AF12">
+        <v>7336</v>
+      </c>
+      <c r="AG12">
+        <v>7336</v>
+      </c>
+      <c r="AH12">
+        <v>7324</v>
+      </c>
+      <c r="AI12">
+        <v>7332</v>
+      </c>
+      <c r="AJ12">
+        <v>7332</v>
+      </c>
+      <c r="AK12">
+        <v>7299</v>
+      </c>
+      <c r="AL12">
+        <v>6381</v>
+      </c>
+      <c r="AM12">
+        <v>6381</v>
+      </c>
+      <c r="AN12">
+        <v>6309</v>
+      </c>
+      <c r="AO12">
+        <v>6271</v>
+      </c>
+      <c r="AP12">
+        <v>6286</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10320</v>
+      </c>
+      <c r="C13">
+        <v>10320</v>
+      </c>
+      <c r="D13">
+        <v>10308</v>
+      </c>
+      <c r="E13">
+        <v>10226</v>
+      </c>
+      <c r="F13">
+        <v>10226</v>
+      </c>
+      <c r="G13">
+        <v>10214</v>
+      </c>
+      <c r="H13">
+        <v>10254</v>
+      </c>
+      <c r="I13">
+        <v>10254</v>
+      </c>
+      <c r="J13">
+        <v>10248</v>
+      </c>
+      <c r="K13">
+        <v>10152</v>
+      </c>
+      <c r="L13">
+        <v>10152</v>
+      </c>
+      <c r="M13">
+        <v>10127</v>
+      </c>
+      <c r="N13">
+        <v>10318</v>
+      </c>
+      <c r="O13">
+        <v>10318</v>
+      </c>
+      <c r="P13">
+        <v>10311</v>
+      </c>
+      <c r="Q13">
+        <v>10100</v>
+      </c>
+      <c r="R13">
+        <v>10100</v>
+      </c>
+      <c r="S13">
+        <v>10095</v>
+      </c>
+      <c r="T13">
+        <v>9786</v>
+      </c>
+      <c r="U13">
+        <v>9786</v>
+      </c>
+      <c r="V13">
+        <v>9783</v>
+      </c>
+      <c r="W13">
+        <v>9372</v>
+      </c>
+      <c r="X13">
+        <v>9372</v>
+      </c>
+      <c r="Y13">
+        <v>9357</v>
+      </c>
+      <c r="Z13">
+        <v>8774</v>
+      </c>
+      <c r="AA13">
+        <v>8774</v>
+      </c>
+      <c r="AB13">
+        <v>8764</v>
+      </c>
+      <c r="AC13">
+        <v>8746</v>
+      </c>
+      <c r="AD13">
+        <v>8746</v>
+      </c>
+      <c r="AE13">
+        <v>8742</v>
+      </c>
+      <c r="AF13">
+        <v>8598</v>
+      </c>
+      <c r="AG13">
+        <v>8598</v>
+      </c>
+      <c r="AH13">
+        <v>8590</v>
+      </c>
+      <c r="AI13">
+        <v>8709</v>
+      </c>
+      <c r="AJ13">
+        <v>8709</v>
+      </c>
+      <c r="AK13">
+        <v>8688</v>
+      </c>
+      <c r="AL13">
+        <v>10649</v>
+      </c>
+      <c r="AM13">
+        <v>10649</v>
+      </c>
+      <c r="AN13">
+        <v>10503</v>
+      </c>
+      <c r="AO13">
+        <v>10598</v>
+      </c>
+      <c r="AP13">
+        <v>10611</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>31321</v>
+      </c>
+      <c r="C14">
+        <v>31321</v>
+      </c>
+      <c r="D14">
+        <v>31274</v>
+      </c>
+      <c r="E14">
+        <v>31241</v>
+      </c>
+      <c r="F14">
+        <v>31241</v>
+      </c>
+      <c r="G14">
+        <v>31205</v>
+      </c>
+      <c r="H14">
+        <v>30695</v>
+      </c>
+      <c r="I14">
+        <v>30695</v>
+      </c>
+      <c r="J14">
+        <v>30661</v>
+      </c>
+      <c r="K14">
+        <v>30806</v>
+      </c>
+      <c r="L14">
+        <v>30806</v>
+      </c>
+      <c r="M14">
+        <v>30747</v>
+      </c>
+      <c r="N14">
+        <v>30792</v>
+      </c>
+      <c r="O14">
+        <v>30792</v>
+      </c>
+      <c r="P14">
+        <v>30766</v>
+      </c>
+      <c r="Q14">
+        <v>30056</v>
+      </c>
+      <c r="R14">
+        <v>30056</v>
+      </c>
+      <c r="S14">
+        <v>30011</v>
+      </c>
+      <c r="T14">
+        <v>29792</v>
+      </c>
+      <c r="U14">
+        <v>29792</v>
+      </c>
+      <c r="V14">
+        <v>29748</v>
+      </c>
+      <c r="W14">
+        <v>29808</v>
+      </c>
+      <c r="X14">
+        <v>29808</v>
+      </c>
+      <c r="Y14">
+        <v>29750</v>
+      </c>
+      <c r="Z14">
+        <v>30486</v>
+      </c>
+      <c r="AA14">
+        <v>30486</v>
+      </c>
+      <c r="AB14">
+        <v>30435</v>
+      </c>
+      <c r="AC14">
+        <v>30904</v>
+      </c>
+      <c r="AD14">
+        <v>30904</v>
+      </c>
+      <c r="AE14">
+        <v>30874</v>
+      </c>
+      <c r="AF14">
+        <v>30935</v>
+      </c>
+      <c r="AG14">
+        <v>30935</v>
+      </c>
+      <c r="AH14">
+        <v>30927</v>
+      </c>
+      <c r="AI14">
+        <v>31111</v>
+      </c>
+      <c r="AJ14">
+        <v>31111</v>
+      </c>
+      <c r="AK14">
+        <v>30792</v>
+      </c>
+      <c r="AL14">
+        <v>33305</v>
+      </c>
+      <c r="AM14">
+        <v>33305</v>
+      </c>
+      <c r="AN14">
+        <v>33300</v>
+      </c>
+      <c r="AO14">
+        <v>33012</v>
+      </c>
+      <c r="AP14">
+        <v>33013</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>9052</v>
+      </c>
+      <c r="C15">
+        <v>9052</v>
+      </c>
+      <c r="D15">
+        <v>9052</v>
+      </c>
+      <c r="E15">
+        <v>9052</v>
+      </c>
+      <c r="F15">
+        <v>9052</v>
+      </c>
+      <c r="G15">
+        <v>8337</v>
+      </c>
+      <c r="H15">
+        <v>8934</v>
+      </c>
+      <c r="I15">
+        <v>8934</v>
+      </c>
+      <c r="J15">
+        <v>8930</v>
+      </c>
+      <c r="K15">
+        <v>8979</v>
+      </c>
+      <c r="L15">
+        <v>8979</v>
+      </c>
+      <c r="M15">
+        <v>8964</v>
+      </c>
+      <c r="N15">
+        <v>8764</v>
+      </c>
+      <c r="O15">
+        <v>8764</v>
+      </c>
+      <c r="P15">
+        <v>8751</v>
+      </c>
+      <c r="Q15">
+        <v>8705</v>
+      </c>
+      <c r="R15">
+        <v>8705</v>
+      </c>
+      <c r="S15">
+        <v>8704</v>
+      </c>
+      <c r="T15">
+        <v>8698</v>
+      </c>
+      <c r="U15">
+        <v>8698</v>
+      </c>
+      <c r="V15">
+        <v>8695</v>
+      </c>
+      <c r="W15">
+        <v>8585</v>
+      </c>
+      <c r="X15">
+        <v>8585</v>
+      </c>
+      <c r="Y15">
+        <v>8575</v>
+      </c>
+      <c r="Z15">
+        <v>8492</v>
+      </c>
+      <c r="AA15">
+        <v>8492</v>
+      </c>
+      <c r="AB15">
+        <v>8474</v>
+      </c>
+      <c r="AC15">
+        <v>8425</v>
+      </c>
+      <c r="AD15">
+        <v>8425</v>
+      </c>
+      <c r="AE15">
+        <v>8420</v>
+      </c>
+      <c r="AF15">
+        <v>8359</v>
+      </c>
+      <c r="AG15">
+        <v>8359</v>
+      </c>
+      <c r="AH15">
+        <v>8351</v>
+      </c>
+      <c r="AI15">
+        <v>8283</v>
+      </c>
+      <c r="AJ15">
+        <v>8283</v>
+      </c>
+      <c r="AK15">
+        <v>8269</v>
+      </c>
+      <c r="AL15">
+        <v>7918</v>
+      </c>
+      <c r="AM15">
+        <v>7918</v>
+      </c>
+      <c r="AN15">
+        <v>7861</v>
+      </c>
+      <c r="AO15">
+        <v>7879</v>
+      </c>
+      <c r="AP15">
+        <v>7895</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>18285</v>
+      </c>
+      <c r="C16">
+        <v>18285</v>
+      </c>
+      <c r="D16">
+        <v>18285</v>
+      </c>
+      <c r="E16">
+        <v>18285</v>
+      </c>
+      <c r="F16">
+        <v>18285</v>
+      </c>
+      <c r="G16">
+        <v>16482</v>
+      </c>
+      <c r="H16">
+        <v>18241</v>
+      </c>
+      <c r="I16">
+        <v>18241</v>
+      </c>
+      <c r="J16">
+        <v>18217</v>
+      </c>
+      <c r="K16">
+        <v>18431</v>
+      </c>
+      <c r="L16">
+        <v>18431</v>
+      </c>
+      <c r="M16">
+        <v>18376</v>
+      </c>
+      <c r="N16">
+        <v>18630</v>
+      </c>
+      <c r="O16">
+        <v>18630</v>
+      </c>
+      <c r="P16">
+        <v>18597</v>
+      </c>
+      <c r="Q16">
+        <v>18454</v>
+      </c>
+      <c r="R16">
+        <v>18454</v>
+      </c>
+      <c r="S16">
+        <v>18433</v>
+      </c>
+      <c r="T16">
+        <v>18186</v>
+      </c>
+      <c r="U16">
+        <v>18186</v>
+      </c>
+      <c r="V16">
+        <v>18174</v>
+      </c>
+      <c r="W16">
+        <v>17772</v>
+      </c>
+      <c r="X16">
+        <v>17772</v>
+      </c>
+      <c r="Y16">
+        <v>17711</v>
+      </c>
+      <c r="Z16">
+        <v>16176</v>
+      </c>
+      <c r="AA16">
+        <v>16176</v>
+      </c>
+      <c r="AB16">
+        <v>16153</v>
+      </c>
+      <c r="AC16">
+        <v>16456</v>
+      </c>
+      <c r="AD16">
+        <v>16456</v>
+      </c>
+      <c r="AE16">
+        <v>16435</v>
+      </c>
+      <c r="AF16">
+        <v>16350</v>
+      </c>
+      <c r="AG16">
+        <v>16350</v>
+      </c>
+      <c r="AH16">
+        <v>16342</v>
+      </c>
+      <c r="AI16">
+        <v>16403</v>
+      </c>
+      <c r="AJ16">
+        <v>16403</v>
+      </c>
+      <c r="AK16">
+        <v>16363</v>
+      </c>
+      <c r="AL16">
+        <v>19659</v>
+      </c>
+      <c r="AM16">
+        <v>19659</v>
+      </c>
+      <c r="AN16">
+        <v>19307</v>
+      </c>
+      <c r="AO16">
+        <v>19279</v>
+      </c>
+      <c r="AP16">
+        <v>19344</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>6554</v>
+      </c>
+      <c r="C17">
+        <v>6554</v>
+      </c>
+      <c r="D17">
+        <v>6554</v>
+      </c>
+      <c r="E17">
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>6554</v>
+      </c>
+      <c r="G17">
+        <v>6554</v>
+      </c>
+      <c r="H17">
+        <v>6554</v>
+      </c>
+      <c r="I17">
+        <v>6554</v>
+      </c>
+      <c r="J17">
+        <v>6554</v>
+      </c>
+      <c r="K17">
+        <v>6554</v>
+      </c>
+      <c r="L17">
+        <v>6554</v>
+      </c>
+      <c r="M17">
+        <v>6554</v>
+      </c>
+      <c r="N17">
+        <v>6554</v>
+      </c>
+      <c r="O17">
+        <v>6554</v>
+      </c>
+      <c r="P17">
+        <v>6554</v>
+      </c>
+      <c r="Q17">
+        <v>6199</v>
+      </c>
+      <c r="R17">
+        <v>6199</v>
+      </c>
+      <c r="S17">
+        <v>6199</v>
+      </c>
+      <c r="T17">
+        <v>6183</v>
+      </c>
+      <c r="U17">
+        <v>6183</v>
+      </c>
+      <c r="V17">
+        <v>6183</v>
+      </c>
+      <c r="W17">
+        <v>6166</v>
+      </c>
+      <c r="X17">
+        <v>6166</v>
+      </c>
+      <c r="Y17">
+        <v>6166</v>
+      </c>
+      <c r="Z17">
+        <v>5895</v>
+      </c>
+      <c r="AA17">
+        <v>5895</v>
+      </c>
+      <c r="AB17">
+        <v>5879</v>
+      </c>
+      <c r="AC17">
+        <v>6045</v>
+      </c>
+      <c r="AD17">
+        <v>6045</v>
+      </c>
+      <c r="AE17">
+        <v>6035</v>
+      </c>
+      <c r="AF17">
+        <v>6013</v>
+      </c>
+      <c r="AG17">
+        <v>6013</v>
+      </c>
+      <c r="AH17">
+        <v>6004</v>
+      </c>
+      <c r="AI17">
+        <v>6106</v>
+      </c>
+      <c r="AJ17">
+        <v>6106</v>
+      </c>
+      <c r="AK17">
+        <v>6093</v>
+      </c>
+      <c r="AL17">
+        <v>6160</v>
+      </c>
+      <c r="AM17">
+        <v>6160</v>
+      </c>
+      <c r="AN17">
+        <v>6062</v>
+      </c>
+      <c r="AO17">
+        <v>6107</v>
+      </c>
+      <c r="AP17">
+        <v>6121</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -1992,7 +1992,7 @@
         <v>19466</v>
       </c>
       <c r="AQ11">
-        <v>19466</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="12" spans="1:43">

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -1983,16 +1983,16 @@
         <v>19466</v>
       </c>
       <c r="AN11">
-        <v>19466</v>
+        <v>19257</v>
       </c>
       <c r="AO11">
-        <v>19466</v>
+        <v>19331</v>
       </c>
       <c r="AP11">
-        <v>19466</v>
+        <v>19358</v>
       </c>
       <c r="AQ11">
-        <v>19600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43">

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
   </si>
   <si>
     <t>org_id</t>
@@ -500,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,10 +636,13 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>739</v>
@@ -759,6 +765,9 @@
         <v>818</v>
       </c>
       <c r="AP2">
+        <v>818</v>
+      </c>
+      <c r="AQ2">
         <v>818</v>
       </c>
     </row>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -139,13 +139,31 @@
     <t>m-2022-05</t>
   </si>
   <si>
-    <t>m-2022-06</t>
-  </si>
-  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -503,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -636,139 +654,1026 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>6454</v>
+      </c>
+      <c r="C2">
+        <v>6499</v>
+      </c>
+      <c r="D2">
+        <v>6531</v>
+      </c>
+      <c r="E2">
+        <v>6585</v>
+      </c>
+      <c r="F2">
+        <v>6636</v>
+      </c>
+      <c r="G2">
+        <v>6684</v>
+      </c>
+      <c r="H2">
+        <v>6730</v>
+      </c>
+      <c r="I2">
+        <v>6776</v>
+      </c>
+      <c r="J2">
+        <v>6818</v>
+      </c>
+      <c r="K2">
+        <v>6850</v>
+      </c>
+      <c r="L2">
+        <v>6879</v>
+      </c>
+      <c r="M2">
+        <v>6907</v>
+      </c>
+      <c r="N2">
+        <v>6936</v>
+      </c>
+      <c r="O2">
+        <v>6962</v>
+      </c>
+      <c r="P2">
+        <v>6983</v>
+      </c>
+      <c r="Q2">
+        <v>7001</v>
+      </c>
+      <c r="R2">
+        <v>7022</v>
+      </c>
+      <c r="S2">
+        <v>7032</v>
+      </c>
+      <c r="T2">
+        <v>7039</v>
+      </c>
+      <c r="U2">
+        <v>7042</v>
+      </c>
+      <c r="V2">
+        <v>7044</v>
+      </c>
+      <c r="W2">
+        <v>7045</v>
+      </c>
+      <c r="X2">
+        <v>7047</v>
+      </c>
+      <c r="Y2">
+        <v>7050</v>
+      </c>
+      <c r="Z2">
+        <v>7052</v>
+      </c>
+      <c r="AA2">
+        <v>7054</v>
+      </c>
+      <c r="AB2">
+        <v>7056</v>
+      </c>
+      <c r="AC2">
+        <v>7056</v>
+      </c>
+      <c r="AD2">
+        <v>7025</v>
+      </c>
+      <c r="AE2">
+        <v>6992</v>
+      </c>
+      <c r="AF2">
+        <v>6941</v>
+      </c>
+      <c r="AG2">
+        <v>6906</v>
+      </c>
+      <c r="AH2">
+        <v>6870</v>
+      </c>
+      <c r="AI2">
+        <v>6845</v>
+      </c>
+      <c r="AJ2">
+        <v>6820</v>
+      </c>
+      <c r="AK2">
+        <v>6796</v>
+      </c>
+      <c r="AL2">
+        <v>17536</v>
+      </c>
+      <c r="AM2">
+        <v>17416</v>
+      </c>
+      <c r="AN2">
+        <v>17307</v>
+      </c>
+      <c r="AO2">
+        <v>17202</v>
+      </c>
+      <c r="AP2">
+        <v>17133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2">
-        <v>739</v>
-      </c>
-      <c r="C2">
-        <v>740</v>
-      </c>
-      <c r="D2">
-        <v>741</v>
-      </c>
-      <c r="E2">
-        <v>741</v>
-      </c>
-      <c r="F2">
-        <v>742</v>
-      </c>
-      <c r="G2">
-        <v>743</v>
-      </c>
-      <c r="H2">
-        <v>744</v>
-      </c>
-      <c r="I2">
-        <v>745</v>
-      </c>
-      <c r="J2">
-        <v>745</v>
-      </c>
-      <c r="K2">
-        <v>746</v>
-      </c>
-      <c r="L2">
-        <v>747</v>
-      </c>
-      <c r="M2">
-        <v>748</v>
-      </c>
-      <c r="N2">
-        <v>748</v>
-      </c>
-      <c r="O2">
-        <v>749</v>
-      </c>
-      <c r="P2">
-        <v>749</v>
-      </c>
-      <c r="Q2">
-        <v>751</v>
-      </c>
-      <c r="R2">
-        <v>751</v>
-      </c>
-      <c r="S2">
-        <v>751</v>
-      </c>
-      <c r="T2">
-        <v>751</v>
-      </c>
-      <c r="U2">
-        <v>751</v>
-      </c>
-      <c r="V2">
-        <v>751</v>
-      </c>
-      <c r="W2">
-        <v>751</v>
-      </c>
-      <c r="X2">
-        <v>751</v>
-      </c>
-      <c r="Y2">
-        <v>751</v>
-      </c>
-      <c r="Z2">
-        <v>751</v>
-      </c>
-      <c r="AA2">
-        <v>751</v>
-      </c>
-      <c r="AB2">
-        <v>751</v>
-      </c>
-      <c r="AC2">
-        <v>720</v>
-      </c>
-      <c r="AD2">
-        <v>720</v>
-      </c>
-      <c r="AE2">
-        <v>720</v>
-      </c>
-      <c r="AF2">
-        <v>805</v>
-      </c>
-      <c r="AG2">
-        <v>805</v>
-      </c>
-      <c r="AH2">
-        <v>805</v>
-      </c>
-      <c r="AI2">
-        <v>865</v>
-      </c>
-      <c r="AJ2">
-        <v>865</v>
-      </c>
-      <c r="AK2">
-        <v>865</v>
-      </c>
-      <c r="AL2">
-        <v>886</v>
-      </c>
-      <c r="AM2">
-        <v>886</v>
-      </c>
-      <c r="AN2">
-        <v>886</v>
-      </c>
-      <c r="AO2">
-        <v>818</v>
-      </c>
-      <c r="AP2">
-        <v>818</v>
-      </c>
-      <c r="AQ2">
-        <v>818</v>
+      <c r="B3">
+        <v>907</v>
+      </c>
+      <c r="C3">
+        <v>912</v>
+      </c>
+      <c r="D3">
+        <v>919</v>
+      </c>
+      <c r="E3">
+        <v>924</v>
+      </c>
+      <c r="F3">
+        <v>929</v>
+      </c>
+      <c r="G3">
+        <v>939</v>
+      </c>
+      <c r="H3">
+        <v>948</v>
+      </c>
+      <c r="I3">
+        <v>964</v>
+      </c>
+      <c r="J3">
+        <v>968</v>
+      </c>
+      <c r="K3">
+        <v>973</v>
+      </c>
+      <c r="L3">
+        <v>977</v>
+      </c>
+      <c r="M3">
+        <v>990</v>
+      </c>
+      <c r="N3">
+        <v>999</v>
+      </c>
+      <c r="O3">
+        <v>1008</v>
+      </c>
+      <c r="P3">
+        <v>1019</v>
+      </c>
+      <c r="Q3">
+        <v>1024</v>
+      </c>
+      <c r="R3">
+        <v>1030</v>
+      </c>
+      <c r="S3">
+        <v>1038</v>
+      </c>
+      <c r="T3">
+        <v>1040</v>
+      </c>
+      <c r="U3">
+        <v>1052</v>
+      </c>
+      <c r="V3">
+        <v>1058</v>
+      </c>
+      <c r="W3">
+        <v>1062</v>
+      </c>
+      <c r="X3">
+        <v>1066</v>
+      </c>
+      <c r="Y3">
+        <v>1074</v>
+      </c>
+      <c r="Z3">
+        <v>1081</v>
+      </c>
+      <c r="AA3">
+        <v>1089</v>
+      </c>
+      <c r="AB3">
+        <v>1099</v>
+      </c>
+      <c r="AC3">
+        <v>1104</v>
+      </c>
+      <c r="AD3">
+        <v>1109</v>
+      </c>
+      <c r="AE3">
+        <v>1110</v>
+      </c>
+      <c r="AF3">
+        <v>1111</v>
+      </c>
+      <c r="AG3">
+        <v>1113</v>
+      </c>
+      <c r="AH3">
+        <v>1114</v>
+      </c>
+      <c r="AI3">
+        <v>1114</v>
+      </c>
+      <c r="AJ3">
+        <v>1114</v>
+      </c>
+      <c r="AK3">
+        <v>1114</v>
+      </c>
+      <c r="AL3">
+        <v>1114</v>
+      </c>
+      <c r="AM3">
+        <v>1101</v>
+      </c>
+      <c r="AN3">
+        <v>1089</v>
+      </c>
+      <c r="AO3">
+        <v>1321</v>
+      </c>
+      <c r="AP3">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>35292</v>
+      </c>
+      <c r="C4">
+        <v>35512</v>
+      </c>
+      <c r="D4">
+        <v>35699</v>
+      </c>
+      <c r="E4">
+        <v>35865</v>
+      </c>
+      <c r="F4">
+        <v>36072</v>
+      </c>
+      <c r="G4">
+        <v>36244</v>
+      </c>
+      <c r="H4">
+        <v>36438</v>
+      </c>
+      <c r="I4">
+        <v>36736</v>
+      </c>
+      <c r="J4">
+        <v>36950</v>
+      </c>
+      <c r="K4">
+        <v>37155</v>
+      </c>
+      <c r="L4">
+        <v>37381</v>
+      </c>
+      <c r="M4">
+        <v>37572</v>
+      </c>
+      <c r="N4">
+        <v>37743</v>
+      </c>
+      <c r="O4">
+        <v>37973</v>
+      </c>
+      <c r="P4">
+        <v>38168</v>
+      </c>
+      <c r="Q4">
+        <v>38346</v>
+      </c>
+      <c r="R4">
+        <v>38513</v>
+      </c>
+      <c r="S4">
+        <v>38658</v>
+      </c>
+      <c r="T4">
+        <v>38853</v>
+      </c>
+      <c r="U4">
+        <v>39124</v>
+      </c>
+      <c r="V4">
+        <v>39330</v>
+      </c>
+      <c r="W4">
+        <v>39513</v>
+      </c>
+      <c r="X4">
+        <v>39701</v>
+      </c>
+      <c r="Y4">
+        <v>39866</v>
+      </c>
+      <c r="Z4">
+        <v>39989</v>
+      </c>
+      <c r="AA4">
+        <v>40157</v>
+      </c>
+      <c r="AB4">
+        <v>40277</v>
+      </c>
+      <c r="AC4">
+        <v>40390</v>
+      </c>
+      <c r="AD4">
+        <v>40479</v>
+      </c>
+      <c r="AE4">
+        <v>40553</v>
+      </c>
+      <c r="AF4">
+        <v>40592</v>
+      </c>
+      <c r="AG4">
+        <v>40604</v>
+      </c>
+      <c r="AH4">
+        <v>40607</v>
+      </c>
+      <c r="AI4">
+        <v>40609</v>
+      </c>
+      <c r="AJ4">
+        <v>40615</v>
+      </c>
+      <c r="AK4">
+        <v>40619</v>
+      </c>
+      <c r="AL4">
+        <v>40622</v>
+      </c>
+      <c r="AM4">
+        <v>40254</v>
+      </c>
+      <c r="AN4">
+        <v>39902</v>
+      </c>
+      <c r="AO4">
+        <v>39728</v>
+      </c>
+      <c r="AP4">
+        <v>39529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>2942</v>
+      </c>
+      <c r="C5">
+        <v>2985</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <v>3028</v>
+      </c>
+      <c r="F5">
+        <v>3057</v>
+      </c>
+      <c r="G5">
+        <v>3079</v>
+      </c>
+      <c r="H5">
+        <v>3106</v>
+      </c>
+      <c r="I5">
+        <v>3144</v>
+      </c>
+      <c r="J5">
+        <v>3175</v>
+      </c>
+      <c r="K5">
+        <v>3196</v>
+      </c>
+      <c r="L5">
+        <v>3221</v>
+      </c>
+      <c r="M5">
+        <v>3239</v>
+      </c>
+      <c r="N5">
+        <v>3265</v>
+      </c>
+      <c r="O5">
+        <v>3291</v>
+      </c>
+      <c r="P5">
+        <v>3304</v>
+      </c>
+      <c r="Q5">
+        <v>3346</v>
+      </c>
+      <c r="R5">
+        <v>3368</v>
+      </c>
+      <c r="S5">
+        <v>3393</v>
+      </c>
+      <c r="T5">
+        <v>3418</v>
+      </c>
+      <c r="U5">
+        <v>3454</v>
+      </c>
+      <c r="V5">
+        <v>3466</v>
+      </c>
+      <c r="W5">
+        <v>3490</v>
+      </c>
+      <c r="X5">
+        <v>3504</v>
+      </c>
+      <c r="Y5">
+        <v>3524</v>
+      </c>
+      <c r="Z5">
+        <v>3537</v>
+      </c>
+      <c r="AA5">
+        <v>3555</v>
+      </c>
+      <c r="AB5">
+        <v>3567</v>
+      </c>
+      <c r="AC5">
+        <v>3583</v>
+      </c>
+      <c r="AD5">
+        <v>3602</v>
+      </c>
+      <c r="AE5">
+        <v>3631</v>
+      </c>
+      <c r="AF5">
+        <v>3642</v>
+      </c>
+      <c r="AG5">
+        <v>3652</v>
+      </c>
+      <c r="AH5">
+        <v>3659</v>
+      </c>
+      <c r="AI5">
+        <v>3660</v>
+      </c>
+      <c r="AJ5">
+        <v>3660</v>
+      </c>
+      <c r="AK5">
+        <v>3661</v>
+      </c>
+      <c r="AL5">
+        <v>3661</v>
+      </c>
+      <c r="AM5">
+        <v>3593</v>
+      </c>
+      <c r="AN5">
+        <v>3530</v>
+      </c>
+      <c r="AO5">
+        <v>3473</v>
+      </c>
+      <c r="AP5">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>3510</v>
+      </c>
+      <c r="C6">
+        <v>3543</v>
+      </c>
+      <c r="D6">
+        <v>3562</v>
+      </c>
+      <c r="E6">
+        <v>3583</v>
+      </c>
+      <c r="F6">
+        <v>3604</v>
+      </c>
+      <c r="G6">
+        <v>3620</v>
+      </c>
+      <c r="H6">
+        <v>3645</v>
+      </c>
+      <c r="I6">
+        <v>3675</v>
+      </c>
+      <c r="J6">
+        <v>3687</v>
+      </c>
+      <c r="K6">
+        <v>3711</v>
+      </c>
+      <c r="L6">
+        <v>3731</v>
+      </c>
+      <c r="M6">
+        <v>3747</v>
+      </c>
+      <c r="N6">
+        <v>3775</v>
+      </c>
+      <c r="O6">
+        <v>3799</v>
+      </c>
+      <c r="P6">
+        <v>3810</v>
+      </c>
+      <c r="Q6">
+        <v>3829</v>
+      </c>
+      <c r="R6">
+        <v>3853</v>
+      </c>
+      <c r="S6">
+        <v>3867</v>
+      </c>
+      <c r="T6">
+        <v>3883</v>
+      </c>
+      <c r="U6">
+        <v>3903</v>
+      </c>
+      <c r="V6">
+        <v>3920</v>
+      </c>
+      <c r="W6">
+        <v>3931</v>
+      </c>
+      <c r="X6">
+        <v>3945</v>
+      </c>
+      <c r="Y6">
+        <v>3961</v>
+      </c>
+      <c r="Z6">
+        <v>3978</v>
+      </c>
+      <c r="AA6">
+        <v>3994</v>
+      </c>
+      <c r="AB6">
+        <v>4008</v>
+      </c>
+      <c r="AC6">
+        <v>4014</v>
+      </c>
+      <c r="AD6">
+        <v>4019</v>
+      </c>
+      <c r="AE6">
+        <v>4023</v>
+      </c>
+      <c r="AF6">
+        <v>4025</v>
+      </c>
+      <c r="AG6">
+        <v>4026</v>
+      </c>
+      <c r="AH6">
+        <v>4027</v>
+      </c>
+      <c r="AI6">
+        <v>4027</v>
+      </c>
+      <c r="AJ6">
+        <v>4027</v>
+      </c>
+      <c r="AK6">
+        <v>4027</v>
+      </c>
+      <c r="AL6">
+        <v>4027</v>
+      </c>
+      <c r="AM6">
+        <v>3979</v>
+      </c>
+      <c r="AN6">
+        <v>3957</v>
+      </c>
+      <c r="AO6">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>2815</v>
+      </c>
+      <c r="D7">
+        <v>2829</v>
+      </c>
+      <c r="E7">
+        <v>2843</v>
+      </c>
+      <c r="F7">
+        <v>2856</v>
+      </c>
+      <c r="G7">
+        <v>2868</v>
+      </c>
+      <c r="H7">
+        <v>2894</v>
+      </c>
+      <c r="I7">
+        <v>2909</v>
+      </c>
+      <c r="J7">
+        <v>2924</v>
+      </c>
+      <c r="K7">
+        <v>2933</v>
+      </c>
+      <c r="L7">
+        <v>2946</v>
+      </c>
+      <c r="M7">
+        <v>2968</v>
+      </c>
+      <c r="N7">
+        <v>2987</v>
+      </c>
+      <c r="O7">
+        <v>3002</v>
+      </c>
+      <c r="P7">
+        <v>3009</v>
+      </c>
+      <c r="Q7">
+        <v>3022</v>
+      </c>
+      <c r="R7">
+        <v>3025</v>
+      </c>
+      <c r="S7">
+        <v>3031</v>
+      </c>
+      <c r="T7">
+        <v>3037</v>
+      </c>
+      <c r="U7">
+        <v>3037</v>
+      </c>
+      <c r="V7">
+        <v>3037</v>
+      </c>
+      <c r="W7">
+        <v>3038</v>
+      </c>
+      <c r="X7">
+        <v>3038</v>
+      </c>
+      <c r="Y7">
+        <v>3039</v>
+      </c>
+      <c r="Z7">
+        <v>3040</v>
+      </c>
+      <c r="AA7">
+        <v>3040</v>
+      </c>
+      <c r="AB7">
+        <v>3040</v>
+      </c>
+      <c r="AC7">
+        <v>3040</v>
+      </c>
+      <c r="AD7">
+        <v>3018</v>
+      </c>
+      <c r="AE7">
+        <v>2987</v>
+      </c>
+      <c r="AF7">
+        <v>3012</v>
+      </c>
+      <c r="AG7">
+        <v>2988</v>
+      </c>
+      <c r="AH7">
+        <v>2950</v>
+      </c>
+      <c r="AI7">
+        <v>4224</v>
+      </c>
+      <c r="AJ7">
+        <v>4194</v>
+      </c>
+      <c r="AK7">
+        <v>4179</v>
+      </c>
+      <c r="AL7">
+        <v>20643</v>
+      </c>
+      <c r="AM7">
+        <v>20477</v>
+      </c>
+      <c r="AN7">
+        <v>20379</v>
+      </c>
+      <c r="AO7">
+        <v>20555</v>
+      </c>
+      <c r="AP7">
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>42610</v>
+      </c>
+      <c r="C8">
+        <v>42931</v>
+      </c>
+      <c r="D8">
+        <v>43155</v>
+      </c>
+      <c r="E8">
+        <v>43373</v>
+      </c>
+      <c r="F8">
+        <v>43580</v>
+      </c>
+      <c r="G8">
+        <v>43812</v>
+      </c>
+      <c r="H8">
+        <v>44044</v>
+      </c>
+      <c r="I8">
+        <v>44417</v>
+      </c>
+      <c r="J8">
+        <v>44643</v>
+      </c>
+      <c r="K8">
+        <v>44935</v>
+      </c>
+      <c r="L8">
+        <v>45198</v>
+      </c>
+      <c r="M8">
+        <v>45413</v>
+      </c>
+      <c r="N8">
+        <v>45645</v>
+      </c>
+      <c r="O8">
+        <v>45942</v>
+      </c>
+      <c r="P8">
+        <v>46178</v>
+      </c>
+      <c r="Q8">
+        <v>46407</v>
+      </c>
+      <c r="R8">
+        <v>46598</v>
+      </c>
+      <c r="S8">
+        <v>46812</v>
+      </c>
+      <c r="T8">
+        <v>47031</v>
+      </c>
+      <c r="U8">
+        <v>47309</v>
+      </c>
+      <c r="V8">
+        <v>47505</v>
+      </c>
+      <c r="W8">
+        <v>47731</v>
+      </c>
+      <c r="X8">
+        <v>47892</v>
+      </c>
+      <c r="Y8">
+        <v>48034</v>
+      </c>
+      <c r="Z8">
+        <v>48199</v>
+      </c>
+      <c r="AA8">
+        <v>48388</v>
+      </c>
+      <c r="AB8">
+        <v>48517</v>
+      </c>
+      <c r="AC8">
+        <v>48645</v>
+      </c>
+      <c r="AD8">
+        <v>48753</v>
+      </c>
+      <c r="AE8">
+        <v>48842</v>
+      </c>
+      <c r="AF8">
+        <v>48884</v>
+      </c>
+      <c r="AG8">
+        <v>48892</v>
+      </c>
+      <c r="AH8">
+        <v>48892</v>
+      </c>
+      <c r="AI8">
+        <v>48895</v>
+      </c>
+      <c r="AJ8">
+        <v>48900</v>
+      </c>
+      <c r="AK8">
+        <v>48903</v>
+      </c>
+      <c r="AL8">
+        <v>48905</v>
+      </c>
+      <c r="AM8">
+        <v>48557</v>
+      </c>
+      <c r="AN8">
+        <v>48232</v>
+      </c>
+      <c r="AO8">
+        <v>47830</v>
+      </c>
+      <c r="AP8">
+        <v>47622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>1060</v>
+      </c>
+      <c r="C9">
+        <v>1068</v>
+      </c>
+      <c r="D9">
+        <v>1076</v>
+      </c>
+      <c r="E9">
+        <v>1079</v>
+      </c>
+      <c r="F9">
+        <v>1084</v>
+      </c>
+      <c r="G9">
+        <v>1092</v>
+      </c>
+      <c r="H9">
+        <v>1096</v>
+      </c>
+      <c r="I9">
+        <v>1105</v>
+      </c>
+      <c r="J9">
+        <v>1108</v>
+      </c>
+      <c r="K9">
+        <v>1115</v>
+      </c>
+      <c r="L9">
+        <v>1120</v>
+      </c>
+      <c r="M9">
+        <v>1129</v>
+      </c>
+      <c r="N9">
+        <v>1136</v>
+      </c>
+      <c r="O9">
+        <v>1146</v>
+      </c>
+      <c r="P9">
+        <v>1153</v>
+      </c>
+      <c r="Q9">
+        <v>1157</v>
+      </c>
+      <c r="R9">
+        <v>1163</v>
+      </c>
+      <c r="S9">
+        <v>1168</v>
+      </c>
+      <c r="T9">
+        <v>1172</v>
+      </c>
+      <c r="U9">
+        <v>1179</v>
+      </c>
+      <c r="V9">
+        <v>1185</v>
+      </c>
+      <c r="W9">
+        <v>1191</v>
+      </c>
+      <c r="X9">
+        <v>1196</v>
+      </c>
+      <c r="Y9">
+        <v>1201</v>
+      </c>
+      <c r="Z9">
+        <v>1209</v>
+      </c>
+      <c r="AA9">
+        <v>1215</v>
+      </c>
+      <c r="AB9">
+        <v>1221</v>
+      </c>
+      <c r="AC9">
+        <v>1223</v>
+      </c>
+      <c r="AD9">
+        <v>1226</v>
+      </c>
+      <c r="AE9">
+        <v>1227</v>
+      </c>
+      <c r="AF9">
+        <v>1229</v>
+      </c>
+      <c r="AG9">
+        <v>1229</v>
+      </c>
+      <c r="AH9">
+        <v>1229</v>
+      </c>
+      <c r="AI9">
+        <v>1229</v>
+      </c>
+      <c r="AJ9">
+        <v>1229</v>
+      </c>
+      <c r="AK9">
+        <v>1229</v>
+      </c>
+      <c r="AL9">
+        <v>1229</v>
+      </c>
+      <c r="AM9">
+        <v>1221</v>
+      </c>
+      <c r="AN9">
+        <v>1210</v>
+      </c>
+      <c r="AO9">
+        <v>1219</v>
+      </c>
+      <c r="AP9">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_93.xlsx
+++ b/mbrMoPvt_93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -139,31 +139,58 @@
     <t>m-2022-05</t>
   </si>
   <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -521,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -654,1026 +681,2104 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6454</v>
+        <v>7408</v>
       </c>
       <c r="C2">
-        <v>6499</v>
+        <v>7408</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7408</v>
       </c>
       <c r="E2">
-        <v>6585</v>
+        <v>7408</v>
       </c>
       <c r="F2">
-        <v>6636</v>
+        <v>7408</v>
       </c>
       <c r="G2">
-        <v>6684</v>
+        <v>7408</v>
       </c>
       <c r="H2">
-        <v>6730</v>
+        <v>7806</v>
       </c>
       <c r="I2">
-        <v>6776</v>
+        <v>7806</v>
       </c>
       <c r="J2">
-        <v>6818</v>
+        <v>7806</v>
       </c>
       <c r="K2">
-        <v>6850</v>
+        <v>7302</v>
       </c>
       <c r="L2">
-        <v>6879</v>
+        <v>7302</v>
       </c>
       <c r="M2">
-        <v>6907</v>
+        <v>7302</v>
       </c>
       <c r="N2">
-        <v>6936</v>
+        <v>7418</v>
       </c>
       <c r="O2">
-        <v>6962</v>
+        <v>7418</v>
       </c>
       <c r="P2">
-        <v>6983</v>
+        <v>7418</v>
       </c>
       <c r="Q2">
-        <v>7001</v>
+        <v>6967</v>
       </c>
       <c r="R2">
-        <v>7022</v>
+        <v>6967</v>
       </c>
       <c r="S2">
-        <v>7032</v>
+        <v>6967</v>
       </c>
       <c r="T2">
-        <v>7039</v>
+        <v>6911</v>
       </c>
       <c r="U2">
-        <v>7042</v>
+        <v>6911</v>
       </c>
       <c r="V2">
-        <v>7044</v>
+        <v>6911</v>
       </c>
       <c r="W2">
-        <v>7045</v>
+        <v>6885</v>
       </c>
       <c r="X2">
-        <v>7047</v>
+        <v>6885</v>
       </c>
       <c r="Y2">
-        <v>7050</v>
+        <v>6885</v>
       </c>
       <c r="Z2">
-        <v>7052</v>
+        <v>7093</v>
       </c>
       <c r="AA2">
-        <v>7054</v>
+        <v>7093</v>
       </c>
       <c r="AB2">
-        <v>7056</v>
+        <v>7093</v>
       </c>
       <c r="AC2">
-        <v>7056</v>
+        <v>6977</v>
       </c>
       <c r="AD2">
-        <v>7025</v>
+        <v>6977</v>
       </c>
       <c r="AE2">
-        <v>6992</v>
+        <v>6977</v>
       </c>
       <c r="AF2">
-        <v>6941</v>
+        <v>6859</v>
       </c>
       <c r="AG2">
-        <v>6906</v>
+        <v>6859</v>
       </c>
       <c r="AH2">
-        <v>6870</v>
+        <v>6859</v>
       </c>
       <c r="AI2">
-        <v>6845</v>
+        <v>6810</v>
       </c>
       <c r="AJ2">
-        <v>6820</v>
+        <v>6810</v>
       </c>
       <c r="AK2">
-        <v>6796</v>
+        <v>6810</v>
       </c>
       <c r="AL2">
-        <v>17536</v>
+        <v>6411</v>
       </c>
       <c r="AM2">
-        <v>17416</v>
+        <v>6411</v>
       </c>
       <c r="AN2">
-        <v>17307</v>
+        <v>6411</v>
       </c>
       <c r="AO2">
-        <v>17202</v>
+        <v>6411</v>
       </c>
       <c r="AP2">
-        <v>17133</v>
+        <v>6411</v>
+      </c>
+      <c r="AQ2">
+        <v>6411</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>907</v>
+        <v>90218</v>
       </c>
       <c r="C3">
-        <v>912</v>
+        <v>90218</v>
       </c>
       <c r="D3">
-        <v>919</v>
+        <v>90116</v>
       </c>
       <c r="E3">
-        <v>924</v>
+        <v>91473</v>
       </c>
       <c r="F3">
-        <v>929</v>
+        <v>91473</v>
       </c>
       <c r="G3">
-        <v>939</v>
+        <v>91345</v>
       </c>
       <c r="H3">
-        <v>948</v>
+        <v>91864</v>
       </c>
       <c r="I3">
-        <v>964</v>
+        <v>91864</v>
       </c>
       <c r="J3">
-        <v>968</v>
+        <v>91768</v>
       </c>
       <c r="K3">
-        <v>973</v>
+        <v>92671</v>
       </c>
       <c r="L3">
-        <v>977</v>
+        <v>92671</v>
       </c>
       <c r="M3">
-        <v>990</v>
+        <v>92463</v>
       </c>
       <c r="N3">
-        <v>999</v>
+        <v>76180</v>
       </c>
       <c r="O3">
-        <v>1008</v>
+        <v>76180</v>
       </c>
       <c r="P3">
-        <v>1019</v>
+        <v>76116</v>
       </c>
       <c r="Q3">
-        <v>1024</v>
+        <v>74409</v>
       </c>
       <c r="R3">
-        <v>1030</v>
+        <v>74409</v>
       </c>
       <c r="S3">
-        <v>1038</v>
+        <v>74361</v>
       </c>
       <c r="T3">
-        <v>1040</v>
+        <v>74631</v>
       </c>
       <c r="U3">
-        <v>1052</v>
+        <v>74631</v>
       </c>
       <c r="V3">
-        <v>1058</v>
+        <v>74584</v>
       </c>
       <c r="W3">
-        <v>1062</v>
+        <v>75143</v>
       </c>
       <c r="X3">
-        <v>1066</v>
+        <v>75143</v>
       </c>
       <c r="Y3">
-        <v>1074</v>
+        <v>75048</v>
       </c>
       <c r="Z3">
-        <v>1081</v>
+        <v>71528</v>
       </c>
       <c r="AA3">
-        <v>1089</v>
+        <v>71528</v>
       </c>
       <c r="AB3">
-        <v>1099</v>
+        <v>71433</v>
       </c>
       <c r="AC3">
-        <v>1104</v>
+        <v>72518</v>
       </c>
       <c r="AD3">
-        <v>1109</v>
+        <v>72518</v>
       </c>
       <c r="AE3">
-        <v>1110</v>
+        <v>72456</v>
       </c>
       <c r="AF3">
-        <v>1111</v>
+        <v>71983</v>
       </c>
       <c r="AG3">
-        <v>1113</v>
+        <v>71983</v>
       </c>
       <c r="AH3">
-        <v>1114</v>
+        <v>71918</v>
       </c>
       <c r="AI3">
-        <v>1114</v>
+        <v>73519</v>
       </c>
       <c r="AJ3">
-        <v>1114</v>
+        <v>73519</v>
       </c>
       <c r="AK3">
-        <v>1114</v>
+        <v>73382</v>
       </c>
       <c r="AL3">
-        <v>1114</v>
+        <v>77784</v>
       </c>
       <c r="AM3">
-        <v>1101</v>
+        <v>77784</v>
       </c>
       <c r="AN3">
-        <v>1089</v>
+        <v>76967</v>
       </c>
       <c r="AO3">
-        <v>1321</v>
+        <v>76864</v>
       </c>
       <c r="AP3">
-        <v>1310</v>
+        <v>77013</v>
+      </c>
+      <c r="AQ3">
+        <v>77019</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>35292</v>
+        <v>41056</v>
       </c>
       <c r="C4">
-        <v>35512</v>
+        <v>41056</v>
       </c>
       <c r="D4">
-        <v>35699</v>
+        <v>40977</v>
       </c>
       <c r="E4">
-        <v>35865</v>
+        <v>41810</v>
       </c>
       <c r="F4">
-        <v>36072</v>
+        <v>41810</v>
       </c>
       <c r="G4">
-        <v>36244</v>
+        <v>41757</v>
       </c>
       <c r="H4">
-        <v>36438</v>
+        <v>41903</v>
       </c>
       <c r="I4">
-        <v>36736</v>
+        <v>41903</v>
       </c>
       <c r="J4">
-        <v>36950</v>
+        <v>41869</v>
       </c>
       <c r="K4">
-        <v>37155</v>
+        <v>41852</v>
       </c>
       <c r="L4">
-        <v>37381</v>
+        <v>41852</v>
       </c>
       <c r="M4">
-        <v>37572</v>
+        <v>41764</v>
       </c>
       <c r="N4">
-        <v>37743</v>
+        <v>52918</v>
       </c>
       <c r="O4">
-        <v>37973</v>
+        <v>52918</v>
       </c>
       <c r="P4">
-        <v>38168</v>
+        <v>52866</v>
       </c>
       <c r="Q4">
-        <v>38346</v>
+        <v>52421</v>
       </c>
       <c r="R4">
-        <v>38513</v>
+        <v>52421</v>
       </c>
       <c r="S4">
-        <v>38658</v>
+        <v>52368</v>
       </c>
       <c r="T4">
-        <v>38853</v>
+        <v>52120</v>
       </c>
       <c r="U4">
-        <v>39124</v>
+        <v>52120</v>
       </c>
       <c r="V4">
-        <v>39330</v>
+        <v>52077</v>
       </c>
       <c r="W4">
-        <v>39513</v>
+        <v>51739</v>
       </c>
       <c r="X4">
-        <v>39701</v>
+        <v>51739</v>
       </c>
       <c r="Y4">
-        <v>39866</v>
+        <v>51558</v>
       </c>
       <c r="Z4">
-        <v>39989</v>
+        <v>43542</v>
       </c>
       <c r="AA4">
-        <v>40157</v>
+        <v>43542</v>
       </c>
       <c r="AB4">
-        <v>40277</v>
+        <v>43463</v>
       </c>
       <c r="AC4">
-        <v>40390</v>
+        <v>44292</v>
       </c>
       <c r="AD4">
-        <v>40479</v>
+        <v>44292</v>
       </c>
       <c r="AE4">
-        <v>40553</v>
+        <v>44242</v>
       </c>
       <c r="AF4">
-        <v>40592</v>
+        <v>44711</v>
       </c>
       <c r="AG4">
-        <v>40604</v>
+        <v>44711</v>
       </c>
       <c r="AH4">
-        <v>40607</v>
+        <v>44650</v>
       </c>
       <c r="AI4">
-        <v>40609</v>
+        <v>44454</v>
       </c>
       <c r="AJ4">
-        <v>40615</v>
+        <v>44454</v>
       </c>
       <c r="AK4">
-        <v>40619</v>
+        <v>44336</v>
       </c>
       <c r="AL4">
-        <v>40622</v>
+        <v>39845</v>
       </c>
       <c r="AM4">
-        <v>40254</v>
+        <v>39845</v>
       </c>
       <c r="AN4">
-        <v>39902</v>
+        <v>39403</v>
       </c>
       <c r="AO4">
-        <v>39728</v>
+        <v>39452</v>
       </c>
       <c r="AP4">
-        <v>39529</v>
+        <v>39525</v>
+      </c>
+      <c r="AQ4">
+        <v>39525</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>2942</v>
+        <v>60255</v>
       </c>
       <c r="C5">
-        <v>2985</v>
+        <v>60255</v>
       </c>
       <c r="D5">
-        <v>3000</v>
+        <v>60255</v>
       </c>
       <c r="E5">
-        <v>3028</v>
+        <v>59976</v>
       </c>
       <c r="F5">
-        <v>3057</v>
+        <v>59976</v>
       </c>
       <c r="G5">
-        <v>3079</v>
+        <v>59976</v>
       </c>
       <c r="H5">
-        <v>3106</v>
+        <v>59708</v>
       </c>
       <c r="I5">
-        <v>3144</v>
+        <v>59708</v>
       </c>
       <c r="J5">
-        <v>3175</v>
+        <v>59708</v>
       </c>
       <c r="K5">
-        <v>3196</v>
+        <v>59562</v>
       </c>
       <c r="L5">
-        <v>3221</v>
+        <v>59562</v>
       </c>
       <c r="M5">
-        <v>3239</v>
+        <v>59562</v>
       </c>
       <c r="N5">
-        <v>3265</v>
+        <v>63377</v>
       </c>
       <c r="O5">
-        <v>3291</v>
+        <v>63377</v>
       </c>
       <c r="P5">
-        <v>3304</v>
+        <v>63377</v>
       </c>
       <c r="Q5">
-        <v>3346</v>
+        <v>60093</v>
       </c>
       <c r="R5">
-        <v>3368</v>
+        <v>60093</v>
       </c>
       <c r="S5">
-        <v>3393</v>
+        <v>60093</v>
       </c>
       <c r="T5">
-        <v>3418</v>
+        <v>59822</v>
       </c>
       <c r="U5">
-        <v>3454</v>
+        <v>59822</v>
       </c>
       <c r="V5">
-        <v>3466</v>
+        <v>59822</v>
       </c>
       <c r="W5">
-        <v>3490</v>
+        <v>59676</v>
       </c>
       <c r="X5">
-        <v>3504</v>
+        <v>59676</v>
       </c>
       <c r="Y5">
-        <v>3524</v>
+        <v>59675</v>
       </c>
       <c r="Z5">
-        <v>3537</v>
+        <v>45677</v>
       </c>
       <c r="AA5">
-        <v>3555</v>
+        <v>45677</v>
       </c>
       <c r="AB5">
-        <v>3567</v>
+        <v>45677</v>
       </c>
       <c r="AC5">
-        <v>3583</v>
+        <v>45368</v>
       </c>
       <c r="AD5">
-        <v>3602</v>
+        <v>45368</v>
       </c>
       <c r="AE5">
-        <v>3631</v>
+        <v>45368</v>
       </c>
       <c r="AF5">
-        <v>3642</v>
+        <v>45143</v>
       </c>
       <c r="AG5">
-        <v>3652</v>
+        <v>45143</v>
       </c>
       <c r="AH5">
-        <v>3659</v>
+        <v>45143</v>
       </c>
       <c r="AI5">
-        <v>3660</v>
+        <v>45020</v>
       </c>
       <c r="AJ5">
-        <v>3660</v>
+        <v>45020</v>
       </c>
       <c r="AK5">
-        <v>3661</v>
+        <v>45020</v>
       </c>
       <c r="AL5">
-        <v>3661</v>
+        <v>43806</v>
       </c>
       <c r="AM5">
-        <v>3593</v>
+        <v>43809</v>
       </c>
       <c r="AN5">
-        <v>3530</v>
+        <v>43810</v>
       </c>
       <c r="AO5">
-        <v>3473</v>
+        <v>43813</v>
       </c>
       <c r="AP5">
-        <v>3438</v>
+        <v>43813</v>
+      </c>
+      <c r="AQ5">
+        <v>43813</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>3510</v>
+        <v>17627</v>
       </c>
       <c r="C6">
-        <v>3543</v>
+        <v>17627</v>
       </c>
       <c r="D6">
-        <v>3562</v>
+        <v>17575</v>
       </c>
       <c r="E6">
-        <v>3583</v>
+        <v>17589</v>
       </c>
       <c r="F6">
-        <v>3604</v>
+        <v>17589</v>
       </c>
       <c r="G6">
-        <v>3620</v>
+        <v>17551</v>
       </c>
       <c r="H6">
-        <v>3645</v>
+        <v>14685</v>
       </c>
       <c r="I6">
-        <v>3675</v>
+        <v>14685</v>
       </c>
       <c r="J6">
-        <v>3687</v>
+        <v>14685</v>
       </c>
       <c r="K6">
-        <v>3711</v>
+        <v>14641</v>
       </c>
       <c r="L6">
-        <v>3731</v>
+        <v>14641</v>
       </c>
       <c r="M6">
-        <v>3747</v>
+        <v>14641</v>
       </c>
       <c r="N6">
-        <v>3775</v>
+        <v>17033</v>
       </c>
       <c r="O6">
-        <v>3799</v>
+        <v>17033</v>
       </c>
       <c r="P6">
-        <v>3810</v>
+        <v>17033</v>
       </c>
       <c r="Q6">
-        <v>3829</v>
+        <v>15854</v>
       </c>
       <c r="R6">
-        <v>3853</v>
+        <v>15854</v>
       </c>
       <c r="S6">
-        <v>3867</v>
+        <v>15854</v>
       </c>
       <c r="T6">
-        <v>3883</v>
+        <v>15729</v>
       </c>
       <c r="U6">
-        <v>3903</v>
+        <v>15729</v>
       </c>
       <c r="V6">
-        <v>3920</v>
+        <v>15729</v>
       </c>
       <c r="W6">
-        <v>3931</v>
+        <v>15663</v>
       </c>
       <c r="X6">
-        <v>3945</v>
+        <v>15663</v>
       </c>
       <c r="Y6">
-        <v>3961</v>
+        <v>15663</v>
       </c>
       <c r="Z6">
-        <v>3978</v>
+        <v>14149</v>
       </c>
       <c r="AA6">
-        <v>3994</v>
+        <v>14149</v>
       </c>
       <c r="AB6">
-        <v>4008</v>
+        <v>14149</v>
       </c>
       <c r="AC6">
-        <v>4014</v>
+        <v>15790</v>
       </c>
       <c r="AD6">
-        <v>4019</v>
+        <v>15790</v>
       </c>
       <c r="AE6">
-        <v>4023</v>
+        <v>15790</v>
       </c>
       <c r="AF6">
-        <v>4025</v>
+        <v>15701</v>
       </c>
       <c r="AG6">
-        <v>4026</v>
+        <v>15701</v>
       </c>
       <c r="AH6">
-        <v>4027</v>
+        <v>15701</v>
       </c>
       <c r="AI6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AJ6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AK6">
-        <v>4027</v>
+        <v>13785</v>
       </c>
       <c r="AL6">
-        <v>4027</v>
+        <v>14915</v>
       </c>
       <c r="AM6">
-        <v>3979</v>
+        <v>14915</v>
       </c>
       <c r="AN6">
-        <v>3957</v>
+        <v>14915</v>
       </c>
       <c r="AO6">
-        <v>3931</v>
+        <v>14917</v>
+      </c>
+      <c r="AP6">
+        <v>14917</v>
+      </c>
+      <c r="AQ6">
+        <v>14917</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>2800</v>
+        <v>58155</v>
       </c>
       <c r="C7">
-        <v>2815</v>
+        <v>58159</v>
       </c>
       <c r="D7">
-        <v>2829</v>
+        <v>58159</v>
       </c>
       <c r="E7">
-        <v>2843</v>
+        <v>54793</v>
       </c>
       <c r="F7">
-        <v>2856</v>
+        <v>54793</v>
       </c>
       <c r="G7">
-        <v>2868</v>
+        <v>54793</v>
       </c>
       <c r="H7">
-        <v>2894</v>
+        <v>54608</v>
       </c>
       <c r="I7">
-        <v>2909</v>
+        <v>54608</v>
       </c>
       <c r="J7">
-        <v>2924</v>
+        <v>54608</v>
       </c>
       <c r="K7">
-        <v>2933</v>
+        <v>59071</v>
       </c>
       <c r="L7">
-        <v>2946</v>
+        <v>59071</v>
       </c>
       <c r="M7">
-        <v>2968</v>
+        <v>59073</v>
       </c>
       <c r="N7">
-        <v>2987</v>
+        <v>61265</v>
       </c>
       <c r="O7">
-        <v>3002</v>
+        <v>61265</v>
       </c>
       <c r="P7">
-        <v>3009</v>
+        <v>61265</v>
       </c>
       <c r="Q7">
-        <v>3022</v>
+        <v>58421</v>
       </c>
       <c r="R7">
-        <v>3025</v>
+        <v>58421</v>
       </c>
       <c r="S7">
-        <v>3031</v>
+        <v>58421</v>
       </c>
       <c r="T7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="U7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="V7">
-        <v>3037</v>
+        <v>58240</v>
       </c>
       <c r="W7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="X7">
-        <v>3038</v>
+        <v>58155</v>
       </c>
       <c r="Y7">
-        <v>3039</v>
+        <v>58154</v>
       </c>
       <c r="Z7">
-        <v>3040</v>
+        <v>66829</v>
       </c>
       <c r="AA7">
-        <v>3040</v>
+        <v>66887</v>
       </c>
       <c r="AB7">
-        <v>3040</v>
+        <v>66951</v>
       </c>
       <c r="AC7">
-        <v>3040</v>
+        <v>68283</v>
       </c>
       <c r="AD7">
-        <v>3018</v>
+        <v>68283</v>
       </c>
       <c r="AE7">
-        <v>2987</v>
+        <v>68244</v>
       </c>
       <c r="AF7">
-        <v>3012</v>
+        <v>67699</v>
       </c>
       <c r="AG7">
-        <v>2988</v>
+        <v>67699</v>
       </c>
       <c r="AH7">
-        <v>2950</v>
+        <v>67666</v>
       </c>
       <c r="AI7">
-        <v>4224</v>
+        <v>67225</v>
       </c>
       <c r="AJ7">
-        <v>4194</v>
+        <v>67225</v>
       </c>
       <c r="AK7">
-        <v>4179</v>
+        <v>67014</v>
       </c>
       <c r="AL7">
-        <v>20643</v>
+        <v>59808</v>
       </c>
       <c r="AM7">
-        <v>20477</v>
+        <v>59808</v>
       </c>
       <c r="AN7">
-        <v>20379</v>
+        <v>59019</v>
       </c>
       <c r="AO7">
-        <v>20555</v>
+        <v>58727</v>
       </c>
       <c r="AP7">
-        <v>20480</v>
+        <v>58872</v>
+      </c>
+      <c r="AQ7">
+        <v>58874</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>42610</v>
+        <v>15601</v>
       </c>
       <c r="C8">
-        <v>42931</v>
+        <v>15601</v>
       </c>
       <c r="D8">
-        <v>43155</v>
+        <v>15578</v>
       </c>
       <c r="E8">
-        <v>43373</v>
+        <v>15615</v>
       </c>
       <c r="F8">
-        <v>43580</v>
+        <v>15615</v>
       </c>
       <c r="G8">
-        <v>43812</v>
+        <v>15594</v>
       </c>
       <c r="H8">
-        <v>44044</v>
+        <v>15582</v>
       </c>
       <c r="I8">
-        <v>44417</v>
+        <v>15582</v>
       </c>
       <c r="J8">
-        <v>44643</v>
+        <v>15572</v>
       </c>
       <c r="K8">
-        <v>44935</v>
+        <v>15422</v>
       </c>
       <c r="L8">
-        <v>45198</v>
+        <v>15422</v>
       </c>
       <c r="M8">
-        <v>45413</v>
+        <v>15388</v>
       </c>
       <c r="N8">
-        <v>45645</v>
+        <v>16778</v>
       </c>
       <c r="O8">
-        <v>45942</v>
+        <v>16778</v>
       </c>
       <c r="P8">
-        <v>46178</v>
+        <v>16760</v>
       </c>
       <c r="Q8">
-        <v>46407</v>
+        <v>16186</v>
       </c>
       <c r="R8">
-        <v>46598</v>
+        <v>16186</v>
       </c>
       <c r="S8">
-        <v>46812</v>
+        <v>16177</v>
       </c>
       <c r="T8">
-        <v>47031</v>
+        <v>15678</v>
       </c>
       <c r="U8">
-        <v>47309</v>
+        <v>15678</v>
       </c>
       <c r="V8">
-        <v>47505</v>
+        <v>15670</v>
       </c>
       <c r="W8">
-        <v>47731</v>
+        <v>15139</v>
       </c>
       <c r="X8">
-        <v>47892</v>
+        <v>15139</v>
       </c>
       <c r="Y8">
-        <v>48034</v>
+        <v>15121</v>
       </c>
       <c r="Z8">
-        <v>48199</v>
+        <v>15496</v>
       </c>
       <c r="AA8">
-        <v>48388</v>
+        <v>15496</v>
       </c>
       <c r="AB8">
-        <v>48517</v>
+        <v>15480</v>
       </c>
       <c r="AC8">
-        <v>48645</v>
+        <v>15223</v>
       </c>
       <c r="AD8">
-        <v>48753</v>
+        <v>15223</v>
       </c>
       <c r="AE8">
-        <v>48842</v>
+        <v>15212</v>
       </c>
       <c r="AF8">
-        <v>48884</v>
+        <v>14500</v>
       </c>
       <c r="AG8">
-        <v>48892</v>
+        <v>14500</v>
       </c>
       <c r="AH8">
-        <v>48892</v>
+        <v>14486</v>
       </c>
       <c r="AI8">
-        <v>48895</v>
+        <v>13650</v>
       </c>
       <c r="AJ8">
-        <v>48900</v>
+        <v>13650</v>
       </c>
       <c r="AK8">
-        <v>48903</v>
+        <v>13580</v>
       </c>
       <c r="AL8">
-        <v>48905</v>
+        <v>20570</v>
       </c>
       <c r="AM8">
-        <v>48557</v>
+        <v>20570</v>
       </c>
       <c r="AN8">
-        <v>48232</v>
+        <v>20188</v>
       </c>
       <c r="AO8">
-        <v>47830</v>
+        <v>20420</v>
       </c>
       <c r="AP8">
-        <v>47622</v>
+        <v>20502</v>
+      </c>
+      <c r="AQ8">
+        <v>20504</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1060</v>
+        <v>8018</v>
       </c>
       <c r="C9">
-        <v>1068</v>
+        <v>8018</v>
       </c>
       <c r="D9">
-        <v>1076</v>
+        <v>8004</v>
       </c>
       <c r="E9">
-        <v>1079</v>
+        <v>6718</v>
       </c>
       <c r="F9">
-        <v>1084</v>
+        <v>6718</v>
       </c>
       <c r="G9">
-        <v>1092</v>
+        <v>6694</v>
       </c>
       <c r="H9">
-        <v>1096</v>
+        <v>47572</v>
       </c>
       <c r="I9">
-        <v>1105</v>
+        <v>47572</v>
       </c>
       <c r="J9">
-        <v>1108</v>
+        <v>47572</v>
       </c>
       <c r="K9">
-        <v>1115</v>
+        <v>47435</v>
       </c>
       <c r="L9">
-        <v>1120</v>
+        <v>47435</v>
       </c>
       <c r="M9">
-        <v>1129</v>
+        <v>47435</v>
       </c>
       <c r="N9">
-        <v>1136</v>
+        <v>51380</v>
       </c>
       <c r="O9">
-        <v>1146</v>
+        <v>51380</v>
       </c>
       <c r="P9">
-        <v>1153</v>
+        <v>51380</v>
       </c>
       <c r="Q9">
-        <v>1157</v>
+        <v>49666</v>
       </c>
       <c r="R9">
-        <v>1163</v>
+        <v>49666</v>
       </c>
       <c r="S9">
-        <v>1168</v>
+        <v>49665</v>
       </c>
       <c r="T9">
-        <v>1172</v>
+        <v>49441</v>
       </c>
       <c r="U9">
-        <v>1179</v>
+        <v>49441</v>
       </c>
       <c r="V9">
-        <v>1185</v>
+        <v>49441</v>
       </c>
       <c r="W9">
-        <v>1191</v>
+        <v>49290</v>
       </c>
       <c r="X9">
-        <v>1196</v>
+        <v>49290</v>
       </c>
       <c r="Y9">
-        <v>1201</v>
+        <v>49289</v>
       </c>
       <c r="Z9">
-        <v>1209</v>
+        <v>47528</v>
       </c>
       <c r="AA9">
-        <v>1215</v>
+        <v>47528</v>
       </c>
       <c r="AB9">
-        <v>1221</v>
+        <v>47528</v>
       </c>
       <c r="AC9">
-        <v>1223</v>
+        <v>47229</v>
       </c>
       <c r="AD9">
-        <v>1226</v>
+        <v>47229</v>
       </c>
       <c r="AE9">
-        <v>1227</v>
+        <v>47229</v>
       </c>
       <c r="AF9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AG9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AH9">
-        <v>1229</v>
+        <v>46976</v>
       </c>
       <c r="AI9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AJ9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AK9">
-        <v>1229</v>
+        <v>46799</v>
       </c>
       <c r="AL9">
-        <v>1229</v>
+        <v>43610</v>
       </c>
       <c r="AM9">
-        <v>1221</v>
+        <v>43614</v>
       </c>
       <c r="AN9">
-        <v>1210</v>
+        <v>43616</v>
       </c>
       <c r="AO9">
-        <v>1219</v>
+        <v>43621</v>
       </c>
       <c r="AP9">
-        <v>1212</v>
+        <v>43621</v>
+      </c>
+      <c r="AQ9">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>8089</v>
+      </c>
+      <c r="C10">
+        <v>8089</v>
+      </c>
+      <c r="D10">
+        <v>8077</v>
+      </c>
+      <c r="E10">
+        <v>7973</v>
+      </c>
+      <c r="F10">
+        <v>7973</v>
+      </c>
+      <c r="G10">
+        <v>7965</v>
+      </c>
+      <c r="H10">
+        <v>7708</v>
+      </c>
+      <c r="I10">
+        <v>7708</v>
+      </c>
+      <c r="J10">
+        <v>7701</v>
+      </c>
+      <c r="K10">
+        <v>7743</v>
+      </c>
+      <c r="L10">
+        <v>7743</v>
+      </c>
+      <c r="M10">
+        <v>7731</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="O10">
+        <v>7897</v>
+      </c>
+      <c r="P10">
+        <v>7887</v>
+      </c>
+      <c r="Q10">
+        <v>7719</v>
+      </c>
+      <c r="R10">
+        <v>7719</v>
+      </c>
+      <c r="S10">
+        <v>7717</v>
+      </c>
+      <c r="T10">
+        <v>7572</v>
+      </c>
+      <c r="U10">
+        <v>7572</v>
+      </c>
+      <c r="V10">
+        <v>7564</v>
+      </c>
+      <c r="W10">
+        <v>7388</v>
+      </c>
+      <c r="X10">
+        <v>7388</v>
+      </c>
+      <c r="Y10">
+        <v>7371</v>
+      </c>
+      <c r="Z10">
+        <v>7453</v>
+      </c>
+      <c r="AA10">
+        <v>7453</v>
+      </c>
+      <c r="AB10">
+        <v>7437</v>
+      </c>
+      <c r="AC10">
+        <v>7360</v>
+      </c>
+      <c r="AD10">
+        <v>7360</v>
+      </c>
+      <c r="AE10">
+        <v>7353</v>
+      </c>
+      <c r="AF10">
+        <v>7308</v>
+      </c>
+      <c r="AG10">
+        <v>7308</v>
+      </c>
+      <c r="AH10">
+        <v>7302</v>
+      </c>
+      <c r="AI10">
+        <v>7203</v>
+      </c>
+      <c r="AJ10">
+        <v>7203</v>
+      </c>
+      <c r="AK10">
+        <v>7189</v>
+      </c>
+      <c r="AL10">
+        <v>10287</v>
+      </c>
+      <c r="AM10">
+        <v>10287</v>
+      </c>
+      <c r="AN10">
+        <v>10126</v>
+      </c>
+      <c r="AO10">
+        <v>10210</v>
+      </c>
+      <c r="AP10">
+        <v>10235</v>
+      </c>
+      <c r="AQ10">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>22191</v>
+      </c>
+      <c r="C11">
+        <v>22191</v>
+      </c>
+      <c r="D11">
+        <v>22191</v>
+      </c>
+      <c r="E11">
+        <v>22052</v>
+      </c>
+      <c r="F11">
+        <v>22052</v>
+      </c>
+      <c r="G11">
+        <v>22052</v>
+      </c>
+      <c r="H11">
+        <v>21920</v>
+      </c>
+      <c r="I11">
+        <v>21920</v>
+      </c>
+      <c r="J11">
+        <v>21920</v>
+      </c>
+      <c r="K11">
+        <v>21856</v>
+      </c>
+      <c r="L11">
+        <v>21856</v>
+      </c>
+      <c r="M11">
+        <v>21856</v>
+      </c>
+      <c r="N11">
+        <v>23146</v>
+      </c>
+      <c r="O11">
+        <v>23146</v>
+      </c>
+      <c r="P11">
+        <v>23146</v>
+      </c>
+      <c r="Q11">
+        <v>21867</v>
+      </c>
+      <c r="R11">
+        <v>21867</v>
+      </c>
+      <c r="S11">
+        <v>21867</v>
+      </c>
+      <c r="T11">
+        <v>21742</v>
+      </c>
+      <c r="U11">
+        <v>21742</v>
+      </c>
+      <c r="V11">
+        <v>21742</v>
+      </c>
+      <c r="W11">
+        <v>21672</v>
+      </c>
+      <c r="X11">
+        <v>21672</v>
+      </c>
+      <c r="Y11">
+        <v>21672</v>
+      </c>
+      <c r="Z11">
+        <v>18703</v>
+      </c>
+      <c r="AA11">
+        <v>18703</v>
+      </c>
+      <c r="AB11">
+        <v>18703</v>
+      </c>
+      <c r="AC11">
+        <v>18594</v>
+      </c>
+      <c r="AD11">
+        <v>18594</v>
+      </c>
+      <c r="AE11">
+        <v>18594</v>
+      </c>
+      <c r="AF11">
+        <v>18509</v>
+      </c>
+      <c r="AG11">
+        <v>18509</v>
+      </c>
+      <c r="AH11">
+        <v>18509</v>
+      </c>
+      <c r="AI11">
+        <v>18463</v>
+      </c>
+      <c r="AJ11">
+        <v>18463</v>
+      </c>
+      <c r="AK11">
+        <v>18463</v>
+      </c>
+      <c r="AL11">
+        <v>19466</v>
+      </c>
+      <c r="AM11">
+        <v>19466</v>
+      </c>
+      <c r="AN11">
+        <v>19257</v>
+      </c>
+      <c r="AO11">
+        <v>19331</v>
+      </c>
+      <c r="AP11">
+        <v>19358</v>
+      </c>
+      <c r="AQ11">
+        <v>19358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>7836</v>
+      </c>
+      <c r="C12">
+        <v>7836</v>
+      </c>
+      <c r="D12">
+        <v>7813</v>
+      </c>
+      <c r="E12">
+        <v>7282</v>
+      </c>
+      <c r="F12">
+        <v>7282</v>
+      </c>
+      <c r="G12">
+        <v>7267</v>
+      </c>
+      <c r="H12">
+        <v>7282</v>
+      </c>
+      <c r="I12">
+        <v>7282</v>
+      </c>
+      <c r="J12">
+        <v>7261</v>
+      </c>
+      <c r="K12">
+        <v>7225</v>
+      </c>
+      <c r="L12">
+        <v>7225</v>
+      </c>
+      <c r="M12">
+        <v>7205</v>
+      </c>
+      <c r="N12">
+        <v>7162</v>
+      </c>
+      <c r="O12">
+        <v>7162</v>
+      </c>
+      <c r="P12">
+        <v>7147</v>
+      </c>
+      <c r="Q12">
+        <v>6987</v>
+      </c>
+      <c r="R12">
+        <v>6987</v>
+      </c>
+      <c r="S12">
+        <v>6977</v>
+      </c>
+      <c r="T12">
+        <v>6839</v>
+      </c>
+      <c r="U12">
+        <v>6839</v>
+      </c>
+      <c r="V12">
+        <v>6823</v>
+      </c>
+      <c r="W12">
+        <v>6611</v>
+      </c>
+      <c r="X12">
+        <v>6611</v>
+      </c>
+      <c r="Y12">
+        <v>6601</v>
+      </c>
+      <c r="Z12">
+        <v>7275</v>
+      </c>
+      <c r="AA12">
+        <v>7275</v>
+      </c>
+      <c r="AB12">
+        <v>7259</v>
+      </c>
+      <c r="AC12">
+        <v>7395</v>
+      </c>
+      <c r="AD12">
+        <v>7395</v>
+      </c>
+      <c r="AE12">
+        <v>7383</v>
+      </c>
+      <c r="AF12">
+        <v>7336</v>
+      </c>
+      <c r="AG12">
+        <v>7336</v>
+      </c>
+      <c r="AH12">
+        <v>7324</v>
+      </c>
+      <c r="AI12">
+        <v>7332</v>
+      </c>
+      <c r="AJ12">
+        <v>7332</v>
+      </c>
+      <c r="AK12">
+        <v>7299</v>
+      </c>
+      <c r="AL12">
+        <v>6381</v>
+      </c>
+      <c r="AM12">
+        <v>6381</v>
+      </c>
+      <c r="AN12">
+        <v>6309</v>
+      </c>
+      <c r="AO12">
+        <v>6271</v>
+      </c>
+      <c r="AP12">
+        <v>6286</v>
+      </c>
+      <c r="AQ12">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10320</v>
+      </c>
+      <c r="C13">
+        <v>10320</v>
+      </c>
+      <c r="D13">
+        <v>10308</v>
+      </c>
+      <c r="E13">
+        <v>10226</v>
+      </c>
+      <c r="F13">
+        <v>10226</v>
+      </c>
+      <c r="G13">
+        <v>10214</v>
+      </c>
+      <c r="H13">
+        <v>10254</v>
+      </c>
+      <c r="I13">
+        <v>10254</v>
+      </c>
+      <c r="J13">
+        <v>10248</v>
+      </c>
+      <c r="K13">
+        <v>10152</v>
+      </c>
+      <c r="L13">
+        <v>10152</v>
+      </c>
+      <c r="M13">
+        <v>10127</v>
+      </c>
+      <c r="N13">
+        <v>10318</v>
+      </c>
+      <c r="O13">
+        <v>10318</v>
+      </c>
+      <c r="P13">
+        <v>10311</v>
+      </c>
+      <c r="Q13">
+        <v>10100</v>
+      </c>
+      <c r="R13">
+        <v>10100</v>
+      </c>
+      <c r="S13">
+        <v>10095</v>
+      </c>
+      <c r="T13">
+        <v>9786</v>
+      </c>
+      <c r="U13">
+        <v>9786</v>
+      </c>
+      <c r="V13">
+        <v>9783</v>
+      </c>
+      <c r="W13">
+        <v>9372</v>
+      </c>
+      <c r="X13">
+        <v>9372</v>
+      </c>
+      <c r="Y13">
+        <v>9357</v>
+      </c>
+      <c r="Z13">
+        <v>8774</v>
+      </c>
+      <c r="AA13">
+        <v>8774</v>
+      </c>
+      <c r="AB13">
+        <v>8764</v>
+      </c>
+      <c r="AC13">
+        <v>8746</v>
+      </c>
+      <c r="AD13">
+        <v>8746</v>
+      </c>
+      <c r="AE13">
+        <v>8742</v>
+      </c>
+      <c r="AF13">
+        <v>8598</v>
+      </c>
+      <c r="AG13">
+        <v>8598</v>
+      </c>
+      <c r="AH13">
+        <v>8590</v>
+      </c>
+      <c r="AI13">
+        <v>8709</v>
+      </c>
+      <c r="AJ13">
+        <v>8709</v>
+      </c>
+      <c r="AK13">
+        <v>8688</v>
+      </c>
+      <c r="AL13">
+        <v>10649</v>
+      </c>
+      <c r="AM13">
+        <v>10649</v>
+      </c>
+      <c r="AN13">
+        <v>10503</v>
+      </c>
+      <c r="AO13">
+        <v>10598</v>
+      </c>
+      <c r="AP13">
+        <v>10611</v>
+      </c>
+      <c r="AQ13">
+        <v>10611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>31321</v>
+      </c>
+      <c r="C14">
+        <v>31321</v>
+      </c>
+      <c r="D14">
+        <v>31274</v>
+      </c>
+      <c r="E14">
+        <v>31241</v>
+      </c>
+      <c r="F14">
+        <v>31241</v>
+      </c>
+      <c r="G14">
+        <v>31205</v>
+      </c>
+      <c r="H14">
+        <v>30695</v>
+      </c>
+      <c r="I14">
+        <v>30695</v>
+      </c>
+      <c r="J14">
+        <v>30661</v>
+      </c>
+      <c r="K14">
+        <v>30806</v>
+      </c>
+      <c r="L14">
+        <v>30806</v>
+      </c>
+      <c r="M14">
+        <v>30747</v>
+      </c>
+      <c r="N14">
+        <v>30792</v>
+      </c>
+      <c r="O14">
+        <v>30792</v>
+      </c>
+      <c r="P14">
+        <v>30766</v>
+      </c>
+      <c r="Q14">
+        <v>30056</v>
+      </c>
+      <c r="R14">
+        <v>30056</v>
+      </c>
+      <c r="S14">
+        <v>30011</v>
+      </c>
+      <c r="T14">
+        <v>29792</v>
+      </c>
+      <c r="U14">
+        <v>29792</v>
+      </c>
+      <c r="V14">
+        <v>29748</v>
+      </c>
+      <c r="W14">
+        <v>29808</v>
+      </c>
+      <c r="X14">
+        <v>29808</v>
+      </c>
+      <c r="Y14">
+        <v>29750</v>
+      </c>
+      <c r="Z14">
+        <v>30486</v>
+      </c>
+      <c r="AA14">
+        <v>30486</v>
+      </c>
+      <c r="AB14">
+        <v>30435</v>
+      </c>
+      <c r="AC14">
+        <v>30904</v>
+      </c>
+      <c r="AD14">
+        <v>30904</v>
+      </c>
+      <c r="AE14">
+        <v>30874</v>
+      </c>
+      <c r="AF14">
+        <v>30935</v>
+      </c>
+      <c r="AG14">
+        <v>30935</v>
+      </c>
+      <c r="AH14">
+        <v>30927</v>
+      </c>
+      <c r="AI14">
+        <v>31111</v>
+      </c>
+      <c r="AJ14">
+        <v>31111</v>
+      </c>
+      <c r="AK14">
+        <v>30792</v>
+      </c>
+      <c r="AL14">
+        <v>33305</v>
+      </c>
+      <c r="AM14">
+        <v>33305</v>
+      </c>
+      <c r="AN14">
+        <v>33300</v>
+      </c>
+      <c r="AO14">
+        <v>33012</v>
+      </c>
+      <c r="AP14">
+        <v>33013</v>
+      </c>
+      <c r="AQ14">
+        <v>33013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>9052</v>
+      </c>
+      <c r="C15">
+        <v>9052</v>
+      </c>
+      <c r="D15">
+        <v>9052</v>
+      </c>
+      <c r="E15">
+        <v>9052</v>
+      </c>
+      <c r="F15">
+        <v>9052</v>
+      </c>
+      <c r="G15">
+        <v>8336</v>
+      </c>
+      <c r="H15">
+        <v>8934</v>
+      </c>
+      <c r="I15">
+        <v>8934</v>
+      </c>
+      <c r="J15">
+        <v>8930</v>
+      </c>
+      <c r="K15">
+        <v>8979</v>
+      </c>
+      <c r="L15">
+        <v>8979</v>
+      </c>
+      <c r="M15">
+        <v>8964</v>
+      </c>
+      <c r="N15">
+        <v>8764</v>
+      </c>
+      <c r="O15">
+        <v>8764</v>
+      </c>
+      <c r="P15">
+        <v>8751</v>
+      </c>
+      <c r="Q15">
+        <v>8705</v>
+      </c>
+      <c r="R15">
+        <v>8705</v>
+      </c>
+      <c r="S15">
+        <v>8704</v>
+      </c>
+      <c r="T15">
+        <v>8698</v>
+      </c>
+      <c r="U15">
+        <v>8698</v>
+      </c>
+      <c r="V15">
+        <v>8695</v>
+      </c>
+      <c r="W15">
+        <v>8585</v>
+      </c>
+      <c r="X15">
+        <v>8585</v>
+      </c>
+      <c r="Y15">
+        <v>8575</v>
+      </c>
+      <c r="Z15">
+        <v>8492</v>
+      </c>
+      <c r="AA15">
+        <v>8492</v>
+      </c>
+      <c r="AB15">
+        <v>8474</v>
+      </c>
+      <c r="AC15">
+        <v>8425</v>
+      </c>
+      <c r="AD15">
+        <v>8425</v>
+      </c>
+      <c r="AE15">
+        <v>8420</v>
+      </c>
+      <c r="AF15">
+        <v>8359</v>
+      </c>
+      <c r="AG15">
+        <v>8359</v>
+      </c>
+      <c r="AH15">
+        <v>8351</v>
+      </c>
+      <c r="AI15">
+        <v>8283</v>
+      </c>
+      <c r="AJ15">
+        <v>8283</v>
+      </c>
+      <c r="AK15">
+        <v>8269</v>
+      </c>
+      <c r="AL15">
+        <v>7918</v>
+      </c>
+      <c r="AM15">
+        <v>7918</v>
+      </c>
+      <c r="AN15">
+        <v>7861</v>
+      </c>
+      <c r="AO15">
+        <v>7879</v>
+      </c>
+      <c r="AP15">
+        <v>7895</v>
+      </c>
+      <c r="AQ15">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>18285</v>
+      </c>
+      <c r="C16">
+        <v>18285</v>
+      </c>
+      <c r="D16">
+        <v>18285</v>
+      </c>
+      <c r="E16">
+        <v>18285</v>
+      </c>
+      <c r="F16">
+        <v>18285</v>
+      </c>
+      <c r="G16">
+        <v>16479</v>
+      </c>
+      <c r="H16">
+        <v>18241</v>
+      </c>
+      <c r="I16">
+        <v>18241</v>
+      </c>
+      <c r="J16">
+        <v>18217</v>
+      </c>
+      <c r="K16">
+        <v>18431</v>
+      </c>
+      <c r="L16">
+        <v>18431</v>
+      </c>
+      <c r="M16">
+        <v>18376</v>
+      </c>
+      <c r="N16">
+        <v>18630</v>
+      </c>
+      <c r="O16">
+        <v>18630</v>
+      </c>
+      <c r="P16">
+        <v>18597</v>
+      </c>
+      <c r="Q16">
+        <v>18454</v>
+      </c>
+      <c r="R16">
+        <v>18454</v>
+      </c>
+      <c r="S16">
+        <v>18433</v>
+      </c>
+      <c r="T16">
+        <v>18186</v>
+      </c>
+      <c r="U16">
+        <v>18186</v>
+      </c>
+      <c r="V16">
+        <v>18174</v>
+      </c>
+      <c r="W16">
+        <v>17772</v>
+      </c>
+      <c r="X16">
+        <v>17772</v>
+      </c>
+      <c r="Y16">
+        <v>17711</v>
+      </c>
+      <c r="Z16">
+        <v>16176</v>
+      </c>
+      <c r="AA16">
+        <v>16176</v>
+      </c>
+      <c r="AB16">
+        <v>16153</v>
+      </c>
+      <c r="AC16">
+        <v>16456</v>
+      </c>
+      <c r="AD16">
+        <v>16456</v>
+      </c>
+      <c r="AE16">
+        <v>16435</v>
+      </c>
+      <c r="AF16">
+        <v>16350</v>
+      </c>
+      <c r="AG16">
+        <v>16350</v>
+      </c>
+      <c r="AH16">
+        <v>16342</v>
+      </c>
+      <c r="AI16">
+        <v>16403</v>
+      </c>
+      <c r="AJ16">
+        <v>16403</v>
+      </c>
+      <c r="AK16">
+        <v>16362</v>
+      </c>
+      <c r="AL16">
+        <v>19659</v>
+      </c>
+      <c r="AM16">
+        <v>19659</v>
+      </c>
+      <c r="AN16">
+        <v>19301</v>
+      </c>
+      <c r="AO16">
+        <v>19279</v>
+      </c>
+      <c r="AP16">
+        <v>19344</v>
+      </c>
+      <c r="AQ16">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>6554</v>
+      </c>
+      <c r="C17">
+        <v>6554</v>
+      </c>
+      <c r="D17">
+        <v>6554</v>
+      </c>
+      <c r="E17">
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>6554</v>
+      </c>
+      <c r="G17">
+        <v>6554</v>
+      </c>
+      <c r="H17">
+        <v>6554</v>
+      </c>
+      <c r="I17">
+        <v>6554</v>
+      </c>
+      <c r="J17">
+        <v>6554</v>
+      </c>
+      <c r="K17">
+        <v>6554</v>
+      </c>
+      <c r="L17">
+        <v>6554</v>
+      </c>
+      <c r="M17">
+        <v>6554</v>
+      </c>
+      <c r="N17">
+        <v>6554</v>
+      </c>
+      <c r="O17">
+        <v>6554</v>
+      </c>
+      <c r="P17">
+        <v>6554</v>
+      </c>
+      <c r="Q17">
+        <v>6199</v>
+      </c>
+      <c r="R17">
+        <v>6199</v>
+      </c>
+      <c r="S17">
+        <v>6199</v>
+      </c>
+      <c r="T17">
+        <v>6183</v>
+      </c>
+      <c r="U17">
+        <v>6183</v>
+      </c>
+      <c r="V17">
+        <v>6183</v>
+      </c>
+      <c r="W17">
+        <v>6166</v>
+      </c>
+      <c r="X17">
+        <v>6166</v>
+      </c>
+      <c r="Y17">
+        <v>6166</v>
+      </c>
+      <c r="Z17">
+        <v>5895</v>
+      </c>
+      <c r="AA17">
+        <v>5895</v>
+      </c>
+      <c r="AB17">
+        <v>5879</v>
+      </c>
+      <c r="AC17">
+        <v>6045</v>
+      </c>
+      <c r="AD17">
+        <v>6045</v>
+      </c>
+      <c r="AE17">
+        <v>6035</v>
+      </c>
+      <c r="AF17">
+        <v>6013</v>
+      </c>
+      <c r="AG17">
+        <v>6013</v>
+      </c>
+      <c r="AH17">
+        <v>6004</v>
+      </c>
+      <c r="AI17">
+        <v>6106</v>
+      </c>
+      <c r="AJ17">
+        <v>6106</v>
+      </c>
+      <c r="AK17">
+        <v>6093</v>
+      </c>
+      <c r="AL17">
+        <v>6160</v>
+      </c>
+      <c r="AM17">
+        <v>6160</v>
+      </c>
+      <c r="AN17">
+        <v>6059</v>
+      </c>
+      <c r="AO17">
+        <v>6107</v>
+      </c>
+      <c r="AP17">
+        <v>6121</v>
+      </c>
+      <c r="AQ17">
+        <v>6124</v>
       </c>
     </row>
   </sheetData>
